--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45793AEE-1D61-402D-8D93-BE70015BDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C308D44-0F87-44C6-AF04-8D6711C765E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="361">
   <si>
     <t>Name</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Bunge Ravenna</t>
-  </si>
-  <si>
     <t>Ravenna</t>
   </si>
   <si>
@@ -1103,6 +1100,9 @@
   </si>
   <si>
     <t>Salisbury, Md</t>
+  </si>
+  <si>
+    <t>Unigra</t>
   </si>
 </sst>
 </file>
@@ -1966,10 +1966,20 @@
   <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2753,16 +2763,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
         <v>98</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
       </c>
       <c r="E31">
         <v>44.417999999999999</v>
@@ -2770,8 +2780,8 @@
       <c r="F31">
         <v>12.202999999999999</v>
       </c>
-      <c r="G31" t="s">
-        <v>38</v>
+      <c r="G31">
+        <v>700000</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -2779,13 +2789,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
         <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
@@ -2805,13 +2815,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
         <v>103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
@@ -2831,16 +2841,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
         <v>105</v>
       </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
       </c>
       <c r="E34">
         <v>50.851999999999997</v>
@@ -2857,16 +2867,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
         <v>108</v>
       </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
       </c>
       <c r="E35">
         <v>48.021999999999998</v>
@@ -2883,16 +2893,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>113</v>
       </c>
       <c r="E36">
         <v>47.551000000000002</v>
@@ -2909,16 +2919,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
       </c>
       <c r="E37">
         <v>51.661000000000001</v>
@@ -2935,16 +2945,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>118</v>
-      </c>
-      <c r="D38" t="s">
-        <v>119</v>
       </c>
       <c r="E38">
         <v>45.15</v>
@@ -2961,16 +2971,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>121</v>
-      </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39">
         <v>44.438000000000002</v>
@@ -2987,16 +2997,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
         <v>122</v>
       </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
       </c>
       <c r="E40">
         <v>41.667000000000002</v>
@@ -3013,16 +3023,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
         <v>125</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>126</v>
-      </c>
-      <c r="D41" t="s">
-        <v>127</v>
       </c>
       <c r="E41">
         <v>23.03</v>
@@ -3039,16 +3049,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
         <v>128</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>129</v>
-      </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42">
         <v>30.484000000000002</v>
@@ -3065,16 +3075,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
         <v>130</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E43">
         <v>10.79</v>
@@ -3091,16 +3101,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
         <v>132</v>
       </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>134</v>
       </c>
       <c r="E44">
         <v>1.45</v>
@@ -3117,13 +3127,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
         <v>135</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
       </c>
       <c r="D45" t="s">
         <v>37</v>
@@ -3143,13 +3153,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
         <v>137</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
       </c>
       <c r="D46" t="s">
         <v>37</v>
@@ -3169,13 +3179,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
         <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
@@ -3195,13 +3205,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
       </c>
       <c r="D48" t="s">
         <v>37</v>
@@ -3221,16 +3231,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>144</v>
-      </c>
-      <c r="D49" t="s">
-        <v>145</v>
       </c>
       <c r="E49">
         <v>-26.933</v>
@@ -3247,16 +3257,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
         <v>146</v>
       </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>147</v>
-      </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50">
         <v>-23.498000000000001</v>
@@ -3273,16 +3283,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51">
         <v>-8.3729999999999993</v>
@@ -3299,16 +3309,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
         <v>150</v>
       </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
-        <v>151</v>
-      </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E52">
         <v>-7.2290000000000001</v>
@@ -3325,16 +3335,16 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
         <v>152</v>
       </c>
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" t="s">
-        <v>153</v>
-      </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53">
         <v>-12.095000000000001</v>
@@ -3351,16 +3361,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
         <v>154</v>
       </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" t="s">
-        <v>155</v>
-      </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E54">
         <v>-16.253</v>
@@ -3377,16 +3387,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" t="s">
-        <v>157</v>
-      </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>-13.821</v>
@@ -3403,16 +3413,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
         <v>158</v>
       </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" t="s">
-        <v>159</v>
-      </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56">
         <v>-16.478000000000002</v>
@@ -3429,16 +3439,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" t="s">
-        <v>161</v>
-      </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57">
         <v>-25.091999999999999</v>
@@ -3455,16 +3465,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
         <v>162</v>
       </c>
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>163</v>
-      </c>
-      <c r="D58" t="s">
-        <v>164</v>
       </c>
       <c r="E58">
         <v>-25.5</v>
@@ -3481,16 +3491,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>166</v>
-      </c>
-      <c r="D59" t="s">
-        <v>167</v>
       </c>
       <c r="E59">
         <v>-32.033999999999999</v>
@@ -3507,16 +3517,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" t="s">
-        <v>169</v>
-      </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E60">
         <v>-33.484000000000002</v>
@@ -3533,16 +3543,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
         <v>170</v>
       </c>
-      <c r="B61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" t="s">
-        <v>171</v>
-      </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E61">
         <v>-32.771999999999998</v>
@@ -3559,13 +3569,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
         <v>172</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>173</v>
       </c>
       <c r="D62" t="s">
         <v>72</v>
@@ -3580,18 +3590,18 @@
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
         <v>175</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>176</v>
       </c>
       <c r="D63" t="s">
         <v>72</v>
@@ -3606,18 +3616,18 @@
         <v>38</v>
       </c>
       <c r="H63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
         <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>178</v>
       </c>
       <c r="D64" t="s">
         <v>72</v>
@@ -3632,21 +3642,21 @@
         <v>38</v>
       </c>
       <c r="H64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
         <v>179</v>
       </c>
-      <c r="B65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>180</v>
-      </c>
-      <c r="D65" t="s">
-        <v>181</v>
       </c>
       <c r="E65">
         <v>-26.94</v>
@@ -3663,13 +3673,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
         <v>182</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>183</v>
       </c>
       <c r="D66" t="s">
         <v>44</v>
@@ -3681,7 +3691,7 @@
         <v>2.3769999999999998</v>
       </c>
       <c r="G66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -3689,13 +3699,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
         <v>185</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s">
-        <v>186</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -3715,7 +3725,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
@@ -3733,7 +3743,7 @@
         <v>2.1539999999999999</v>
       </c>
       <c r="G68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -3741,13 +3751,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
         <v>189</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>190</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
@@ -3759,15 +3769,15 @@
         <v>-6.343</v>
       </c>
       <c r="G69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
@@ -3793,13 +3803,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
         <v>49</v>
@@ -3814,18 +3824,18 @@
         <v>80</v>
       </c>
       <c r="H71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
         <v>194</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>195</v>
       </c>
       <c r="D72" t="s">
         <v>49</v>
@@ -3840,12 +3850,12 @@
         <v>80</v>
       </c>
       <c r="H72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
@@ -3871,13 +3881,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
         <v>197</v>
-      </c>
-      <c r="B74" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" t="s">
-        <v>198</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
@@ -3889,7 +3899,7 @@
         <v>23.984999999999999</v>
       </c>
       <c r="G74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H74" t="s">
         <v>59</v>
@@ -3897,13 +3907,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
         <v>197</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>198</v>
       </c>
       <c r="D75" t="s">
         <v>26</v>
@@ -3915,7 +3925,7 @@
         <v>23.984999999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H75" t="s">
         <v>59</v>
@@ -3923,13 +3933,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
         <v>200</v>
-      </c>
-      <c r="B76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" t="s">
-        <v>201</v>
       </c>
       <c r="D76" t="s">
         <v>44</v>
@@ -3949,13 +3959,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
         <v>202</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>203</v>
       </c>
       <c r="D77" t="s">
         <v>44</v>
@@ -3975,13 +3985,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
         <v>204</v>
-      </c>
-      <c r="B78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" t="s">
-        <v>205</v>
       </c>
       <c r="D78" t="s">
         <v>72</v>
@@ -4001,13 +4011,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
         <v>206</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>207</v>
       </c>
       <c r="D79" t="s">
         <v>49</v>
@@ -4027,13 +4037,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
         <v>208</v>
-      </c>
-      <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" t="s">
-        <v>209</v>
       </c>
       <c r="D80" t="s">
         <v>44</v>
@@ -4053,7 +4063,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -4079,13 +4089,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
         <v>211</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s">
-        <v>212</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
@@ -4105,13 +4115,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
         <v>213</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s">
-        <v>214</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -4131,16 +4141,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
         <v>215</v>
       </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s">
-        <v>216</v>
-      </c>
       <c r="D84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84">
         <v>1.2829999999999999</v>
@@ -4157,16 +4167,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
         <v>217</v>
       </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>218</v>
-      </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E85">
         <v>-26.213000000000001</v>
@@ -4175,7 +4185,7 @@
         <v>28.259</v>
       </c>
       <c r="G85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -4183,16 +4193,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
         <v>220</v>
       </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>221</v>
-      </c>
-      <c r="D86" t="s">
-        <v>222</v>
       </c>
       <c r="E86">
         <v>-6.2279999999999998</v>
@@ -4201,24 +4211,24 @@
         <v>155.565</v>
       </c>
       <c r="G86" t="s">
+        <v>222</v>
+      </c>
+      <c r="H86" t="s">
         <v>223</v>
-      </c>
-      <c r="H86" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
         <v>225</v>
       </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" t="s">
-        <v>226</v>
-      </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E87">
         <v>-9.4779999999999998</v>
@@ -4227,7 +4237,7 @@
         <v>147.15</v>
       </c>
       <c r="G87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -4235,13 +4245,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
         <v>227</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>228</v>
       </c>
       <c r="D88" t="s">
         <v>20</v>
@@ -4261,13 +4271,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
         <v>49</v>
@@ -4287,16 +4297,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
         <v>230</v>
       </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>231</v>
-      </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90">
         <v>50.27</v>
@@ -4313,16 +4323,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
         <v>232</v>
       </c>
-      <c r="B91" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>233</v>
-      </c>
-      <c r="D91" t="s">
-        <v>234</v>
       </c>
       <c r="E91">
         <v>50.66</v>
@@ -4339,13 +4349,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
         <v>235</v>
-      </c>
-      <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>236</v>
       </c>
       <c r="D92" t="s">
         <v>49</v>
@@ -4365,13 +4375,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
         <v>237</v>
-      </c>
-      <c r="B93" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" t="s">
-        <v>238</v>
       </c>
       <c r="D93" t="s">
         <v>49</v>
@@ -4391,16 +4401,16 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
         <v>239</v>
       </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" t="s">
-        <v>240</v>
-      </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94">
         <v>50.723999999999997</v>
@@ -4417,13 +4427,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
         <v>241</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>242</v>
       </c>
       <c r="D95" t="s">
         <v>72</v>
@@ -4435,21 +4445,21 @@
         <v>-97.147000000000006</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
         <v>244</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>245</v>
       </c>
       <c r="D96" t="s">
         <v>64</v>
@@ -4461,24 +4471,24 @@
         <v>-119.04</v>
       </c>
       <c r="G96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
         <v>246</v>
       </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>247</v>
-      </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E97">
         <v>-32.667000000000002</v>
@@ -4487,21 +4497,21 @@
         <v>-60.8</v>
       </c>
       <c r="G97" t="s">
+        <v>247</v>
+      </c>
+      <c r="H97" t="s">
         <v>248</v>
-      </c>
-      <c r="H97" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B98" t="s">
         <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" t="s">
         <v>72</v>
@@ -4516,18 +4526,18 @@
         <v>32</v>
       </c>
       <c r="H98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
         <v>251</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>252</v>
       </c>
       <c r="D99" t="s">
         <v>49</v>
@@ -4542,21 +4552,21 @@
         <v>80</v>
       </c>
       <c r="H99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
         <v>254</v>
       </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>255</v>
-      </c>
-      <c r="D100" t="s">
-        <v>256</v>
       </c>
       <c r="E100">
         <v>5.67</v>
@@ -4573,13 +4583,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>256</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
         <v>257</v>
-      </c>
-      <c r="B101" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" t="s">
-        <v>258</v>
       </c>
       <c r="D101" t="s">
         <v>64</v>
@@ -4594,18 +4604,18 @@
         <v>80</v>
       </c>
       <c r="H101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>258</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
         <v>259</v>
-      </c>
-      <c r="B102" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" t="s">
-        <v>260</v>
       </c>
       <c r="D102" t="s">
         <v>64</v>
@@ -4620,18 +4630,18 @@
         <v>38</v>
       </c>
       <c r="H102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D103" t="s">
         <v>26</v>
@@ -4643,7 +4653,7 @@
         <v>24.484999999999999</v>
       </c>
       <c r="G103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H103" t="s">
         <v>59</v>
@@ -4651,13 +4661,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D104" t="s">
         <v>26</v>
@@ -4669,7 +4679,7 @@
         <v>24.484999999999999</v>
       </c>
       <c r="G104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H104" t="s">
         <v>59</v>
@@ -4677,16 +4687,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>261</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
         <v>262</v>
       </c>
-      <c r="B105" t="s">
-        <v>24</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>263</v>
-      </c>
-      <c r="D105" t="s">
-        <v>264</v>
       </c>
       <c r="E105">
         <v>56.167000000000002</v>
@@ -4698,21 +4708,21 @@
         <v>87</v>
       </c>
       <c r="H105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>261</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
         <v>262</v>
       </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>263</v>
-      </c>
-      <c r="D106" t="s">
-        <v>264</v>
       </c>
       <c r="E106">
         <v>56.167000000000002</v>
@@ -4724,18 +4734,18 @@
         <v>87</v>
       </c>
       <c r="H106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
         <v>265</v>
-      </c>
-      <c r="B107" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" t="s">
-        <v>266</v>
       </c>
       <c r="D107" t="s">
         <v>31</v>
@@ -4747,7 +4757,7 @@
         <v>102</v>
       </c>
       <c r="G107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4755,13 +4765,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
         <v>265</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="s">
-        <v>266</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
@@ -4773,7 +4783,7 @@
         <v>102.02</v>
       </c>
       <c r="G108" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4781,7 +4791,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B109" t="s">
         <v>24</v>
@@ -4802,12 +4812,12 @@
         <v>32</v>
       </c>
       <c r="H109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
@@ -4828,21 +4838,21 @@
         <v>32</v>
       </c>
       <c r="H110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
         <v>269</v>
       </c>
-      <c r="B111" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" t="s">
-        <v>270</v>
-      </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E111">
         <v>54.281999999999996</v>
@@ -4854,21 +4864,21 @@
         <v>87</v>
       </c>
       <c r="H111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>268</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
         <v>269</v>
       </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>270</v>
-      </c>
       <c r="D112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E112">
         <v>54.281999999999996</v>
@@ -4880,18 +4890,18 @@
         <v>87</v>
       </c>
       <c r="H112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
         <v>271</v>
-      </c>
-      <c r="B113" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" t="s">
-        <v>272</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
@@ -4903,21 +4913,21 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="G113" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H113" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
         <v>271</v>
-      </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="s">
-        <v>272</v>
       </c>
       <c r="D114" t="s">
         <v>11</v>
@@ -4929,21 +4939,21 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G114" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
         <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D115" t="s">
         <v>49</v>
@@ -4958,18 +4968,18 @@
         <v>32</v>
       </c>
       <c r="H115" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D116" t="s">
         <v>49</v>
@@ -4984,21 +4994,21 @@
         <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>275</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
         <v>276</v>
       </c>
-      <c r="B117" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" t="s">
-        <v>277</v>
-      </c>
       <c r="D117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E117">
         <v>49.594000000000001</v>
@@ -5015,16 +5025,16 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>275</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
         <v>276</v>
       </c>
-      <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="s">
-        <v>277</v>
-      </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118">
         <v>49.594000000000001</v>
@@ -5041,13 +5051,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
         <v>278</v>
-      </c>
-      <c r="B119" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" t="s">
-        <v>279</v>
       </c>
       <c r="D119" t="s">
         <v>64</v>
@@ -5062,18 +5072,18 @@
         <v>32</v>
       </c>
       <c r="H119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
         <v>278</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="s">
-        <v>279</v>
       </c>
       <c r="D120" t="s">
         <v>64</v>
@@ -5088,18 +5098,18 @@
         <v>32</v>
       </c>
       <c r="H120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>279</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
         <v>280</v>
-      </c>
-      <c r="B121" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" t="s">
-        <v>281</v>
       </c>
       <c r="D121" t="s">
         <v>64</v>
@@ -5111,21 +5121,21 @@
         <v>-98.715999999999994</v>
       </c>
       <c r="G121" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>279</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
         <v>280</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>281</v>
       </c>
       <c r="D122" t="s">
         <v>64</v>
@@ -5137,21 +5147,21 @@
         <v>-98.695999999999998</v>
       </c>
       <c r="G122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>282</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
         <v>283</v>
-      </c>
-      <c r="B123" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" t="s">
-        <v>284</v>
       </c>
       <c r="D123" t="s">
         <v>26</v>
@@ -5163,7 +5173,7 @@
         <v>35.045999999999999</v>
       </c>
       <c r="G123" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H123" t="s">
         <v>28</v>
@@ -5171,13 +5181,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
         <v>283</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="s">
-        <v>284</v>
       </c>
       <c r="D124" t="s">
         <v>26</v>
@@ -5189,7 +5199,7 @@
         <v>35.066000000000003</v>
       </c>
       <c r="G124" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H124" t="s">
         <v>28</v>
@@ -5197,13 +5207,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
         <v>285</v>
-      </c>
-      <c r="B125" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" t="s">
-        <v>286</v>
       </c>
       <c r="D125" t="s">
         <v>72</v>
@@ -5223,13 +5233,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
         <v>285</v>
-      </c>
-      <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="s">
-        <v>286</v>
       </c>
       <c r="D126" t="s">
         <v>72</v>
@@ -5249,13 +5259,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" t="s">
         <v>287</v>
-      </c>
-      <c r="B127" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" t="s">
-        <v>288</v>
       </c>
       <c r="D127" t="s">
         <v>64</v>
@@ -5275,13 +5285,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>286</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
         <v>287</v>
-      </c>
-      <c r="B128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" t="s">
-        <v>288</v>
       </c>
       <c r="D128" t="s">
         <v>64</v>
@@ -5301,13 +5311,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s">
         <v>289</v>
-      </c>
-      <c r="B129" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" t="s">
-        <v>290</v>
       </c>
       <c r="D129" t="s">
         <v>64</v>
@@ -5319,7 +5329,7 @@
         <v>-95.86</v>
       </c>
       <c r="G129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -5327,13 +5337,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
         <v>289</v>
-      </c>
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>290</v>
       </c>
       <c r="D130" t="s">
         <v>64</v>
@@ -5345,7 +5355,7 @@
         <v>-95.84</v>
       </c>
       <c r="G130" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -5353,13 +5363,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
         <v>291</v>
-      </c>
-      <c r="B131" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" t="s">
-        <v>292</v>
       </c>
       <c r="D131" t="s">
         <v>64</v>
@@ -5379,13 +5389,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
         <v>291</v>
-      </c>
-      <c r="B132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" t="s">
-        <v>292</v>
       </c>
       <c r="D132" t="s">
         <v>64</v>
@@ -5405,13 +5415,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>292</v>
+      </c>
+      <c r="B133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" t="s">
         <v>293</v>
-      </c>
-      <c r="B133" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" t="s">
-        <v>294</v>
       </c>
       <c r="D133" t="s">
         <v>72</v>
@@ -5431,13 +5441,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>292</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
         <v>293</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" t="s">
-        <v>294</v>
       </c>
       <c r="D134" t="s">
         <v>72</v>
@@ -5457,13 +5467,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
         <v>295</v>
-      </c>
-      <c r="B135" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" t="s">
-        <v>296</v>
       </c>
       <c r="D135" t="s">
         <v>64</v>
@@ -5483,13 +5493,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>294</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
         <v>295</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" t="s">
-        <v>296</v>
       </c>
       <c r="D136" t="s">
         <v>64</v>
@@ -5509,13 +5519,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>296</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" t="s">
         <v>297</v>
-      </c>
-      <c r="B137" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137" t="s">
-        <v>298</v>
       </c>
       <c r="D137" t="s">
         <v>72</v>
@@ -5527,7 +5537,7 @@
         <v>-104.009</v>
       </c>
       <c r="G137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5535,13 +5545,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>296</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
         <v>297</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" t="s">
-        <v>298</v>
       </c>
       <c r="D138" t="s">
         <v>72</v>
@@ -5553,7 +5563,7 @@
         <v>-103.989</v>
       </c>
       <c r="G138" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5561,16 +5571,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" t="s">
         <v>300</v>
       </c>
-      <c r="B139" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" t="s">
-        <v>301</v>
-      </c>
       <c r="D139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E139">
         <v>52.677</v>
@@ -5587,16 +5597,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
         <v>300</v>
       </c>
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" t="s">
-        <v>301</v>
-      </c>
       <c r="D140" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E140">
         <v>52.677</v>
@@ -5613,16 +5623,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" t="s">
         <v>302</v>
       </c>
-      <c r="B141" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" t="s">
-        <v>303</v>
-      </c>
       <c r="D141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E141">
         <v>47</v>
@@ -5639,16 +5649,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>301</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
         <v>302</v>
       </c>
-      <c r="B142" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" t="s">
-        <v>303</v>
-      </c>
       <c r="D142" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E142">
         <v>47</v>
@@ -5665,16 +5675,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>303</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" t="s">
         <v>304</v>
       </c>
-      <c r="B143" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>305</v>
-      </c>
-      <c r="D143" t="s">
-        <v>306</v>
       </c>
       <c r="E143">
         <v>38.423000000000002</v>
@@ -5691,16 +5701,16 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>303</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
         <v>304</v>
       </c>
-      <c r="B144" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>305</v>
-      </c>
-      <c r="D144" t="s">
-        <v>306</v>
       </c>
       <c r="E144">
         <v>38.423000000000002</v>
@@ -5717,16 +5727,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>306</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" t="s">
         <v>307</v>
       </c>
-      <c r="B145" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>308</v>
-      </c>
-      <c r="D145" t="s">
-        <v>309</v>
       </c>
       <c r="E145">
         <v>10.585000000000001</v>
@@ -5743,16 +5753,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
         <v>307</v>
       </c>
-      <c r="B146" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>308</v>
-      </c>
-      <c r="D146" t="s">
-        <v>309</v>
       </c>
       <c r="E146">
         <v>10.585000000000001</v>
@@ -5769,13 +5779,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>309</v>
+      </c>
+      <c r="B147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
         <v>310</v>
-      </c>
-      <c r="B147" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" t="s">
-        <v>311</v>
       </c>
       <c r="D147" t="s">
         <v>37</v>
@@ -5795,13 +5805,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>309</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
         <v>310</v>
-      </c>
-      <c r="B148" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" t="s">
-        <v>311</v>
       </c>
       <c r="D148" t="s">
         <v>37</v>
@@ -5821,16 +5831,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>311</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" t="s">
         <v>312</v>
       </c>
-      <c r="B149" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" t="s">
-        <v>313</v>
-      </c>
       <c r="D149" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E149">
         <v>-32.93</v>
@@ -5847,16 +5857,16 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>311</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
         <v>312</v>
       </c>
-      <c r="B150" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" t="s">
-        <v>313</v>
-      </c>
       <c r="D150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E150">
         <v>-32.93</v>
@@ -5873,16 +5883,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>313</v>
+      </c>
+      <c r="B151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
         <v>314</v>
       </c>
-      <c r="B151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" t="s">
-        <v>315</v>
-      </c>
       <c r="D151" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E151">
         <v>-32.716000000000001</v>
@@ -5899,16 +5909,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
         <v>314</v>
       </c>
-      <c r="B152" t="s">
-        <v>9</v>
-      </c>
-      <c r="C152" t="s">
-        <v>315</v>
-      </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E152">
         <v>-32.716000000000001</v>
@@ -5925,16 +5935,16 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" t="s">
         <v>316</v>
       </c>
-      <c r="B153" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>317</v>
-      </c>
-      <c r="D153" t="s">
-        <v>318</v>
       </c>
       <c r="E153">
         <v>55.674999999999997</v>
@@ -5951,16 +5961,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>315</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
         <v>316</v>
       </c>
-      <c r="B154" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>317</v>
-      </c>
-      <c r="D154" t="s">
-        <v>318</v>
       </c>
       <c r="E154">
         <v>55.674999999999997</v>
@@ -5977,16 +5987,16 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
         <v>319</v>
       </c>
-      <c r="B155" t="s">
-        <v>24</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>320</v>
-      </c>
-      <c r="D155" t="s">
-        <v>321</v>
       </c>
       <c r="E155">
         <v>6.4649999999999999</v>
@@ -6003,16 +6013,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
         <v>319</v>
       </c>
-      <c r="B156" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>320</v>
-      </c>
-      <c r="D156" t="s">
-        <v>321</v>
       </c>
       <c r="E156">
         <v>6.4649999999999999</v>
@@ -6029,13 +6039,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" t="s">
         <v>322</v>
-      </c>
-      <c r="B157" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" t="s">
-        <v>323</v>
       </c>
       <c r="D157" t="s">
         <v>49</v>
@@ -6050,18 +6060,18 @@
         <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>321</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
         <v>322</v>
-      </c>
-      <c r="B158" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" t="s">
-        <v>323</v>
       </c>
       <c r="D158" t="s">
         <v>49</v>
@@ -6076,18 +6086,18 @@
         <v>32</v>
       </c>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>323</v>
+      </c>
+      <c r="B159" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" t="s">
         <v>324</v>
-      </c>
-      <c r="B159" t="s">
-        <v>24</v>
-      </c>
-      <c r="C159" t="s">
-        <v>325</v>
       </c>
       <c r="D159" t="s">
         <v>44</v>
@@ -6102,18 +6112,18 @@
         <v>32</v>
       </c>
       <c r="H159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
         <v>324</v>
-      </c>
-      <c r="B160" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160" t="s">
-        <v>325</v>
       </c>
       <c r="D160" t="s">
         <v>44</v>
@@ -6128,18 +6138,18 @@
         <v>32</v>
       </c>
       <c r="H160" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" t="s">
         <v>326</v>
-      </c>
-      <c r="B161" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" t="s">
-        <v>327</v>
       </c>
       <c r="D161" t="s">
         <v>44</v>
@@ -6154,18 +6164,18 @@
         <v>38</v>
       </c>
       <c r="H161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" t="s">
         <v>326</v>
-      </c>
-      <c r="B162" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" t="s">
-        <v>327</v>
       </c>
       <c r="D162" t="s">
         <v>44</v>
@@ -6180,18 +6190,18 @@
         <v>38</v>
       </c>
       <c r="H162" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
         <v>328</v>
-      </c>
-      <c r="B163" t="s">
-        <v>24</v>
-      </c>
-      <c r="C163" t="s">
-        <v>329</v>
       </c>
       <c r="D163" t="s">
         <v>44</v>
@@ -6203,21 +6213,21 @@
         <v>-0.53500000000000003</v>
       </c>
       <c r="G163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>327</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" t="s">
         <v>328</v>
-      </c>
-      <c r="B164" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" t="s">
-        <v>329</v>
       </c>
       <c r="D164" t="s">
         <v>44</v>
@@ -6229,21 +6239,21 @@
         <v>-0.51500000000000001</v>
       </c>
       <c r="G164" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H164" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" t="s">
         <v>331</v>
-      </c>
-      <c r="B165" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" t="s">
-        <v>332</v>
       </c>
       <c r="D165" t="s">
         <v>44</v>
@@ -6255,21 +6265,21 @@
         <v>3.7080000000000002</v>
       </c>
       <c r="G165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
         <v>331</v>
-      </c>
-      <c r="B166" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166" t="s">
-        <v>332</v>
       </c>
       <c r="D166" t="s">
         <v>44</v>
@@ -6281,21 +6291,21 @@
         <v>3.7280000000000002</v>
       </c>
       <c r="G166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H166" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
         <v>333</v>
-      </c>
-      <c r="B167" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" t="s">
-        <v>334</v>
       </c>
       <c r="D167" t="s">
         <v>53</v>
@@ -6307,21 +6317,21 @@
         <v>25.338999999999999</v>
       </c>
       <c r="G167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" t="s">
         <v>333</v>
-      </c>
-      <c r="B168" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" t="s">
-        <v>334</v>
       </c>
       <c r="D168" t="s">
         <v>53</v>
@@ -6333,21 +6343,21 @@
         <v>25.359000000000002</v>
       </c>
       <c r="G168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" t="s">
         <v>335</v>
-      </c>
-      <c r="B169" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" t="s">
-        <v>336</v>
       </c>
       <c r="D169" t="s">
         <v>20</v>
@@ -6359,7 +6369,7 @@
         <v>-3.7749999999999999</v>
       </c>
       <c r="G169" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H169" t="s">
         <v>28</v>
@@ -6367,13 +6377,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" t="s">
         <v>335</v>
-      </c>
-      <c r="B170" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" t="s">
-        <v>336</v>
       </c>
       <c r="D170" t="s">
         <v>20</v>
@@ -6385,7 +6395,7 @@
         <v>-3.7549999999999999</v>
       </c>
       <c r="G170" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H170" t="s">
         <v>28</v>
@@ -6393,13 +6403,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
         <v>338</v>
-      </c>
-      <c r="B171" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" t="s">
-        <v>339</v>
       </c>
       <c r="D171" t="s">
         <v>20</v>
@@ -6411,21 +6421,21 @@
         <v>-4.6879999999999997</v>
       </c>
       <c r="G171" t="s">
+        <v>339</v>
+      </c>
+      <c r="H171" t="s">
         <v>340</v>
-      </c>
-      <c r="H171" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
         <v>338</v>
-      </c>
-      <c r="B172" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" t="s">
-        <v>339</v>
       </c>
       <c r="D172" t="s">
         <v>20</v>
@@ -6437,21 +6447,21 @@
         <v>-4.6680000000000001</v>
       </c>
       <c r="G172" t="s">
+        <v>339</v>
+      </c>
+      <c r="H172" t="s">
         <v>340</v>
-      </c>
-      <c r="H172" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
         <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D173" t="s">
         <v>26</v>
@@ -6463,7 +6473,7 @@
         <v>34.582999999999998</v>
       </c>
       <c r="G173" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H173" t="s">
         <v>28</v>
@@ -6471,13 +6481,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D174" t="s">
         <v>26</v>
@@ -6489,7 +6499,7 @@
         <v>34.603000000000002</v>
       </c>
       <c r="G174" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H174" t="s">
         <v>28</v>
@@ -6497,13 +6507,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B175" t="s">
         <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D175" t="s">
         <v>26</v>
@@ -6515,21 +6525,21 @@
         <v>34.582999999999998</v>
       </c>
       <c r="G175" t="s">
+        <v>343</v>
+      </c>
+      <c r="H175" t="s">
         <v>344</v>
-      </c>
-      <c r="H175" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
         <v>26</v>
@@ -6541,24 +6551,24 @@
         <v>34.603000000000002</v>
       </c>
       <c r="G176" t="s">
+        <v>343</v>
+      </c>
+      <c r="H176" t="s">
         <v>344</v>
-      </c>
-      <c r="H176" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>345</v>
+      </c>
+      <c r="B177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" t="s">
         <v>346</v>
       </c>
-      <c r="B177" t="s">
-        <v>24</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>347</v>
-      </c>
-      <c r="D177" t="s">
-        <v>348</v>
       </c>
       <c r="E177">
         <v>50.981000000000002</v>
@@ -6575,16 +6585,16 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>345</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" t="s">
         <v>346</v>
       </c>
-      <c r="B178" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>347</v>
-      </c>
-      <c r="D178" t="s">
-        <v>348</v>
       </c>
       <c r="E178">
         <v>50.981000000000002</v>
@@ -6601,13 +6611,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
         <v>349</v>
-      </c>
-      <c r="B179" t="s">
-        <v>24</v>
-      </c>
-      <c r="C179" t="s">
-        <v>350</v>
       </c>
       <c r="D179" t="s">
         <v>64</v>
@@ -6619,21 +6629,21 @@
         <v>-88.927999999999997</v>
       </c>
       <c r="G179" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H179" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" t="s">
         <v>349</v>
-      </c>
-      <c r="B180" t="s">
-        <v>9</v>
-      </c>
-      <c r="C180" t="s">
-        <v>350</v>
       </c>
       <c r="D180" t="s">
         <v>64</v>
@@ -6645,21 +6655,21 @@
         <v>-88.908000000000001</v>
       </c>
       <c r="G180" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H180" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" t="s">
         <v>352</v>
-      </c>
-      <c r="B181" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" t="s">
-        <v>353</v>
       </c>
       <c r="D181" t="s">
         <v>64</v>
@@ -6671,21 +6681,21 @@
         <v>-85.884</v>
       </c>
       <c r="G181" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H181" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" t="s">
         <v>352</v>
-      </c>
-      <c r="B182" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" t="s">
-        <v>353</v>
       </c>
       <c r="D182" t="s">
         <v>64</v>
@@ -6697,21 +6707,21 @@
         <v>-85.864000000000004</v>
       </c>
       <c r="G182" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>354</v>
+      </c>
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" t="s">
         <v>355</v>
-      </c>
-      <c r="B183" t="s">
-        <v>24</v>
-      </c>
-      <c r="C183" t="s">
-        <v>356</v>
       </c>
       <c r="D183" t="s">
         <v>44</v>
@@ -6723,21 +6733,21 @@
         <v>-4.49</v>
       </c>
       <c r="G183" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H183" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>354</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" t="s">
         <v>355</v>
-      </c>
-      <c r="B184" t="s">
-        <v>9</v>
-      </c>
-      <c r="C184" t="s">
-        <v>356</v>
       </c>
       <c r="D184" t="s">
         <v>44</v>
@@ -6749,21 +6759,21 @@
         <v>-4.47</v>
       </c>
       <c r="G184" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>356</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
         <v>357</v>
-      </c>
-      <c r="B185" t="s">
-        <v>24</v>
-      </c>
-      <c r="C185" t="s">
-        <v>358</v>
       </c>
       <c r="D185" t="s">
         <v>64</v>
@@ -6775,21 +6785,21 @@
         <v>-94.009</v>
       </c>
       <c r="G185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H185" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>356</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
         <v>357</v>
-      </c>
-      <c r="B186" t="s">
-        <v>9</v>
-      </c>
-      <c r="C186" t="s">
-        <v>358</v>
       </c>
       <c r="D186" t="s">
         <v>64</v>
@@ -6801,21 +6811,21 @@
         <v>-93.989000000000004</v>
       </c>
       <c r="G186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H186" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>358</v>
+      </c>
+      <c r="B187" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" t="s">
         <v>359</v>
-      </c>
-      <c r="B187" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187" t="s">
-        <v>360</v>
       </c>
       <c r="D187" t="s">
         <v>64</v>
@@ -6830,18 +6840,18 @@
         <v>77</v>
       </c>
       <c r="H187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>358</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
         <v>359</v>
-      </c>
-      <c r="B188" t="s">
-        <v>9</v>
-      </c>
-      <c r="C188" t="s">
-        <v>360</v>
       </c>
       <c r="D188" t="s">
         <v>64</v>
@@ -6856,7 +6866,7 @@
         <v>77</v>
       </c>
       <c r="H188" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C308D44-0F87-44C6-AF04-8D6711C765E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D464DB-10B8-4800-BEE7-450680F34C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="30765" yWindow="3150" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="365">
   <si>
     <t>Name</t>
   </si>
@@ -1103,6 +1103,18 @@
   </si>
   <si>
     <t>Unigra</t>
+  </si>
+  <si>
+    <t>Elevator Bud Invest</t>
+  </si>
+  <si>
+    <t>Khmelnytskyi</t>
+  </si>
+  <si>
+    <t>Rapeseed</t>
+  </si>
+  <si>
+    <t>Soybean</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6736,7 +6748,7 @@
         <v>266</v>
       </c>
       <c r="H183" t="s">
-        <v>173</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6788,7 +6800,7 @@
         <v>187</v>
       </c>
       <c r="H185" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6840,7 +6852,7 @@
         <v>77</v>
       </c>
       <c r="H187" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6867,6 +6879,32 @@
       </c>
       <c r="H188" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>361</v>
+      </c>
+      <c r="B189" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" t="s">
+        <v>362</v>
+      </c>
+      <c r="D189" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189">
+        <v>49.670999999999999</v>
+      </c>
+      <c r="F189">
+        <v>27.666</v>
+      </c>
+      <c r="G189" t="s">
+        <v>38</v>
+      </c>
+      <c r="H189" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D464DB-10B8-4800-BEE7-450680F34C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01589B8C-3DDF-455E-B4F6-94D70F30E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30765" yWindow="3150" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="365">
   <si>
     <t>Name</t>
   </si>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
   <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,8 +2792,8 @@
       <c r="F31">
         <v>12.202999999999999</v>
       </c>
-      <c r="G31">
-        <v>700000</v>
+      <c r="G31" t="s">
+        <v>187</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01589B8C-3DDF-455E-B4F6-94D70F30E139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D30F9-5973-4771-999D-AAD9734F5A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30765" yWindow="3150" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="390">
   <si>
     <t>Name</t>
   </si>
@@ -1115,6 +1115,81 @@
   </si>
   <si>
     <t>Soybean</t>
+  </si>
+  <si>
+    <t>Golden Agri Tarjun</t>
+  </si>
+  <si>
+    <t>Golden Agri Tarahan</t>
+  </si>
+  <si>
+    <t>Olmeca Fraijanes</t>
+  </si>
+  <si>
+    <t>Grupo HAME Santa Rosa Palmistería</t>
+  </si>
+  <si>
+    <t>Daabon Santa Marta</t>
+  </si>
+  <si>
+    <t>Hondupalma Guaymas</t>
+  </si>
+  <si>
+    <t>Naturaceites Escuintla</t>
+  </si>
+  <si>
+    <t>Grupo Oleomex Oleofinos</t>
+  </si>
+  <si>
+    <t>Industrial Danec Quito</t>
+  </si>
+  <si>
+    <t>La Fabril Montecristi</t>
+  </si>
+  <si>
+    <t>Shell Rock Soy Processing</t>
+  </si>
+  <si>
+    <t>ADM/Marathon Spiritwood</t>
+  </si>
+  <si>
+    <t>Vegetable oil refinery</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Crushing plant</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Tarjun</t>
+  </si>
+  <si>
+    <t>Tarahan</t>
+  </si>
+  <si>
+    <t>330,000 MT</t>
+  </si>
+  <si>
+    <t>112,000 MT</t>
+  </si>
+  <si>
+    <t>80,000 MT</t>
+  </si>
+  <si>
+    <t>CPO/PKO</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,6 +6982,311 @@
         <v>364</v>
       </c>
     </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>365</v>
+      </c>
+      <c r="B190" t="s">
+        <v>377</v>
+      </c>
+      <c r="C190" t="s">
+        <v>384</v>
+      </c>
+      <c r="D190" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190">
+        <v>-3.2719999999999998</v>
+      </c>
+      <c r="F190">
+        <v>116.11799999999999</v>
+      </c>
+      <c r="G190" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>366</v>
+      </c>
+      <c r="B191" t="s">
+        <v>377</v>
+      </c>
+      <c r="C191" t="s">
+        <v>385</v>
+      </c>
+      <c r="D191" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191">
+        <v>-5.5540000000000003</v>
+      </c>
+      <c r="F191">
+        <v>105.372</v>
+      </c>
+      <c r="G191" t="s">
+        <v>80</v>
+      </c>
+      <c r="H191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>367</v>
+      </c>
+      <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="D192" t="s">
+        <v>378</v>
+      </c>
+      <c r="E192">
+        <v>14.539</v>
+      </c>
+      <c r="F192">
+        <v>-90.451999999999998</v>
+      </c>
+      <c r="G192" t="s">
+        <v>87</v>
+      </c>
+      <c r="H192" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>368</v>
+      </c>
+      <c r="B193" t="s">
+        <v>379</v>
+      </c>
+      <c r="D193" t="s">
+        <v>378</v>
+      </c>
+      <c r="E193">
+        <v>14.24</v>
+      </c>
+      <c r="F193">
+        <v>-91.376000000000005</v>
+      </c>
+      <c r="G193" t="s">
+        <v>388</v>
+      </c>
+      <c r="H193" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>369</v>
+      </c>
+      <c r="B194" t="s">
+        <v>377</v>
+      </c>
+      <c r="D194" t="s">
+        <v>380</v>
+      </c>
+      <c r="E194">
+        <v>11.242000000000001</v>
+      </c>
+      <c r="F194">
+        <v>-74.204999999999998</v>
+      </c>
+      <c r="G194" t="s">
+        <v>386</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>370</v>
+      </c>
+      <c r="B195" t="s">
+        <v>377</v>
+      </c>
+      <c r="D195" t="s">
+        <v>381</v>
+      </c>
+      <c r="E195">
+        <v>15.56</v>
+      </c>
+      <c r="F195">
+        <v>-87.75</v>
+      </c>
+      <c r="G195" t="s">
+        <v>387</v>
+      </c>
+      <c r="H195" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>371</v>
+      </c>
+      <c r="B196" t="s">
+        <v>377</v>
+      </c>
+      <c r="D196" t="s">
+        <v>378</v>
+      </c>
+      <c r="E196">
+        <v>14.305</v>
+      </c>
+      <c r="F196">
+        <v>-90.784999999999997</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>372</v>
+      </c>
+      <c r="B197" t="s">
+        <v>377</v>
+      </c>
+      <c r="D197" t="s">
+        <v>382</v>
+      </c>
+      <c r="E197">
+        <v>20.658999999999999</v>
+      </c>
+      <c r="F197">
+        <v>-103.349</v>
+      </c>
+      <c r="G197" t="s">
+        <v>38</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>373</v>
+      </c>
+      <c r="B198" t="s">
+        <v>377</v>
+      </c>
+      <c r="D198" t="s">
+        <v>383</v>
+      </c>
+      <c r="E198">
+        <v>-0.33</v>
+      </c>
+      <c r="F198">
+        <v>-78.45</v>
+      </c>
+      <c r="G198" t="s">
+        <v>87</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B199" t="s">
+        <v>377</v>
+      </c>
+      <c r="D199" t="s">
+        <v>383</v>
+      </c>
+      <c r="E199">
+        <v>-1.05</v>
+      </c>
+      <c r="F199">
+        <v>-80.683000000000007</v>
+      </c>
+      <c r="G199" t="s">
+        <v>58</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>375</v>
+      </c>
+      <c r="B200" t="s">
+        <v>379</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200">
+        <v>42.709000000000003</v>
+      </c>
+      <c r="F200">
+        <v>-92.581999999999994</v>
+      </c>
+      <c r="G200" t="s">
+        <v>32</v>
+      </c>
+      <c r="H200" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>376</v>
+      </c>
+      <c r="B201" t="s">
+        <v>379</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201">
+        <v>46.927</v>
+      </c>
+      <c r="F201">
+        <v>-98.6</v>
+      </c>
+      <c r="G201" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>171</v>
+      </c>
+      <c r="B202" t="s">
+        <v>379</v>
+      </c>
+      <c r="D202" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202">
+        <v>50.445</v>
+      </c>
+      <c r="F202">
+        <v>-104.619</v>
+      </c>
+      <c r="G202" t="s">
+        <v>32</v>
+      </c>
+      <c r="H202" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D30F9-5973-4771-999D-AAD9734F5A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50BE1F41-1043-4BFE-89A5-45B8BB1DC44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">facilities!$A$1:$H$256</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="506">
   <si>
     <t>Name</t>
   </si>
@@ -46,9 +49,6 @@
     <t>Commodity</t>
   </si>
   <si>
-    <t>Aak Hull</t>
-  </si>
-  <si>
     <t>Refinery</t>
   </si>
   <si>
@@ -64,9 +64,6 @@
     <t>Vegetable Oil</t>
   </si>
   <si>
-    <t>Aak Maasrefinery</t>
-  </si>
-  <si>
     <t>Rotterdam</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>SFO, OLIVE</t>
   </si>
   <si>
-    <t>Delta Wilmar Allseeds Yuzhny</t>
-  </si>
-  <si>
     <t>Crushing Plant</t>
   </si>
   <si>
@@ -148,24 +142,15 @@
     <t>1,200,000 MT</t>
   </si>
   <si>
-    <t>Adm Arras</t>
-  </si>
-  <si>
     <t>Arras</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
-    <t>Adm Chornomorsk</t>
-  </si>
-  <si>
     <t>Chornomorsk</t>
   </si>
   <si>
-    <t>Adm Mainz</t>
-  </si>
-  <si>
     <t>Mainz</t>
   </si>
   <si>
@@ -556,9 +541,6 @@
     <t>Clavet, Sk</t>
   </si>
   <si>
-    <t>Cofco International Standerton</t>
-  </si>
-  <si>
     <t>Standerton</t>
   </si>
   <si>
@@ -586,9 +568,6 @@
     <t>700,000 MT</t>
   </si>
   <si>
-    <t>Lipsa Frontera</t>
-  </si>
-  <si>
     <t>Frontera</t>
   </si>
   <si>
@@ -769,9 +748,6 @@
     <t>SBO</t>
   </si>
   <si>
-    <t>Louis Dreyfus Company Yorkton</t>
-  </si>
-  <si>
     <t>Wilmar International Brake</t>
   </si>
   <si>
@@ -805,9 +781,6 @@
     <t>Oliyar Stavchany (Alt)</t>
   </si>
   <si>
-    <t>Aak Karlshamn</t>
-  </si>
-  <si>
     <t>Karlshamn</t>
   </si>
   <si>
@@ -823,45 +796,24 @@
     <t>600,000 MT</t>
   </si>
   <si>
-    <t>Adm Europoort Plant</t>
-  </si>
-  <si>
-    <t>Adm Czernin</t>
-  </si>
-  <si>
     <t>Czernin</t>
   </si>
   <si>
-    <t>Adm Erith</t>
-  </si>
-  <si>
     <t>Erith</t>
   </si>
   <si>
     <t>385,000 MT</t>
   </si>
   <si>
-    <t>Adm Hamburg</t>
-  </si>
-  <si>
     <t>SBO, RSO</t>
   </si>
   <si>
-    <t>Adm Olomouc</t>
-  </si>
-  <si>
     <t>Olomouc</t>
   </si>
   <si>
-    <t>Adm Quincy, Il</t>
-  </si>
-  <si>
     <t>Quincy, Il</t>
   </si>
   <si>
-    <t>Adm Spiritwood</t>
-  </si>
-  <si>
     <t>Spiritwood, Nd</t>
   </si>
   <si>
@@ -1051,12 +1003,6 @@
     <t>61,000 MT</t>
   </si>
   <si>
-    <t>7,000 MT</t>
-  </si>
-  <si>
-    <t>SFO BIO</t>
-  </si>
-  <si>
     <t>Van Damme Deinze</t>
   </si>
   <si>
@@ -1066,27 +1012,18 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Adm Decatur</t>
-  </si>
-  <si>
     <t>Decatur, Il</t>
   </si>
   <si>
     <t>2,000,000 MT</t>
   </si>
   <si>
-    <t>Louis Dreyfus Company Claypool</t>
-  </si>
-  <si>
     <t>Claypool, In</t>
   </si>
   <si>
     <t>1,300,000 MT</t>
   </si>
   <si>
-    <t>Louis Dreyfus Company Brest</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
@@ -1126,9 +1063,6 @@
     <t>Olmeca Fraijanes</t>
   </si>
   <si>
-    <t>Grupo HAME Santa Rosa Palmistería</t>
-  </si>
-  <si>
     <t>Daabon Santa Marta</t>
   </si>
   <si>
@@ -1138,9 +1072,6 @@
     <t>Naturaceites Escuintla</t>
   </si>
   <si>
-    <t>Grupo Oleomex Oleofinos</t>
-  </si>
-  <si>
     <t>Industrial Danec Quito</t>
   </si>
   <si>
@@ -1150,12 +1081,6 @@
     <t>Shell Rock Soy Processing</t>
   </si>
   <si>
-    <t>ADM/Marathon Spiritwood</t>
-  </si>
-  <si>
-    <t>Vegetable oil refinery</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -1190,6 +1115,432 @@
   </si>
   <si>
     <t>CPO/PKO</t>
+  </si>
+  <si>
+    <t>Renova Quequén</t>
+  </si>
+  <si>
+    <t>Quequén</t>
+  </si>
+  <si>
+    <t>Oleaginosa Moreno Daireaux</t>
+  </si>
+  <si>
+    <t>Daireaux</t>
+  </si>
+  <si>
+    <t>Ingredion Chacabuco</t>
+  </si>
+  <si>
+    <t>Chacabuco</t>
+  </si>
+  <si>
+    <t>Sunflower seed</t>
+  </si>
+  <si>
+    <t>Arcor San Pedro</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>COFCO Saforcada</t>
+  </si>
+  <si>
+    <t>Saforcada</t>
+  </si>
+  <si>
+    <t>Cargill Ing. White</t>
+  </si>
+  <si>
+    <t>Bahía Blanca</t>
+  </si>
+  <si>
+    <t>Molinos Cañuelas Cañuelas</t>
+  </si>
+  <si>
+    <t>Cañuelas</t>
+  </si>
+  <si>
+    <t>ProtOil 9 de Julio</t>
+  </si>
+  <si>
+    <t>Nueve de Julio</t>
+  </si>
+  <si>
+    <t>Germaiz Baradero</t>
+  </si>
+  <si>
+    <t>Baradero</t>
+  </si>
+  <si>
+    <t>Oleaginosa Huanguelén</t>
+  </si>
+  <si>
+    <t>Huanguelén</t>
+  </si>
+  <si>
+    <t>Siete Soles Salto</t>
+  </si>
+  <si>
+    <t>Salto</t>
+  </si>
+  <si>
+    <t>Molino Navarro Villa Madero</t>
+  </si>
+  <si>
+    <t>Villa Madero (CABA)</t>
+  </si>
+  <si>
+    <t>Supra Lanús</t>
+  </si>
+  <si>
+    <t>Lanús (CABA)</t>
+  </si>
+  <si>
+    <t>Dreyfus General Cabrera</t>
+  </si>
+  <si>
+    <t>Gral. Cabrera</t>
+  </si>
+  <si>
+    <t>Alimentos Santa Rosa Río Cuarto</t>
+  </si>
+  <si>
+    <t>Río Cuarto</t>
+  </si>
+  <si>
+    <t>Oleaginosa Deheza Gral. Deheza</t>
+  </si>
+  <si>
+    <t>General Deheza</t>
+  </si>
+  <si>
+    <t>Nat. Aceitera Tío Pujio</t>
+  </si>
+  <si>
+    <t>Tío Pujio</t>
+  </si>
+  <si>
+    <t>Bio-Com Pilar</t>
+  </si>
+  <si>
+    <t>Pilar (Córdoba)</t>
+  </si>
+  <si>
+    <t>Aceitera de la Pampa Catriló</t>
+  </si>
+  <si>
+    <t>Catriló</t>
+  </si>
+  <si>
+    <t>CIDASA Tartagal</t>
+  </si>
+  <si>
+    <t>Tartagal</t>
+  </si>
+  <si>
+    <t>El Río Aceites Nogoyá</t>
+  </si>
+  <si>
+    <t>Nogoyá</t>
+  </si>
+  <si>
+    <t>Aceitera del Litoral Paraná</t>
+  </si>
+  <si>
+    <t>Paraná</t>
+  </si>
+  <si>
+    <t>Entre Ríos Crushing Gualeguaychú</t>
+  </si>
+  <si>
+    <t>Gualeguaychú</t>
+  </si>
+  <si>
+    <t>Viluco Frías</t>
+  </si>
+  <si>
+    <t>Frías</t>
+  </si>
+  <si>
+    <t>Molinos Agro San Lorenzo</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Saipol Setè</t>
+  </si>
+  <si>
+    <t>ADM Straubing</t>
+  </si>
+  <si>
+    <t>Straubing</t>
+  </si>
+  <si>
+    <t>Cargill Montoir</t>
+  </si>
+  <si>
+    <t>Montoir-de-Bretagne</t>
+  </si>
+  <si>
+    <t>ADM Mainz</t>
+  </si>
+  <si>
+    <t>Cargill Amsterdam</t>
+  </si>
+  <si>
+    <t>ADM Europoort</t>
+  </si>
+  <si>
+    <t>Saipol Montoir</t>
+  </si>
+  <si>
+    <t>Bunge Lelystad</t>
+  </si>
+  <si>
+    <t>Lelystad</t>
+  </si>
+  <si>
+    <t>Bunge Lezajsk</t>
+  </si>
+  <si>
+    <t>Leżajsk</t>
+  </si>
+  <si>
+    <t>ADM Szamotuły</t>
+  </si>
+  <si>
+    <t>Szamotuły</t>
+  </si>
+  <si>
+    <t>Glencore Foktő</t>
+  </si>
+  <si>
+    <t>Foktő</t>
+  </si>
+  <si>
+    <t>Bunge Martfű</t>
+  </si>
+  <si>
+    <t>Martfű</t>
+  </si>
+  <si>
+    <t>Bunge Bucharest</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>Expur Slobozia</t>
+  </si>
+  <si>
+    <t>Slobozia</t>
+  </si>
+  <si>
+    <t>Lehliu Gară</t>
+  </si>
+  <si>
+    <t>Valea Voievozilor</t>
+  </si>
+  <si>
+    <t>Oliva AD Provadia</t>
+  </si>
+  <si>
+    <t>Provadia</t>
+  </si>
+  <si>
+    <t>Kernel Poltava</t>
+  </si>
+  <si>
+    <t>Poltava</t>
+  </si>
+  <si>
+    <t>Kernel Bandurka</t>
+  </si>
+  <si>
+    <t>Bandurka</t>
+  </si>
+  <si>
+    <t>Kernel Starokostiantyniv</t>
+  </si>
+  <si>
+    <t>Starokostiantyniv</t>
+  </si>
+  <si>
+    <t>Cargill Kakhovka</t>
+  </si>
+  <si>
+    <t>Kakhovka</t>
+  </si>
+  <si>
+    <t>Allseeds Yuzhne</t>
+  </si>
+  <si>
+    <t>Yuzhne</t>
+  </si>
+  <si>
+    <t>ViOil Vinnytsia</t>
+  </si>
+  <si>
+    <t>Vinnytsia</t>
+  </si>
+  <si>
+    <t>ADM Spyck</t>
+  </si>
+  <si>
+    <t>Straubing-Sand</t>
+  </si>
+  <si>
+    <t>Bunge Dâmbovița</t>
+  </si>
+  <si>
+    <t>990,000 MT</t>
+  </si>
+  <si>
+    <t>429,000 MT</t>
+  </si>
+  <si>
+    <t>49,500 MT</t>
+  </si>
+  <si>
+    <t>39,600 MT</t>
+  </si>
+  <si>
+    <t>198,000 MT</t>
+  </si>
+  <si>
+    <t>132,000 MT</t>
+  </si>
+  <si>
+    <t>495,000 MT</t>
+  </si>
+  <si>
+    <t>165,000 MT</t>
+  </si>
+  <si>
+    <t>33,000 MT</t>
+  </si>
+  <si>
+    <t>99,000 MT</t>
+  </si>
+  <si>
+    <t>Corn seed</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>231,000 MT</t>
+  </si>
+  <si>
+    <t>24,750 MT</t>
+  </si>
+  <si>
+    <t>264,000 MT</t>
+  </si>
+  <si>
+    <t>1,485,000 MT</t>
+  </si>
+  <si>
+    <t>13,200 MT</t>
+  </si>
+  <si>
+    <t>6,600,000 MT</t>
+  </si>
+  <si>
+    <t>1,100,000 MT</t>
+  </si>
+  <si>
+    <t>1,600,000 MT</t>
+  </si>
+  <si>
+    <t>400,000 MT</t>
+  </si>
+  <si>
+    <t>2,200,000 MT</t>
+  </si>
+  <si>
+    <t>2,400,000 MT</t>
+  </si>
+  <si>
+    <t>SFO, SFO Bio</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Guatemala City</t>
+  </si>
+  <si>
+    <t>Rapeseed, Sunflower seed</t>
+  </si>
+  <si>
+    <t>Shell Rock, IA</t>
+  </si>
+  <si>
+    <t>AAK Hull</t>
+  </si>
+  <si>
+    <t>AAK Karlshamn</t>
+  </si>
+  <si>
+    <t>AAK Maasrefinery</t>
+  </si>
+  <si>
+    <t>ADM Arras</t>
+  </si>
+  <si>
+    <t>ADM Chornomorsk</t>
+  </si>
+  <si>
+    <t>ADM Czernin</t>
+  </si>
+  <si>
+    <t>ADM Decatur</t>
+  </si>
+  <si>
+    <t>ADM Erith</t>
+  </si>
+  <si>
+    <t>ADM Europoort Plant</t>
+  </si>
+  <si>
+    <t>ADM Hamburg</t>
+  </si>
+  <si>
+    <t>ADM Olomouc</t>
+  </si>
+  <si>
+    <t>ADM Quincy, Il</t>
+  </si>
+  <si>
+    <t>ADM Spiritwood</t>
+  </si>
+  <si>
+    <t>COFCO Standerton</t>
+  </si>
+  <si>
+    <t>Delta Wilmar Allseeds</t>
+  </si>
+  <si>
+    <t>Grupo HAME Santa Rosa</t>
+  </si>
+  <si>
+    <t>Oleofinos</t>
+  </si>
+  <si>
+    <t>Lipsa Huelva</t>
+  </si>
+  <si>
+    <t>LDC Brest</t>
+  </si>
+  <si>
+    <t>LDC Claypool</t>
+  </si>
+  <si>
+    <t>LDC Yorkton</t>
   </si>
 </sst>
 </file>
@@ -1673,8 +2024,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2050,15 +2404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -2096,16 +2448,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>53.744</v>
@@ -2114,5180 +2466,6597 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="E3">
-        <v>51.924399999999999</v>
+        <v>56.167000000000002</v>
       </c>
       <c r="F3">
-        <v>4.4776999999999996</v>
+        <v>14.85</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="E4">
-        <v>42.341999999999999</v>
+        <v>56.167000000000002</v>
       </c>
       <c r="F4">
-        <v>-7.8630000000000004</v>
+        <v>14.87</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>46.622</v>
+        <v>51.924399999999999</v>
       </c>
       <c r="F5">
-        <v>31.100999999999999</v>
+        <v>4.4776999999999996</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>-6.2080000000000002</v>
-      </c>
-      <c r="F6">
-        <v>106.845</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-36.418999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-63.402000000000001</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>1E-3</v>
-      </c>
-      <c r="F7">
-        <v>114</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
+      <c r="A7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-31.74</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-60.52</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>32.060299999999998</v>
+        <v>42.341999999999999</v>
       </c>
       <c r="F8">
-        <v>118.79600000000001</v>
+        <v>-7.8630000000000004</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9">
-        <v>-0.94899999999999995</v>
+        <v>50.289000000000001</v>
       </c>
       <c r="F9">
-        <v>100.354</v>
+        <v>2.778</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>489</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>50.289000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="F10">
-        <v>2.778</v>
+        <v>30.654</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>46.3</v>
+        <v>54.281999999999996</v>
       </c>
       <c r="F11">
-        <v>30.654</v>
+        <v>19.172999999999998</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>49.991999999999997</v>
+        <v>54.281999999999996</v>
       </c>
       <c r="F12">
-        <v>8.2469999999999999</v>
+        <v>19.193000000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E13">
-        <v>59.351999999999997</v>
+        <v>39.854999999999997</v>
       </c>
       <c r="F13">
-        <v>24.053000000000001</v>
+        <v>-88.927999999999997</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>330</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>51.677</v>
+        <v>39.854999999999997</v>
       </c>
       <c r="F14">
-        <v>7.8150000000000004</v>
+        <v>-88.908000000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>46.975000000000001</v>
+        <v>51.481000000000002</v>
       </c>
       <c r="F15">
-        <v>31.994</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>37.005000000000003</v>
+        <v>51.481000000000002</v>
       </c>
       <c r="F16">
-        <v>-89.176000000000002</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="H16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17">
-        <v>40.841999999999999</v>
-      </c>
-      <c r="F17">
-        <v>-84.338999999999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>51.914999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18">
-        <v>29.957999999999998</v>
-      </c>
-      <c r="F18">
-        <v>-90.37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1">
+        <v>51.935000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>493</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>53.3</v>
+        <v>51.924399999999999</v>
       </c>
       <c r="F19">
-        <v>-104</v>
+        <v>4.4776999999999996</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>493</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>53.545999999999999</v>
+        <v>51.924399999999999</v>
       </c>
       <c r="F20">
-        <v>-113.494</v>
+        <v>4.4977</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>494</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>38.405000000000001</v>
+        <v>53.551000000000002</v>
       </c>
       <c r="F21">
-        <v>-96.180999999999997</v>
+        <v>9.9930000000000003</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>494</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E22">
-        <v>53.712000000000003</v>
+        <v>53.551000000000002</v>
       </c>
       <c r="F22">
-        <v>-113.215</v>
+        <v>10.013</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>49.991999999999997</v>
+      </c>
+      <c r="F23">
+        <v>8.2469999999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
+        <v>49.99</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
+        <v>50.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23">
-        <v>50.018999999999998</v>
-      </c>
-      <c r="F23">
-        <v>-101.236</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24">
-        <v>40.750999999999998</v>
-      </c>
-      <c r="F24">
-        <v>-74.119</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25">
-        <v>39.768000000000001</v>
-      </c>
-      <c r="F25">
-        <v>-86.158000000000001</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
+      <c r="H25" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>495</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="E26">
-        <v>52.835999999999999</v>
+        <v>49.594000000000001</v>
       </c>
       <c r="F26">
-        <v>-110.857</v>
+        <v>17.25</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>495</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="E27">
-        <v>52.366999999999997</v>
+        <v>49.594000000000001</v>
       </c>
       <c r="F27">
-        <v>4.9039999999999999</v>
+        <v>17.27</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>496</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>43.262999999999998</v>
+        <v>39.935000000000002</v>
       </c>
       <c r="F28">
-        <v>-2.9350000000000001</v>
+        <v>-91.409000000000006</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>496</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E29">
-        <v>37.625</v>
+        <v>39.935000000000002</v>
       </c>
       <c r="F29">
-        <v>-0.996</v>
+        <v>-91.388999999999996</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>497</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E30">
-        <v>41.384999999999998</v>
+        <v>47.042000000000002</v>
       </c>
       <c r="F30">
-        <v>2.173</v>
+        <v>-98.715999999999994</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>497</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>44.417999999999999</v>
+        <v>47.042000000000002</v>
       </c>
       <c r="F31">
-        <v>12.202999999999999</v>
+        <v>-98.695999999999998</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1">
+        <v>51.61</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6.63</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="1">
+        <v>48.881</v>
+      </c>
+      <c r="F33" s="1">
+        <v>12.573</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="1">
+        <v>48.901000000000003</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12.573</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32">
-        <v>49.488</v>
-      </c>
-      <c r="F32">
-        <v>8.4689999999999994</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33">
-        <v>51.204000000000001</v>
-      </c>
-      <c r="F33">
-        <v>6.6870000000000003</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34">
-        <v>50.851999999999997</v>
-      </c>
-      <c r="F34">
-        <v>17.466999999999999</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35">
-        <v>48.021999999999998</v>
-      </c>
-      <c r="F35">
-        <v>16.779</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
+      <c r="E35" s="1">
+        <v>52.61</v>
+      </c>
+      <c r="F35" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E36">
-        <v>47.551000000000002</v>
+        <v>40.585999999999999</v>
       </c>
       <c r="F36">
-        <v>18.433</v>
+        <v>-98.388999999999996</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37">
-        <v>51.661000000000001</v>
-      </c>
-      <c r="F37">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
+      <c r="A37" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-33.130000000000003</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-64.349999999999994</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38">
-        <v>45.15</v>
-      </c>
-      <c r="F38">
-        <v>26.817</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
+      <c r="A38" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1">
+        <v>46.62</v>
+      </c>
+      <c r="F38" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39">
-        <v>44.438000000000002</v>
-      </c>
-      <c r="F39">
-        <v>26.85</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
+      <c r="A39" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1">
+        <v>46.64</v>
+      </c>
+      <c r="F39" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E40">
-        <v>41.667000000000002</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>25.5</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="E41">
-        <v>23.03</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>70.247</v>
+        <v>102.02</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="E42">
-        <v>30.484000000000002</v>
+        <v>-6.2080000000000002</v>
       </c>
       <c r="F42">
-        <v>76.593999999999994</v>
+        <v>106.845</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>10.79</v>
+        <v>1E-3</v>
       </c>
       <c r="F43">
-        <v>78.703999999999994</v>
+        <v>114</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="E44">
-        <v>1.45</v>
+        <v>32.060299999999998</v>
       </c>
       <c r="F44">
-        <v>103.881</v>
+        <v>118.79600000000001</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>23.047000000000001</v>
+        <v>-0.94899999999999995</v>
       </c>
       <c r="F45">
-        <v>113.749</v>
+        <v>100.354</v>
       </c>
       <c r="G45" t="s">
         <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46">
-        <v>39.343000000000004</v>
-      </c>
-      <c r="F46">
-        <v>117.361</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
+      <c r="A46" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-33.679000000000002</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-59.665999999999997</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>24.478999999999999</v>
+        <v>59.351999999999997</v>
       </c>
       <c r="F47">
-        <v>118.089</v>
+        <v>24.053000000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48">
-        <v>32.167999999999999</v>
-      </c>
-      <c r="F48">
-        <v>120.01300000000001</v>
-      </c>
-      <c r="G48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
+      <c r="A48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-31.68</v>
+      </c>
+      <c r="F48" s="1">
+        <v>-63.88</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="E49">
-        <v>-26.933</v>
+        <v>51.677</v>
       </c>
       <c r="F49">
-        <v>-48.957999999999998</v>
+        <v>7.8150000000000004</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="E50">
-        <v>-23.498000000000001</v>
+        <v>49.103999999999999</v>
       </c>
       <c r="F50">
-        <v>-46.777999999999999</v>
+        <v>-97.56</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="E51">
-        <v>-8.3729999999999993</v>
+        <v>49.103999999999999</v>
       </c>
       <c r="F51">
-        <v>-34.96</v>
+        <v>-97.54</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>-7.2290000000000001</v>
+        <v>52.366999999999997</v>
       </c>
       <c r="F52">
-        <v>-44.557000000000002</v>
+        <v>4.9039999999999999</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>-12.095000000000001</v>
+        <v>41.384999999999998</v>
       </c>
       <c r="F53">
-        <v>-45.786999999999999</v>
+        <v>2.173</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E54">
-        <v>-16.253</v>
+        <v>41.273000000000003</v>
       </c>
       <c r="F54">
-        <v>-47.95</v>
+        <v>-82.841999999999999</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="E55">
-        <v>-13.821</v>
+        <v>41.273000000000003</v>
       </c>
       <c r="F55">
-        <v>-56.093000000000004</v>
+        <v>-82.822000000000003</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="E56">
-        <v>-16.478000000000002</v>
+        <v>43.262999999999998</v>
       </c>
       <c r="F56">
-        <v>-54.637999999999998</v>
+        <v>-2.9350000000000001</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E57">
-        <v>-25.091999999999999</v>
+        <v>48.021999999999998</v>
       </c>
       <c r="F57">
-        <v>-50.161000000000001</v>
+        <v>16.779</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="E58">
-        <v>-25.5</v>
+        <v>50.851999999999997</v>
       </c>
       <c r="F58">
-        <v>-57.625999999999998</v>
+        <v>17.466999999999999</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59">
-        <v>-32.033999999999999</v>
-      </c>
-      <c r="F59">
-        <v>-60.64</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
+      <c r="A59" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44.43</v>
+      </c>
+      <c r="F59" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="E60">
-        <v>-33.484000000000002</v>
+        <v>45.15</v>
       </c>
       <c r="F60">
-        <v>-60.008000000000003</v>
+        <v>26.817</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="E61">
-        <v>-32.771999999999998</v>
+        <v>37.005000000000003</v>
       </c>
       <c r="F61">
-        <v>-63.936</v>
+        <v>-89.176000000000002</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>50.445</v>
+        <v>37.625</v>
       </c>
       <c r="F62">
-        <v>-104.61799999999999</v>
+        <v>-0.996</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E63">
-        <v>53.017000000000003</v>
+        <v>41.261000000000003</v>
       </c>
       <c r="F63">
-        <v>-112.83499999999999</v>
+        <v>-95.86</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E64">
-        <v>52.036999999999999</v>
+        <v>41.261000000000003</v>
       </c>
       <c r="F64">
-        <v>-106.34</v>
+        <v>-95.84</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="H64" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65">
-        <v>-26.94</v>
-      </c>
-      <c r="F65">
-        <v>29.241</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
+      <c r="A65" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44.94</v>
+      </c>
+      <c r="F65" s="1">
+        <v>25.49</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E66">
-        <v>51.036999999999999</v>
+        <v>34.604999999999997</v>
       </c>
       <c r="F66">
-        <v>2.3769999999999998</v>
+        <v>-86.983000000000004</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E67">
-        <v>49.232999999999997</v>
+        <v>34.604999999999997</v>
       </c>
       <c r="F67">
-        <v>31.483000000000001</v>
+        <v>-86.962999999999994</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E68">
-        <v>41.341999999999999</v>
+        <v>40.841999999999999</v>
       </c>
       <c r="F68">
-        <v>2.1539999999999999</v>
+        <v>-84.338999999999999</v>
       </c>
       <c r="G68" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E69">
-        <v>36.799999999999997</v>
+        <v>29.957999999999998</v>
       </c>
       <c r="F69">
-        <v>-6.343</v>
+        <v>-90.37</v>
       </c>
       <c r="G69" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E70">
-        <v>51.884999999999998</v>
+        <v>53.3</v>
       </c>
       <c r="F70">
-        <v>4.2859999999999996</v>
+        <v>-104</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E71">
-        <v>51.204799999999999</v>
+        <v>48.463999999999999</v>
       </c>
       <c r="F71">
-        <v>6.6970000000000001</v>
+        <v>35.045999999999999</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="H71" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="D72" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>51.238</v>
+        <v>48.463999999999999</v>
       </c>
       <c r="F72">
-        <v>6.8140000000000001</v>
+        <v>35.066000000000003</v>
       </c>
       <c r="G72" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="H72" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E73">
-        <v>51.92</v>
+        <v>23.047000000000001</v>
       </c>
       <c r="F73">
-        <v>4.4790000000000001</v>
+        <v>113.749</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E74">
-        <v>49.841000000000001</v>
+        <v>53.545999999999999</v>
       </c>
       <c r="F74">
-        <v>23.984999999999999</v>
+        <v>-113.494</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="H74" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E75">
-        <v>49.841000000000001</v>
+        <v>38.405000000000001</v>
       </c>
       <c r="F75">
-        <v>23.984999999999999</v>
+        <v>-96.180999999999997</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="H75" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E76">
-        <v>43.347000000000001</v>
+        <v>53.712000000000003</v>
       </c>
       <c r="F76">
-        <v>3.2149999999999999</v>
+        <v>-113.215</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="E77">
-        <v>43.454999999999998</v>
+        <v>-26.933</v>
       </c>
       <c r="F77">
-        <v>5.2480000000000002</v>
+        <v>-48.957999999999998</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H77" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E78">
-        <v>51.216999999999999</v>
+        <v>43.255000000000003</v>
       </c>
       <c r="F78">
-        <v>-102.473</v>
+        <v>-79.870999999999995</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E79">
-        <v>53.551000000000002</v>
+        <v>43.255000000000003</v>
       </c>
       <c r="F79">
-        <v>9.9939999999999998</v>
+        <v>-79.850999999999999</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E80">
-        <v>45.844999999999999</v>
+        <v>50.018999999999998</v>
       </c>
       <c r="F80">
-        <v>3.383</v>
+        <v>-101.236</v>
       </c>
       <c r="G80" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E81">
-        <v>51.887</v>
+        <v>39.768000000000001</v>
       </c>
       <c r="F81">
-        <v>4.29</v>
+        <v>-86.158000000000001</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="E82">
-        <v>53.4</v>
+        <v>38.423000000000002</v>
       </c>
       <c r="F82">
-        <v>-2.9950000000000001</v>
+        <v>27.141999999999999</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="E83">
-        <v>51.829000000000001</v>
+        <v>38.423000000000002</v>
       </c>
       <c r="F83">
-        <v>4.633</v>
+        <v>27.161999999999999</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="E84">
-        <v>1.2829999999999999</v>
+        <v>-23.498000000000001</v>
       </c>
       <c r="F84">
-        <v>103.833</v>
+        <v>-46.777999999999999</v>
       </c>
       <c r="G84" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E85">
-        <v>-26.213000000000001</v>
+        <v>23.03</v>
       </c>
       <c r="F85">
-        <v>28.259</v>
+        <v>70.247</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="E86">
-        <v>-6.2279999999999998</v>
+        <v>40.750999999999998</v>
       </c>
       <c r="F86">
-        <v>155.565</v>
+        <v>-74.119</v>
       </c>
       <c r="G86" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>100</v>
       </c>
       <c r="E87">
-        <v>-9.4779999999999998</v>
+        <v>52.677</v>
       </c>
       <c r="F87">
-        <v>147.15</v>
+        <v>18.334</v>
       </c>
       <c r="G87" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E88">
-        <v>37.575000000000003</v>
+        <v>52.677</v>
       </c>
       <c r="F88">
-        <v>-5.9</v>
+        <v>18.353999999999999</v>
       </c>
       <c r="G88" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E89">
-        <v>51.204799999999999</v>
+        <v>44.438000000000002</v>
       </c>
       <c r="F89">
-        <v>6.6849999999999996</v>
+        <v>26.85</v>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>229</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>230</v>
-      </c>
-      <c r="D90" t="s">
-        <v>106</v>
-      </c>
-      <c r="E90">
-        <v>50.27</v>
-      </c>
-      <c r="F90">
-        <v>19.039000000000001</v>
-      </c>
-      <c r="G90" t="s">
-        <v>87</v>
-      </c>
-      <c r="H90" t="s">
-        <v>13</v>
+      <c r="A90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44.445</v>
+      </c>
+      <c r="F90" s="1">
+        <v>26.853999999999999</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>231</v>
-      </c>
-      <c r="B91" t="s">
-        <v>24</v>
-      </c>
-      <c r="C91" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" t="s">
-        <v>233</v>
-      </c>
-      <c r="E91">
-        <v>50.66</v>
-      </c>
-      <c r="F91">
-        <v>14.04</v>
-      </c>
-      <c r="G91" t="s">
-        <v>65</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
+      <c r="A91" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1">
+        <v>52.51</v>
+      </c>
+      <c r="F91" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>234</v>
-      </c>
-      <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>235</v>
-      </c>
-      <c r="D92" t="s">
-        <v>49</v>
-      </c>
-      <c r="E92">
-        <v>52.131</v>
-      </c>
-      <c r="F92">
-        <v>11.638999999999999</v>
-      </c>
-      <c r="G92" t="s">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s">
-        <v>13</v>
+      <c r="A92" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="1">
+        <v>50.26</v>
+      </c>
+      <c r="F92" s="1">
+        <v>22.42</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="E93">
-        <v>54.136000000000003</v>
+        <v>-12.095000000000001</v>
       </c>
       <c r="F93">
-        <v>13.592000000000001</v>
+        <v>-45.786999999999999</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="E94">
-        <v>50.723999999999997</v>
+        <v>-16.253</v>
       </c>
       <c r="F94">
-        <v>23.045000000000002</v>
+        <v>-47.95</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E95">
-        <v>49.688000000000002</v>
+        <v>49.488</v>
       </c>
       <c r="F95">
-        <v>-97.147000000000006</v>
+        <v>8.4689999999999994</v>
       </c>
       <c r="G95" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>244</v>
-      </c>
-      <c r="D96" t="s">
-        <v>64</v>
-      </c>
-      <c r="E96">
-        <v>46.966999999999999</v>
-      </c>
-      <c r="F96">
-        <v>-119.04</v>
-      </c>
-      <c r="G96" t="s">
-        <v>242</v>
-      </c>
-      <c r="H96" t="s">
-        <v>173</v>
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="1">
+        <v>49.518000000000001</v>
+      </c>
+      <c r="F96" s="1">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="D97" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E97">
-        <v>-32.667000000000002</v>
+        <v>47</v>
       </c>
       <c r="F97">
-        <v>-60.8</v>
+        <v>20.283000000000001</v>
       </c>
       <c r="G97" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="H97" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E98">
-        <v>51.216999999999999</v>
+        <v>47</v>
       </c>
       <c r="F98">
-        <v>-102.467</v>
+        <v>20.303000000000001</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H98" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>250</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>251</v>
-      </c>
-      <c r="D99" t="s">
-        <v>49</v>
-      </c>
-      <c r="E99">
-        <v>53.326999999999998</v>
-      </c>
-      <c r="F99">
-        <v>8.4860000000000007</v>
-      </c>
-      <c r="G99" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" t="s">
-        <v>252</v>
+      <c r="A99" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" s="1">
+        <v>47</v>
+      </c>
+      <c r="F99" s="1">
+        <v>20.28</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="E100">
-        <v>5.67</v>
+        <v>39.673000000000002</v>
       </c>
       <c r="F100">
-        <v>0.02</v>
+        <v>-85.697999999999993</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D101" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E101">
-        <v>48.77</v>
+        <v>39.673000000000002</v>
       </c>
       <c r="F101">
-        <v>-96.94</v>
+        <v>-85.677999999999997</v>
       </c>
       <c r="G101" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>258</v>
-      </c>
-      <c r="B102" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" t="s">
-        <v>259</v>
-      </c>
-      <c r="D102" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102">
-        <v>40.585999999999999</v>
-      </c>
-      <c r="F102">
-        <v>-98.388999999999996</v>
-      </c>
-      <c r="G102" t="s">
-        <v>38</v>
-      </c>
-      <c r="H102" t="s">
-        <v>248</v>
+      <c r="A102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="1">
+        <v>46.942999999999998</v>
+      </c>
+      <c r="F102" s="1">
+        <v>32.04</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>260</v>
-      </c>
-      <c r="B103" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" t="s">
-        <v>197</v>
-      </c>
-      <c r="D103" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103">
-        <v>49.841000000000001</v>
-      </c>
-      <c r="F103">
-        <v>24.484999999999999</v>
-      </c>
-      <c r="G103" t="s">
-        <v>198</v>
-      </c>
-      <c r="H103" t="s">
-        <v>59</v>
+      <c r="A103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="1">
+        <v>46.963000000000001</v>
+      </c>
+      <c r="F103" s="1">
+        <v>32.04</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E104">
-        <v>49.841000000000001</v>
+        <v>51.204000000000001</v>
       </c>
       <c r="F104">
-        <v>24.484999999999999</v>
+        <v>6.6870000000000003</v>
       </c>
       <c r="G104" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="H104" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D105" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="E105">
-        <v>56.167000000000002</v>
+        <v>53.354999999999997</v>
       </c>
       <c r="F105">
-        <v>14.85</v>
+        <v>-104.009</v>
       </c>
       <c r="G105" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="H105" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="D106" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="E106">
-        <v>56.167000000000002</v>
+        <v>53.354999999999997</v>
       </c>
       <c r="F106">
-        <v>14.87</v>
+        <v>-103.989</v>
       </c>
       <c r="G106" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="H106" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>-13.821</v>
       </c>
       <c r="F107">
-        <v>102</v>
+        <v>-56.093000000000004</v>
       </c>
       <c r="G107" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="F108">
-        <v>102.02</v>
+        <v>103.881</v>
       </c>
       <c r="G108" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="E109">
-        <v>51.924399999999999</v>
+        <v>10.585000000000001</v>
       </c>
       <c r="F109">
-        <v>4.4776999999999996</v>
+        <v>107.02500000000001</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H109" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="E110">
-        <v>51.924399999999999</v>
+        <v>10.585000000000001</v>
       </c>
       <c r="F110">
-        <v>4.4977</v>
+        <v>107.045</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H110" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="D111" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="E111">
-        <v>54.281999999999996</v>
+        <v>-25.091999999999999</v>
       </c>
       <c r="F111">
-        <v>19.172999999999998</v>
+        <v>-50.161000000000001</v>
       </c>
       <c r="G111" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H111" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="D112" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E112">
-        <v>54.281999999999996</v>
+        <v>-32.716000000000001</v>
       </c>
       <c r="F112">
-        <v>19.193000000000001</v>
+        <v>-60.738</v>
       </c>
       <c r="G112" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H112" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="E113">
-        <v>51.481000000000002</v>
+        <v>-32.716000000000001</v>
       </c>
       <c r="F113">
-        <v>0.17499999999999999</v>
+        <v>-60.718000000000004</v>
       </c>
       <c r="G113" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="H113" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E114">
-        <v>51.481000000000002</v>
+        <v>30.484000000000002</v>
       </c>
       <c r="F114">
-        <v>0.19500000000000001</v>
+        <v>76.593999999999994</v>
       </c>
       <c r="G114" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="H114" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>273</v>
-      </c>
-      <c r="B115" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" t="s">
-        <v>206</v>
-      </c>
-      <c r="D115" t="s">
-        <v>49</v>
-      </c>
-      <c r="E115">
-        <v>53.551000000000002</v>
-      </c>
-      <c r="F115">
-        <v>9.9930000000000003</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
-      <c r="H115" t="s">
-        <v>274</v>
+      <c r="A115" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" s="1">
+        <v>-33.462000000000003</v>
+      </c>
+      <c r="F115" s="1">
+        <v>-60.02</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E116">
-        <v>53.551000000000002</v>
+        <v>-32.033999999999999</v>
       </c>
       <c r="F116">
-        <v>10.013</v>
+        <v>-60.64</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H116" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E117">
-        <v>49.594000000000001</v>
+        <v>35.4</v>
       </c>
       <c r="F117">
-        <v>17.25</v>
+        <v>119.533</v>
       </c>
       <c r="G117" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H117" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D118" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="E118">
-        <v>49.594000000000001</v>
+        <v>35.4</v>
       </c>
       <c r="F118">
-        <v>17.27</v>
+        <v>119.553</v>
       </c>
       <c r="G118" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H118" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="D119" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="E119">
-        <v>39.935000000000002</v>
+        <v>-16.478000000000002</v>
       </c>
       <c r="F119">
-        <v>-91.409000000000006</v>
+        <v>-54.637999999999998</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H119" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D120" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="E120">
-        <v>39.935000000000002</v>
+        <v>-32.93</v>
       </c>
       <c r="F120">
-        <v>-91.388999999999996</v>
+        <v>-61.052999999999997</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H120" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="E121">
-        <v>47.042000000000002</v>
+        <v>-32.93</v>
       </c>
       <c r="F121">
-        <v>-98.715999999999994</v>
+        <v>-61.033000000000001</v>
       </c>
       <c r="G121" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="H121" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="E122">
-        <v>47.042000000000002</v>
+        <v>-8.3729999999999993</v>
       </c>
       <c r="F122">
-        <v>-98.695999999999998</v>
+        <v>-34.96</v>
       </c>
       <c r="G122" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="H122" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E123">
-        <v>48.463999999999999</v>
+        <v>32.167999999999999</v>
       </c>
       <c r="F123">
-        <v>35.045999999999999</v>
+        <v>120.01300000000001</v>
       </c>
       <c r="G123" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="H123" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>282</v>
-      </c>
-      <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="s">
-        <v>283</v>
-      </c>
-      <c r="D124" t="s">
-        <v>26</v>
-      </c>
-      <c r="E124">
-        <v>48.463999999999999</v>
-      </c>
-      <c r="F124">
-        <v>35.066000000000003</v>
-      </c>
-      <c r="G124" t="s">
-        <v>266</v>
-      </c>
-      <c r="H124" t="s">
-        <v>28</v>
+      <c r="A124" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E124" s="1">
+        <v>-32.78</v>
+      </c>
+      <c r="F124" s="1">
+        <v>-63.94</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="D125" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E125">
-        <v>49.103999999999999</v>
+        <v>47.551000000000002</v>
       </c>
       <c r="F125">
-        <v>-97.56</v>
+        <v>18.433</v>
       </c>
       <c r="G125" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="D126" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E126">
-        <v>49.103999999999999</v>
+        <v>41.667000000000002</v>
       </c>
       <c r="F126">
-        <v>-97.54</v>
+        <v>25.5</v>
       </c>
       <c r="G126" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E127">
-        <v>41.273000000000003</v>
+        <v>39.343000000000004</v>
       </c>
       <c r="F127">
-        <v>-82.841999999999999</v>
+        <v>117.361</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E128">
-        <v>41.273000000000003</v>
+        <v>10.79</v>
       </c>
       <c r="F128">
-        <v>-82.822000000000003</v>
+        <v>78.703999999999994</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="E129">
-        <v>41.261000000000003</v>
+        <v>-7.2290000000000001</v>
       </c>
       <c r="F129">
-        <v>-95.86</v>
+        <v>-44.557000000000002</v>
       </c>
       <c r="G129" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="D130" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="E130">
-        <v>41.261000000000003</v>
+        <v>-25.5</v>
       </c>
       <c r="F130">
-        <v>-95.84</v>
+        <v>-57.625999999999998</v>
       </c>
       <c r="G130" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C131" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="D131" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="E131">
-        <v>34.604999999999997</v>
+        <v>51.661000000000001</v>
       </c>
       <c r="F131">
-        <v>-86.983000000000004</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="G131" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E132">
-        <v>34.604999999999997</v>
+        <v>52.835999999999999</v>
       </c>
       <c r="F132">
-        <v>-86.962999999999994</v>
+        <v>-110.857</v>
       </c>
       <c r="G132" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E133">
-        <v>43.255000000000003</v>
+        <v>24.478999999999999</v>
       </c>
       <c r="F133">
-        <v>-79.870999999999995</v>
+        <v>118.089</v>
       </c>
       <c r="G133" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>292</v>
-      </c>
-      <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" t="s">
-        <v>293</v>
-      </c>
-      <c r="D134" t="s">
-        <v>72</v>
-      </c>
-      <c r="E134">
-        <v>43.255000000000003</v>
-      </c>
-      <c r="F134">
-        <v>-79.850999999999999</v>
-      </c>
-      <c r="G134" t="s">
-        <v>87</v>
-      </c>
-      <c r="H134" t="s">
-        <v>13</v>
+      <c r="A134" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="F134" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>294</v>
-      </c>
-      <c r="B135" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" t="s">
-        <v>295</v>
-      </c>
-      <c r="D135" t="s">
-        <v>64</v>
-      </c>
-      <c r="E135">
-        <v>39.673000000000002</v>
-      </c>
-      <c r="F135">
-        <v>-85.697999999999993</v>
-      </c>
-      <c r="G135" t="s">
-        <v>41</v>
-      </c>
-      <c r="H135" t="s">
-        <v>13</v>
+      <c r="A135" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="1">
+        <v>52.42</v>
+      </c>
+      <c r="F135" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="D136" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E136">
-        <v>39.673000000000002</v>
+        <v>53.017000000000003</v>
       </c>
       <c r="F136">
-        <v>-85.677999999999997</v>
+        <v>-112.83499999999999</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="D137" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E137">
-        <v>53.354999999999997</v>
+        <v>52.036999999999999</v>
       </c>
       <c r="F137">
-        <v>-104.009</v>
+        <v>-106.34</v>
       </c>
       <c r="G137" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>296</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" t="s">
-        <v>297</v>
-      </c>
-      <c r="D138" t="s">
-        <v>72</v>
-      </c>
-      <c r="E138">
-        <v>53.354999999999997</v>
-      </c>
-      <c r="F138">
-        <v>-103.989</v>
-      </c>
-      <c r="G138" t="s">
-        <v>298</v>
-      </c>
-      <c r="H138" t="s">
-        <v>13</v>
+      <c r="A138" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" s="1">
+        <v>-38.74</v>
+      </c>
+      <c r="F138" s="1">
+        <v>-62.27</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>299</v>
-      </c>
-      <c r="B139" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" t="s">
-        <v>300</v>
-      </c>
-      <c r="D139" t="s">
-        <v>106</v>
-      </c>
-      <c r="E139">
-        <v>52.677</v>
-      </c>
-      <c r="F139">
-        <v>18.334</v>
-      </c>
-      <c r="G139" t="s">
-        <v>38</v>
-      </c>
-      <c r="H139" t="s">
-        <v>13</v>
+      <c r="A139" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="F139" s="1">
+        <v>33.47</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>299</v>
-      </c>
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" t="s">
-        <v>300</v>
-      </c>
-      <c r="D140" t="s">
-        <v>106</v>
-      </c>
-      <c r="E140">
-        <v>52.677</v>
-      </c>
-      <c r="F140">
-        <v>18.353999999999999</v>
-      </c>
-      <c r="G140" t="s">
-        <v>38</v>
-      </c>
-      <c r="H140" t="s">
-        <v>13</v>
+      <c r="A140" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="1">
+        <v>47.32</v>
+      </c>
+      <c r="F140" s="1">
+        <v>-2.1669999999999998</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>301</v>
-      </c>
-      <c r="B141" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" t="s">
-        <v>302</v>
-      </c>
-      <c r="D141" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141">
-        <v>47</v>
-      </c>
-      <c r="F141">
-        <v>20.283000000000001</v>
-      </c>
-      <c r="G141" t="s">
-        <v>38</v>
-      </c>
-      <c r="H141" t="s">
-        <v>13</v>
+      <c r="A141" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" s="1">
+        <v>47.34</v>
+      </c>
+      <c r="F141" s="1">
+        <v>-2.1669999999999998</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="D142" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E142">
-        <v>47</v>
+        <v>50.445</v>
       </c>
       <c r="F142">
-        <v>20.303000000000001</v>
+        <v>-104.61799999999999</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" t="s">
-        <v>304</v>
+        <v>353</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
       <c r="E143">
-        <v>38.423000000000002</v>
+        <v>50.445</v>
       </c>
       <c r="F143">
-        <v>27.141999999999999</v>
+        <v>-104.619</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="D144" t="s">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="E144">
-        <v>38.423000000000002</v>
+        <v>48.77</v>
       </c>
       <c r="F144">
-        <v>27.161999999999999</v>
+        <v>-96.94</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D145" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="E145">
-        <v>10.585000000000001</v>
+        <v>44.162999999999997</v>
       </c>
       <c r="F145">
-        <v>107.02500000000001</v>
+        <v>-94.009</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="E146">
-        <v>10.585000000000001</v>
+        <v>44.162999999999997</v>
       </c>
       <c r="F146">
-        <v>107.045</v>
+        <v>-93.989000000000004</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>309</v>
-      </c>
-      <c r="B147" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" t="s">
-        <v>310</v>
-      </c>
-      <c r="D147" t="s">
-        <v>37</v>
-      </c>
-      <c r="E147">
-        <v>35.4</v>
-      </c>
-      <c r="F147">
-        <v>119.533</v>
-      </c>
-      <c r="G147" t="s">
-        <v>38</v>
-      </c>
-      <c r="H147" t="s">
-        <v>13</v>
+      <c r="A147" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E147" s="1">
+        <v>-22.516999999999999</v>
+      </c>
+      <c r="F147" s="1">
+        <v>-63.807000000000002</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>309</v>
+        <v>498</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
       <c r="D148" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="E148">
-        <v>35.4</v>
+        <v>-26.94</v>
       </c>
       <c r="F148">
-        <v>119.553</v>
+        <v>29.241</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>311</v>
-      </c>
-      <c r="B149" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" t="s">
-        <v>312</v>
-      </c>
-      <c r="D149" t="s">
-        <v>166</v>
-      </c>
-      <c r="E149">
-        <v>-32.93</v>
-      </c>
-      <c r="F149">
-        <v>-61.052999999999997</v>
-      </c>
-      <c r="G149" t="s">
-        <v>38</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
+      <c r="A149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E149" s="1">
+        <v>-34.69</v>
+      </c>
+      <c r="F149" s="1">
+        <v>-61.012</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" t="s">
-        <v>312</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>166</v>
+        <v>354</v>
       </c>
       <c r="E150">
-        <v>-32.93</v>
+        <v>11.242000000000001</v>
       </c>
       <c r="F150">
-        <v>-61.033000000000001</v>
+        <v>-74.204999999999998</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="E151">
-        <v>-32.716000000000001</v>
+        <v>51.036999999999999</v>
       </c>
       <c r="F151">
-        <v>-60.738</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>313</v>
+        <v>499</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="D152" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="E152">
-        <v>-32.716000000000001</v>
+        <v>46.622</v>
       </c>
       <c r="F152">
-        <v>-60.718000000000004</v>
+        <v>31.100999999999999</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>315</v>
-      </c>
-      <c r="B153" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" t="s">
-        <v>316</v>
-      </c>
-      <c r="D153" t="s">
-        <v>317</v>
-      </c>
-      <c r="E153">
-        <v>55.674999999999997</v>
-      </c>
-      <c r="F153">
-        <v>21.143999999999998</v>
-      </c>
-      <c r="G153" t="s">
-        <v>77</v>
-      </c>
-      <c r="H153" t="s">
-        <v>13</v>
+        <v>499</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="1">
+        <v>46.64</v>
+      </c>
+      <c r="F153" s="1">
+        <v>31.12</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>315</v>
-      </c>
-      <c r="B154" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" t="s">
-        <v>316</v>
-      </c>
-      <c r="D154" t="s">
-        <v>317</v>
-      </c>
-      <c r="E154">
-        <v>55.674999999999997</v>
-      </c>
-      <c r="F154">
-        <v>21.164000000000001</v>
-      </c>
-      <c r="G154" t="s">
-        <v>77</v>
-      </c>
-      <c r="H154" t="s">
-        <v>13</v>
+      <c r="A154" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E154" s="1">
+        <v>-32.81</v>
+      </c>
+      <c r="F154" s="1">
+        <v>-63.88</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>318</v>
-      </c>
-      <c r="B155" t="s">
-        <v>24</v>
-      </c>
-      <c r="C155" t="s">
-        <v>319</v>
-      </c>
-      <c r="D155" t="s">
-        <v>320</v>
-      </c>
-      <c r="E155">
-        <v>6.4649999999999999</v>
-      </c>
-      <c r="F155">
-        <v>3.4060000000000001</v>
-      </c>
-      <c r="G155" t="s">
-        <v>58</v>
-      </c>
-      <c r="H155" t="s">
-        <v>55</v>
+      <c r="A155" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E155" s="1">
+        <v>-32.392000000000003</v>
+      </c>
+      <c r="F155" s="1">
+        <v>-59.786999999999999</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="D156" t="s">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="E156">
-        <v>6.4649999999999999</v>
+        <v>49.670999999999999</v>
       </c>
       <c r="F156">
-        <v>3.4260000000000002</v>
+        <v>27.666</v>
       </c>
       <c r="G156" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H156" t="s">
-        <v>55</v>
+        <v>342</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>321</v>
-      </c>
-      <c r="B157" t="s">
-        <v>24</v>
-      </c>
-      <c r="C157" t="s">
-        <v>322</v>
-      </c>
-      <c r="D157" t="s">
-        <v>49</v>
-      </c>
-      <c r="E157">
-        <v>54.093000000000004</v>
-      </c>
-      <c r="F157">
-        <v>12.099</v>
-      </c>
-      <c r="G157" t="s">
-        <v>32</v>
-      </c>
-      <c r="H157" t="s">
-        <v>173</v>
+      <c r="A157" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E157" s="1">
+        <v>-33.01</v>
+      </c>
+      <c r="F157" s="1">
+        <v>-58.52</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>322</v>
+        <v>178</v>
       </c>
       <c r="D158" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E158">
-        <v>54.093000000000004</v>
+        <v>49.232999999999997</v>
       </c>
       <c r="F158">
-        <v>12.119</v>
+        <v>31.483000000000001</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="H158" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>323</v>
-      </c>
-      <c r="B159" t="s">
-        <v>24</v>
-      </c>
-      <c r="C159" t="s">
-        <v>324</v>
-      </c>
-      <c r="D159" t="s">
-        <v>44</v>
-      </c>
-      <c r="E159">
-        <v>49.4</v>
-      </c>
-      <c r="F159">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" t="s">
-        <v>173</v>
+      <c r="A159" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E159" s="1">
+        <v>44.564</v>
+      </c>
+      <c r="F159" s="1">
+        <v>27.369</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>323</v>
-      </c>
-      <c r="B160" t="s">
-        <v>9</v>
-      </c>
-      <c r="C160" t="s">
-        <v>324</v>
-      </c>
-      <c r="D160" t="s">
-        <v>44</v>
-      </c>
-      <c r="E160">
-        <v>49.4</v>
-      </c>
-      <c r="F160">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="G160" t="s">
-        <v>32</v>
-      </c>
-      <c r="H160" t="s">
-        <v>173</v>
+      <c r="A160" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E160" s="1">
+        <v>-33.81</v>
+      </c>
+      <c r="F160" s="1">
+        <v>-59.51</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>325</v>
-      </c>
-      <c r="B161" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" t="s">
-        <v>326</v>
-      </c>
-      <c r="D161" t="s">
-        <v>44</v>
-      </c>
-      <c r="E161">
-        <v>48.521000000000001</v>
-      </c>
-      <c r="F161">
-        <v>3.593</v>
-      </c>
-      <c r="G161" t="s">
-        <v>38</v>
-      </c>
-      <c r="H161" t="s">
-        <v>173</v>
+      <c r="A161" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E161" s="1">
+        <v>46.72</v>
+      </c>
+      <c r="F161" s="1">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="D162" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>48.521000000000001</v>
+        <v>-5.5540000000000003</v>
       </c>
       <c r="F162">
-        <v>3.613</v>
+        <v>105.372</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H162" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="D163" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>44.89</v>
+        <v>-3.2719999999999998</v>
       </c>
       <c r="F163">
-        <v>-0.53500000000000003</v>
+        <v>116.11799999999999</v>
       </c>
       <c r="G163" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="H163" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>500</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" t="s">
-        <v>328</v>
+        <v>353</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="D164" t="s">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="E164">
-        <v>44.89</v>
+        <v>14.24</v>
       </c>
       <c r="F164">
-        <v>-0.51500000000000001</v>
+        <v>-91.376000000000005</v>
       </c>
       <c r="G164" t="s">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="H164" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>501</v>
       </c>
       <c r="B165" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="E165">
-        <v>43.402999999999999</v>
+        <v>20.658999999999999</v>
       </c>
       <c r="F165">
-        <v>3.7080000000000002</v>
+        <v>-103.349</v>
       </c>
       <c r="G165" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="H165" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
-      </c>
-      <c r="C166" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="E166">
-        <v>43.402999999999999</v>
+        <v>15.56</v>
       </c>
       <c r="F166">
-        <v>3.7280000000000002</v>
+        <v>-87.75</v>
       </c>
       <c r="G166" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="H166" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="E167">
-        <v>58.893000000000001</v>
+        <v>-0.33</v>
       </c>
       <c r="F167">
-        <v>25.338999999999999</v>
+        <v>-78.45</v>
       </c>
       <c r="G167" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="H167" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>332</v>
-      </c>
-      <c r="B168" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" t="s">
-        <v>333</v>
-      </c>
-      <c r="D168" t="s">
-        <v>53</v>
-      </c>
-      <c r="E168">
-        <v>58.893000000000001</v>
-      </c>
-      <c r="F168">
-        <v>25.359000000000002</v>
-      </c>
-      <c r="G168" t="s">
-        <v>222</v>
-      </c>
-      <c r="H168" t="s">
-        <v>173</v>
+      <c r="A168" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E168" s="1">
+        <v>-34.642000000000003</v>
+      </c>
+      <c r="F168" s="1">
+        <v>-60.472999999999999</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>334</v>
-      </c>
-      <c r="B169" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" t="s">
-        <v>335</v>
-      </c>
-      <c r="D169" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169">
-        <v>38.039000000000001</v>
-      </c>
-      <c r="F169">
-        <v>-3.7749999999999999</v>
-      </c>
-      <c r="G169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H169" t="s">
-        <v>28</v>
+      <c r="A169" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E169" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="F169" s="1">
+        <v>31.16</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>334</v>
-      </c>
-      <c r="B170" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" t="s">
-        <v>335</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170">
-        <v>38.039000000000001</v>
-      </c>
-      <c r="F170">
-        <v>-3.7549999999999999</v>
-      </c>
-      <c r="G170" t="s">
-        <v>336</v>
-      </c>
-      <c r="H170" t="s">
-        <v>28</v>
+      <c r="A170" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="1">
+        <v>49.58</v>
+      </c>
+      <c r="F170" s="1">
+        <v>34.57</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>337</v>
-      </c>
-      <c r="B171" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" t="s">
-        <v>338</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171">
-        <v>41.292999999999999</v>
-      </c>
-      <c r="F171">
-        <v>-4.6879999999999997</v>
-      </c>
-      <c r="G171" t="s">
-        <v>339</v>
-      </c>
-      <c r="H171" t="s">
-        <v>340</v>
+      <c r="A171" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" s="1">
+        <v>49.75</v>
+      </c>
+      <c r="F171" s="1">
+        <v>27.22</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" t="s">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="E172">
-        <v>41.292999999999999</v>
+        <v>-1.05</v>
       </c>
       <c r="F172">
-        <v>-4.6680000000000001</v>
+        <v>-80.683000000000007</v>
       </c>
       <c r="G172" t="s">
-        <v>339</v>
+        <v>52</v>
       </c>
       <c r="H172" t="s">
-        <v>340</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E173">
-        <v>49.832999999999998</v>
+        <v>41.341999999999999</v>
       </c>
       <c r="F173">
-        <v>34.582999999999998</v>
+        <v>2.1539999999999999</v>
       </c>
       <c r="G173" t="s">
-        <v>342</v>
+        <v>180</v>
       </c>
       <c r="H173" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>341</v>
+        <v>502</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>49.832999999999998</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F174">
-        <v>34.603000000000002</v>
+        <v>-6.343</v>
       </c>
       <c r="G174" t="s">
-        <v>342</v>
+        <v>180</v>
       </c>
       <c r="H174" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>503</v>
+      </c>
+      <c r="B175" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" t="s">
+        <v>333</v>
+      </c>
+      <c r="D175" t="s">
+        <v>40</v>
+      </c>
+      <c r="E175">
+        <v>48.38</v>
+      </c>
+      <c r="F175">
+        <v>-4.49</v>
+      </c>
+      <c r="G175" t="s">
+        <v>256</v>
+      </c>
+      <c r="H175" t="s">
         <v>341</v>
-      </c>
-      <c r="B175" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" t="s">
-        <v>185</v>
-      </c>
-      <c r="D175" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175">
-        <v>49.832999999999998</v>
-      </c>
-      <c r="F175">
-        <v>34.582999999999998</v>
-      </c>
-      <c r="G175" t="s">
-        <v>343</v>
-      </c>
-      <c r="H175" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>341</v>
+        <v>503</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E176">
-        <v>49.832999999999998</v>
+        <v>48.38</v>
       </c>
       <c r="F176">
-        <v>34.603000000000002</v>
+        <v>-4.47</v>
       </c>
       <c r="G176" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="H176" t="s">
-        <v>344</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>345</v>
+        <v>504</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D177" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="E177">
-        <v>50.981000000000002</v>
+        <v>41.113999999999997</v>
       </c>
       <c r="F177">
-        <v>3.5339999999999998</v>
+        <v>-85.884</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="H177" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>345</v>
+        <v>504</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D178" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="E178">
-        <v>50.981000000000002</v>
+        <v>41.113999999999997</v>
       </c>
       <c r="F178">
-        <v>3.5539999999999998</v>
+        <v>-85.864000000000004</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="H178" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>348</v>
+        <v>505</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="D179" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E179">
-        <v>39.854999999999997</v>
+        <v>51.216999999999999</v>
       </c>
       <c r="F179">
-        <v>-88.927999999999997</v>
+        <v>-102.467</v>
       </c>
       <c r="G179" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="H179" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="D180" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="E180">
-        <v>39.854999999999997</v>
+        <v>55.674999999999997</v>
       </c>
       <c r="F180">
-        <v>-88.908000000000001</v>
+        <v>21.143999999999998</v>
       </c>
       <c r="G180" t="s">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="H180" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="D181" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="E181">
-        <v>41.113999999999997</v>
+        <v>55.674999999999997</v>
       </c>
       <c r="F181">
-        <v>-85.884</v>
+        <v>21.164000000000001</v>
       </c>
       <c r="G181" t="s">
-        <v>353</v>
+        <v>71</v>
       </c>
       <c r="H181" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>351</v>
-      </c>
-      <c r="B182" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" t="s">
-        <v>352</v>
-      </c>
-      <c r="D182" t="s">
-        <v>64</v>
-      </c>
-      <c r="E182">
-        <v>41.113999999999997</v>
-      </c>
-      <c r="F182">
-        <v>-85.864000000000004</v>
-      </c>
-      <c r="G182" t="s">
-        <v>353</v>
-      </c>
-      <c r="H182" t="s">
-        <v>248</v>
+      <c r="A182" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E182" s="1">
+        <v>-34.68</v>
+      </c>
+      <c r="F182" s="1">
+        <v>-58.48</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>354</v>
-      </c>
-      <c r="B183" t="s">
-        <v>24</v>
-      </c>
-      <c r="C183" t="s">
-        <v>355</v>
-      </c>
-      <c r="D183" t="s">
-        <v>44</v>
-      </c>
-      <c r="E183">
-        <v>48.38</v>
-      </c>
-      <c r="F183">
-        <v>-4.49</v>
-      </c>
-      <c r="G183" t="s">
-        <v>266</v>
-      </c>
-      <c r="H183" t="s">
-        <v>363</v>
+      <c r="A183" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E183" s="1">
+        <v>-32.749000000000002</v>
+      </c>
+      <c r="F183" s="1">
+        <v>-60.738</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>354</v>
-      </c>
-      <c r="B184" t="s">
-        <v>9</v>
-      </c>
-      <c r="C184" t="s">
-        <v>355</v>
-      </c>
-      <c r="D184" t="s">
-        <v>44</v>
-      </c>
-      <c r="E184">
-        <v>48.38</v>
-      </c>
-      <c r="F184">
-        <v>-4.47</v>
-      </c>
-      <c r="G184" t="s">
-        <v>266</v>
-      </c>
-      <c r="H184" t="s">
-        <v>173</v>
+      <c r="A184" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E184" s="1">
+        <v>-35.049999999999997</v>
+      </c>
+      <c r="F184" s="1">
+        <v>-58.76</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>356</v>
-      </c>
-      <c r="B185" t="s">
-        <v>24</v>
-      </c>
-      <c r="C185" t="s">
-        <v>357</v>
-      </c>
-      <c r="D185" t="s">
-        <v>64</v>
-      </c>
-      <c r="E185">
-        <v>44.162999999999997</v>
-      </c>
-      <c r="F185">
-        <v>-94.009</v>
-      </c>
-      <c r="G185" t="s">
-        <v>187</v>
-      </c>
-      <c r="H185" t="s">
-        <v>364</v>
+      <c r="A185" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E185" s="1">
+        <v>-32.380000000000003</v>
+      </c>
+      <c r="F185" s="1">
+        <v>-63.27</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
-      </c>
-      <c r="C186" t="s">
-        <v>357</v>
+        <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="E186">
-        <v>44.162999999999997</v>
+        <v>14.305</v>
       </c>
       <c r="F186">
-        <v>-93.989000000000004</v>
+        <v>-90.784999999999997</v>
       </c>
       <c r="G186" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="H186" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>359</v>
+        <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E187">
-        <v>38.365000000000002</v>
+        <v>51.884999999999998</v>
       </c>
       <c r="F187">
-        <v>-75.599000000000004</v>
+        <v>4.2859999999999996</v>
       </c>
       <c r="G187" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H187" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>358</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="D188" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E188">
-        <v>38.365000000000002</v>
+        <v>51.238</v>
       </c>
       <c r="F188">
-        <v>-75.578999999999994</v>
+        <v>6.8140000000000001</v>
       </c>
       <c r="G188" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H188" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>361</v>
+        <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>362</v>
+        <v>97</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E189">
-        <v>49.670999999999999</v>
+        <v>51.204799999999999</v>
       </c>
       <c r="F189">
-        <v>27.666</v>
+        <v>6.6970000000000001</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H189" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>384</v>
+        <v>302</v>
       </c>
       <c r="D190" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="E190">
-        <v>-3.2719999999999998</v>
+        <v>6.4649999999999999</v>
       </c>
       <c r="F190">
-        <v>116.11799999999999</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="G190" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H190" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>301</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>302</v>
+      </c>
+      <c r="D191" t="s">
+        <v>303</v>
+      </c>
+      <c r="E191">
+        <v>6.4649999999999999</v>
+      </c>
+      <c r="F191">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="G191" t="s">
+        <v>52</v>
+      </c>
+      <c r="H191" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E192" s="1">
+        <v>-32.75</v>
+      </c>
+      <c r="F192" s="1">
+        <v>-63.78</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E193" s="1">
+        <v>-37.015999999999998</v>
+      </c>
+      <c r="F193" s="1">
+        <v>-62.393999999999998</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B191" t="s">
-        <v>377</v>
-      </c>
-      <c r="C191" t="s">
-        <v>385</v>
-      </c>
-      <c r="D191" t="s">
-        <v>31</v>
-      </c>
-      <c r="E191">
-        <v>-5.5540000000000003</v>
-      </c>
-      <c r="F191">
-        <v>105.372</v>
-      </c>
-      <c r="G191" t="s">
-        <v>80</v>
-      </c>
-      <c r="H191" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B194" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B192" t="s">
-        <v>377</v>
-      </c>
-      <c r="D192" t="s">
-        <v>378</v>
-      </c>
-      <c r="E192">
-        <v>14.539</v>
-      </c>
-      <c r="F192">
-        <v>-90.451999999999998</v>
-      </c>
-      <c r="G192" t="s">
-        <v>87</v>
-      </c>
-      <c r="H192" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>368</v>
-      </c>
-      <c r="B193" t="s">
-        <v>379</v>
-      </c>
-      <c r="D193" t="s">
-        <v>378</v>
-      </c>
-      <c r="E193">
-        <v>14.24</v>
-      </c>
-      <c r="F193">
-        <v>-91.376000000000005</v>
-      </c>
-      <c r="G193" t="s">
-        <v>388</v>
-      </c>
-      <c r="H193" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>369</v>
-      </c>
-      <c r="B194" t="s">
-        <v>377</v>
-      </c>
-      <c r="D194" t="s">
-        <v>380</v>
-      </c>
-      <c r="E194">
-        <v>11.242000000000001</v>
-      </c>
-      <c r="F194">
-        <v>-74.204999999999998</v>
-      </c>
-      <c r="G194" t="s">
-        <v>386</v>
-      </c>
-      <c r="H194" t="s">
-        <v>13</v>
+      <c r="D194" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E194" s="1">
+        <v>-36.615000000000002</v>
+      </c>
+      <c r="F194" s="1">
+        <v>-61.741999999999997</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>187</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195">
+        <v>51.92</v>
+      </c>
+      <c r="F195">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="G195" t="s">
+        <v>35</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E196" s="1">
+        <v>43.18</v>
+      </c>
+      <c r="F196" s="1">
+        <v>27.44</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B195" t="s">
-        <v>377</v>
-      </c>
-      <c r="D195" t="s">
-        <v>381</v>
-      </c>
-      <c r="E195">
-        <v>15.56</v>
-      </c>
-      <c r="F195">
-        <v>-87.75</v>
-      </c>
-      <c r="G195" t="s">
-        <v>387</v>
-      </c>
-      <c r="H195" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>371</v>
-      </c>
-      <c r="B196" t="s">
-        <v>377</v>
-      </c>
-      <c r="D196" t="s">
-        <v>378</v>
-      </c>
-      <c r="E196">
-        <v>14.305</v>
-      </c>
-      <c r="F196">
-        <v>-90.784999999999997</v>
-      </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="B197" t="s">
-        <v>377</v>
+        <v>21</v>
+      </c>
+      <c r="C197" t="s">
+        <v>189</v>
       </c>
       <c r="D197" t="s">
-        <v>382</v>
+        <v>23</v>
       </c>
       <c r="E197">
-        <v>20.658999999999999</v>
+        <v>49.841000000000001</v>
       </c>
       <c r="F197">
-        <v>-103.349</v>
+        <v>23.984999999999999</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="H197" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="B198" t="s">
-        <v>377</v>
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>189</v>
       </c>
       <c r="D198" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="E198">
-        <v>-0.33</v>
+        <v>49.841000000000001</v>
       </c>
       <c r="F198">
-        <v>-78.45</v>
+        <v>23.984999999999999</v>
       </c>
       <c r="G198" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="H198" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>374</v>
+        <v>251</v>
       </c>
       <c r="B199" t="s">
-        <v>377</v>
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>189</v>
       </c>
       <c r="D199" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="E199">
-        <v>-1.05</v>
+        <v>49.841000000000001</v>
       </c>
       <c r="F199">
-        <v>-80.683000000000007</v>
+        <v>24.484999999999999</v>
       </c>
       <c r="G199" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="H199" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="B200" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="E200">
-        <v>42.709000000000003</v>
+        <v>14.539</v>
       </c>
       <c r="F200">
-        <v>-92.581999999999994</v>
+        <v>-90.451999999999998</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H200" t="s">
-        <v>364</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="B201" t="s">
-        <v>379</v>
+        <v>21</v>
+      </c>
+      <c r="C201" t="s">
+        <v>337</v>
       </c>
       <c r="D201" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E201">
-        <v>46.927</v>
+        <v>38.365000000000002</v>
       </c>
       <c r="F201">
-        <v>-98.6</v>
+        <v>-75.599000000000004</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H201" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>337</v>
+      </c>
+      <c r="D202" t="s">
+        <v>58</v>
+      </c>
+      <c r="E202">
+        <v>38.365000000000002</v>
+      </c>
+      <c r="F202">
+        <v>-75.578999999999994</v>
+      </c>
+      <c r="G202" t="s">
+        <v>71</v>
+      </c>
+      <c r="H202" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>304</v>
+      </c>
+      <c r="B203" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" t="s">
+        <v>305</v>
+      </c>
+      <c r="D203" t="s">
+        <v>43</v>
+      </c>
+      <c r="E203">
+        <v>54.093000000000004</v>
+      </c>
+      <c r="F203">
+        <v>12.099</v>
+      </c>
+      <c r="G203" t="s">
+        <v>29</v>
+      </c>
+      <c r="H203" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>304</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>305</v>
+      </c>
+      <c r="D204" t="s">
+        <v>43</v>
+      </c>
+      <c r="E204">
+        <v>54.093000000000004</v>
+      </c>
+      <c r="F204">
+        <v>12.119</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D202" t="s">
-        <v>72</v>
-      </c>
-      <c r="E202">
-        <v>50.445</v>
-      </c>
-      <c r="F202">
-        <v>-104.619</v>
-      </c>
-      <c r="G202" t="s">
-        <v>32</v>
-      </c>
-      <c r="H202" t="s">
-        <v>363</v>
+      <c r="B205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E205" s="1">
+        <v>-35.444000000000003</v>
+      </c>
+      <c r="F205" s="1">
+        <v>-60.881</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>191</v>
+      </c>
+      <c r="B206" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206" t="s">
+        <v>192</v>
+      </c>
+      <c r="D206" t="s">
+        <v>40</v>
+      </c>
+      <c r="E206">
+        <v>43.347000000000001</v>
+      </c>
+      <c r="F206">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>193</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>194</v>
+      </c>
+      <c r="D207" t="s">
+        <v>40</v>
+      </c>
+      <c r="E207">
+        <v>43.454999999999998</v>
+      </c>
+      <c r="F207">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E208" s="1">
+        <v>-38.58</v>
+      </c>
+      <c r="F208" s="1">
+        <v>-58.7</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>195</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" t="s">
+        <v>196</v>
+      </c>
+      <c r="D209" t="s">
+        <v>66</v>
+      </c>
+      <c r="E209">
+        <v>51.216999999999999</v>
+      </c>
+      <c r="F209">
+        <v>-102.473</v>
+      </c>
+      <c r="G209" t="s">
+        <v>35</v>
+      </c>
+      <c r="H209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>197</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>198</v>
+      </c>
+      <c r="D210" t="s">
+        <v>43</v>
+      </c>
+      <c r="E210">
+        <v>53.551000000000002</v>
+      </c>
+      <c r="F210">
+        <v>9.9939999999999998</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>310</v>
+      </c>
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" t="s">
+        <v>311</v>
+      </c>
+      <c r="D211" t="s">
+        <v>40</v>
+      </c>
+      <c r="E211">
+        <v>44.89</v>
+      </c>
+      <c r="F211">
+        <v>-0.53500000000000003</v>
+      </c>
+      <c r="G211" t="s">
+        <v>180</v>
+      </c>
+      <c r="H211" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>310</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>311</v>
+      </c>
+      <c r="D212" t="s">
+        <v>40</v>
+      </c>
+      <c r="E212">
+        <v>44.89</v>
+      </c>
+      <c r="F212">
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="G212" t="s">
+        <v>180</v>
+      </c>
+      <c r="H212" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>306</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>307</v>
+      </c>
+      <c r="D213" t="s">
+        <v>40</v>
+      </c>
+      <c r="E213">
+        <v>49.4</v>
+      </c>
+      <c r="F213">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="G213" t="s">
+        <v>29</v>
+      </c>
+      <c r="H213" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E214" s="1">
+        <v>49.359000000000002</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1.004</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>308</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" t="s">
+        <v>309</v>
+      </c>
+      <c r="D215" t="s">
+        <v>40</v>
+      </c>
+      <c r="E215">
+        <v>48.521000000000001</v>
+      </c>
+      <c r="F215">
+        <v>3.593</v>
+      </c>
+      <c r="G215" t="s">
+        <v>35</v>
+      </c>
+      <c r="H215" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>308</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>309</v>
+      </c>
+      <c r="D216" t="s">
+        <v>40</v>
+      </c>
+      <c r="E216">
+        <v>48.521000000000001</v>
+      </c>
+      <c r="F216">
+        <v>3.613</v>
+      </c>
+      <c r="G216" t="s">
+        <v>35</v>
+      </c>
+      <c r="H216" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>199</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" t="s">
+        <v>200</v>
+      </c>
+      <c r="D217" t="s">
+        <v>40</v>
+      </c>
+      <c r="E217">
+        <v>45.844999999999999</v>
+      </c>
+      <c r="F217">
+        <v>3.383</v>
+      </c>
+      <c r="G217" t="s">
+        <v>81</v>
+      </c>
+      <c r="H217" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E218" s="1">
+        <v>47.32</v>
+      </c>
+      <c r="F218" s="1">
+        <v>-2.17</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E219" s="1">
+        <v>43.401000000000003</v>
+      </c>
+      <c r="F219" s="1">
+        <v>3.6960000000000002</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>313</v>
+      </c>
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" t="s">
+        <v>314</v>
+      </c>
+      <c r="D220" t="s">
+        <v>40</v>
+      </c>
+      <c r="E220">
+        <v>43.402999999999999</v>
+      </c>
+      <c r="F220">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="G220" t="s">
+        <v>256</v>
+      </c>
+      <c r="H220" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>315</v>
+      </c>
+      <c r="B221" t="s">
+        <v>21</v>
+      </c>
+      <c r="C221" t="s">
+        <v>316</v>
+      </c>
+      <c r="D221" t="s">
+        <v>47</v>
+      </c>
+      <c r="E221">
+        <v>58.893000000000001</v>
+      </c>
+      <c r="F221">
+        <v>25.338999999999999</v>
+      </c>
+      <c r="G221" t="s">
+        <v>214</v>
+      </c>
+      <c r="H221" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>315</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>316</v>
+      </c>
+      <c r="D222" t="s">
+        <v>47</v>
+      </c>
+      <c r="E222">
+        <v>58.893000000000001</v>
+      </c>
+      <c r="F222">
+        <v>25.359000000000002</v>
+      </c>
+      <c r="G222" t="s">
+        <v>214</v>
+      </c>
+      <c r="H222" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>351</v>
+      </c>
+      <c r="B223" t="s">
+        <v>353</v>
+      </c>
+      <c r="C223" t="s">
+        <v>484</v>
+      </c>
+      <c r="D223" t="s">
+        <v>58</v>
+      </c>
+      <c r="E223">
+        <v>42.709000000000003</v>
+      </c>
+      <c r="F223">
+        <v>-92.581999999999994</v>
+      </c>
+      <c r="G223" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E224" s="1">
+        <v>-34.295000000000002</v>
+      </c>
+      <c r="F224" s="1">
+        <v>-60.261000000000003</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>208</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>209</v>
+      </c>
+      <c r="D225" t="s">
+        <v>173</v>
+      </c>
+      <c r="E225">
+        <v>-26.213000000000001</v>
+      </c>
+      <c r="F225">
+        <v>28.259</v>
+      </c>
+      <c r="G225" t="s">
+        <v>210</v>
+      </c>
+      <c r="H225" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>211</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>212</v>
+      </c>
+      <c r="D226" t="s">
+        <v>213</v>
+      </c>
+      <c r="E226">
+        <v>-6.2279999999999998</v>
+      </c>
+      <c r="F226">
+        <v>155.565</v>
+      </c>
+      <c r="G226" t="s">
+        <v>214</v>
+      </c>
+      <c r="H226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>202</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>203</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227">
+        <v>53.4</v>
+      </c>
+      <c r="F227">
+        <v>-2.9950000000000001</v>
+      </c>
+      <c r="G227" t="s">
+        <v>35</v>
+      </c>
+      <c r="H227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>216</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>217</v>
+      </c>
+      <c r="D228" t="s">
+        <v>213</v>
+      </c>
+      <c r="E228">
+        <v>-9.4779999999999998</v>
+      </c>
+      <c r="F228">
+        <v>147.15</v>
+      </c>
+      <c r="G228" t="s">
+        <v>214</v>
+      </c>
+      <c r="H228" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>201</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229">
+        <v>51.887</v>
+      </c>
+      <c r="F229">
+        <v>4.29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>35</v>
+      </c>
+      <c r="H229" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>206</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>207</v>
+      </c>
+      <c r="D230" t="s">
+        <v>207</v>
+      </c>
+      <c r="E230">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="F230">
+        <v>103.833</v>
+      </c>
+      <c r="G230" t="s">
+        <v>74</v>
+      </c>
+      <c r="H230" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>204</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>205</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231">
+        <v>51.829000000000001</v>
+      </c>
+      <c r="F231">
+        <v>4.633</v>
+      </c>
+      <c r="G231" t="s">
+        <v>35</v>
+      </c>
+      <c r="H231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>317</v>
+      </c>
+      <c r="B232" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232" t="s">
+        <v>318</v>
+      </c>
+      <c r="D232" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232">
+        <v>38.039000000000001</v>
+      </c>
+      <c r="F232">
+        <v>-3.7749999999999999</v>
+      </c>
+      <c r="G232" t="s">
+        <v>319</v>
+      </c>
+      <c r="H232" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>317</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>318</v>
+      </c>
+      <c r="D233" t="s">
+        <v>18</v>
+      </c>
+      <c r="E233">
+        <v>38.039000000000001</v>
+      </c>
+      <c r="F233">
+        <v>-3.7549999999999999</v>
+      </c>
+      <c r="G233" t="s">
+        <v>319</v>
+      </c>
+      <c r="H233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>219</v>
+      </c>
+      <c r="D234" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234">
+        <v>37.575000000000003</v>
+      </c>
+      <c r="F234">
+        <v>-5.9</v>
+      </c>
+      <c r="G234" t="s">
+        <v>52</v>
+      </c>
+      <c r="H234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>320</v>
+      </c>
+      <c r="B235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C235" t="s">
+        <v>321</v>
+      </c>
+      <c r="D235" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235">
+        <v>41.292999999999999</v>
+      </c>
+      <c r="F235">
+        <v>-4.6879999999999997</v>
+      </c>
+      <c r="G235" t="s">
+        <v>322</v>
+      </c>
+      <c r="H235" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>320</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>321</v>
+      </c>
+      <c r="D236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236">
+        <v>41.292999999999999</v>
+      </c>
+      <c r="F236">
+        <v>-4.6680000000000001</v>
+      </c>
+      <c r="G236" t="s">
+        <v>322</v>
+      </c>
+      <c r="H236" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E237" s="1">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="F237" s="1">
+        <v>-58.4</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>220</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>97</v>
+      </c>
+      <c r="D238" t="s">
+        <v>43</v>
+      </c>
+      <c r="E238">
+        <v>51.204799999999999</v>
+      </c>
+      <c r="F238">
+        <v>6.6849999999999996</v>
+      </c>
+      <c r="G238" t="s">
+        <v>74</v>
+      </c>
+      <c r="H238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>324</v>
+      </c>
+      <c r="B239" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" t="s">
+        <v>178</v>
+      </c>
+      <c r="D239" t="s">
+        <v>23</v>
+      </c>
+      <c r="E239">
+        <v>49.832999999999998</v>
+      </c>
+      <c r="F239">
+        <v>34.582999999999998</v>
+      </c>
+      <c r="G239" t="s">
+        <v>325</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>324</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>178</v>
+      </c>
+      <c r="D240" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240">
+        <v>49.832999999999998</v>
+      </c>
+      <c r="F240">
+        <v>34.603000000000002</v>
+      </c>
+      <c r="G240" t="s">
+        <v>325</v>
+      </c>
+      <c r="H240" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>338</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" t="s">
+        <v>92</v>
+      </c>
+      <c r="D241" t="s">
+        <v>93</v>
+      </c>
+      <c r="E241">
+        <v>44.417999999999999</v>
+      </c>
+      <c r="F241">
+        <v>12.202999999999999</v>
+      </c>
+      <c r="G241" t="s">
+        <v>180</v>
+      </c>
+      <c r="H241" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>221</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>222</v>
+      </c>
+      <c r="D242" t="s">
+        <v>100</v>
+      </c>
+      <c r="E242">
+        <v>50.27</v>
+      </c>
+      <c r="F242">
+        <v>19.039000000000001</v>
+      </c>
+      <c r="G242" t="s">
+        <v>81</v>
+      </c>
+      <c r="H242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>326</v>
+      </c>
+      <c r="B243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C243" t="s">
+        <v>327</v>
+      </c>
+      <c r="D243" t="s">
+        <v>328</v>
+      </c>
+      <c r="E243">
+        <v>50.981000000000002</v>
+      </c>
+      <c r="F243">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>326</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" t="s">
+        <v>327</v>
+      </c>
+      <c r="D244" t="s">
+        <v>328</v>
+      </c>
+      <c r="E244">
+        <v>50.981000000000002</v>
+      </c>
+      <c r="F244">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E245" s="1">
+        <v>-28.65</v>
+      </c>
+      <c r="F245" s="1">
+        <v>-64.349999999999994</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E246" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="F246" s="1">
+        <v>28.48</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E247" s="1">
+        <v>49.26</v>
+      </c>
+      <c r="F247" s="1">
+        <v>28.48</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>230</v>
+      </c>
+      <c r="B248" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248" t="s">
+        <v>231</v>
+      </c>
+      <c r="D248" t="s">
+        <v>100</v>
+      </c>
+      <c r="E248">
+        <v>50.723999999999997</v>
+      </c>
+      <c r="F248">
+        <v>23.045000000000002</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>228</v>
+      </c>
+      <c r="B249" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" t="s">
+        <v>229</v>
+      </c>
+      <c r="D249" t="s">
+        <v>43</v>
+      </c>
+      <c r="E249">
+        <v>54.136000000000003</v>
+      </c>
+      <c r="F249">
+        <v>13.592000000000001</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>226</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>227</v>
+      </c>
+      <c r="D250" t="s">
+        <v>43</v>
+      </c>
+      <c r="E250">
+        <v>52.131</v>
+      </c>
+      <c r="F250">
+        <v>11.638999999999999</v>
+      </c>
+      <c r="G250" t="s">
+        <v>74</v>
+      </c>
+      <c r="H250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>237</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" t="s">
+        <v>238</v>
+      </c>
+      <c r="D251" t="s">
+        <v>160</v>
+      </c>
+      <c r="E251">
+        <v>-32.667000000000002</v>
+      </c>
+      <c r="F251">
+        <v>-60.8</v>
+      </c>
+      <c r="G251" t="s">
+        <v>239</v>
+      </c>
+      <c r="H251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>232</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" t="s">
+        <v>233</v>
+      </c>
+      <c r="D252" t="s">
+        <v>66</v>
+      </c>
+      <c r="E252">
+        <v>49.688000000000002</v>
+      </c>
+      <c r="F252">
+        <v>-97.147000000000006</v>
+      </c>
+      <c r="G252" t="s">
+        <v>234</v>
+      </c>
+      <c r="H252" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>223</v>
+      </c>
+      <c r="B253" t="s">
+        <v>21</v>
+      </c>
+      <c r="C253" t="s">
+        <v>224</v>
+      </c>
+      <c r="D253" t="s">
+        <v>225</v>
+      </c>
+      <c r="E253">
+        <v>50.66</v>
+      </c>
+      <c r="F253">
+        <v>14.04</v>
+      </c>
+      <c r="G253" t="s">
+        <v>59</v>
+      </c>
+      <c r="H253" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>235</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" t="s">
+        <v>236</v>
+      </c>
+      <c r="D254" t="s">
+        <v>58</v>
+      </c>
+      <c r="E254">
+        <v>46.966999999999999</v>
+      </c>
+      <c r="F254">
+        <v>-119.04</v>
+      </c>
+      <c r="G254" t="s">
+        <v>234</v>
+      </c>
+      <c r="H254" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>241</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" t="s">
+        <v>242</v>
+      </c>
+      <c r="D255" t="s">
+        <v>43</v>
+      </c>
+      <c r="E255">
+        <v>53.326999999999998</v>
+      </c>
+      <c r="F255">
+        <v>8.4860000000000007</v>
+      </c>
+      <c r="G255" t="s">
+        <v>74</v>
+      </c>
+      <c r="H255" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>244</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" t="s">
+        <v>245</v>
+      </c>
+      <c r="D256" t="s">
+        <v>246</v>
+      </c>
+      <c r="E256">
+        <v>5.67</v>
+      </c>
+      <c r="F256">
+        <v>0.02</v>
+      </c>
+      <c r="G256" t="s">
+        <v>52</v>
+      </c>
+      <c r="H256" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H256" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50BE1F41-1043-4BFE-89A5-45B8BB1DC44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0383F41-9572-4B5E-8EA7-2B41C729B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -2406,7 +2406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2879,7 +2881,7 @@
         <v>51.935000000000002</v>
       </c>
       <c r="F18" s="1">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>74</v>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0383F41-9572-4B5E-8EA7-2B41C729B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0B999-D9B6-4B18-8CBB-3F16B2ED97EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="45" yWindow="360" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="510">
   <si>
     <t>Name</t>
   </si>
@@ -1541,6 +1541,18 @@
   </si>
   <si>
     <t>LDC Yorkton</t>
+  </si>
+  <si>
+    <t>Grupo Carrinho</t>
+  </si>
+  <si>
+    <t>Lobito</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>CPO, SBO</t>
   </si>
 </sst>
 </file>
@@ -2404,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9057,6 +9069,32 @@
         <v>49</v>
       </c>
     </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>506</v>
+      </c>
+      <c r="B257" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" t="s">
+        <v>507</v>
+      </c>
+      <c r="D257" t="s">
+        <v>508</v>
+      </c>
+      <c r="E257">
+        <v>-12.545</v>
+      </c>
+      <c r="F257">
+        <v>13.492000000000001</v>
+      </c>
+      <c r="G257" t="s">
+        <v>281</v>
+      </c>
+      <c r="H257" t="s">
+        <v>509</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H256" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A376E79-2044-4784-8EEC-EC0EF52BCD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA150D36-7A9F-4DA1-82A7-3099B871AB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="34905" yWindow="1800" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="683">
   <si>
     <t>Name</t>
   </si>
@@ -2061,6 +2061,30 @@
   </si>
   <si>
     <t>Sudan</t>
+  </si>
+  <si>
+    <t>Maya &amp; Cie</t>
+  </si>
+  <si>
+    <t>Bonaberi</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Sonacos SA</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>Angoalissar</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2092,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2547,13 +2571,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2929,11 +2952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:L336"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,7 +3105,7 @@
       <c r="A6" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3091,10 +3114,10 @@
       <c r="D6" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>38.432300000000005</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>27.150299999999998</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3108,7 +3131,7 @@
       <c r="A7" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3117,10 +3140,10 @@
       <c r="D7" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>4.7110000000000003</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>-74.072100000000006</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3143,10 +3166,10 @@
       <c r="D8" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>12.1364</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>-86.25139999999999</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3247,10 +3270,10 @@
       <c r="D12" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>15.916700000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>-85.9542</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -3273,10 +3296,10 @@
       <c r="D13" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>-17.783300000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>-63.183300000000003</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -3325,10 +3348,10 @@
       <c r="D15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>-20.4697</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>-54.620100000000001</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3365,54 +3388,54 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>490</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
         <v>257</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>54.281999999999996</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>19.172999999999998</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>490</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>257</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>54.281999999999996</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>19.193000000000001</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3573,28 +3596,28 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>493</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>51.924399999999999</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>4.4776999999999996</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3755,106 +3778,106 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>495</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>49.594000000000001</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>17.25</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>495</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>49.594000000000001</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>17.27</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>496</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>39.935000000000002</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>-91.409000000000006</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>496</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
         <v>262</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>39.935000000000002</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>-91.388999999999996</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3885,28 +3908,28 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>497</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
         <v>263</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>47.042000000000002</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>-98.695999999999998</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
         <v>264</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4027,10 +4050,10 @@
       <c r="D42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>-25.5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>-57.53</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -4053,10 +4076,10 @@
       <c r="D43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>-29.883299999999998</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>31.0456</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -4105,10 +4128,10 @@
       <c r="D45" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>12.0137</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>-83.763499999999993</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -4122,7 +4145,7 @@
       <c r="A46" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4131,10 +4154,10 @@
       <c r="D46" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>12.0137</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>-83.763499999999993</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -4157,10 +4180,10 @@
       <c r="D47" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>25.0108</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>55.0625</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -4174,7 +4197,7 @@
       <c r="A48" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4183,10 +4206,10 @@
       <c r="D48" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>-1.0455999999999999</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>-80.6631</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -4209,10 +4232,10 @@
       <c r="D49" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>31.200099999999999</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>29.918700000000001</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -4235,10 +4258,10 @@
       <c r="D50" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>-12.045299999999999</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>-77.122199999999992</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -4457,28 +4480,28 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>100.354</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4521,10 +4544,10 @@
       <c r="D61" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>30.3</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>31.75</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -4547,10 +4570,10 @@
       <c r="D62" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>34.633000000000003</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -4573,10 +4596,10 @@
       <c r="D63" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>5.67</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>-2E-3</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -4616,7 +4639,7 @@
       <c r="A65" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4625,10 +4648,10 @@
       <c r="D65" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>35.721899999999998</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>51.334699999999998</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -4651,10 +4674,10 @@
       <c r="D66" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>33.2042</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -4677,10 +4700,10 @@
       <c r="D67" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>-1.0415000000000001</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>37.083400000000005</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -5263,80 +5286,80 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>64</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
         <v>65</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90">
         <v>53.3</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90">
         <v>-104</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" t="s">
         <v>35</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
         <v>266</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s">
         <v>23</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91">
         <v>48.463999999999999</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91">
         <v>35.045999999999999</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" t="s">
         <v>256</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>265</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92">
         <v>48.463999999999999</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92">
         <v>35.066000000000003</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" t="s">
         <v>256</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5419,28 +5442,28 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
         <v>73</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" t="s">
         <v>66</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96">
         <v>53.712000000000003</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96">
         <v>-113.215</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" t="s">
         <v>74</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5497,28 +5520,28 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>275</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
         <v>276</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" t="s">
         <v>66</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99">
         <v>43.255000000000003</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99">
         <v>-79.850999999999999</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" t="s">
         <v>81</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5575,54 +5598,54 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>286</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
         <v>287</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>288</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102">
         <v>38.423000000000002</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102">
         <v>27.141999999999999</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" t="s">
         <v>35</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>286</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
         <v>287</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" t="s">
         <v>288</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103">
         <v>38.423000000000002</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103">
         <v>27.161999999999999</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" t="s">
         <v>35</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5913,28 +5936,28 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
         <v>95</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" t="s">
         <v>43</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115">
         <v>49.488</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115">
         <v>8.4689999999999994</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" t="s">
         <v>35</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6147,28 +6170,28 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="2" t="s">
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
         <v>97</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124">
         <v>51.204000000000001</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124">
         <v>6.6870000000000003</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="G124" t="s">
         <v>35</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H124" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6407,28 +6430,28 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" t="s">
         <v>121</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="2" t="s">
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
         <v>122</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s">
         <v>120</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134">
         <v>30.484000000000002</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134">
         <v>76.593999999999994</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" t="s">
         <v>35</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="H134" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6511,54 +6534,54 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" t="s">
         <v>292</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="2" t="s">
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
         <v>293</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" t="s">
         <v>34</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138">
         <v>35.4</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138">
         <v>119.553</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" t="s">
         <v>35</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="H138" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C139" s="2" t="s">
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" t="s">
         <v>152</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" t="s">
         <v>138</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139">
         <v>-16.478000000000002</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139">
         <v>-54.637999999999998</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" t="s">
         <v>35</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H139" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6566,7 +6589,7 @@
       <c r="A140" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -6575,10 +6598,10 @@
       <c r="D140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="2">
         <v>-16.467700000000001</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="2">
         <v>-54.637699999999995</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -6589,28 +6612,28 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>294</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141" s="2" t="s">
+      <c r="B141" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" t="s">
         <v>295</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" t="s">
         <v>160</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141">
         <v>-32.93</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141">
         <v>-61.052999999999997</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" t="s">
         <v>35</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="H141" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6647,7 +6670,7 @@
       <c r="B143" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" t="s">
         <v>142</v>
       </c>
       <c r="D143" t="s">
@@ -6745,28 +6768,28 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>115</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C147" s="2" t="s">
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
         <v>116</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" t="s">
         <v>117</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147">
         <v>41.667000000000002</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147">
         <v>25.5</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" t="s">
         <v>35</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H147" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6797,28 +6820,28 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>123</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
         <v>124</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" t="s">
         <v>120</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149">
         <v>10.79</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149">
         <v>78.703999999999994</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" t="s">
         <v>35</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="H149" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6896,7 +6919,7 @@
       <c r="G152" t="s">
         <v>35</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="H152" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6904,51 +6927,51 @@
       <c r="A153" t="s">
         <v>82</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153" s="2" t="s">
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" t="s">
         <v>83</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" t="s">
         <v>66</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153">
         <v>52.835999999999999</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153">
         <v>-110.857</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" t="s">
         <v>35</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="H153" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="A154" t="s">
         <v>132</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="2" t="s">
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
         <v>133</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" t="s">
         <v>34</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154">
         <v>24.478999999999999</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154">
         <v>118.089</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G154" t="s">
         <v>35</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="H154" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7008,7 +7031,7 @@
       <c r="A157" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -7017,10 +7040,10 @@
       <c r="D157" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="2">
         <v>30.905000000000001</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="2">
         <v>29.518999999999998</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -7057,28 +7080,28 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" t="s">
         <v>170</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="2" t="s">
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
         <v>171</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159">
         <v>52.036999999999999</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159">
         <v>-106.34</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" t="s">
         <v>35</v>
       </c>
-      <c r="H159" s="2" t="s">
+      <c r="H159" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7193,7 +7216,7 @@
       <c r="B164" t="s">
         <v>8</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" t="s">
         <v>166</v>
       </c>
       <c r="D164" t="s">
@@ -7251,10 +7274,10 @@
       <c r="D166" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="2">
         <v>-18.9146</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="2">
         <v>-48.275400000000005</v>
       </c>
       <c r="G166" s="1" t="s">
@@ -7277,10 +7300,10 @@
       <c r="D167" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="2">
         <v>-33.020000000000003</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="2">
         <v>-60.633300000000006</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -7294,7 +7317,7 @@
       <c r="A168" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -7303,10 +7326,10 @@
       <c r="D168" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="2">
         <v>-25.5</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="2">
         <v>-57.53</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -7320,7 +7343,7 @@
       <c r="A169" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -7329,10 +7352,10 @@
       <c r="D169" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="2">
         <v>37.2746</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="2">
         <v>9.873899999999999</v>
       </c>
       <c r="G169" s="1" t="s">
@@ -7346,7 +7369,7 @@
       <c r="A170" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -7355,10 +7378,10 @@
       <c r="D170" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="2">
         <v>36.750900000000001</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="2">
         <v>5.0564</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -7369,28 +7392,28 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>247</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" s="2" t="s">
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s">
         <v>248</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" t="s">
         <v>58</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171">
         <v>48.77</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171">
         <v>-96.94</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" t="s">
         <v>74</v>
       </c>
-      <c r="H171" s="2" t="s">
+      <c r="H171" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7537,10 +7560,10 @@
       <c r="D177" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="2">
         <v>15.683299999999999</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="2">
         <v>-86</v>
       </c>
       <c r="G177" s="1" t="s">
@@ -7563,10 +7586,10 @@
       <c r="D178" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="2">
         <v>-34.9011</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="2">
         <v>-56.164499999999997</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -7612,10 +7635,10 @@
       <c r="D180" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="2">
         <v>11.2408</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="2">
         <v>-74.198999999999998</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -7638,10 +7661,10 @@
       <c r="D181" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="2">
         <v>-2.1708000000000003</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="2">
         <v>-79.922699999999992</v>
       </c>
       <c r="G181" s="1" t="s">
@@ -7652,51 +7675,51 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" t="s">
         <v>174</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C182" s="2" t="s">
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
         <v>175</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" t="s">
         <v>40</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182">
         <v>51.036999999999999</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182">
         <v>2.3769999999999998</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="G182" t="s">
         <v>176</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="H182" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" t="s">
         <v>499</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C183" s="2" t="s">
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
         <v>22</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" t="s">
         <v>23</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183">
         <v>46.622</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183">
         <v>31.100999999999999</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G183" t="s">
         <v>24</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -7704,7 +7727,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="A184" t="s">
         <v>499</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -7768,10 +7791,10 @@
       <c r="D186" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="2">
         <v>12.6294</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F186" s="2">
         <v>-87.131</v>
       </c>
       <c r="G186" s="1" t="s">
@@ -7872,10 +7895,10 @@
       <c r="D190" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="2">
         <v>-26.153299999999998</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="2">
         <v>26.159599999999998</v>
       </c>
       <c r="G190" s="1" t="s">
@@ -7941,7 +7964,7 @@
       <c r="A193" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -7950,10 +7973,10 @@
       <c r="D193" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="2">
         <v>10.963899999999999</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="2">
         <v>-74.796399999999991</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -7967,7 +7990,7 @@
       <c r="A194" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -7976,10 +7999,10 @@
       <c r="D194" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="2">
         <v>6.5244</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="2">
         <v>3.3792</v>
       </c>
       <c r="G194" s="1" t="s">
@@ -8106,10 +8129,10 @@
       <c r="D199" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="2">
         <v>3.9004000000000003</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="2">
         <v>-76.297300000000007</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -8132,10 +8155,10 @@
       <c r="D200" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="2">
         <v>6.2442000000000002</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="2">
         <v>-75.581199999999995</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -8158,10 +8181,10 @@
       <c r="D201" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="2">
         <v>-17.783300000000001</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="2">
         <v>-63.183300000000003</v>
       </c>
       <c r="G201" s="1" t="s">
@@ -8210,10 +8233,10 @@
       <c r="D203" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="2">
         <v>14.465299999999999</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="2">
         <v>-90.440799999999996</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -8253,7 +8276,7 @@
       <c r="A205" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -8262,10 +8285,10 @@
       <c r="D205" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="2">
         <v>15.504200000000001</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="2">
         <v>-88.025000000000006</v>
       </c>
       <c r="G205" s="1" t="s">
@@ -8311,10 +8334,10 @@
       <c r="D207" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="2">
         <v>15.25</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="2">
         <v>-87.98</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -8325,26 +8348,25 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="A208" t="s">
         <v>349</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2" t="s">
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
         <v>357</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208">
         <v>-0.33</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208">
         <v>-78.45</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G208" t="s">
         <v>81</v>
       </c>
-      <c r="H208" s="2" t="s">
+      <c r="H208" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8387,10 +8409,10 @@
       <c r="D210" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210" s="2">
         <v>31.951900000000002</v>
       </c>
-      <c r="F210" s="3">
+      <c r="F210" s="2">
         <v>35.910599999999995</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -8413,10 +8435,10 @@
       <c r="D211" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="2">
         <v>-1.2864</v>
       </c>
-      <c r="F211" s="3">
+      <c r="F211" s="2">
         <v>36.8172</v>
       </c>
       <c r="G211" s="1" t="s">
@@ -8517,10 +8539,10 @@
       <c r="D215" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215" s="2">
         <v>-9.6000000000000002E-5</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="2">
         <v>-80.712699999999998</v>
       </c>
       <c r="G215" s="1" t="s">
@@ -8580,54 +8602,54 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="A218" t="s">
         <v>503</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C218" s="2" t="s">
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
         <v>333</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" t="s">
         <v>40</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218">
         <v>48.38</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218">
         <v>-4.47</v>
       </c>
-      <c r="G218" s="2" t="s">
+      <c r="G218" t="s">
         <v>256</v>
       </c>
-      <c r="H218" s="2" t="s">
+      <c r="H218" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="A219" t="s">
         <v>504</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219" s="2" t="s">
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" t="s">
         <v>331</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" t="s">
         <v>58</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219">
         <v>41.113999999999997</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219">
         <v>-85.884</v>
       </c>
-      <c r="G219" s="2" t="s">
+      <c r="G219" t="s">
         <v>332</v>
       </c>
-      <c r="H219" s="2" t="s">
+      <c r="H219" t="s">
         <v>240</v>
       </c>
     </row>
@@ -8670,10 +8692,10 @@
       <c r="D221" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="2">
         <v>-33.108899999999998</v>
       </c>
-      <c r="F221" s="3">
+      <c r="F221" s="2">
         <v>-60.510300000000001</v>
       </c>
       <c r="G221" s="1" t="s">
@@ -8696,10 +8718,10 @@
       <c r="D222" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="2">
         <v>-25.091699999999999</v>
       </c>
-      <c r="F222" s="3">
+      <c r="F222" s="2">
         <v>-50.166499999999999</v>
       </c>
       <c r="G222" s="1" t="s">
@@ -8739,7 +8761,7 @@
       <c r="A224" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" t="s">
         <v>8</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -8748,10 +8770,10 @@
       <c r="D224" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224" s="2">
         <v>33.573099999999997</v>
       </c>
-      <c r="F224" s="3">
+      <c r="F224" s="2">
         <v>-7.5898000000000003</v>
       </c>
       <c r="G224" s="1" t="s">
@@ -8826,10 +8848,10 @@
       <c r="D227" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227" s="2">
         <v>-4.4418999999999995</v>
       </c>
-      <c r="F227" s="3">
+      <c r="F227" s="2">
         <v>15.266299999999999</v>
       </c>
       <c r="G227" s="1" t="s">
@@ -8852,10 +8874,10 @@
       <c r="D228" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E228" s="2">
         <v>37.2746</v>
       </c>
-      <c r="F228" s="3">
+      <c r="F228" s="2">
         <v>9.873899999999999</v>
       </c>
       <c r="G228" s="1" t="s">
@@ -9008,10 +9030,10 @@
       <c r="D234" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234" s="2">
         <v>-32.75</v>
       </c>
-      <c r="F234" s="3">
+      <c r="F234" s="2">
         <v>-60.738900000000001</v>
       </c>
       <c r="G234" s="1" t="s">
@@ -9034,10 +9056,10 @@
       <c r="D235" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235" s="2">
         <v>-3.375</v>
       </c>
-      <c r="F235" s="3">
+      <c r="F235" s="2">
         <v>36.682000000000002</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -9060,10 +9082,10 @@
       <c r="D236" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E236" s="3">
+      <c r="E236" s="2">
         <v>-13.9626</v>
       </c>
-      <c r="F236" s="3">
+      <c r="F236" s="2">
         <v>33.774099999999997</v>
       </c>
       <c r="G236" s="1" t="s">
@@ -9077,7 +9099,7 @@
       <c r="A237" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -9086,10 +9108,10 @@
       <c r="D237" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237" s="2">
         <v>-15.387499999999999</v>
       </c>
-      <c r="F237" s="3">
+      <c r="F237" s="2">
         <v>28.322800000000001</v>
       </c>
       <c r="G237" s="1" t="s">
@@ -9112,10 +9134,10 @@
       <c r="D238" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E238" s="3">
+      <c r="E238" s="2">
         <v>-6.7923999999999998</v>
       </c>
-      <c r="F238" s="3">
+      <c r="F238" s="2">
         <v>39.208300000000001</v>
       </c>
       <c r="G238" s="1" t="s">
@@ -9187,10 +9209,10 @@
       <c r="D241" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E241" s="2">
         <v>14.3009</v>
       </c>
-      <c r="F241" s="3">
+      <c r="F241" s="2">
         <v>-90.785800000000009</v>
       </c>
       <c r="G241" s="1" t="s">
@@ -9213,10 +9235,10 @@
       <c r="D242" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E242" s="3">
+      <c r="E242" s="2">
         <v>-24.194299999999998</v>
       </c>
-      <c r="F242" s="3">
+      <c r="F242" s="2">
         <v>29.009</v>
       </c>
       <c r="G242" s="1" t="s">
@@ -9279,28 +9301,28 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
+      <c r="A245" t="s">
         <v>184</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C245" s="2" t="s">
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
         <v>97</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" t="s">
         <v>43</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245">
         <v>51.204799999999999</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245">
         <v>6.6970000000000001</v>
       </c>
-      <c r="G245" s="2" t="s">
+      <c r="G245" t="s">
         <v>74</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="H245" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9308,7 +9330,7 @@
       <c r="A246" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" t="s">
         <v>8</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -9317,10 +9339,10 @@
       <c r="D246" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246" s="2">
         <v>6.3381999999999996</v>
       </c>
-      <c r="F246" s="3">
+      <c r="F246" s="2">
         <v>5.6257999999999999</v>
       </c>
       <c r="G246" s="1" t="s">
@@ -9331,28 +9353,28 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="A247" t="s">
         <v>301</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C247" s="2" t="s">
+      <c r="B247" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247" t="s">
         <v>302</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" t="s">
         <v>303</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247">
         <v>6.4649999999999999</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247">
         <v>3.4060000000000001</v>
       </c>
-      <c r="G247" s="2" t="s">
+      <c r="G247" t="s">
         <v>52</v>
       </c>
-      <c r="H247" s="2" t="s">
+      <c r="H247" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9522,10 +9544,10 @@
       <c r="D254" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="2">
         <v>10.963899999999999</v>
       </c>
-      <c r="F254" s="3">
+      <c r="F254" s="2">
         <v>-74.796399999999991</v>
       </c>
       <c r="G254" s="1" t="s">
@@ -9574,10 +9596,10 @@
       <c r="D256" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256" s="2">
         <v>-17.825200000000002</v>
       </c>
-      <c r="F256" s="3">
+      <c r="F256" s="2">
         <v>31.0335</v>
       </c>
       <c r="G256" s="1" t="s">
@@ -9587,7 +9609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>188</v>
       </c>
@@ -9612,86 +9634,83 @@
       <c r="H257" t="s">
         <v>53</v>
       </c>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>188</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" t="s">
         <v>189</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" t="s">
         <v>23</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E258">
         <v>49.841000000000001</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258">
         <v>23.984999999999999</v>
       </c>
-      <c r="G258" s="2" t="s">
+      <c r="G258" t="s">
         <v>190</v>
       </c>
-      <c r="H258" s="2" t="s">
+      <c r="H258" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>251</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" t="s">
         <v>189</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" t="s">
         <v>23</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259">
         <v>49.841000000000001</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259">
         <v>24.484999999999999</v>
       </c>
-      <c r="G259" s="2" t="s">
+      <c r="G259" t="s">
         <v>190</v>
       </c>
-      <c r="H259" s="2" t="s">
+      <c r="H259" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>345</v>
       </c>
       <c r="B260" t="s">
         <v>8</v>
       </c>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2" t="s">
+      <c r="D260" t="s">
         <v>352</v>
       </c>
-      <c r="E260" s="2">
+      <c r="E260">
         <v>14.539</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260">
         <v>-90.451999999999998</v>
       </c>
-      <c r="G260" s="2" t="s">
+      <c r="G260" t="s">
         <v>81</v>
       </c>
-      <c r="H260" s="2" t="s">
+      <c r="H260" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>654</v>
       </c>
@@ -9704,10 +9723,10 @@
       <c r="D261" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261" s="2">
         <v>24.347099999999998</v>
       </c>
-      <c r="F261" s="3">
+      <c r="F261" s="2">
         <v>56.709300000000006</v>
       </c>
       <c r="G261" s="1" t="s">
@@ -9717,7 +9736,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>532</v>
       </c>
@@ -9730,10 +9749,10 @@
       <c r="D262" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="2">
         <v>11.6876</v>
       </c>
-      <c r="F262" s="3">
+      <c r="F262" s="2">
         <v>-84.456199999999995</v>
       </c>
       <c r="G262" s="1" t="s">
@@ -9743,7 +9762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>543</v>
       </c>
@@ -9756,10 +9775,10 @@
       <c r="D263" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263" s="2">
         <v>-8.1860999999999997</v>
       </c>
-      <c r="F263" s="3">
+      <c r="F263" s="2">
         <v>-76.52</v>
       </c>
       <c r="G263" s="1" t="s">
@@ -9769,111 +9788,111 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>336</v>
       </c>
       <c r="B264" t="s">
         <v>21</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" t="s">
         <v>337</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" t="s">
         <v>58</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264">
         <v>38.365000000000002</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264">
         <v>-75.599000000000004</v>
       </c>
-      <c r="G264" s="2" t="s">
+      <c r="G264" t="s">
         <v>71</v>
       </c>
-      <c r="H264" s="2" t="s">
+      <c r="H264" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>336</v>
       </c>
       <c r="B265" t="s">
         <v>8</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" t="s">
         <v>337</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" t="s">
         <v>58</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265">
         <v>38.365000000000002</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265">
         <v>-75.578999999999994</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="G265" t="s">
         <v>71</v>
       </c>
-      <c r="H265" s="2" t="s">
+      <c r="H265" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>304</v>
       </c>
       <c r="B266" t="s">
         <v>21</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" t="s">
         <v>305</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" t="s">
         <v>43</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266">
         <v>54.093000000000004</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266">
         <v>12.099</v>
       </c>
-      <c r="G266" s="2" t="s">
+      <c r="G266" t="s">
         <v>29</v>
       </c>
-      <c r="H266" s="2" t="s">
+      <c r="H266" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>304</v>
       </c>
       <c r="B267" t="s">
         <v>8</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" t="s">
         <v>305</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" t="s">
         <v>43</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267">
         <v>54.093000000000004</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267">
         <v>12.119</v>
       </c>
-      <c r="G267" s="2" t="s">
+      <c r="G267" t="s">
         <v>29</v>
       </c>
-      <c r="H267" s="2" t="s">
+      <c r="H267" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>582</v>
       </c>
@@ -9886,10 +9905,10 @@
       <c r="D268" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E268" s="3">
+      <c r="E268" s="2">
         <v>6.3381999999999996</v>
       </c>
-      <c r="F268" s="3">
+      <c r="F268" s="2">
         <v>5.6257999999999999</v>
       </c>
       <c r="G268" s="1" t="s">
@@ -9899,7 +9918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>379</v>
       </c>
@@ -9925,59 +9944,59 @@
         <v>342</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>191</v>
       </c>
       <c r="B270" t="s">
         <v>21</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" t="s">
         <v>192</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" t="s">
         <v>40</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270">
         <v>43.347000000000001</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270">
         <v>3.2149999999999999</v>
       </c>
-      <c r="G270" s="2" t="s">
+      <c r="G270" t="s">
         <v>11</v>
       </c>
-      <c r="H270" s="2" t="s">
+      <c r="H270" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>193</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" t="s">
         <v>194</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" t="s">
         <v>40</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271">
         <v>43.454999999999998</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271">
         <v>5.2480000000000002</v>
       </c>
-      <c r="G271" s="2" t="s">
+      <c r="G271" t="s">
         <v>11</v>
       </c>
-      <c r="H271" s="2" t="s">
+      <c r="H271" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>592</v>
       </c>
@@ -9990,10 +10009,10 @@
       <c r="D272" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272" s="2">
         <v>-4.0434999999999999</v>
       </c>
-      <c r="F272" s="3">
+      <c r="F272" s="2">
         <v>39.668199999999999</v>
       </c>
       <c r="G272" s="1" t="s">
@@ -10016,10 +10035,10 @@
       <c r="D273" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273" s="2">
         <v>6.5244</v>
       </c>
-      <c r="F273" s="3">
+      <c r="F273" s="2">
         <v>3.3792</v>
       </c>
       <c r="G273" s="1" t="s">
@@ -10068,10 +10087,10 @@
       <c r="D275" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E275" s="3">
+      <c r="E275" s="2">
         <v>-32.563299999999998</v>
       </c>
-      <c r="F275" s="3">
+      <c r="F275" s="2">
         <v>-60.716900000000003</v>
       </c>
       <c r="G275" s="1" t="s">
@@ -10082,132 +10101,132 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
+      <c r="A276" t="s">
         <v>195</v>
       </c>
       <c r="B276" t="s">
         <v>21</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" t="s">
         <v>196</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" t="s">
         <v>66</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276">
         <v>51.216999999999999</v>
       </c>
-      <c r="F276" s="2">
+      <c r="F276">
         <v>-102.473</v>
       </c>
-      <c r="G276" s="2" t="s">
+      <c r="G276" t="s">
         <v>35</v>
       </c>
-      <c r="H276" s="2" t="s">
+      <c r="H276" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
+      <c r="A277" t="s">
         <v>197</v>
       </c>
       <c r="B277" t="s">
         <v>8</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" t="s">
         <v>198</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" t="s">
         <v>43</v>
       </c>
-      <c r="E277" s="2">
+      <c r="E277">
         <v>53.551000000000002</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F277">
         <v>9.9939999999999998</v>
       </c>
-      <c r="G277" s="2" t="s">
+      <c r="G277" t="s">
         <v>11</v>
       </c>
-      <c r="H277" s="2" t="s">
+      <c r="H277" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
+      <c r="A278" t="s">
         <v>310</v>
       </c>
       <c r="B278" t="s">
         <v>21</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" t="s">
         <v>311</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D278" t="s">
         <v>40</v>
       </c>
-      <c r="E278" s="2">
+      <c r="E278">
         <v>44.89</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F278">
         <v>-0.53500000000000003</v>
       </c>
-      <c r="G278" s="2" t="s">
+      <c r="G278" t="s">
         <v>180</v>
       </c>
-      <c r="H278" s="2" t="s">
+      <c r="H278" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
+      <c r="A279" t="s">
         <v>310</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" t="s">
         <v>311</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" t="s">
         <v>40</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279">
         <v>44.89</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279">
         <v>-0.51500000000000001</v>
       </c>
-      <c r="G279" s="2" t="s">
+      <c r="G279" t="s">
         <v>180</v>
       </c>
-      <c r="H279" s="2" t="s">
+      <c r="H279" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
+      <c r="A280" t="s">
         <v>306</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" t="s">
         <v>307</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" t="s">
         <v>40</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280">
         <v>49.4</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280">
         <v>1.0529999999999999</v>
       </c>
-      <c r="G280" s="2" t="s">
+      <c r="G280" t="s">
         <v>29</v>
       </c>
-      <c r="H280" s="2" t="s">
+      <c r="H280" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10238,80 +10257,80 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
+      <c r="A282" t="s">
         <v>308</v>
       </c>
       <c r="B282" t="s">
         <v>21</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" t="s">
         <v>309</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" t="s">
         <v>40</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282">
         <v>48.521000000000001</v>
       </c>
-      <c r="F282" s="2">
+      <c r="F282">
         <v>3.593</v>
       </c>
-      <c r="G282" s="2" t="s">
+      <c r="G282" t="s">
         <v>35</v>
       </c>
-      <c r="H282" s="2" t="s">
+      <c r="H282" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
+      <c r="A283" t="s">
         <v>308</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" t="s">
         <v>309</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" t="s">
         <v>40</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283">
         <v>48.521000000000001</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283">
         <v>3.613</v>
       </c>
-      <c r="G283" s="2" t="s">
+      <c r="G283" t="s">
         <v>35</v>
       </c>
-      <c r="H283" s="2" t="s">
+      <c r="H283" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
+      <c r="A284" t="s">
         <v>199</v>
       </c>
       <c r="B284" t="s">
         <v>21</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" t="s">
         <v>200</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" t="s">
         <v>40</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284">
         <v>45.844999999999999</v>
       </c>
-      <c r="F284" s="2">
+      <c r="F284">
         <v>3.383</v>
       </c>
-      <c r="G284" s="2" t="s">
+      <c r="G284" t="s">
         <v>81</v>
       </c>
-      <c r="H284" s="2" t="s">
+      <c r="H284" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10368,28 +10387,28 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+      <c r="A287" t="s">
         <v>313</v>
       </c>
       <c r="B287" t="s">
         <v>21</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" t="s">
         <v>314</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" t="s">
         <v>40</v>
       </c>
-      <c r="E287" s="2">
+      <c r="E287">
         <v>43.402999999999999</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287">
         <v>3.7080000000000002</v>
       </c>
-      <c r="G287" s="2" t="s">
+      <c r="G287" t="s">
         <v>256</v>
       </c>
-      <c r="H287" s="2" t="s">
+      <c r="H287" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10406,10 +10425,10 @@
       <c r="D288" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E288" s="2">
         <v>5.33</v>
       </c>
-      <c r="F288" s="3">
+      <c r="F288" s="2">
         <v>-4.0199999999999996</v>
       </c>
       <c r="G288" s="1" t="s">
@@ -10432,10 +10451,10 @@
       <c r="D289" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E289" s="2">
         <v>29.9</v>
       </c>
-      <c r="F289" s="3">
+      <c r="F289" s="2">
         <v>31.15</v>
       </c>
       <c r="G289" s="1" t="s">
@@ -10458,10 +10477,10 @@
       <c r="D290" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E290" s="3">
+      <c r="E290" s="2">
         <v>21.485799999999998</v>
       </c>
-      <c r="F290" s="3">
+      <c r="F290" s="2">
         <v>39.192500000000003</v>
       </c>
       <c r="G290" s="1" t="s">
@@ -10484,10 +10503,10 @@
       <c r="D291" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291" s="2">
         <v>15.5007</v>
       </c>
-      <c r="F291" s="3">
+      <c r="F291" s="2">
         <v>32.559899999999999</v>
       </c>
       <c r="G291" s="1" t="s">
@@ -10498,80 +10517,80 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
+      <c r="A292" t="s">
         <v>315</v>
       </c>
       <c r="B292" t="s">
         <v>21</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" t="s">
         <v>316</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D292" t="s">
         <v>47</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E292">
         <v>58.893000000000001</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292">
         <v>25.338999999999999</v>
       </c>
-      <c r="G292" s="2" t="s">
+      <c r="G292" t="s">
         <v>214</v>
       </c>
-      <c r="H292" s="2" t="s">
+      <c r="H292" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
+      <c r="A293" t="s">
         <v>315</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" t="s">
         <v>316</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" t="s">
         <v>47</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293">
         <v>58.893000000000001</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293">
         <v>25.359000000000002</v>
       </c>
-      <c r="G293" s="2" t="s">
+      <c r="G293" t="s">
         <v>214</v>
       </c>
-      <c r="H293" s="2" t="s">
+      <c r="H293" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="A294" t="s">
         <v>351</v>
       </c>
       <c r="B294" t="s">
         <v>353</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" t="s">
         <v>484</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" t="s">
         <v>58</v>
       </c>
-      <c r="E294" s="2">
+      <c r="E294">
         <v>42.709000000000003</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F294">
         <v>-92.581999999999994</v>
       </c>
-      <c r="G294" s="2" t="s">
+      <c r="G294" t="s">
         <v>29</v>
       </c>
-      <c r="H294" s="2" t="s">
+      <c r="H294" t="s">
         <v>342</v>
       </c>
     </row>
@@ -10588,10 +10607,10 @@
       <c r="D295" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295" s="2">
         <v>32.820399999999999</v>
       </c>
-      <c r="F295" s="3">
+      <c r="F295" s="2">
         <v>34.984999999999999</v>
       </c>
       <c r="G295" s="1" t="s">
@@ -10628,184 +10647,184 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
+      <c r="A297" t="s">
         <v>208</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" t="s">
         <v>209</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D297" t="s">
         <v>173</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297">
         <v>-26.213000000000001</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297">
         <v>28.259</v>
       </c>
-      <c r="G297" s="2" t="s">
+      <c r="G297" t="s">
         <v>210</v>
       </c>
-      <c r="H297" s="2" t="s">
+      <c r="H297" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
+      <c r="A298" t="s">
         <v>211</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" t="s">
         <v>212</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="D298" t="s">
         <v>213</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298">
         <v>-6.2279999999999998</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298">
         <v>155.565</v>
       </c>
-      <c r="G298" s="2" t="s">
+      <c r="G298" t="s">
         <v>214</v>
       </c>
-      <c r="H298" s="2" t="s">
+      <c r="H298" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
+      <c r="A299" t="s">
         <v>202</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" t="s">
         <v>203</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D299" t="s">
         <v>10</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299">
         <v>53.4</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299">
         <v>-2.9950000000000001</v>
       </c>
-      <c r="G299" s="2" t="s">
+      <c r="G299" t="s">
         <v>35</v>
       </c>
-      <c r="H299" s="2" t="s">
+      <c r="H299" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
+      <c r="A300" t="s">
         <v>216</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" t="s">
         <v>217</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="D300" t="s">
         <v>213</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E300">
         <v>-9.4779999999999998</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300">
         <v>147.15</v>
       </c>
-      <c r="G300" s="2" t="s">
+      <c r="G300" t="s">
         <v>214</v>
       </c>
-      <c r="H300" s="2" t="s">
+      <c r="H300" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
+      <c r="A301" t="s">
         <v>201</v>
       </c>
       <c r="B301" t="s">
         <v>8</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" t="s">
         <v>13</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D301" t="s">
         <v>14</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301">
         <v>51.887</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301">
         <v>4.29</v>
       </c>
-      <c r="G301" s="2" t="s">
+      <c r="G301" t="s">
         <v>35</v>
       </c>
-      <c r="H301" s="2" t="s">
+      <c r="H301" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
+      <c r="A302" t="s">
         <v>206</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" t="s">
         <v>207</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" t="s">
         <v>207</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302">
         <v>1.2829999999999999</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302">
         <v>103.833</v>
       </c>
-      <c r="G302" s="2" t="s">
+      <c r="G302" t="s">
         <v>74</v>
       </c>
-      <c r="H302" s="2" t="s">
+      <c r="H302" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
+      <c r="A303" t="s">
         <v>204</v>
       </c>
       <c r="B303" t="s">
         <v>8</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" t="s">
         <v>205</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D303" t="s">
         <v>14</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303">
         <v>51.829000000000001</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303">
         <v>4.633</v>
       </c>
-      <c r="G303" s="2" t="s">
+      <c r="G303" t="s">
         <v>35</v>
       </c>
-      <c r="H303" s="2" t="s">
+      <c r="H303" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10822,10 +10841,10 @@
       <c r="D304" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E304" s="3">
+      <c r="E304" s="2">
         <v>-34.021300000000004</v>
       </c>
-      <c r="F304" s="3">
+      <c r="F304" s="2">
         <v>20.4419</v>
       </c>
       <c r="G304" s="1" t="s">
@@ -10836,132 +10855,132 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
+      <c r="A305" t="s">
         <v>317</v>
       </c>
       <c r="B305" t="s">
         <v>21</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" t="s">
         <v>318</v>
       </c>
-      <c r="D305" s="2" t="s">
+      <c r="D305" t="s">
         <v>18</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305">
         <v>38.039000000000001</v>
       </c>
-      <c r="F305" s="2">
+      <c r="F305">
         <v>-3.7749999999999999</v>
       </c>
-      <c r="G305" s="2" t="s">
+      <c r="G305" t="s">
         <v>319</v>
       </c>
-      <c r="H305" s="2" t="s">
+      <c r="H305" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
+      <c r="A306" t="s">
         <v>317</v>
       </c>
       <c r="B306" t="s">
         <v>8</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" t="s">
         <v>318</v>
       </c>
-      <c r="D306" s="2" t="s">
+      <c r="D306" t="s">
         <v>18</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306">
         <v>38.039000000000001</v>
       </c>
-      <c r="F306" s="2">
+      <c r="F306">
         <v>-3.7549999999999999</v>
       </c>
-      <c r="G306" s="2" t="s">
+      <c r="G306" t="s">
         <v>319</v>
       </c>
-      <c r="H306" s="2" t="s">
+      <c r="H306" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
+      <c r="A307" t="s">
         <v>218</v>
       </c>
       <c r="B307" t="s">
         <v>8</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" t="s">
         <v>219</v>
       </c>
-      <c r="D307" s="2" t="s">
+      <c r="D307" t="s">
         <v>18</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307">
         <v>37.575000000000003</v>
       </c>
-      <c r="F307" s="2">
+      <c r="F307">
         <v>-5.9</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="G307" t="s">
         <v>52</v>
       </c>
-      <c r="H307" s="2" t="s">
+      <c r="H307" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
+      <c r="A308" t="s">
         <v>320</v>
       </c>
       <c r="B308" t="s">
         <v>21</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" t="s">
         <v>321</v>
       </c>
-      <c r="D308" s="2" t="s">
+      <c r="D308" t="s">
         <v>18</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308">
         <v>41.292999999999999</v>
       </c>
-      <c r="F308" s="2">
+      <c r="F308">
         <v>-4.6879999999999997</v>
       </c>
-      <c r="G308" s="2" t="s">
+      <c r="G308" t="s">
         <v>322</v>
       </c>
-      <c r="H308" s="2" t="s">
+      <c r="H308" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
+      <c r="A309" t="s">
         <v>320</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" t="s">
         <v>321</v>
       </c>
-      <c r="D309" s="2" t="s">
+      <c r="D309" t="s">
         <v>18</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309">
         <v>41.292999999999999</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309">
         <v>-4.6680000000000001</v>
       </c>
-      <c r="G309" s="2" t="s">
+      <c r="G309" t="s">
         <v>322</v>
       </c>
-      <c r="H309" s="2" t="s">
+      <c r="H309" t="s">
         <v>323</v>
       </c>
     </row>
@@ -11004,10 +11023,10 @@
       <c r="D311" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311" s="2">
         <v>-17.825200000000002</v>
       </c>
-      <c r="F311" s="3">
+      <c r="F311" s="2">
         <v>31.0335</v>
       </c>
       <c r="G311" s="1" t="s">
@@ -11018,28 +11037,28 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
+      <c r="A312" t="s">
         <v>220</v>
       </c>
       <c r="B312" t="s">
         <v>8</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" t="s">
         <v>97</v>
       </c>
-      <c r="D312" s="2" t="s">
+      <c r="D312" t="s">
         <v>43</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312">
         <v>51.204799999999999</v>
       </c>
-      <c r="F312" s="2">
+      <c r="F312">
         <v>6.6849999999999996</v>
       </c>
-      <c r="G312" s="2" t="s">
+      <c r="G312" t="s">
         <v>74</v>
       </c>
-      <c r="H312" s="2" t="s">
+      <c r="H312" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11056,10 +11075,10 @@
       <c r="D313" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E313" s="2">
         <v>40.978000000000002</v>
       </c>
-      <c r="F313" s="3">
+      <c r="F313" s="2">
         <v>27.510999999999999</v>
       </c>
       <c r="G313" s="1" t="s">
@@ -11070,25 +11089,25 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
+      <c r="A314" t="s">
         <v>324</v>
       </c>
       <c r="B314" t="s">
         <v>21</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" t="s">
         <v>178</v>
       </c>
-      <c r="D314" s="2" t="s">
+      <c r="D314" t="s">
         <v>23</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314">
         <v>49.832999999999998</v>
       </c>
-      <c r="F314" s="2">
+      <c r="F314">
         <v>34.582999999999998</v>
       </c>
-      <c r="G314" s="2" t="s">
+      <c r="G314" t="s">
         <v>325</v>
       </c>
       <c r="H314" s="1" t="s">
@@ -11096,54 +11115,54 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
+      <c r="A315" t="s">
         <v>324</v>
       </c>
       <c r="B315" t="s">
         <v>8</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" t="s">
         <v>178</v>
       </c>
-      <c r="D315" s="2" t="s">
+      <c r="D315" t="s">
         <v>23</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315">
         <v>49.832999999999998</v>
       </c>
-      <c r="F315" s="2">
+      <c r="F315">
         <v>34.603000000000002</v>
       </c>
-      <c r="G315" s="2" t="s">
+      <c r="G315" t="s">
         <v>325</v>
       </c>
-      <c r="H315" s="2" t="s">
+      <c r="H315" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
+      <c r="A316" t="s">
         <v>338</v>
       </c>
       <c r="B316" t="s">
         <v>8</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" t="s">
         <v>92</v>
       </c>
-      <c r="D316" s="2" t="s">
+      <c r="D316" t="s">
         <v>93</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316">
         <v>44.417999999999999</v>
       </c>
-      <c r="F316" s="2">
+      <c r="F316">
         <v>12.202999999999999</v>
       </c>
-      <c r="G316" s="2" t="s">
+      <c r="G316" t="s">
         <v>180</v>
       </c>
-      <c r="H316" s="2" t="s">
+      <c r="H316" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11160,10 +11179,10 @@
       <c r="D317" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317" s="2">
         <v>25.2697</v>
       </c>
-      <c r="F317" s="3">
+      <c r="F317" s="2">
         <v>55.3095</v>
       </c>
       <c r="G317" s="1" t="s">
@@ -11186,10 +11205,10 @@
       <c r="D318" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318" s="2">
         <v>-20.1325</v>
       </c>
-      <c r="F318" s="3">
+      <c r="F318" s="2">
         <v>28.6265</v>
       </c>
       <c r="G318" s="1" t="s">
@@ -11200,80 +11219,80 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
+      <c r="A319" t="s">
         <v>221</v>
       </c>
       <c r="B319" t="s">
         <v>8</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" t="s">
         <v>222</v>
       </c>
-      <c r="D319" s="2" t="s">
+      <c r="D319" t="s">
         <v>100</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319">
         <v>50.27</v>
       </c>
-      <c r="F319" s="2">
+      <c r="F319">
         <v>19.039000000000001</v>
       </c>
-      <c r="G319" s="2" t="s">
+      <c r="G319" t="s">
         <v>81</v>
       </c>
-      <c r="H319" s="2" t="s">
+      <c r="H319" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
+      <c r="A320" t="s">
         <v>326</v>
       </c>
       <c r="B320" t="s">
         <v>21</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" t="s">
         <v>327</v>
       </c>
-      <c r="D320" s="2" t="s">
+      <c r="D320" t="s">
         <v>328</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320">
         <v>50.981000000000002</v>
       </c>
-      <c r="F320" s="2">
+      <c r="F320">
         <v>3.5339999999999998</v>
       </c>
-      <c r="G320" s="2" t="s">
+      <c r="G320" t="s">
         <v>11</v>
       </c>
-      <c r="H320" s="2" t="s">
+      <c r="H320" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
+      <c r="A321" t="s">
         <v>326</v>
       </c>
       <c r="B321" t="s">
         <v>8</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" t="s">
         <v>327</v>
       </c>
-      <c r="D321" s="2" t="s">
+      <c r="D321" t="s">
         <v>328</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321">
         <v>50.981000000000002</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F321">
         <v>3.5539999999999998</v>
       </c>
-      <c r="G321" s="2" t="s">
+      <c r="G321" t="s">
         <v>11</v>
       </c>
-      <c r="H321" s="2" t="s">
+      <c r="H321" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11356,184 +11375,184 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
+      <c r="A325" t="s">
         <v>230</v>
       </c>
       <c r="B325" t="s">
         <v>21</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" t="s">
         <v>231</v>
       </c>
-      <c r="D325" s="2" t="s">
+      <c r="D325" t="s">
         <v>100</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325">
         <v>50.723999999999997</v>
       </c>
-      <c r="F325" s="2">
+      <c r="F325">
         <v>23.045000000000002</v>
       </c>
-      <c r="G325" s="2" t="s">
+      <c r="G325" t="s">
         <v>11</v>
       </c>
-      <c r="H325" s="2" t="s">
+      <c r="H325" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
+      <c r="A326" t="s">
         <v>228</v>
       </c>
       <c r="B326" t="s">
         <v>21</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" t="s">
         <v>229</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="D326" t="s">
         <v>43</v>
       </c>
-      <c r="E326" s="2">
+      <c r="E326">
         <v>54.136000000000003</v>
       </c>
-      <c r="F326" s="2">
+      <c r="F326">
         <v>13.592000000000001</v>
       </c>
-      <c r="G326" s="2" t="s">
+      <c r="G326" t="s">
         <v>11</v>
       </c>
-      <c r="H326" s="2" t="s">
+      <c r="H326" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
+      <c r="A327" t="s">
         <v>226</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" t="s">
         <v>227</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" t="s">
         <v>43</v>
       </c>
-      <c r="E327" s="2">
+      <c r="E327">
         <v>52.131</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327">
         <v>11.638999999999999</v>
       </c>
-      <c r="G327" s="2" t="s">
+      <c r="G327" t="s">
         <v>74</v>
       </c>
-      <c r="H327" s="2" t="s">
+      <c r="H327" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
+      <c r="A328" t="s">
         <v>237</v>
       </c>
       <c r="B328" t="s">
         <v>8</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" t="s">
         <v>238</v>
       </c>
-      <c r="D328" s="2" t="s">
+      <c r="D328" t="s">
         <v>160</v>
       </c>
-      <c r="E328" s="2">
+      <c r="E328">
         <v>-32.667000000000002</v>
       </c>
-      <c r="F328" s="2">
+      <c r="F328">
         <v>-60.8</v>
       </c>
-      <c r="G328" s="2" t="s">
+      <c r="G328" t="s">
         <v>239</v>
       </c>
-      <c r="H328" s="2" t="s">
+      <c r="H328" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
+      <c r="A329" t="s">
         <v>232</v>
       </c>
       <c r="B329" t="s">
         <v>8</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" t="s">
         <v>233</v>
       </c>
-      <c r="D329" s="2" t="s">
+      <c r="D329" t="s">
         <v>66</v>
       </c>
-      <c r="E329" s="2">
+      <c r="E329">
         <v>49.688000000000002</v>
       </c>
-      <c r="F329" s="2">
+      <c r="F329">
         <v>-97.147000000000006</v>
       </c>
-      <c r="G329" s="2" t="s">
+      <c r="G329" t="s">
         <v>234</v>
       </c>
-      <c r="H329" s="2" t="s">
+      <c r="H329" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
+      <c r="A330" t="s">
         <v>223</v>
       </c>
       <c r="B330" t="s">
         <v>21</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" t="s">
         <v>224</v>
       </c>
-      <c r="D330" s="2" t="s">
+      <c r="D330" t="s">
         <v>225</v>
       </c>
-      <c r="E330" s="2">
+      <c r="E330">
         <v>50.66</v>
       </c>
-      <c r="F330" s="2">
+      <c r="F330">
         <v>14.04</v>
       </c>
-      <c r="G330" s="2" t="s">
+      <c r="G330" t="s">
         <v>59</v>
       </c>
-      <c r="H330" s="2" t="s">
+      <c r="H330" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+      <c r="A331" t="s">
         <v>235</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" t="s">
         <v>236</v>
       </c>
-      <c r="D331" s="2" t="s">
+      <c r="D331" t="s">
         <v>58</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E331">
         <v>46.966999999999999</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F331">
         <v>-119.04</v>
       </c>
-      <c r="G331" s="2" t="s">
+      <c r="G331" t="s">
         <v>234</v>
       </c>
-      <c r="H331" s="2" t="s">
+      <c r="H331" t="s">
         <v>167</v>
       </c>
     </row>
@@ -11550,10 +11569,10 @@
       <c r="D332" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332" s="2">
         <v>-29.6006</v>
       </c>
-      <c r="F332" s="3">
+      <c r="F332" s="2">
         <v>30.3794</v>
       </c>
       <c r="G332" s="1" t="s">
@@ -11564,54 +11583,54 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
+      <c r="A333" t="s">
         <v>241</v>
       </c>
       <c r="B333" t="s">
         <v>8</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" t="s">
         <v>242</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D333" t="s">
         <v>43</v>
       </c>
-      <c r="E333" s="2">
+      <c r="E333">
         <v>53.326999999999998</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333">
         <v>8.4860000000000007</v>
       </c>
-      <c r="G333" s="2" t="s">
+      <c r="G333" t="s">
         <v>74</v>
       </c>
-      <c r="H333" s="2" t="s">
+      <c r="H333" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
+      <c r="A334" t="s">
         <v>244</v>
       </c>
       <c r="B334" t="s">
         <v>8</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" t="s">
         <v>245</v>
       </c>
-      <c r="D334" s="2" t="s">
+      <c r="D334" t="s">
         <v>246</v>
       </c>
-      <c r="E334" s="2">
+      <c r="E334">
         <v>5.67</v>
       </c>
-      <c r="F334" s="2">
+      <c r="F334">
         <v>0.02</v>
       </c>
-      <c r="G334" s="2" t="s">
+      <c r="G334" t="s">
         <v>52</v>
       </c>
-      <c r="H334" s="2" t="s">
+      <c r="H334" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11628,10 +11647,10 @@
       <c r="D335" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E335" s="3">
+      <c r="E335" s="2">
         <v>5.67</v>
       </c>
-      <c r="F335" s="3">
+      <c r="F335" s="2">
         <v>-2E-3</v>
       </c>
       <c r="G335" s="1" t="s">
@@ -11654,10 +11673,10 @@
       <c r="D336" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E336" s="3">
+      <c r="E336" s="2">
         <v>-15.387499999999999</v>
       </c>
-      <c r="F336" s="3">
+      <c r="F336" s="2">
         <v>28.322800000000001</v>
       </c>
       <c r="G336" s="1" t="s">
@@ -11665,6 +11684,84 @@
       </c>
       <c r="H336" s="1" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>675</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E337" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F337" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>678</v>
+      </c>
+      <c r="B338" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E338" s="2">
+        <v>14.664999999999999</v>
+      </c>
+      <c r="F338" s="2">
+        <v>-17.442</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>680</v>
+      </c>
+      <c r="B339" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E339" s="2">
+        <v>-8.8119999999999994</v>
+      </c>
+      <c r="F339" s="2">
+        <v>13.24</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B01B37-DB5C-4297-B879-CF6F91DA6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5652BCD7-38EF-4D62-A1DB-DFDF41BE9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="4080" yWindow="3675" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="773">
   <si>
     <t>Name</t>
   </si>
@@ -2253,14 +2253,118 @@
   </si>
   <si>
     <t>Veracruz</t>
+  </si>
+  <si>
+    <t>Bintulu</t>
+  </si>
+  <si>
+    <t>3,200</t>
+  </si>
+  <si>
+    <t>113,050</t>
+  </si>
+  <si>
+    <t>22,839</t>
+  </si>
+  <si>
+    <t>69,721</t>
+  </si>
+  <si>
+    <t>3,583</t>
+  </si>
+  <si>
+    <t>98,667</t>
+  </si>
+  <si>
+    <t>-1,033</t>
+  </si>
+  <si>
+    <t>37,067</t>
+  </si>
+  <si>
+    <t>Kakinada</t>
+  </si>
+  <si>
+    <t>16,933</t>
+  </si>
+  <si>
+    <t>82,217</t>
+  </si>
+  <si>
+    <t>Westport</t>
+  </si>
+  <si>
+    <t>2,983</t>
+  </si>
+  <si>
+    <t>101,383</t>
+  </si>
+  <si>
+    <t>Marunda</t>
+  </si>
+  <si>
+    <t>-6,117</t>
+  </si>
+  <si>
+    <t>106,917</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>19,076</t>
+  </si>
+  <si>
+    <t>72,877</t>
+  </si>
+  <si>
+    <t>-1,292</t>
+  </si>
+  <si>
+    <t>36,822</t>
+  </si>
+  <si>
+    <t>-6,792</t>
+  </si>
+  <si>
+    <t>39,208</t>
+  </si>
+  <si>
+    <t>Wilmar Bintulu</t>
+  </si>
+  <si>
+    <t>Adani Wilmar Mundra</t>
+  </si>
+  <si>
+    <t>Bidco Africa Thika</t>
+  </si>
+  <si>
+    <t>AAK India Kakinada</t>
+  </si>
+  <si>
+    <t>Cargill Westport</t>
+  </si>
+  <si>
+    <t>Golden Agri Marunda</t>
+  </si>
+  <si>
+    <t>Liberty Oil Mills Mumbai</t>
+  </si>
+  <si>
+    <t>Kapa Oil Refineries Nairobi</t>
+  </si>
+  <si>
+    <t>Tropical Oil Tanzania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2695,7 +2799,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2738,15 +2842,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2774,6 +2882,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -3120,11 +3229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:H466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C345" sqref="C345"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E466" sqref="E466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12369,6 +12478,2892 @@
         <v>233</v>
       </c>
     </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E407" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E445" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E447" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F447" s="5">
+        <v>69.721000000000004</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E449" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E453" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E455" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A457" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E457" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A458" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A459" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E459" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A461" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E463" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A464" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E465" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H355" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H355">

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5652BCD7-38EF-4D62-A1DB-DFDF41BE9527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E67FE9-FBD4-4A4D-B5F5-0279EC4A9E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3675" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="809">
   <si>
     <t>Name</t>
   </si>
@@ -1718,9 +1718,6 @@
     <t>Bolivia</t>
   </si>
   <si>
-    <t>COUSA Montevideo</t>
-  </si>
-  <si>
     <t>Montevideo</t>
   </si>
   <si>
@@ -1853,18 +1850,9 @@
     <t>Bulawayo</t>
   </si>
   <si>
-    <t>Zamanita Lusaka</t>
-  </si>
-  <si>
-    <t>Lusaka</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Mount Meru Lusaka</t>
-  </si>
-  <si>
     <t>Mount Meru Lilongwe</t>
   </si>
   <si>
@@ -2063,9 +2051,6 @@
     <t>Kansas City</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>900,000 MT</t>
   </si>
   <si>
@@ -2355,6 +2340,129 @@
   </si>
   <si>
     <t>Tropical Oil Tanzania</t>
+  </si>
+  <si>
+    <t>39,840</t>
+  </si>
+  <si>
+    <t>-88,955</t>
+  </si>
+  <si>
+    <t>37,687</t>
+  </si>
+  <si>
+    <t>-97,330</t>
+  </si>
+  <si>
+    <t>43,250</t>
+  </si>
+  <si>
+    <t>-79,850</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>49,895</t>
+  </si>
+  <si>
+    <t>-97,138</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>49,282</t>
+  </si>
+  <si>
+    <t>-123,121</t>
+  </si>
+  <si>
+    <t>Hastings</t>
+  </si>
+  <si>
+    <t>40,589</t>
+  </si>
+  <si>
+    <t>-98,390</t>
+  </si>
+  <si>
+    <t>31,230</t>
+  </si>
+  <si>
+    <t>121,470</t>
+  </si>
+  <si>
+    <t>39,140</t>
+  </si>
+  <si>
+    <t>117,200</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <t>23,130</t>
+  </si>
+  <si>
+    <t>113,270</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>55,755</t>
+  </si>
+  <si>
+    <t>37,617</t>
+  </si>
+  <si>
+    <t>Alekseyevka</t>
+  </si>
+  <si>
+    <t>50,630</t>
+  </si>
+  <si>
+    <t>38,680</t>
+  </si>
+  <si>
+    <t>51,670</t>
+  </si>
+  <si>
+    <t>39,210</t>
+  </si>
+  <si>
+    <t>Maple Leaf Foods Winnipeg</t>
+  </si>
+  <si>
+    <t>GrainCorp Vancouver</t>
+  </si>
+  <si>
+    <t>Yihai Kerry Shanghai</t>
+  </si>
+  <si>
+    <t>Wilmar Guangzhou</t>
+  </si>
+  <si>
+    <t>Biodiesel Ltd Moscow</t>
+  </si>
+  <si>
+    <t>Efko Group Alekseyevka</t>
+  </si>
+  <si>
+    <t>Russkoye Maslo Voronezh</t>
+  </si>
+  <si>
+    <t>COUnited States Montevideo</t>
+  </si>
+  <si>
+    <t>Mount Meru LUnited Stateska</t>
+  </si>
+  <si>
+    <t>LUnited Stateska</t>
+  </si>
+  <si>
+    <t>Zamanita LUnited Stateska</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2472,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2844,15 +2952,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3229,11 +3335,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H466"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E466" sqref="E466"/>
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A455" sqref="A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,13 +3486,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>279</v>
@@ -3562,13 +3668,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>118</v>
@@ -4316,13 +4422,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>169</v>
@@ -4394,16 +4500,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E45" s="2">
         <v>25.0108</v>
@@ -4446,16 +4552,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E47" s="2">
         <v>31.200099999999999</v>
@@ -4498,7 +4604,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -4576,13 +4682,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>499</v>
@@ -4758,16 +4864,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E59" s="1">
         <v>39.840299999999999</v>
@@ -4784,16 +4890,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E60" s="1">
         <v>33.5779</v>
@@ -4805,21 +4911,21 @@
         <v>38</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E61" s="1">
         <v>48.056399999999996</v>
@@ -4831,18 +4937,18 @@
         <v>176</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>66</v>
@@ -4888,16 +4994,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E64" s="2">
         <v>30.3</v>
@@ -4914,13 +5020,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>279</v>
@@ -4940,7 +5046,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -4992,16 +5098,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E68" s="2">
         <v>35.721899999999998</v>
@@ -5018,16 +5124,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="E69" s="2">
         <v>4.4400000000000002E-2</v>
@@ -5044,16 +5150,16 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="E70" s="2">
         <v>-1.0415000000000001</v>
@@ -5096,13 +5202,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>107</v>
@@ -5117,7 +5223,7 @@
         <v>176</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5518,10 +5624,10 @@
         <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E88" s="1">
         <v>39.840299999999999</v>
@@ -5804,7 +5910,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>66</v>
@@ -5816,10 +5922,10 @@
         <v>-113.21299999999999</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -5882,7 +5988,7 @@
         <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>66</v>
@@ -5894,7 +6000,7 @@
         <v>-79.871099999999998</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>233</v>
@@ -6402,7 +6508,7 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D122" t="s">
         <v>104</v>
@@ -6584,7 +6690,7 @@
         <v>8</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>66</v>
@@ -6599,7 +6705,7 @@
         <v>176</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7332,16 +7438,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E158" s="1">
         <v>45.464700000000001</v>
@@ -7350,7 +7456,7 @@
         <v>-98.486500000000007</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>233</v>
@@ -7410,16 +7516,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E161" s="2">
         <v>30.905000000000001</v>
@@ -7468,7 +7574,7 @@
         <v>8</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>66</v>
@@ -7483,21 +7589,21 @@
         <v>29</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E164" s="1">
         <v>41.586799999999997</v>
@@ -7514,16 +7620,16 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E165" s="1">
         <v>36.062600000000003</v>
@@ -7592,16 +7698,16 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E168" s="1">
         <v>39.099699999999999</v>
@@ -7610,7 +7716,7 @@
         <v>-94.578599999999994</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>233</v>
@@ -7722,16 +7828,16 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E173" s="1">
         <v>40.2864</v>
@@ -7740,7 +7846,7 @@
         <v>-84.155500000000004</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>233</v>
@@ -7800,16 +7906,16 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E176" s="1">
         <v>46.874899999999997</v>
@@ -7826,16 +7932,16 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E177" s="1">
         <v>37.687199999999997</v>
@@ -7852,16 +7958,16 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E178" s="2">
         <v>37.2746</v>
@@ -7878,16 +7984,16 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E179" s="2">
         <v>36.750900000000001</v>
@@ -8060,7 +8166,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -8078,7 +8184,7 @@
         <v>117.3616</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>233</v>
@@ -8112,16 +8218,16 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B188" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="E188" s="2">
         <v>-34.9011</v>
@@ -8424,13 +8530,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>169</v>
@@ -8502,7 +8608,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
@@ -8528,16 +8634,16 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E204" s="1">
         <v>32.0809</v>
@@ -8554,7 +8660,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -8924,7 +9030,7 @@
         <v>8</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D219" t="s">
         <v>348</v>
@@ -8970,13 +9076,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>125</v>
@@ -8988,7 +9094,7 @@
         <v>100.31699999999999</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>49</v>
@@ -8996,16 +9102,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E222" s="2">
         <v>31.951900000000002</v>
@@ -9022,16 +9128,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B223" t="s">
-        <v>8</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="D223" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E223" s="2">
         <v>-1.2864</v>
@@ -9360,16 +9466,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E236" s="2">
         <v>33.573099999999997</v>
@@ -9438,16 +9544,16 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B239" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="E239" s="2">
         <v>-4.4418999999999995</v>
@@ -9464,16 +9570,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E240" s="2">
         <v>4.0999999999999996</v>
@@ -9646,16 +9752,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B247" t="s">
-        <v>8</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="D247" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E247" s="2">
         <v>-3.375</v>
@@ -9672,16 +9778,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E248" s="2">
         <v>-13.9626</v>
@@ -9698,16 +9804,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>608</v>
+        <v>806</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>606</v>
+        <v>807</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E249" s="2">
         <v>-15.387499999999999</v>
@@ -9716,24 +9822,24 @@
         <v>28.322800000000001</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B250" t="s">
-        <v>8</v>
-      </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="E250" s="2">
         <v>-6.7923999999999998</v>
@@ -9750,13 +9856,13 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>28</v>
@@ -9768,7 +9874,7 @@
         <v>98.672200000000004</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>49</v>
@@ -9854,13 +9960,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B255" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>169</v>
@@ -9932,13 +10038,13 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>294</v>
@@ -9958,7 +10064,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
@@ -10146,7 +10252,7 @@
         <v>8</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D266" t="s">
         <v>347</v>
@@ -10296,16 +10402,16 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E272" s="2">
         <v>24.347099999999998</v>
@@ -10556,16 +10662,16 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B282" t="s">
-        <v>8</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="D282" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E282" s="2">
         <v>-4.0434999999999999</v>
@@ -10582,7 +10688,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
@@ -10972,16 +11078,16 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B298" t="s">
-        <v>8</v>
-      </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E298" s="2">
         <v>5.33</v>
@@ -10990,7 +11096,7 @@
         <v>-4.0199999999999996</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>49</v>
@@ -10998,16 +11104,16 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E299" s="2">
         <v>29.9</v>
@@ -11024,16 +11130,16 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E300" s="2">
         <v>21.485799999999998</v>
@@ -11050,16 +11156,16 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B301" t="s">
         <v>8</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E301" s="2">
         <v>15.5007</v>
@@ -11154,16 +11260,16 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B305" t="s">
         <v>8</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E305" s="2">
         <v>32.820399999999999</v>
@@ -11206,13 +11312,13 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B307" t="s">
         <v>8</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>107</v>
@@ -11227,7 +11333,7 @@
         <v>468</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -11336,13 +11442,13 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B312" t="s">
         <v>8</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>28</v>
@@ -11354,7 +11460,7 @@
         <v>116</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>49</v>
@@ -11414,16 +11520,16 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>657</v>
+      </c>
+      <c r="B315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="B315" t="s">
-        <v>8</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="E315" s="2">
         <v>14.664999999999999</v>
@@ -11440,13 +11546,13 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="B316" t="s">
-        <v>8</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>169</v>
@@ -11622,16 +11728,16 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B323" t="s">
-        <v>8</v>
-      </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="E323" s="2">
         <v>-17.825200000000002</v>
@@ -11648,16 +11754,16 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B324" t="s">
         <v>8</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E324" s="1">
         <v>13.7563</v>
@@ -11700,13 +11806,13 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B326" t="s">
         <v>8</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>279</v>
@@ -11804,16 +11910,16 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B330" t="s">
         <v>8</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E330" s="2">
         <v>25.2697</v>
@@ -11830,16 +11936,16 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B331" t="s">
-        <v>8</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="D331" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E331" s="2">
         <v>-20.1325</v>
@@ -12122,7 +12228,7 @@
         <v>8</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>66</v>
@@ -12137,7 +12243,7 @@
         <v>247</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -12174,10 +12280,10 @@
         <v>8</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>675</v>
+        <v>58</v>
       </c>
       <c r="E344" s="1">
         <v>47.094299999999997</v>
@@ -12220,13 +12326,13 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B346" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="B346" t="s">
-        <v>8</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>169</v>
@@ -12246,7 +12352,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B347" t="s">
         <v>8</v>
@@ -12272,13 +12378,13 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B348" t="s">
         <v>8</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>28</v>
@@ -12298,13 +12404,13 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B349" t="s">
         <v>8</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>34</v>
@@ -12350,13 +12456,13 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B351" t="s">
         <v>8</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>34</v>
@@ -12368,7 +12474,7 @@
         <v>119.59829999999999</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>233</v>
@@ -12376,13 +12482,13 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B352" t="s">
         <v>8</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>34</v>
@@ -12402,7 +12508,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B353" t="s">
         <v>8</v>
@@ -12428,13 +12534,13 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B354" t="s">
         <v>8</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>34</v>
@@ -12454,16 +12560,16 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>605</v>
+        <v>808</v>
       </c>
       <c r="B355" t="s">
         <v>8</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>606</v>
+        <v>807</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E355" s="2">
         <v>-15.417</v>
@@ -12479,2889 +12585,4449 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
+      <c r="A356" t="s">
+        <v>759</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" t="s">
+        <v>734</v>
+      </c>
+      <c r="D356" t="s">
+        <v>125</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G356" t="s">
+        <v>35</v>
+      </c>
+      <c r="H356" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>760</v>
+      </c>
+      <c r="B357" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" t="s">
+        <v>668</v>
+      </c>
+      <c r="D357" t="s">
+        <v>118</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G357" t="s">
+        <v>176</v>
+      </c>
+      <c r="H357" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>694</v>
+      </c>
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" t="s">
+        <v>695</v>
+      </c>
+      <c r="D358" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G358" t="s">
+        <v>247</v>
+      </c>
+      <c r="H358" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>761</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" t="s">
+        <v>572</v>
+      </c>
+      <c r="D359" t="s">
+        <v>573</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G359" t="s">
+        <v>71</v>
+      </c>
+      <c r="H359" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>762</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" t="s">
+        <v>743</v>
+      </c>
+      <c r="D360" t="s">
+        <v>118</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G360" t="s">
+        <v>52</v>
+      </c>
+      <c r="H360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>763</v>
+      </c>
+      <c r="B361" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" t="s">
+        <v>746</v>
+      </c>
+      <c r="D361" t="s">
+        <v>125</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G361" t="s">
+        <v>172</v>
+      </c>
+      <c r="H361" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>764</v>
       </c>
-      <c r="B356" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356" s="3" t="s">
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" t="s">
+        <v>749</v>
+      </c>
+      <c r="D362" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G362" t="s">
+        <v>227</v>
+      </c>
+      <c r="H362" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>765</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" t="s">
+        <v>752</v>
+      </c>
+      <c r="D363" t="s">
+        <v>118</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G363" t="s">
+        <v>74</v>
+      </c>
+      <c r="H363" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>766</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+      <c r="C364" t="s">
+        <v>575</v>
+      </c>
+      <c r="D364" t="s">
+        <v>573</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G364" t="s">
+        <v>52</v>
+      </c>
+      <c r="H364" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>767</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" t="s">
+        <v>582</v>
+      </c>
+      <c r="D365" t="s">
+        <v>583</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G365" t="s">
+        <v>59</v>
+      </c>
+      <c r="H365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>759</v>
+      </c>
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" t="s">
+        <v>734</v>
+      </c>
+      <c r="D366" t="s">
+        <v>125</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G366" t="s">
+        <v>35</v>
+      </c>
+      <c r="H366" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>760</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" t="s">
+        <v>668</v>
+      </c>
+      <c r="D367" t="s">
+        <v>118</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G367" t="s">
+        <v>176</v>
+      </c>
+      <c r="H367" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>694</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" t="s">
+        <v>695</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="F368" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G368" t="s">
+        <v>247</v>
+      </c>
+      <c r="H368" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>761</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" t="s">
+        <v>572</v>
+      </c>
+      <c r="D369" t="s">
+        <v>573</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G369" t="s">
+        <v>71</v>
+      </c>
+      <c r="H369" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>762</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" t="s">
+        <v>743</v>
+      </c>
+      <c r="D370" t="s">
+        <v>118</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G370" t="s">
+        <v>52</v>
+      </c>
+      <c r="H370" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>763</v>
+      </c>
+      <c r="B371" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" t="s">
+        <v>746</v>
+      </c>
+      <c r="D371" t="s">
         <v>125</v>
       </c>
-      <c r="E356" s="5" t="s">
+      <c r="E371" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G371" t="s">
+        <v>172</v>
+      </c>
+      <c r="H371" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>764</v>
+      </c>
+      <c r="B372" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" t="s">
+        <v>749</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G372" t="s">
+        <v>227</v>
+      </c>
+      <c r="H372" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>765</v>
+      </c>
+      <c r="B373" t="s">
+        <v>8</v>
+      </c>
+      <c r="C373" t="s">
+        <v>752</v>
+      </c>
+      <c r="D373" t="s">
+        <v>118</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G373" t="s">
+        <v>74</v>
+      </c>
+      <c r="H373" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>766</v>
+      </c>
+      <c r="B374" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" t="s">
+        <v>575</v>
+      </c>
+      <c r="D374" t="s">
+        <v>573</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G374" t="s">
+        <v>52</v>
+      </c>
+      <c r="H374" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>767</v>
+      </c>
+      <c r="B375" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" t="s">
+        <v>582</v>
+      </c>
+      <c r="D375" t="s">
+        <v>583</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G375" t="s">
+        <v>59</v>
+      </c>
+      <c r="H375" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>759</v>
+      </c>
+      <c r="B376" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" t="s">
+        <v>734</v>
+      </c>
+      <c r="D376" t="s">
+        <v>125</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G376" t="s">
+        <v>35</v>
+      </c>
+      <c r="H376" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>760</v>
+      </c>
+      <c r="B377" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" t="s">
+        <v>668</v>
+      </c>
+      <c r="D377" t="s">
+        <v>118</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G377" t="s">
+        <v>176</v>
+      </c>
+      <c r="H377" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>694</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" t="s">
+        <v>695</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F378" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="F356" s="5" t="s">
+      <c r="G378" t="s">
+        <v>247</v>
+      </c>
+      <c r="H378" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>761</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" t="s">
+        <v>572</v>
+      </c>
+      <c r="D379" t="s">
+        <v>573</v>
+      </c>
+      <c r="E379" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="G356" s="3" t="s">
+      <c r="F379" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G379" t="s">
+        <v>71</v>
+      </c>
+      <c r="H379" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>762</v>
+      </c>
+      <c r="B380" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" t="s">
+        <v>743</v>
+      </c>
+      <c r="D380" t="s">
+        <v>118</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G380" t="s">
+        <v>52</v>
+      </c>
+      <c r="H380" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>763</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8</v>
+      </c>
+      <c r="C381" t="s">
+        <v>746</v>
+      </c>
+      <c r="D381" t="s">
+        <v>125</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G381" t="s">
+        <v>172</v>
+      </c>
+      <c r="H381" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>764</v>
+      </c>
+      <c r="B382" t="s">
+        <v>8</v>
+      </c>
+      <c r="C382" t="s">
+        <v>749</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G382" t="s">
+        <v>227</v>
+      </c>
+      <c r="H382" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>765</v>
+      </c>
+      <c r="B383" t="s">
+        <v>8</v>
+      </c>
+      <c r="C383" t="s">
+        <v>752</v>
+      </c>
+      <c r="D383" t="s">
+        <v>118</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G383" t="s">
+        <v>74</v>
+      </c>
+      <c r="H383" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>766</v>
+      </c>
+      <c r="B384" t="s">
+        <v>8</v>
+      </c>
+      <c r="C384" t="s">
+        <v>575</v>
+      </c>
+      <c r="D384" t="s">
+        <v>573</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G384" t="s">
+        <v>52</v>
+      </c>
+      <c r="H384" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>767</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" t="s">
+        <v>582</v>
+      </c>
+      <c r="D385" t="s">
+        <v>583</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G385" t="s">
+        <v>59</v>
+      </c>
+      <c r="H385" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>759</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" t="s">
+        <v>734</v>
+      </c>
+      <c r="D386" t="s">
+        <v>125</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G386" t="s">
         <v>35</v>
       </c>
-      <c r="H356" s="3" t="s">
+      <c r="H386" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>760</v>
+      </c>
+      <c r="B387" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" t="s">
+        <v>668</v>
+      </c>
+      <c r="D387" t="s">
+        <v>118</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G387" t="s">
+        <v>176</v>
+      </c>
+      <c r="H387" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>694</v>
+      </c>
+      <c r="B388" t="s">
+        <v>8</v>
+      </c>
+      <c r="C388" t="s">
+        <v>695</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G388" t="s">
+        <v>247</v>
+      </c>
+      <c r="H388" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>761</v>
+      </c>
+      <c r="B389" t="s">
+        <v>8</v>
+      </c>
+      <c r="C389" t="s">
+        <v>572</v>
+      </c>
+      <c r="D389" t="s">
+        <v>573</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G389" t="s">
+        <v>71</v>
+      </c>
+      <c r="H389" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>762</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" t="s">
+        <v>743</v>
+      </c>
+      <c r="D390" t="s">
+        <v>118</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G390" t="s">
+        <v>52</v>
+      </c>
+      <c r="H390" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>763</v>
+      </c>
+      <c r="B391" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" t="s">
+        <v>746</v>
+      </c>
+      <c r="D391" t="s">
+        <v>125</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G391" t="s">
+        <v>172</v>
+      </c>
+      <c r="H391" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>764</v>
+      </c>
+      <c r="B392" t="s">
+        <v>8</v>
+      </c>
+      <c r="C392" t="s">
+        <v>749</v>
+      </c>
+      <c r="D392" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G392" t="s">
+        <v>227</v>
+      </c>
+      <c r="H392" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>765</v>
       </c>
-      <c r="B357" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C357" s="3" t="s">
+      <c r="B393" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" t="s">
+        <v>752</v>
+      </c>
+      <c r="D393" t="s">
+        <v>118</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G393" t="s">
+        <v>74</v>
+      </c>
+      <c r="H393" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>766</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" t="s">
+        <v>575</v>
+      </c>
+      <c r="D394" t="s">
+        <v>573</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G394" t="s">
+        <v>52</v>
+      </c>
+      <c r="H394" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>767</v>
+      </c>
+      <c r="B395" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" t="s">
+        <v>582</v>
+      </c>
+      <c r="D395" t="s">
+        <v>583</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G395" t="s">
+        <v>59</v>
+      </c>
+      <c r="H395" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>759</v>
+      </c>
+      <c r="B396" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" t="s">
+        <v>734</v>
+      </c>
+      <c r="D396" t="s">
+        <v>125</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G396" t="s">
+        <v>35</v>
+      </c>
+      <c r="H396" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>760</v>
+      </c>
+      <c r="B397" t="s">
+        <v>8</v>
+      </c>
+      <c r="C397" t="s">
+        <v>668</v>
+      </c>
+      <c r="D397" t="s">
+        <v>118</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G397" t="s">
+        <v>176</v>
+      </c>
+      <c r="H397" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>694</v>
+      </c>
+      <c r="B398" t="s">
+        <v>8</v>
+      </c>
+      <c r="C398" t="s">
+        <v>695</v>
+      </c>
+      <c r="D398" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G398" t="s">
+        <v>247</v>
+      </c>
+      <c r="H398" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>761</v>
+      </c>
+      <c r="B399" t="s">
+        <v>8</v>
+      </c>
+      <c r="C399" t="s">
+        <v>572</v>
+      </c>
+      <c r="D399" t="s">
+        <v>573</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G399" t="s">
+        <v>71</v>
+      </c>
+      <c r="H399" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>762</v>
+      </c>
+      <c r="B400" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" t="s">
+        <v>743</v>
+      </c>
+      <c r="D400" t="s">
+        <v>118</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G400" t="s">
+        <v>52</v>
+      </c>
+      <c r="H400" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>763</v>
+      </c>
+      <c r="B401" t="s">
+        <v>8</v>
+      </c>
+      <c r="C401" t="s">
+        <v>746</v>
+      </c>
+      <c r="D401" t="s">
+        <v>125</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G401" t="s">
+        <v>172</v>
+      </c>
+      <c r="H401" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>764</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" t="s">
+        <v>749</v>
+      </c>
+      <c r="D402" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G402" t="s">
+        <v>227</v>
+      </c>
+      <c r="H402" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>765</v>
+      </c>
+      <c r="B403" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" t="s">
+        <v>752</v>
+      </c>
+      <c r="D403" t="s">
+        <v>118</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G403" t="s">
+        <v>74</v>
+      </c>
+      <c r="H403" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>766</v>
+      </c>
+      <c r="B404" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" t="s">
+        <v>575</v>
+      </c>
+      <c r="D404" t="s">
+        <v>573</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G404" t="s">
+        <v>52</v>
+      </c>
+      <c r="H404" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>767</v>
+      </c>
+      <c r="B405" t="s">
+        <v>8</v>
+      </c>
+      <c r="C405" t="s">
+        <v>582</v>
+      </c>
+      <c r="D405" t="s">
+        <v>583</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G405" t="s">
+        <v>59</v>
+      </c>
+      <c r="H405" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>759</v>
+      </c>
+      <c r="B406" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" t="s">
+        <v>734</v>
+      </c>
+      <c r="D406" t="s">
+        <v>125</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G406" t="s">
+        <v>35</v>
+      </c>
+      <c r="H406" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>760</v>
+      </c>
+      <c r="B407" t="s">
+        <v>8</v>
+      </c>
+      <c r="C407" t="s">
+        <v>668</v>
+      </c>
+      <c r="D407" t="s">
+        <v>118</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G407" t="s">
+        <v>176</v>
+      </c>
+      <c r="H407" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>694</v>
+      </c>
+      <c r="B408" t="s">
+        <v>8</v>
+      </c>
+      <c r="C408" t="s">
+        <v>695</v>
+      </c>
+      <c r="D408" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G408" t="s">
+        <v>247</v>
+      </c>
+      <c r="H408" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>761</v>
+      </c>
+      <c r="B409" t="s">
+        <v>8</v>
+      </c>
+      <c r="C409" t="s">
+        <v>572</v>
+      </c>
+      <c r="D409" t="s">
+        <v>573</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G409" t="s">
+        <v>71</v>
+      </c>
+      <c r="H409" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>762</v>
+      </c>
+      <c r="B410" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" t="s">
+        <v>743</v>
+      </c>
+      <c r="D410" t="s">
+        <v>118</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G410" t="s">
+        <v>52</v>
+      </c>
+      <c r="H410" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>763</v>
+      </c>
+      <c r="B411" t="s">
+        <v>8</v>
+      </c>
+      <c r="C411" t="s">
+        <v>746</v>
+      </c>
+      <c r="D411" t="s">
+        <v>125</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G411" t="s">
+        <v>172</v>
+      </c>
+      <c r="H411" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>764</v>
+      </c>
+      <c r="B412" t="s">
+        <v>8</v>
+      </c>
+      <c r="C412" t="s">
+        <v>749</v>
+      </c>
+      <c r="D412" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G412" t="s">
+        <v>227</v>
+      </c>
+      <c r="H412" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>765</v>
+      </c>
+      <c r="B413" t="s">
+        <v>8</v>
+      </c>
+      <c r="C413" t="s">
+        <v>752</v>
+      </c>
+      <c r="D413" t="s">
+        <v>118</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G413" t="s">
+        <v>74</v>
+      </c>
+      <c r="H413" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>766</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414" t="s">
+        <v>575</v>
+      </c>
+      <c r="D414" t="s">
+        <v>573</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G414" t="s">
+        <v>52</v>
+      </c>
+      <c r="H414" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>767</v>
+      </c>
+      <c r="B415" t="s">
+        <v>8</v>
+      </c>
+      <c r="C415" t="s">
+        <v>582</v>
+      </c>
+      <c r="D415" t="s">
+        <v>583</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G415" t="s">
+        <v>59</v>
+      </c>
+      <c r="H415" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>759</v>
+      </c>
+      <c r="B416" t="s">
+        <v>8</v>
+      </c>
+      <c r="C416" t="s">
+        <v>734</v>
+      </c>
+      <c r="D416" t="s">
+        <v>125</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G416" t="s">
+        <v>35</v>
+      </c>
+      <c r="H416" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>760</v>
+      </c>
+      <c r="B417" t="s">
+        <v>8</v>
+      </c>
+      <c r="C417" t="s">
+        <v>668</v>
+      </c>
+      <c r="D417" t="s">
+        <v>118</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G417" t="s">
+        <v>176</v>
+      </c>
+      <c r="H417" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>694</v>
+      </c>
+      <c r="B418" t="s">
+        <v>8</v>
+      </c>
+      <c r="C418" t="s">
+        <v>695</v>
+      </c>
+      <c r="D418" t="s">
+        <v>28</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G418" t="s">
+        <v>247</v>
+      </c>
+      <c r="H418" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>761</v>
+      </c>
+      <c r="B419" t="s">
+        <v>8</v>
+      </c>
+      <c r="C419" t="s">
+        <v>572</v>
+      </c>
+      <c r="D419" t="s">
+        <v>573</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G419" t="s">
+        <v>71</v>
+      </c>
+      <c r="H419" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>762</v>
+      </c>
+      <c r="B420" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" t="s">
+        <v>743</v>
+      </c>
+      <c r="D420" t="s">
+        <v>118</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G420" t="s">
+        <v>52</v>
+      </c>
+      <c r="H420" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>763</v>
+      </c>
+      <c r="B421" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421" t="s">
+        <v>746</v>
+      </c>
+      <c r="D421" t="s">
+        <v>125</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G421" t="s">
+        <v>172</v>
+      </c>
+      <c r="H421" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>764</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="s">
+        <v>749</v>
+      </c>
+      <c r="D422" t="s">
+        <v>28</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G422" t="s">
+        <v>227</v>
+      </c>
+      <c r="H422" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>765</v>
+      </c>
+      <c r="B423" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" t="s">
+        <v>752</v>
+      </c>
+      <c r="D423" t="s">
+        <v>118</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G423" t="s">
+        <v>74</v>
+      </c>
+      <c r="H423" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>766</v>
+      </c>
+      <c r="B424" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" t="s">
+        <v>575</v>
+      </c>
+      <c r="D424" t="s">
+        <v>573</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G424" t="s">
+        <v>52</v>
+      </c>
+      <c r="H424" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>767</v>
+      </c>
+      <c r="B425" t="s">
+        <v>8</v>
+      </c>
+      <c r="C425" t="s">
+        <v>582</v>
+      </c>
+      <c r="D425" t="s">
+        <v>583</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G425" t="s">
+        <v>59</v>
+      </c>
+      <c r="H425" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>759</v>
+      </c>
+      <c r="B426" t="s">
+        <v>8</v>
+      </c>
+      <c r="C426" t="s">
+        <v>734</v>
+      </c>
+      <c r="D426" t="s">
+        <v>125</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G426" t="s">
+        <v>35</v>
+      </c>
+      <c r="H426" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>760</v>
+      </c>
+      <c r="B427" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" t="s">
+        <v>668</v>
+      </c>
+      <c r="D427" t="s">
+        <v>118</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G427" t="s">
+        <v>176</v>
+      </c>
+      <c r="H427" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>694</v>
+      </c>
+      <c r="B428" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428" t="s">
+        <v>695</v>
+      </c>
+      <c r="D428" t="s">
+        <v>28</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G428" t="s">
+        <v>247</v>
+      </c>
+      <c r="H428" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>761</v>
+      </c>
+      <c r="B429" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429" t="s">
+        <v>572</v>
+      </c>
+      <c r="D429" t="s">
+        <v>573</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G429" t="s">
+        <v>71</v>
+      </c>
+      <c r="H429" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>762</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430" t="s">
+        <v>743</v>
+      </c>
+      <c r="D430" t="s">
+        <v>118</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G430" t="s">
+        <v>52</v>
+      </c>
+      <c r="H430" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>763</v>
+      </c>
+      <c r="B431" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431" t="s">
+        <v>746</v>
+      </c>
+      <c r="D431" t="s">
+        <v>125</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G431" t="s">
+        <v>172</v>
+      </c>
+      <c r="H431" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>764</v>
+      </c>
+      <c r="B432" t="s">
+        <v>8</v>
+      </c>
+      <c r="C432" t="s">
+        <v>749</v>
+      </c>
+      <c r="D432" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G432" t="s">
+        <v>227</v>
+      </c>
+      <c r="H432" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>765</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C433" t="s">
+        <v>752</v>
+      </c>
+      <c r="D433" t="s">
+        <v>118</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G433" t="s">
+        <v>74</v>
+      </c>
+      <c r="H433" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>766</v>
+      </c>
+      <c r="B434" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" t="s">
+        <v>575</v>
+      </c>
+      <c r="D434" t="s">
+        <v>573</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G434" t="s">
+        <v>52</v>
+      </c>
+      <c r="H434" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>767</v>
+      </c>
+      <c r="B435" t="s">
+        <v>8</v>
+      </c>
+      <c r="C435" t="s">
+        <v>582</v>
+      </c>
+      <c r="D435" t="s">
+        <v>583</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G435" t="s">
+        <v>59</v>
+      </c>
+      <c r="H435" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>759</v>
+      </c>
+      <c r="B436" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" t="s">
+        <v>734</v>
+      </c>
+      <c r="D436" t="s">
+        <v>125</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G436" t="s">
+        <v>35</v>
+      </c>
+      <c r="H436" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>760</v>
+      </c>
+      <c r="B437" t="s">
+        <v>8</v>
+      </c>
+      <c r="C437" t="s">
+        <v>668</v>
+      </c>
+      <c r="D437" t="s">
+        <v>118</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G437" t="s">
+        <v>176</v>
+      </c>
+      <c r="H437" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>694</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438" t="s">
+        <v>695</v>
+      </c>
+      <c r="D438" t="s">
+        <v>28</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G438" t="s">
+        <v>247</v>
+      </c>
+      <c r="H438" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>761</v>
+      </c>
+      <c r="B439" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439" t="s">
+        <v>572</v>
+      </c>
+      <c r="D439" t="s">
+        <v>573</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G439" t="s">
+        <v>71</v>
+      </c>
+      <c r="H439" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>762</v>
+      </c>
+      <c r="B440" t="s">
+        <v>8</v>
+      </c>
+      <c r="C440" t="s">
+        <v>743</v>
+      </c>
+      <c r="D440" t="s">
+        <v>118</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G440" t="s">
+        <v>52</v>
+      </c>
+      <c r="H440" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>763</v>
+      </c>
+      <c r="B441" t="s">
+        <v>8</v>
+      </c>
+      <c r="C441" t="s">
+        <v>746</v>
+      </c>
+      <c r="D441" t="s">
+        <v>125</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G441" t="s">
+        <v>172</v>
+      </c>
+      <c r="H441" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>764</v>
+      </c>
+      <c r="B442" t="s">
+        <v>8</v>
+      </c>
+      <c r="C442" t="s">
+        <v>749</v>
+      </c>
+      <c r="D442" t="s">
+        <v>28</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G442" t="s">
+        <v>227</v>
+      </c>
+      <c r="H442" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>765</v>
+      </c>
+      <c r="B443" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" t="s">
+        <v>752</v>
+      </c>
+      <c r="D443" t="s">
+        <v>118</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G443" t="s">
+        <v>74</v>
+      </c>
+      <c r="H443" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>766</v>
+      </c>
+      <c r="B444" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" t="s">
+        <v>575</v>
+      </c>
+      <c r="D444" t="s">
+        <v>573</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G444" t="s">
+        <v>52</v>
+      </c>
+      <c r="H444" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>767</v>
+      </c>
+      <c r="B445" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" t="s">
+        <v>582</v>
+      </c>
+      <c r="D445" t="s">
+        <v>583</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G445" t="s">
+        <v>59</v>
+      </c>
+      <c r="H445" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>759</v>
+      </c>
+      <c r="B446" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" t="s">
+        <v>734</v>
+      </c>
+      <c r="D446" t="s">
+        <v>125</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G446" t="s">
+        <v>35</v>
+      </c>
+      <c r="H446" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>760</v>
+      </c>
+      <c r="B447" t="s">
+        <v>8</v>
+      </c>
+      <c r="C447" t="s">
+        <v>668</v>
+      </c>
+      <c r="D447" t="s">
+        <v>118</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F447" s="3">
+        <v>69.721000000000004</v>
+      </c>
+      <c r="G447" t="s">
+        <v>176</v>
+      </c>
+      <c r="H447" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>694</v>
+      </c>
+      <c r="B448" t="s">
+        <v>8</v>
+      </c>
+      <c r="C448" t="s">
+        <v>695</v>
+      </c>
+      <c r="D448" t="s">
+        <v>28</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G448" t="s">
+        <v>247</v>
+      </c>
+      <c r="H448" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>761</v>
+      </c>
+      <c r="B449" t="s">
+        <v>8</v>
+      </c>
+      <c r="C449" t="s">
+        <v>572</v>
+      </c>
+      <c r="D449" t="s">
+        <v>573</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G449" t="s">
+        <v>71</v>
+      </c>
+      <c r="H449" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>762</v>
+      </c>
+      <c r="B450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C450" t="s">
+        <v>743</v>
+      </c>
+      <c r="D450" t="s">
+        <v>118</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G450" t="s">
+        <v>52</v>
+      </c>
+      <c r="H450" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>763</v>
+      </c>
+      <c r="B451" t="s">
+        <v>8</v>
+      </c>
+      <c r="C451" t="s">
+        <v>746</v>
+      </c>
+      <c r="D451" t="s">
+        <v>125</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G451" t="s">
+        <v>172</v>
+      </c>
+      <c r="H451" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>764</v>
+      </c>
+      <c r="B452" t="s">
+        <v>8</v>
+      </c>
+      <c r="C452" t="s">
+        <v>749</v>
+      </c>
+      <c r="D452" t="s">
+        <v>28</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G452" t="s">
+        <v>227</v>
+      </c>
+      <c r="H452" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>765</v>
+      </c>
+      <c r="B453" t="s">
+        <v>8</v>
+      </c>
+      <c r="C453" t="s">
+        <v>752</v>
+      </c>
+      <c r="D453" t="s">
+        <v>118</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G453" t="s">
+        <v>74</v>
+      </c>
+      <c r="H453" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>766</v>
+      </c>
+      <c r="B454" t="s">
+        <v>8</v>
+      </c>
+      <c r="C454" t="s">
+        <v>575</v>
+      </c>
+      <c r="D454" t="s">
+        <v>573</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G454" t="s">
+        <v>52</v>
+      </c>
+      <c r="H454" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>767</v>
+      </c>
+      <c r="B455" t="s">
+        <v>8</v>
+      </c>
+      <c r="C455" t="s">
+        <v>582</v>
+      </c>
+      <c r="D455" t="s">
+        <v>583</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G455" t="s">
+        <v>59</v>
+      </c>
+      <c r="H455" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>759</v>
+      </c>
+      <c r="B456" t="s">
+        <v>8</v>
+      </c>
+      <c r="C456" t="s">
+        <v>734</v>
+      </c>
+      <c r="D456" t="s">
+        <v>125</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G456" t="s">
+        <v>35</v>
+      </c>
+      <c r="H456" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>760</v>
+      </c>
+      <c r="B457" t="s">
+        <v>8</v>
+      </c>
+      <c r="C457" t="s">
+        <v>668</v>
+      </c>
+      <c r="D457" t="s">
+        <v>118</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G457" t="s">
+        <v>176</v>
+      </c>
+      <c r="H457" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>694</v>
+      </c>
+      <c r="B458" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458" t="s">
+        <v>695</v>
+      </c>
+      <c r="D458" t="s">
+        <v>28</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G458" t="s">
+        <v>247</v>
+      </c>
+      <c r="H458" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>761</v>
+      </c>
+      <c r="B459" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459" t="s">
+        <v>572</v>
+      </c>
+      <c r="D459" t="s">
+        <v>573</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G459" t="s">
+        <v>71</v>
+      </c>
+      <c r="H459" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>762</v>
+      </c>
+      <c r="B460" t="s">
+        <v>8</v>
+      </c>
+      <c r="C460" t="s">
+        <v>743</v>
+      </c>
+      <c r="D460" t="s">
+        <v>118</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G460" t="s">
+        <v>52</v>
+      </c>
+      <c r="H460" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>763</v>
+      </c>
+      <c r="B461" t="s">
+        <v>8</v>
+      </c>
+      <c r="C461" t="s">
+        <v>746</v>
+      </c>
+      <c r="D461" t="s">
+        <v>125</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G461" t="s">
+        <v>172</v>
+      </c>
+      <c r="H461" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>764</v>
+      </c>
+      <c r="B462" t="s">
+        <v>8</v>
+      </c>
+      <c r="C462" t="s">
+        <v>749</v>
+      </c>
+      <c r="D462" t="s">
+        <v>28</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="G462" t="s">
+        <v>227</v>
+      </c>
+      <c r="H462" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>765</v>
+      </c>
+      <c r="B463" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463" t="s">
+        <v>752</v>
+      </c>
+      <c r="D463" t="s">
+        <v>118</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G463" t="s">
+        <v>74</v>
+      </c>
+      <c r="H463" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>766</v>
+      </c>
+      <c r="B464" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464" t="s">
+        <v>575</v>
+      </c>
+      <c r="D464" t="s">
+        <v>573</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G464" t="s">
+        <v>52</v>
+      </c>
+      <c r="H464" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>767</v>
+      </c>
+      <c r="B465" t="s">
+        <v>8</v>
+      </c>
+      <c r="C465" t="s">
+        <v>582</v>
+      </c>
+      <c r="D465" t="s">
+        <v>583</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G465" t="s">
+        <v>59</v>
+      </c>
+      <c r="H465" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>759</v>
+      </c>
+      <c r="B466" t="s">
+        <v>8</v>
+      </c>
+      <c r="C466" t="s">
+        <v>734</v>
+      </c>
+      <c r="D466" t="s">
+        <v>125</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G466" t="s">
+        <v>35</v>
+      </c>
+      <c r="H466" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>482</v>
+      </c>
+      <c r="B467" t="s">
+        <v>8</v>
+      </c>
+      <c r="C467" t="s">
+        <v>679</v>
+      </c>
+      <c r="D467" t="s">
+        <v>58</v>
+      </c>
+      <c r="E467" t="s">
+        <v>768</v>
+      </c>
+      <c r="F467" t="s">
+        <v>769</v>
+      </c>
+      <c r="G467" t="s">
+        <v>671</v>
+      </c>
+      <c r="H467" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>676</v>
+      </c>
+      <c r="B468" t="s">
+        <v>8</v>
+      </c>
+      <c r="C468" t="s">
+        <v>677</v>
+      </c>
+      <c r="D468" t="s">
+        <v>58</v>
+      </c>
+      <c r="E468" t="s">
+        <v>770</v>
+      </c>
+      <c r="F468" t="s">
+        <v>771</v>
+      </c>
+      <c r="G468" t="s">
+        <v>247</v>
+      </c>
+      <c r="H468" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>266</v>
+      </c>
+      <c r="B469" t="s">
+        <v>8</v>
+      </c>
+      <c r="C469" t="s">
+        <v>698</v>
+      </c>
+      <c r="D469" t="s">
+        <v>66</v>
+      </c>
+      <c r="E469" t="s">
+        <v>772</v>
+      </c>
+      <c r="F469" t="s">
+        <v>773</v>
+      </c>
+      <c r="G469" t="s">
+        <v>74</v>
+      </c>
+      <c r="H469" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>798</v>
+      </c>
+      <c r="B470" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470" t="s">
+        <v>774</v>
+      </c>
+      <c r="D470" t="s">
+        <v>66</v>
+      </c>
+      <c r="E470" t="s">
+        <v>775</v>
+      </c>
+      <c r="F470" t="s">
+        <v>776</v>
+      </c>
+      <c r="G470" t="s">
+        <v>71</v>
+      </c>
+      <c r="H470" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>799</v>
+      </c>
+      <c r="B471" t="s">
+        <v>8</v>
+      </c>
+      <c r="C471" t="s">
+        <v>777</v>
+      </c>
+      <c r="D471" t="s">
+        <v>66</v>
+      </c>
+      <c r="E471" t="s">
+        <v>778</v>
+      </c>
+      <c r="F471" t="s">
+        <v>779</v>
+      </c>
+      <c r="G471" t="s">
+        <v>52</v>
+      </c>
+      <c r="H471" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>241</v>
+      </c>
+      <c r="B472" t="s">
+        <v>8</v>
+      </c>
+      <c r="C472" t="s">
+        <v>780</v>
+      </c>
+      <c r="D472" t="s">
+        <v>58</v>
+      </c>
+      <c r="E472" t="s">
+        <v>781</v>
+      </c>
+      <c r="F472" t="s">
+        <v>782</v>
+      </c>
+      <c r="G472" t="s">
+        <v>468</v>
+      </c>
+      <c r="H472" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>800</v>
+      </c>
+      <c r="B473" t="s">
+        <v>8</v>
+      </c>
+      <c r="C473" t="s">
+        <v>681</v>
+      </c>
+      <c r="D473" t="s">
+        <v>34</v>
+      </c>
+      <c r="E473" t="s">
+        <v>783</v>
+      </c>
+      <c r="F473" t="s">
+        <v>784</v>
+      </c>
+      <c r="G473" t="s">
+        <v>24</v>
+      </c>
+      <c r="H473" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>672</v>
       </c>
-      <c r="D357" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E357" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F357" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G357" s="3" t="s">
+      <c r="B474" t="s">
+        <v>8</v>
+      </c>
+      <c r="C474" t="s">
+        <v>128</v>
+      </c>
+      <c r="D474" t="s">
+        <v>34</v>
+      </c>
+      <c r="E474" t="s">
+        <v>785</v>
+      </c>
+      <c r="F474" t="s">
+        <v>786</v>
+      </c>
+      <c r="G474" t="s">
         <v>176</v>
       </c>
-      <c r="H357" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E358" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F358" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G358" s="3" t="s">
+      <c r="H474" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>801</v>
+      </c>
+      <c r="B475" t="s">
+        <v>8</v>
+      </c>
+      <c r="C475" t="s">
+        <v>787</v>
+      </c>
+      <c r="D475" t="s">
+        <v>34</v>
+      </c>
+      <c r="E475" t="s">
+        <v>788</v>
+      </c>
+      <c r="F475" t="s">
+        <v>789</v>
+      </c>
+      <c r="G475" t="s">
+        <v>35</v>
+      </c>
+      <c r="H475" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>802</v>
+      </c>
+      <c r="B476" t="s">
+        <v>8</v>
+      </c>
+      <c r="C476" t="s">
+        <v>790</v>
+      </c>
+      <c r="D476" t="s">
+        <v>107</v>
+      </c>
+      <c r="E476" t="s">
+        <v>791</v>
+      </c>
+      <c r="F476" t="s">
+        <v>792</v>
+      </c>
+      <c r="G476" t="s">
+        <v>74</v>
+      </c>
+      <c r="H476" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>803</v>
+      </c>
+      <c r="B477" t="s">
+        <v>8</v>
+      </c>
+      <c r="C477" t="s">
+        <v>793</v>
+      </c>
+      <c r="D477" t="s">
+        <v>107</v>
+      </c>
+      <c r="E477" t="s">
+        <v>794</v>
+      </c>
+      <c r="F477" t="s">
+        <v>795</v>
+      </c>
+      <c r="G477" t="s">
+        <v>172</v>
+      </c>
+      <c r="H477" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>804</v>
+      </c>
+      <c r="B478" t="s">
+        <v>8</v>
+      </c>
+      <c r="C478" t="s">
+        <v>106</v>
+      </c>
+      <c r="D478" t="s">
+        <v>107</v>
+      </c>
+      <c r="E478" t="s">
+        <v>796</v>
+      </c>
+      <c r="F478" t="s">
+        <v>797</v>
+      </c>
+      <c r="G478" t="s">
+        <v>227</v>
+      </c>
+      <c r="H478" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>482</v>
+      </c>
+      <c r="B479" t="s">
+        <v>8</v>
+      </c>
+      <c r="C479" t="s">
+        <v>679</v>
+      </c>
+      <c r="D479" t="s">
+        <v>58</v>
+      </c>
+      <c r="E479" t="s">
+        <v>768</v>
+      </c>
+      <c r="F479" t="s">
+        <v>769</v>
+      </c>
+      <c r="G479" t="s">
+        <v>671</v>
+      </c>
+      <c r="H479" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>676</v>
+      </c>
+      <c r="B480" t="s">
+        <v>8</v>
+      </c>
+      <c r="C480" t="s">
+        <v>677</v>
+      </c>
+      <c r="D480" t="s">
+        <v>58</v>
+      </c>
+      <c r="E480" t="s">
+        <v>770</v>
+      </c>
+      <c r="F480" t="s">
+        <v>771</v>
+      </c>
+      <c r="G480" t="s">
         <v>247</v>
       </c>
-      <c r="H358" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E359" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F359" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G359" s="3" t="s">
+      <c r="H480" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>266</v>
+      </c>
+      <c r="B481" t="s">
+        <v>8</v>
+      </c>
+      <c r="C481" t="s">
+        <v>698</v>
+      </c>
+      <c r="D481" t="s">
+        <v>66</v>
+      </c>
+      <c r="E481" t="s">
+        <v>772</v>
+      </c>
+      <c r="F481" t="s">
+        <v>773</v>
+      </c>
+      <c r="G481" t="s">
+        <v>74</v>
+      </c>
+      <c r="H481" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>798</v>
+      </c>
+      <c r="B482" t="s">
+        <v>8</v>
+      </c>
+      <c r="C482" t="s">
+        <v>774</v>
+      </c>
+      <c r="D482" t="s">
+        <v>66</v>
+      </c>
+      <c r="E482" t="s">
+        <v>775</v>
+      </c>
+      <c r="F482" t="s">
+        <v>776</v>
+      </c>
+      <c r="G482" t="s">
         <v>71</v>
       </c>
-      <c r="H359" s="3" t="s">
+      <c r="H482" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F360" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G360" s="3" t="s">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>799</v>
+      </c>
+      <c r="B483" t="s">
+        <v>8</v>
+      </c>
+      <c r="C483" t="s">
+        <v>777</v>
+      </c>
+      <c r="D483" t="s">
+        <v>66</v>
+      </c>
+      <c r="E483" t="s">
+        <v>778</v>
+      </c>
+      <c r="F483" t="s">
+        <v>779</v>
+      </c>
+      <c r="G483" t="s">
         <v>52</v>
       </c>
-      <c r="H360" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="4" t="s">
+      <c r="H483" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>241</v>
+      </c>
+      <c r="B484" t="s">
+        <v>8</v>
+      </c>
+      <c r="C484" t="s">
+        <v>780</v>
+      </c>
+      <c r="D484" t="s">
+        <v>58</v>
+      </c>
+      <c r="E484" t="s">
+        <v>781</v>
+      </c>
+      <c r="F484" t="s">
+        <v>782</v>
+      </c>
+      <c r="G484" t="s">
+        <v>468</v>
+      </c>
+      <c r="H484" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>800</v>
+      </c>
+      <c r="B485" t="s">
+        <v>8</v>
+      </c>
+      <c r="C485" t="s">
+        <v>681</v>
+      </c>
+      <c r="D485" t="s">
+        <v>34</v>
+      </c>
+      <c r="E485" t="s">
+        <v>783</v>
+      </c>
+      <c r="F485" t="s">
+        <v>784</v>
+      </c>
+      <c r="G485" t="s">
+        <v>24</v>
+      </c>
+      <c r="H485" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>672</v>
+      </c>
+      <c r="B486" t="s">
+        <v>8</v>
+      </c>
+      <c r="C486" t="s">
+        <v>128</v>
+      </c>
+      <c r="D486" t="s">
+        <v>34</v>
+      </c>
+      <c r="E486" t="s">
+        <v>785</v>
+      </c>
+      <c r="F486" t="s">
+        <v>786</v>
+      </c>
+      <c r="G486" t="s">
+        <v>176</v>
+      </c>
+      <c r="H486" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>801</v>
+      </c>
+      <c r="B487" t="s">
+        <v>8</v>
+      </c>
+      <c r="C487" t="s">
+        <v>787</v>
+      </c>
+      <c r="D487" t="s">
+        <v>34</v>
+      </c>
+      <c r="E487" t="s">
+        <v>788</v>
+      </c>
+      <c r="F487" t="s">
+        <v>789</v>
+      </c>
+      <c r="G487" t="s">
+        <v>35</v>
+      </c>
+      <c r="H487" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>802</v>
+      </c>
+      <c r="B488" t="s">
+        <v>8</v>
+      </c>
+      <c r="C488" t="s">
+        <v>790</v>
+      </c>
+      <c r="D488" t="s">
+        <v>107</v>
+      </c>
+      <c r="E488" t="s">
+        <v>791</v>
+      </c>
+      <c r="F488" t="s">
+        <v>792</v>
+      </c>
+      <c r="G488" t="s">
+        <v>74</v>
+      </c>
+      <c r="H488" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>803</v>
+      </c>
+      <c r="B489" t="s">
+        <v>8</v>
+      </c>
+      <c r="C489" t="s">
+        <v>793</v>
+      </c>
+      <c r="D489" t="s">
+        <v>107</v>
+      </c>
+      <c r="E489" t="s">
+        <v>794</v>
+      </c>
+      <c r="F489" t="s">
+        <v>795</v>
+      </c>
+      <c r="G489" t="s">
+        <v>172</v>
+      </c>
+      <c r="H489" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>804</v>
+      </c>
+      <c r="B490" t="s">
+        <v>8</v>
+      </c>
+      <c r="C490" t="s">
+        <v>106</v>
+      </c>
+      <c r="D490" t="s">
+        <v>107</v>
+      </c>
+      <c r="E490" t="s">
+        <v>796</v>
+      </c>
+      <c r="F490" t="s">
+        <v>797</v>
+      </c>
+      <c r="G490" t="s">
+        <v>227</v>
+      </c>
+      <c r="H490" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>482</v>
+      </c>
+      <c r="B491" t="s">
+        <v>8</v>
+      </c>
+      <c r="C491" t="s">
+        <v>679</v>
+      </c>
+      <c r="D491" t="s">
+        <v>58</v>
+      </c>
+      <c r="E491" t="s">
         <v>768</v>
       </c>
-      <c r="B361" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E361" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F361" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G361" s="3" t="s">
+      <c r="F491" t="s">
+        <v>769</v>
+      </c>
+      <c r="G491" t="s">
+        <v>671</v>
+      </c>
+      <c r="H491" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>676</v>
+      </c>
+      <c r="B492" t="s">
+        <v>8</v>
+      </c>
+      <c r="C492" t="s">
+        <v>677</v>
+      </c>
+      <c r="D492" t="s">
+        <v>58</v>
+      </c>
+      <c r="E492" t="s">
+        <v>770</v>
+      </c>
+      <c r="F492" t="s">
+        <v>771</v>
+      </c>
+      <c r="G492" t="s">
+        <v>247</v>
+      </c>
+      <c r="H492" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>266</v>
+      </c>
+      <c r="B493" t="s">
+        <v>8</v>
+      </c>
+      <c r="C493" t="s">
+        <v>698</v>
+      </c>
+      <c r="D493" t="s">
+        <v>66</v>
+      </c>
+      <c r="E493" t="s">
+        <v>772</v>
+      </c>
+      <c r="F493" t="s">
+        <v>773</v>
+      </c>
+      <c r="G493" t="s">
+        <v>74</v>
+      </c>
+      <c r="H493" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>798</v>
+      </c>
+      <c r="B494" t="s">
+        <v>8</v>
+      </c>
+      <c r="C494" t="s">
+        <v>774</v>
+      </c>
+      <c r="D494" t="s">
+        <v>66</v>
+      </c>
+      <c r="E494" t="s">
+        <v>775</v>
+      </c>
+      <c r="F494" t="s">
+        <v>776</v>
+      </c>
+      <c r="G494" t="s">
+        <v>71</v>
+      </c>
+      <c r="H494" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>799</v>
+      </c>
+      <c r="B495" t="s">
+        <v>8</v>
+      </c>
+      <c r="C495" t="s">
+        <v>777</v>
+      </c>
+      <c r="D495" t="s">
+        <v>66</v>
+      </c>
+      <c r="E495" t="s">
+        <v>778</v>
+      </c>
+      <c r="F495" t="s">
+        <v>779</v>
+      </c>
+      <c r="G495" t="s">
+        <v>52</v>
+      </c>
+      <c r="H495" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>241</v>
+      </c>
+      <c r="B496" t="s">
+        <v>8</v>
+      </c>
+      <c r="C496" t="s">
+        <v>780</v>
+      </c>
+      <c r="D496" t="s">
+        <v>58</v>
+      </c>
+      <c r="E496" t="s">
+        <v>781</v>
+      </c>
+      <c r="F496" t="s">
+        <v>782</v>
+      </c>
+      <c r="G496" t="s">
+        <v>468</v>
+      </c>
+      <c r="H496" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>800</v>
+      </c>
+      <c r="B497" t="s">
+        <v>8</v>
+      </c>
+      <c r="C497" t="s">
+        <v>681</v>
+      </c>
+      <c r="D497" t="s">
+        <v>34</v>
+      </c>
+      <c r="E497" t="s">
+        <v>783</v>
+      </c>
+      <c r="F497" t="s">
+        <v>784</v>
+      </c>
+      <c r="G497" t="s">
+        <v>24</v>
+      </c>
+      <c r="H497" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>672</v>
+      </c>
+      <c r="B498" t="s">
+        <v>8</v>
+      </c>
+      <c r="C498" t="s">
+        <v>128</v>
+      </c>
+      <c r="D498" t="s">
+        <v>34</v>
+      </c>
+      <c r="E498" t="s">
+        <v>785</v>
+      </c>
+      <c r="F498" t="s">
+        <v>786</v>
+      </c>
+      <c r="G498" t="s">
+        <v>176</v>
+      </c>
+      <c r="H498" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>801</v>
+      </c>
+      <c r="B499" t="s">
+        <v>8</v>
+      </c>
+      <c r="C499" t="s">
+        <v>787</v>
+      </c>
+      <c r="D499" t="s">
+        <v>34</v>
+      </c>
+      <c r="E499" t="s">
+        <v>788</v>
+      </c>
+      <c r="F499" t="s">
+        <v>789</v>
+      </c>
+      <c r="G499" t="s">
+        <v>35</v>
+      </c>
+      <c r="H499" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>802</v>
+      </c>
+      <c r="B500" t="s">
+        <v>8</v>
+      </c>
+      <c r="C500" t="s">
+        <v>790</v>
+      </c>
+      <c r="D500" t="s">
+        <v>107</v>
+      </c>
+      <c r="E500" t="s">
+        <v>791</v>
+      </c>
+      <c r="F500" t="s">
+        <v>792</v>
+      </c>
+      <c r="G500" t="s">
+        <v>74</v>
+      </c>
+      <c r="H500" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>803</v>
+      </c>
+      <c r="B501" t="s">
+        <v>8</v>
+      </c>
+      <c r="C501" t="s">
+        <v>793</v>
+      </c>
+      <c r="D501" t="s">
+        <v>107</v>
+      </c>
+      <c r="E501" t="s">
+        <v>794</v>
+      </c>
+      <c r="F501" t="s">
+        <v>795</v>
+      </c>
+      <c r="G501" t="s">
         <v>172</v>
       </c>
-      <c r="H361" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="4" t="s">
+      <c r="H501" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>804</v>
+      </c>
+      <c r="B502" t="s">
+        <v>8</v>
+      </c>
+      <c r="C502" t="s">
+        <v>106</v>
+      </c>
+      <c r="D502" t="s">
+        <v>107</v>
+      </c>
+      <c r="E502" t="s">
+        <v>796</v>
+      </c>
+      <c r="F502" t="s">
+        <v>797</v>
+      </c>
+      <c r="G502" t="s">
+        <v>227</v>
+      </c>
+      <c r="H502" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>482</v>
+      </c>
+      <c r="B503" t="s">
+        <v>8</v>
+      </c>
+      <c r="C503" t="s">
+        <v>679</v>
+      </c>
+      <c r="D503" t="s">
+        <v>58</v>
+      </c>
+      <c r="E503" t="s">
+        <v>768</v>
+      </c>
+      <c r="F503" t="s">
         <v>769</v>
       </c>
-      <c r="B362" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F362" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G362" s="3" t="s">
+      <c r="G503" t="s">
+        <v>671</v>
+      </c>
+      <c r="H503" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>676</v>
+      </c>
+      <c r="B504" t="s">
+        <v>8</v>
+      </c>
+      <c r="C504" t="s">
+        <v>677</v>
+      </c>
+      <c r="D504" t="s">
+        <v>58</v>
+      </c>
+      <c r="E504" t="s">
+        <v>770</v>
+      </c>
+      <c r="F504" t="s">
+        <v>771</v>
+      </c>
+      <c r="G504" t="s">
+        <v>247</v>
+      </c>
+      <c r="H504" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>266</v>
+      </c>
+      <c r="B505" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505" t="s">
+        <v>698</v>
+      </c>
+      <c r="D505" t="s">
+        <v>66</v>
+      </c>
+      <c r="E505" t="s">
+        <v>772</v>
+      </c>
+      <c r="F505" t="s">
+        <v>773</v>
+      </c>
+      <c r="G505" t="s">
+        <v>74</v>
+      </c>
+      <c r="H505" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>798</v>
+      </c>
+      <c r="B506" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506" t="s">
+        <v>774</v>
+      </c>
+      <c r="D506" t="s">
+        <v>66</v>
+      </c>
+      <c r="E506" t="s">
+        <v>775</v>
+      </c>
+      <c r="F506" t="s">
+        <v>776</v>
+      </c>
+      <c r="G506" t="s">
+        <v>71</v>
+      </c>
+      <c r="H506" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>799</v>
+      </c>
+      <c r="B507" t="s">
+        <v>8</v>
+      </c>
+      <c r="C507" t="s">
+        <v>777</v>
+      </c>
+      <c r="D507" t="s">
+        <v>66</v>
+      </c>
+      <c r="E507" t="s">
+        <v>778</v>
+      </c>
+      <c r="F507" t="s">
+        <v>779</v>
+      </c>
+      <c r="G507" t="s">
+        <v>52</v>
+      </c>
+      <c r="H507" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>241</v>
+      </c>
+      <c r="B508" t="s">
+        <v>8</v>
+      </c>
+      <c r="C508" t="s">
+        <v>780</v>
+      </c>
+      <c r="D508" t="s">
+        <v>58</v>
+      </c>
+      <c r="E508" t="s">
+        <v>781</v>
+      </c>
+      <c r="F508" t="s">
+        <v>782</v>
+      </c>
+      <c r="G508" t="s">
+        <v>468</v>
+      </c>
+      <c r="H508" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>800</v>
+      </c>
+      <c r="B509" t="s">
+        <v>8</v>
+      </c>
+      <c r="C509" t="s">
+        <v>681</v>
+      </c>
+      <c r="D509" t="s">
+        <v>34</v>
+      </c>
+      <c r="E509" t="s">
+        <v>783</v>
+      </c>
+      <c r="F509" t="s">
+        <v>784</v>
+      </c>
+      <c r="G509" t="s">
+        <v>24</v>
+      </c>
+      <c r="H509" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>672</v>
+      </c>
+      <c r="B510" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510" t="s">
+        <v>128</v>
+      </c>
+      <c r="D510" t="s">
+        <v>34</v>
+      </c>
+      <c r="E510" t="s">
+        <v>785</v>
+      </c>
+      <c r="F510" t="s">
+        <v>786</v>
+      </c>
+      <c r="G510" t="s">
+        <v>176</v>
+      </c>
+      <c r="H510" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>801</v>
+      </c>
+      <c r="B511" t="s">
+        <v>8</v>
+      </c>
+      <c r="C511" t="s">
+        <v>787</v>
+      </c>
+      <c r="D511" t="s">
+        <v>34</v>
+      </c>
+      <c r="E511" t="s">
+        <v>788</v>
+      </c>
+      <c r="F511" t="s">
+        <v>789</v>
+      </c>
+      <c r="G511" t="s">
+        <v>35</v>
+      </c>
+      <c r="H511" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>802</v>
+      </c>
+      <c r="B512" t="s">
+        <v>8</v>
+      </c>
+      <c r="C512" t="s">
+        <v>790</v>
+      </c>
+      <c r="D512" t="s">
+        <v>107</v>
+      </c>
+      <c r="E512" t="s">
+        <v>791</v>
+      </c>
+      <c r="F512" t="s">
+        <v>792</v>
+      </c>
+      <c r="G512" t="s">
+        <v>74</v>
+      </c>
+      <c r="H512" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>803</v>
+      </c>
+      <c r="B513" t="s">
+        <v>8</v>
+      </c>
+      <c r="C513" t="s">
+        <v>793</v>
+      </c>
+      <c r="D513" t="s">
+        <v>107</v>
+      </c>
+      <c r="E513" t="s">
+        <v>794</v>
+      </c>
+      <c r="F513" t="s">
+        <v>795</v>
+      </c>
+      <c r="G513" t="s">
+        <v>172</v>
+      </c>
+      <c r="H513" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>804</v>
+      </c>
+      <c r="B514" t="s">
+        <v>8</v>
+      </c>
+      <c r="C514" t="s">
+        <v>106</v>
+      </c>
+      <c r="D514" t="s">
+        <v>107</v>
+      </c>
+      <c r="E514" t="s">
+        <v>796</v>
+      </c>
+      <c r="F514" t="s">
+        <v>797</v>
+      </c>
+      <c r="G514" t="s">
         <v>227</v>
       </c>
-      <c r="H362" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
+      <c r="H514" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>482</v>
+      </c>
+      <c r="B515" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515" t="s">
+        <v>679</v>
+      </c>
+      <c r="D515" t="s">
+        <v>58</v>
+      </c>
+      <c r="E515" t="s">
+        <v>768</v>
+      </c>
+      <c r="F515" t="s">
+        <v>769</v>
+      </c>
+      <c r="G515" t="s">
+        <v>671</v>
+      </c>
+      <c r="H515" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>676</v>
+      </c>
+      <c r="B516" t="s">
+        <v>8</v>
+      </c>
+      <c r="C516" t="s">
+        <v>677</v>
+      </c>
+      <c r="D516" t="s">
+        <v>58</v>
+      </c>
+      <c r="E516" t="s">
         <v>770</v>
       </c>
-      <c r="B363" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F363" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G363" s="3" t="s">
+      <c r="F516" t="s">
+        <v>771</v>
+      </c>
+      <c r="G516" t="s">
+        <v>247</v>
+      </c>
+      <c r="H516" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>266</v>
+      </c>
+      <c r="B517" t="s">
+        <v>8</v>
+      </c>
+      <c r="C517" t="s">
+        <v>698</v>
+      </c>
+      <c r="D517" t="s">
+        <v>66</v>
+      </c>
+      <c r="E517" t="s">
+        <v>772</v>
+      </c>
+      <c r="F517" t="s">
+        <v>773</v>
+      </c>
+      <c r="G517" t="s">
         <v>74</v>
       </c>
-      <c r="H363" s="3" t="s">
+      <c r="H517" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F364" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G364" s="3" t="s">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>798</v>
+      </c>
+      <c r="B518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518" t="s">
+        <v>774</v>
+      </c>
+      <c r="D518" t="s">
+        <v>66</v>
+      </c>
+      <c r="E518" t="s">
+        <v>775</v>
+      </c>
+      <c r="F518" t="s">
+        <v>776</v>
+      </c>
+      <c r="G518" t="s">
+        <v>71</v>
+      </c>
+      <c r="H518" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>799</v>
+      </c>
+      <c r="B519" t="s">
+        <v>8</v>
+      </c>
+      <c r="C519" t="s">
+        <v>777</v>
+      </c>
+      <c r="D519" t="s">
+        <v>66</v>
+      </c>
+      <c r="E519" t="s">
+        <v>778</v>
+      </c>
+      <c r="F519" t="s">
+        <v>779</v>
+      </c>
+      <c r="G519" t="s">
         <v>52</v>
       </c>
-      <c r="H364" s="3" t="s">
+      <c r="H519" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>241</v>
+      </c>
+      <c r="B520" t="s">
+        <v>8</v>
+      </c>
+      <c r="C520" t="s">
+        <v>780</v>
+      </c>
+      <c r="D520" t="s">
+        <v>58</v>
+      </c>
+      <c r="E520" t="s">
+        <v>781</v>
+      </c>
+      <c r="F520" t="s">
+        <v>782</v>
+      </c>
+      <c r="G520" t="s">
+        <v>468</v>
+      </c>
+      <c r="H520" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E365" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F365" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G365" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H365" s="3" t="s">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>800</v>
+      </c>
+      <c r="B521" t="s">
+        <v>8</v>
+      </c>
+      <c r="C521" t="s">
+        <v>681</v>
+      </c>
+      <c r="D521" t="s">
+        <v>34</v>
+      </c>
+      <c r="E521" t="s">
+        <v>783</v>
+      </c>
+      <c r="F521" t="s">
+        <v>784</v>
+      </c>
+      <c r="G521" t="s">
+        <v>24</v>
+      </c>
+      <c r="H521" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>672</v>
+      </c>
+      <c r="B522" t="s">
+        <v>8</v>
+      </c>
+      <c r="C522" t="s">
+        <v>128</v>
+      </c>
+      <c r="D522" t="s">
+        <v>34</v>
+      </c>
+      <c r="E522" t="s">
+        <v>785</v>
+      </c>
+      <c r="F522" t="s">
+        <v>786</v>
+      </c>
+      <c r="G522" t="s">
+        <v>176</v>
+      </c>
+      <c r="H522" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F366" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G366" s="3" t="s">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>801</v>
+      </c>
+      <c r="B523" t="s">
+        <v>8</v>
+      </c>
+      <c r="C523" t="s">
+        <v>787</v>
+      </c>
+      <c r="D523" t="s">
+        <v>34</v>
+      </c>
+      <c r="E523" t="s">
+        <v>788</v>
+      </c>
+      <c r="F523" t="s">
+        <v>789</v>
+      </c>
+      <c r="G523" t="s">
         <v>35</v>
       </c>
-      <c r="H366" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E367" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F367" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G367" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H367" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E368" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F368" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G368" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H368" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E369" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F369" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G369" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H369" s="3" t="s">
+      <c r="H523" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E370" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F370" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G370" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H370" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E371" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F371" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G371" s="3" t="s">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>802</v>
+      </c>
+      <c r="B524" t="s">
+        <v>8</v>
+      </c>
+      <c r="C524" t="s">
+        <v>790</v>
+      </c>
+      <c r="D524" t="s">
+        <v>107</v>
+      </c>
+      <c r="E524" t="s">
+        <v>791</v>
+      </c>
+      <c r="F524" t="s">
+        <v>792</v>
+      </c>
+      <c r="G524" t="s">
+        <v>74</v>
+      </c>
+      <c r="H524" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>803</v>
+      </c>
+      <c r="B525" t="s">
+        <v>8</v>
+      </c>
+      <c r="C525" t="s">
+        <v>793</v>
+      </c>
+      <c r="D525" t="s">
+        <v>107</v>
+      </c>
+      <c r="E525" t="s">
+        <v>794</v>
+      </c>
+      <c r="F525" t="s">
+        <v>795</v>
+      </c>
+      <c r="G525" t="s">
         <v>172</v>
       </c>
-      <c r="H371" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E372" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F372" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G372" s="3" t="s">
+      <c r="H525" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>804</v>
+      </c>
+      <c r="B526" t="s">
+        <v>8</v>
+      </c>
+      <c r="C526" t="s">
+        <v>106</v>
+      </c>
+      <c r="D526" t="s">
+        <v>107</v>
+      </c>
+      <c r="E526" t="s">
+        <v>796</v>
+      </c>
+      <c r="F526" t="s">
+        <v>797</v>
+      </c>
+      <c r="G526" t="s">
         <v>227</v>
       </c>
-      <c r="H372" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E373" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F373" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G373" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H373" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F374" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G374" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H374" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E375" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F375" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G375" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H375" s="3" t="s">
+      <c r="H526" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E376" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F376" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G376" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H376" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E377" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F377" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G377" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H377" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E378" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F378" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G378" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H378" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E379" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F379" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G379" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H379" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E380" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F380" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G380" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H380" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E381" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F381" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G381" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H381" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E382" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F382" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G382" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H382" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E383" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F383" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G383" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H383" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E384" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F384" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G384" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H384" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E385" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F385" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G385" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H385" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E386" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F386" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H386" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D387" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E387" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F387" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G387" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H387" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F388" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G388" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H388" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E389" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F389" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G389" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H389" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E390" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F390" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G390" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H390" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A391" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E391" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F391" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E392" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F392" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G392" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H392" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E393" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F393" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A394" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E394" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F394" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G394" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H394" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A395" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E395" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F395" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H395" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E396" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F396" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G396" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H396" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E397" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F397" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H397" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E398" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F398" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G398" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H398" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E399" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F399" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G399" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H399" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E400" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F400" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G400" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H400" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A401" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E401" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F401" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G401" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H401" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E402" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F402" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G402" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H402" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E403" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F403" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G403" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H403" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E404" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F404" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G404" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H404" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E405" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F405" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G405" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H405" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E406" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F406" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G406" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H406" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A407" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E407" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F407" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G407" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H407" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A408" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E408" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F408" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G408" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H408" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A409" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E409" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F409" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G409" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H409" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A410" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E410" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F410" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G410" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H410" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A411" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E411" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F411" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G411" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H411" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E412" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F412" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G412" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H412" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E413" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F413" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G413" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H413" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A414" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E414" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F414" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G414" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H414" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E415" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F415" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G415" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H415" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E416" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F416" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G416" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H416" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A417" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E417" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F417" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G417" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H417" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E418" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F418" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G418" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H418" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A419" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D419" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E419" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F419" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G419" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H419" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E420" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F420" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H420" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E421" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F421" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G421" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H421" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A422" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E422" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F422" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G422" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H422" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A423" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E423" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F423" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G423" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H423" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A424" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E424" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F424" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G424" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H424" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A425" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E425" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F425" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G425" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H425" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A426" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E426" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F426" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G426" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H426" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E427" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F427" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G427" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H427" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A428" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E428" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F428" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G428" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H428" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E429" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F429" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G429" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H429" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E430" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F430" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G430" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H430" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A431" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E431" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F431" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G431" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H431" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A432" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E432" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F432" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G432" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H432" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A433" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C433" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E433" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F433" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G433" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A434" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C434" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E434" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F434" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G434" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H434" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A435" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E435" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F435" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G435" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H435" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A436" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B436" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C436" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E436" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F436" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G436" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H436" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A437" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E437" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F437" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G437" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H437" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A438" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E438" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F438" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G438" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H438" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A439" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E439" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F439" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G439" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H439" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A440" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E440" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F440" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G440" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H440" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A441" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E441" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F441" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G441" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H441" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A442" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E442" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F442" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G442" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H442" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A443" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C443" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E443" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F443" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G443" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H443" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A444" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E444" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F444" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G444" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H444" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A445" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C445" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E445" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F445" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G445" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H445" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A446" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E446" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F446" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G446" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H446" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E447" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F447" s="5">
-        <v>69.721000000000004</v>
-      </c>
-      <c r="G447" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H447" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A448" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B448" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C448" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E448" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F448" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G448" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H448" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A449" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B449" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E449" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F449" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G449" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H449" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E450" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F450" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G450" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H450" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A451" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E451" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F451" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G451" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H451" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A452" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E452" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F452" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G452" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H452" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A453" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B453" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C453" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E453" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F453" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G453" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H453" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A454" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B454" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C454" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E454" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F454" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G454" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H454" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A455" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B455" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E455" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F455" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G455" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H455" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A456" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B456" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C456" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E456" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F456" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G456" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H456" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A457" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B457" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E457" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="F457" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="G457" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H457" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A458" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B458" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C458" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E458" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="F458" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G458" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H458" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A459" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="B459" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C459" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E459" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="F459" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G459" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H459" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A460" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B460" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C460" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E460" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F460" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="G460" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H460" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A461" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B461" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C461" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E461" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F461" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="G461" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H461" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A462" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B462" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C462" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E462" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="F462" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="G462" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H462" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A463" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E463" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F463" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="G463" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H463" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A464" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="B464" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C464" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E464" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F464" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="G464" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H464" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A465" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E465" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="F465" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="G465" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H465" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A466" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="B466" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C466" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E466" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="F466" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="G466" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H466" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E67FE9-FBD4-4A4D-B5F5-0279EC4A9E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A12EFF-712D-4927-BFAA-0FC096134AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="844">
   <si>
     <t>Name</t>
   </si>
@@ -2463,6 +2463,111 @@
   </si>
   <si>
     <t>Zamanita LUnited Stateska</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>30,033</t>
+  </si>
+  <si>
+    <t>31,233</t>
+  </si>
+  <si>
+    <t>31,200</t>
+  </si>
+  <si>
+    <t>29,917</t>
+  </si>
+  <si>
+    <t>33,573</t>
+  </si>
+  <si>
+    <t>-7,589</t>
+  </si>
+  <si>
+    <t>Tunis</t>
+  </si>
+  <si>
+    <t>36,806</t>
+  </si>
+  <si>
+    <t>10,181</t>
+  </si>
+  <si>
+    <t>15,500</t>
+  </si>
+  <si>
+    <t>32,560</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>17,385</t>
+  </si>
+  <si>
+    <t>78,486</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>31,549</t>
+  </si>
+  <si>
+    <t>74,343</t>
+  </si>
+  <si>
+    <t>Narayanganj</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>23,622</t>
+  </si>
+  <si>
+    <t>90,500</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>6,927</t>
+  </si>
+  <si>
+    <t>79,861</t>
+  </si>
+  <si>
+    <t>Arma Oils Cairo</t>
+  </si>
+  <si>
+    <t>Savola Group Alexandria</t>
+  </si>
+  <si>
+    <t>Carthage Grains Tunis</t>
+  </si>
+  <si>
+    <t>Areej Vegetable Oils Khartoum</t>
+  </si>
+  <si>
+    <t>Gemini Edibles Hyderabad</t>
+  </si>
+  <si>
+    <t>Sufi Oil Mills Lahore</t>
+  </si>
+  <si>
+    <t>T.K. Group Narayanganj</t>
+  </si>
+  <si>
+    <t>P.T. Oil &amp; Fats Colombo</t>
   </si>
 </sst>
 </file>
@@ -2952,13 +3057,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3335,11 +3442,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:H586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A455" sqref="A455"/>
+      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D586" sqref="D586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17030,6 +17137,1566 @@
         <v>25</v>
       </c>
     </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F527" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G527" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H527" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A528" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E528" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F528" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G528" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H528" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A529" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E529" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F529" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G529" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H529" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A530" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E530" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F530" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G530" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H530" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A531" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E531" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F531" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G531" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H531" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A532" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D532" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E532" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F532" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G532" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H532" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A533" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E533" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F533" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G533" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H533" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A534" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E534" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F534" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G534" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H534" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A535" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E535" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F535" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G535" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H535" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A536" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C536" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E536" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F536" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G536" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H536" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A537" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E537" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F537" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G537" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H537" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A538" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E538" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F538" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G538" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H538" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E539" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F539" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G539" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H539" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A540" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D540" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E540" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F540" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G540" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H540" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A541" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E541" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F541" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G541" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H541" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A542" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E542" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F542" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G542" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H542" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A543" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E543" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F543" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G543" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H543" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E544" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F544" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G544" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H544" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C545" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E545" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F545" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G545" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H545" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E546" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F546" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G546" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H546" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C547" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F547" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G547" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H547" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C548" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E548" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F548" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G548" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H548" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C549" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E549" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F549" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G549" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H549" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C550" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E550" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F550" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G550" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H550" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C551" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E551" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F551" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G551" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H551" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C552" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E552" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F552" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G552" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H552" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C553" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D553" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E553" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F553" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G553" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H553" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E554" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F554" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G554" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H554" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E555" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F555" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G555" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H555" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C556" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D556" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F556" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G556" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H556" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C557" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E557" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F557" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G557" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H557" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E558" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F558" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G558" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H558" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F559" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G559" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H559" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E560" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F560" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G560" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H560" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A561" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D561" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E561" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F561" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G561" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H561" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A562" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C562" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D562" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F562" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G562" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H562" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A563" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F563" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G563" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H563" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A564" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D564" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E564" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F564" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G564" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H564" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F565" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G565" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H565" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C566" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D566" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E566" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F566" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G566" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H566" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A567" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E567" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F567" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G567" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H567" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D568" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E568" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F568" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G568" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H568" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A569" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C569" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E569" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F569" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G569" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H569" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C570" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D570" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E570" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F570" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G570" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H570" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B571" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C571" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E571" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F571" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G571" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H571" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C572" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D572" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E572" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F572" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G572" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H572" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B573" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C573" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E573" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F573" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G573" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H573" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C574" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D574" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F574" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G574" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H574" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C575" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D575" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E575" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F575" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G575" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H575" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C576" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E576" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F576" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G576" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H576" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C577" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E577" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F577" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G577" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H577" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C578" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D578" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E578" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F578" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G578" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H578" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B579" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C579" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D579" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E579" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F579" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G579" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H579" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C580" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D580" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E580" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F580" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G580" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H580" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C581" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E581" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="F581" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G581" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H581" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A582" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D582" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E582" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F582" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G582" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H582" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A583" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D583" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E583" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F583" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G583" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H583" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C584" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D584" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E584" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F584" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G584" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H584" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A585" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C585" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E585" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F585" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G585" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H585" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D586" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E586" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F586" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G586" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H586" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H355" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H355">

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A12EFF-712D-4927-BFAA-0FC096134AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C196F-E7A0-482C-BA0C-A1A5765469C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="904">
   <si>
     <t>Name</t>
   </si>
@@ -2568,6 +2568,186 @@
   </si>
   <si>
     <t>P.T. Oil &amp; Fats Colombo</t>
+  </si>
+  <si>
+    <t>Incheon</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>37,456</t>
+  </si>
+  <si>
+    <t>126,705</t>
+  </si>
+  <si>
+    <t>Yokohama</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>35,443</t>
+  </si>
+  <si>
+    <t>139,638</t>
+  </si>
+  <si>
+    <t>35,689</t>
+  </si>
+  <si>
+    <t>51,389</t>
+  </si>
+  <si>
+    <t>21,485</t>
+  </si>
+  <si>
+    <t>39,192</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>33,315</t>
+  </si>
+  <si>
+    <t>44,366</t>
+  </si>
+  <si>
+    <t>Mogadishu</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>2,040</t>
+  </si>
+  <si>
+    <t>45,343</t>
+  </si>
+  <si>
+    <t>Mahajanga</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>-15,717</t>
+  </si>
+  <si>
+    <t>46,317</t>
+  </si>
+  <si>
+    <t>Beira</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>-19,822</t>
+  </si>
+  <si>
+    <t>34,838</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>-33,448</t>
+  </si>
+  <si>
+    <t>-70,669</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>-12,046</t>
+  </si>
+  <si>
+    <t>-77,042</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>25,686</t>
+  </si>
+  <si>
+    <t>-100,316</t>
+  </si>
+  <si>
+    <t>Port of Spain</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>10,654</t>
+  </si>
+  <si>
+    <t>-61,501</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>17,971</t>
+  </si>
+  <si>
+    <t>-76,793</t>
+  </si>
+  <si>
+    <t>CJ CheilJedang Incheon</t>
+  </si>
+  <si>
+    <t>Nisshin Oillio Yokohama</t>
+  </si>
+  <si>
+    <t>Shezan International Lahore</t>
+  </si>
+  <si>
+    <t>Behshahr Industrial Tehran</t>
+  </si>
+  <si>
+    <t>Savola Edible Oils Jeddah</t>
+  </si>
+  <si>
+    <t>Al-Doura Oil Baghdad</t>
+  </si>
+  <si>
+    <t>Hormuud Agro Mogadishu</t>
+  </si>
+  <si>
+    <t>Madagascar Oils Mahajanga</t>
+  </si>
+  <si>
+    <t>Olam Mozambique Beira</t>
+  </si>
+  <si>
+    <t>Cargill Chile Santiago</t>
+  </si>
+  <si>
+    <t>Grupo Palmas Lima</t>
+  </si>
+  <si>
+    <t>Gruma Mexico Monterrey</t>
+  </si>
+  <si>
+    <t>Caribbean Agro Oils Port of Spain</t>
+  </si>
+  <si>
+    <t>Mazza Oil Kingston</t>
   </si>
 </sst>
 </file>
@@ -3442,11 +3622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H586"/>
+  <dimension ref="A1:H646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D586" sqref="D586"/>
+      <pane ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D648" sqref="D648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17138,1563 +17318,3123 @@
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A527" s="5" t="s">
+      <c r="A527" t="s">
         <v>836</v>
       </c>
-      <c r="B527" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C527" s="4" t="s">
+      <c r="B527" t="s">
+        <v>8</v>
+      </c>
+      <c r="C527" t="s">
         <v>809</v>
       </c>
-      <c r="D527" s="4" t="s">
+      <c r="D527" t="s">
         <v>619</v>
       </c>
-      <c r="E527" s="4" t="s">
+      <c r="E527" t="s">
         <v>810</v>
       </c>
-      <c r="F527" s="4" t="s">
+      <c r="F527" t="s">
         <v>811</v>
       </c>
-      <c r="G527" s="4" t="s">
+      <c r="G527" t="s">
         <v>74</v>
       </c>
-      <c r="H527" s="4" t="s">
+      <c r="H527" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A528" s="5" t="s">
+      <c r="A528" t="s">
         <v>837</v>
       </c>
-      <c r="B528" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C528" s="4" t="s">
+      <c r="B528" t="s">
+        <v>8</v>
+      </c>
+      <c r="C528" t="s">
         <v>625</v>
       </c>
-      <c r="D528" s="4" t="s">
+      <c r="D528" t="s">
         <v>619</v>
       </c>
-      <c r="E528" s="4" t="s">
+      <c r="E528" t="s">
         <v>812</v>
       </c>
-      <c r="F528" s="4" t="s">
+      <c r="F528" t="s">
         <v>813</v>
       </c>
-      <c r="G528" s="4" t="s">
+      <c r="G528" t="s">
         <v>71</v>
       </c>
-      <c r="H528" s="4" t="s">
+      <c r="H528" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A529" s="5" t="s">
+      <c r="A529" t="s">
         <v>608</v>
       </c>
-      <c r="B529" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C529" s="4" t="s">
+      <c r="B529" t="s">
+        <v>8</v>
+      </c>
+      <c r="C529" t="s">
         <v>609</v>
       </c>
-      <c r="D529" s="4" t="s">
+      <c r="D529" t="s">
         <v>610</v>
       </c>
-      <c r="E529" s="4" t="s">
+      <c r="E529" t="s">
         <v>814</v>
       </c>
-      <c r="F529" s="4" t="s">
+      <c r="F529" t="s">
         <v>815</v>
       </c>
-      <c r="G529" s="4" t="s">
+      <c r="G529" t="s">
         <v>468</v>
       </c>
-      <c r="H529" s="4" t="s">
+      <c r="H529" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A530" s="5" t="s">
+      <c r="A530" t="s">
         <v>838</v>
       </c>
-      <c r="B530" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C530" s="4" t="s">
+      <c r="B530" t="s">
+        <v>8</v>
+      </c>
+      <c r="C530" t="s">
         <v>816</v>
       </c>
-      <c r="D530" s="4" t="s">
+      <c r="D530" t="s">
         <v>616</v>
       </c>
-      <c r="E530" s="4" t="s">
+      <c r="E530" t="s">
         <v>817</v>
       </c>
-      <c r="F530" s="4" t="s">
+      <c r="F530" t="s">
         <v>818</v>
       </c>
-      <c r="G530" s="4" t="s">
+      <c r="G530" t="s">
         <v>227</v>
       </c>
-      <c r="H530" s="4" t="s">
+      <c r="H530" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A531" s="5" t="s">
+      <c r="A531" t="s">
         <v>839</v>
       </c>
-      <c r="B531" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C531" s="4" t="s">
+      <c r="B531" t="s">
+        <v>8</v>
+      </c>
+      <c r="C531" t="s">
         <v>652</v>
       </c>
-      <c r="D531" s="4" t="s">
+      <c r="D531" t="s">
         <v>653</v>
       </c>
-      <c r="E531" s="4" t="s">
+      <c r="E531" t="s">
         <v>819</v>
       </c>
-      <c r="F531" s="4" t="s">
+      <c r="F531" t="s">
         <v>820</v>
       </c>
-      <c r="G531" s="4" t="s">
+      <c r="G531" t="s">
         <v>52</v>
       </c>
-      <c r="H531" s="4" t="s">
+      <c r="H531" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A532" s="5" t="s">
+      <c r="A532" t="s">
         <v>840</v>
       </c>
-      <c r="B532" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C532" s="4" t="s">
+      <c r="B532" t="s">
+        <v>8</v>
+      </c>
+      <c r="C532" t="s">
         <v>821</v>
       </c>
-      <c r="D532" s="4" t="s">
+      <c r="D532" t="s">
         <v>118</v>
       </c>
-      <c r="E532" s="4" t="s">
+      <c r="E532" t="s">
         <v>822</v>
       </c>
-      <c r="F532" s="4" t="s">
+      <c r="F532" t="s">
         <v>823</v>
       </c>
-      <c r="G532" s="4" t="s">
+      <c r="G532" t="s">
         <v>35</v>
       </c>
-      <c r="H532" s="4" t="s">
+      <c r="H532" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A533" s="5" t="s">
+      <c r="A533" t="s">
         <v>760</v>
       </c>
-      <c r="B533" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C533" s="4" t="s">
+      <c r="B533" t="s">
+        <v>8</v>
+      </c>
+      <c r="C533" t="s">
         <v>668</v>
       </c>
-      <c r="D533" s="4" t="s">
+      <c r="D533" t="s">
         <v>118</v>
       </c>
-      <c r="E533" s="4" t="s">
+      <c r="E533" t="s">
         <v>737</v>
       </c>
-      <c r="F533" s="4" t="s">
+      <c r="F533" t="s">
         <v>738</v>
       </c>
-      <c r="G533" s="4" t="s">
+      <c r="G533" t="s">
         <v>176</v>
       </c>
-      <c r="H533" s="4" t="s">
+      <c r="H533" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A534" s="5" t="s">
+      <c r="A534" t="s">
         <v>841</v>
       </c>
-      <c r="B534" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C534" s="4" t="s">
+      <c r="B534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C534" t="s">
         <v>824</v>
       </c>
-      <c r="D534" s="4" t="s">
+      <c r="D534" t="s">
         <v>825</v>
       </c>
-      <c r="E534" s="4" t="s">
+      <c r="E534" t="s">
         <v>826</v>
       </c>
-      <c r="F534" s="4" t="s">
+      <c r="F534" t="s">
         <v>827</v>
       </c>
-      <c r="G534" s="4" t="s">
+      <c r="G534" t="s">
         <v>74</v>
       </c>
-      <c r="H534" s="4" t="s">
+      <c r="H534" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A535" s="5" t="s">
+      <c r="A535" t="s">
         <v>842</v>
       </c>
-      <c r="B535" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C535" s="4" t="s">
+      <c r="B535" t="s">
+        <v>8</v>
+      </c>
+      <c r="C535" t="s">
         <v>828</v>
       </c>
-      <c r="D535" s="4" t="s">
+      <c r="D535" t="s">
         <v>829</v>
       </c>
-      <c r="E535" s="4" t="s">
+      <c r="E535" t="s">
         <v>830</v>
       </c>
-      <c r="F535" s="4" t="s">
+      <c r="F535" t="s">
         <v>831</v>
       </c>
-      <c r="G535" s="4" t="s">
+      <c r="G535" t="s">
         <v>567</v>
       </c>
-      <c r="H535" s="4" t="s">
+      <c r="H535" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A536" s="5" t="s">
+      <c r="A536" t="s">
         <v>843</v>
       </c>
-      <c r="B536" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C536" s="4" t="s">
+      <c r="B536" t="s">
+        <v>8</v>
+      </c>
+      <c r="C536" t="s">
         <v>832</v>
       </c>
-      <c r="D536" s="4" t="s">
+      <c r="D536" t="s">
         <v>833</v>
       </c>
-      <c r="E536" s="4" t="s">
+      <c r="E536" t="s">
         <v>834</v>
       </c>
-      <c r="F536" s="4" t="s">
+      <c r="F536" t="s">
         <v>835</v>
       </c>
-      <c r="G536" s="4" t="s">
+      <c r="G536" t="s">
         <v>81</v>
       </c>
-      <c r="H536" s="4" t="s">
+      <c r="H536" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A537" s="5" t="s">
+      <c r="A537" t="s">
         <v>836</v>
       </c>
-      <c r="B537" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C537" s="4" t="s">
+      <c r="B537" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537" t="s">
         <v>809</v>
       </c>
-      <c r="D537" s="4" t="s">
+      <c r="D537" t="s">
         <v>619</v>
       </c>
-      <c r="E537" s="4" t="s">
+      <c r="E537" t="s">
         <v>810</v>
       </c>
-      <c r="F537" s="4" t="s">
+      <c r="F537" t="s">
         <v>811</v>
       </c>
-      <c r="G537" s="4" t="s">
+      <c r="G537" t="s">
         <v>74</v>
       </c>
-      <c r="H537" s="4" t="s">
+      <c r="H537" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A538" s="5" t="s">
+      <c r="A538" t="s">
         <v>837</v>
       </c>
-      <c r="B538" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C538" s="4" t="s">
+      <c r="B538" t="s">
+        <v>8</v>
+      </c>
+      <c r="C538" t="s">
         <v>625</v>
       </c>
-      <c r="D538" s="4" t="s">
+      <c r="D538" t="s">
         <v>619</v>
       </c>
-      <c r="E538" s="4" t="s">
+      <c r="E538" t="s">
         <v>812</v>
       </c>
-      <c r="F538" s="4" t="s">
+      <c r="F538" t="s">
         <v>813</v>
       </c>
-      <c r="G538" s="4" t="s">
+      <c r="G538" t="s">
         <v>71</v>
       </c>
-      <c r="H538" s="4" t="s">
+      <c r="H538" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A539" s="5" t="s">
+      <c r="A539" t="s">
         <v>608</v>
       </c>
-      <c r="B539" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C539" s="4" t="s">
+      <c r="B539" t="s">
+        <v>8</v>
+      </c>
+      <c r="C539" t="s">
         <v>609</v>
       </c>
-      <c r="D539" s="4" t="s">
+      <c r="D539" t="s">
         <v>610</v>
       </c>
-      <c r="E539" s="4" t="s">
+      <c r="E539" t="s">
         <v>814</v>
       </c>
-      <c r="F539" s="4" t="s">
+      <c r="F539" t="s">
         <v>815</v>
       </c>
-      <c r="G539" s="4" t="s">
+      <c r="G539" t="s">
         <v>468</v>
       </c>
-      <c r="H539" s="4" t="s">
+      <c r="H539" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A540" s="5" t="s">
+      <c r="A540" t="s">
         <v>838</v>
       </c>
-      <c r="B540" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C540" s="4" t="s">
+      <c r="B540" t="s">
+        <v>8</v>
+      </c>
+      <c r="C540" t="s">
         <v>816</v>
       </c>
-      <c r="D540" s="4" t="s">
+      <c r="D540" t="s">
         <v>616</v>
       </c>
-      <c r="E540" s="4" t="s">
+      <c r="E540" t="s">
         <v>817</v>
       </c>
-      <c r="F540" s="4" t="s">
+      <c r="F540" t="s">
         <v>818</v>
       </c>
-      <c r="G540" s="4" t="s">
+      <c r="G540" t="s">
         <v>227</v>
       </c>
-      <c r="H540" s="4" t="s">
+      <c r="H540" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A541" s="5" t="s">
+      <c r="A541" t="s">
         <v>839</v>
       </c>
-      <c r="B541" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C541" s="4" t="s">
+      <c r="B541" t="s">
+        <v>8</v>
+      </c>
+      <c r="C541" t="s">
         <v>652</v>
       </c>
-      <c r="D541" s="4" t="s">
+      <c r="D541" t="s">
         <v>653</v>
       </c>
-      <c r="E541" s="4" t="s">
+      <c r="E541" t="s">
         <v>819</v>
       </c>
-      <c r="F541" s="4" t="s">
+      <c r="F541" t="s">
         <v>820</v>
       </c>
-      <c r="G541" s="4" t="s">
+      <c r="G541" t="s">
         <v>52</v>
       </c>
-      <c r="H541" s="4" t="s">
+      <c r="H541" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A542" s="5" t="s">
+      <c r="A542" t="s">
         <v>840</v>
       </c>
-      <c r="B542" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C542" s="4" t="s">
+      <c r="B542" t="s">
+        <v>8</v>
+      </c>
+      <c r="C542" t="s">
         <v>821</v>
       </c>
-      <c r="D542" s="4" t="s">
+      <c r="D542" t="s">
         <v>118</v>
       </c>
-      <c r="E542" s="4" t="s">
+      <c r="E542" t="s">
         <v>822</v>
       </c>
-      <c r="F542" s="4" t="s">
+      <c r="F542" t="s">
         <v>823</v>
       </c>
-      <c r="G542" s="4" t="s">
+      <c r="G542" t="s">
         <v>35</v>
       </c>
-      <c r="H542" s="4" t="s">
+      <c r="H542" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A543" s="5" t="s">
+      <c r="A543" t="s">
         <v>760</v>
       </c>
-      <c r="B543" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C543" s="4" t="s">
+      <c r="B543" t="s">
+        <v>8</v>
+      </c>
+      <c r="C543" t="s">
         <v>668</v>
       </c>
-      <c r="D543" s="4" t="s">
+      <c r="D543" t="s">
         <v>118</v>
       </c>
-      <c r="E543" s="4" t="s">
+      <c r="E543" t="s">
         <v>737</v>
       </c>
-      <c r="F543" s="4" t="s">
+      <c r="F543" t="s">
         <v>738</v>
       </c>
-      <c r="G543" s="4" t="s">
+      <c r="G543" t="s">
         <v>176</v>
       </c>
-      <c r="H543" s="4" t="s">
+      <c r="H543" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A544" s="5" t="s">
+      <c r="A544" t="s">
         <v>841</v>
       </c>
-      <c r="B544" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C544" s="4" t="s">
+      <c r="B544" t="s">
+        <v>8</v>
+      </c>
+      <c r="C544" t="s">
         <v>824</v>
       </c>
-      <c r="D544" s="4" t="s">
+      <c r="D544" t="s">
         <v>825</v>
       </c>
-      <c r="E544" s="4" t="s">
+      <c r="E544" t="s">
         <v>826</v>
       </c>
-      <c r="F544" s="4" t="s">
+      <c r="F544" t="s">
         <v>827</v>
       </c>
-      <c r="G544" s="4" t="s">
+      <c r="G544" t="s">
         <v>74</v>
       </c>
-      <c r="H544" s="4" t="s">
+      <c r="H544" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A545" s="5" t="s">
+      <c r="A545" t="s">
         <v>842</v>
       </c>
-      <c r="B545" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C545" s="4" t="s">
+      <c r="B545" t="s">
+        <v>8</v>
+      </c>
+      <c r="C545" t="s">
         <v>828</v>
       </c>
-      <c r="D545" s="4" t="s">
+      <c r="D545" t="s">
         <v>829</v>
       </c>
-      <c r="E545" s="4" t="s">
+      <c r="E545" t="s">
         <v>830</v>
       </c>
-      <c r="F545" s="4" t="s">
+      <c r="F545" t="s">
         <v>831</v>
       </c>
-      <c r="G545" s="4" t="s">
+      <c r="G545" t="s">
         <v>567</v>
       </c>
-      <c r="H545" s="4" t="s">
+      <c r="H545" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A546" s="5" t="s">
+      <c r="A546" t="s">
         <v>843</v>
       </c>
-      <c r="B546" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C546" s="4" t="s">
+      <c r="B546" t="s">
+        <v>8</v>
+      </c>
+      <c r="C546" t="s">
         <v>832</v>
       </c>
-      <c r="D546" s="4" t="s">
+      <c r="D546" t="s">
         <v>833</v>
       </c>
-      <c r="E546" s="4" t="s">
+      <c r="E546" t="s">
         <v>834</v>
       </c>
-      <c r="F546" s="4" t="s">
+      <c r="F546" t="s">
         <v>835</v>
       </c>
-      <c r="G546" s="4" t="s">
+      <c r="G546" t="s">
         <v>81</v>
       </c>
-      <c r="H546" s="4" t="s">
+      <c r="H546" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A547" s="5" t="s">
+      <c r="A547" t="s">
         <v>836</v>
       </c>
-      <c r="B547" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C547" s="4" t="s">
+      <c r="B547" t="s">
+        <v>8</v>
+      </c>
+      <c r="C547" t="s">
         <v>809</v>
       </c>
-      <c r="D547" s="4" t="s">
+      <c r="D547" t="s">
         <v>619</v>
       </c>
-      <c r="E547" s="4" t="s">
+      <c r="E547" t="s">
         <v>810</v>
       </c>
-      <c r="F547" s="4" t="s">
+      <c r="F547" t="s">
         <v>811</v>
       </c>
-      <c r="G547" s="4" t="s">
+      <c r="G547" t="s">
         <v>74</v>
       </c>
-      <c r="H547" s="4" t="s">
+      <c r="H547" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A548" s="5" t="s">
+      <c r="A548" t="s">
         <v>837</v>
       </c>
-      <c r="B548" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C548" s="4" t="s">
+      <c r="B548" t="s">
+        <v>8</v>
+      </c>
+      <c r="C548" t="s">
         <v>625</v>
       </c>
-      <c r="D548" s="4" t="s">
+      <c r="D548" t="s">
         <v>619</v>
       </c>
-      <c r="E548" s="4" t="s">
+      <c r="E548" t="s">
         <v>812</v>
       </c>
-      <c r="F548" s="4" t="s">
+      <c r="F548" t="s">
         <v>813</v>
       </c>
-      <c r="G548" s="4" t="s">
+      <c r="G548" t="s">
         <v>71</v>
       </c>
-      <c r="H548" s="4" t="s">
+      <c r="H548" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A549" s="5" t="s">
+      <c r="A549" t="s">
         <v>608</v>
       </c>
-      <c r="B549" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C549" s="4" t="s">
+      <c r="B549" t="s">
+        <v>8</v>
+      </c>
+      <c r="C549" t="s">
         <v>609</v>
       </c>
-      <c r="D549" s="4" t="s">
+      <c r="D549" t="s">
         <v>610</v>
       </c>
-      <c r="E549" s="4" t="s">
+      <c r="E549" t="s">
         <v>814</v>
       </c>
-      <c r="F549" s="4" t="s">
+      <c r="F549" t="s">
         <v>815</v>
       </c>
-      <c r="G549" s="4" t="s">
+      <c r="G549" t="s">
         <v>468</v>
       </c>
-      <c r="H549" s="4" t="s">
+      <c r="H549" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A550" s="5" t="s">
+      <c r="A550" t="s">
         <v>838</v>
       </c>
-      <c r="B550" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C550" s="4" t="s">
+      <c r="B550" t="s">
+        <v>8</v>
+      </c>
+      <c r="C550" t="s">
         <v>816</v>
       </c>
-      <c r="D550" s="4" t="s">
+      <c r="D550" t="s">
         <v>616</v>
       </c>
-      <c r="E550" s="4" t="s">
+      <c r="E550" t="s">
         <v>817</v>
       </c>
-      <c r="F550" s="4" t="s">
+      <c r="F550" t="s">
         <v>818</v>
       </c>
-      <c r="G550" s="4" t="s">
+      <c r="G550" t="s">
         <v>227</v>
       </c>
-      <c r="H550" s="4" t="s">
+      <c r="H550" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" s="5" t="s">
+      <c r="A551" t="s">
         <v>839</v>
       </c>
-      <c r="B551" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C551" s="4" t="s">
+      <c r="B551" t="s">
+        <v>8</v>
+      </c>
+      <c r="C551" t="s">
         <v>652</v>
       </c>
-      <c r="D551" s="4" t="s">
+      <c r="D551" t="s">
         <v>653</v>
       </c>
-      <c r="E551" s="4" t="s">
+      <c r="E551" t="s">
         <v>819</v>
       </c>
-      <c r="F551" s="4" t="s">
+      <c r="F551" t="s">
         <v>820</v>
       </c>
-      <c r="G551" s="4" t="s">
+      <c r="G551" t="s">
         <v>52</v>
       </c>
-      <c r="H551" s="4" t="s">
+      <c r="H551" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="5" t="s">
+      <c r="A552" t="s">
         <v>840</v>
       </c>
-      <c r="B552" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C552" s="4" t="s">
+      <c r="B552" t="s">
+        <v>8</v>
+      </c>
+      <c r="C552" t="s">
         <v>821</v>
       </c>
-      <c r="D552" s="4" t="s">
+      <c r="D552" t="s">
         <v>118</v>
       </c>
-      <c r="E552" s="4" t="s">
+      <c r="E552" t="s">
         <v>822</v>
       </c>
-      <c r="F552" s="4" t="s">
+      <c r="F552" t="s">
         <v>823</v>
       </c>
-      <c r="G552" s="4" t="s">
+      <c r="G552" t="s">
         <v>35</v>
       </c>
-      <c r="H552" s="4" t="s">
+      <c r="H552" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="5" t="s">
+      <c r="A553" t="s">
         <v>760</v>
       </c>
-      <c r="B553" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C553" s="4" t="s">
+      <c r="B553" t="s">
+        <v>8</v>
+      </c>
+      <c r="C553" t="s">
         <v>668</v>
       </c>
-      <c r="D553" s="4" t="s">
+      <c r="D553" t="s">
         <v>118</v>
       </c>
-      <c r="E553" s="4" t="s">
+      <c r="E553" t="s">
         <v>737</v>
       </c>
-      <c r="F553" s="4" t="s">
+      <c r="F553" t="s">
         <v>738</v>
       </c>
-      <c r="G553" s="4" t="s">
+      <c r="G553" t="s">
         <v>176</v>
       </c>
-      <c r="H553" s="4" t="s">
+      <c r="H553" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A554" s="5" t="s">
+      <c r="A554" t="s">
         <v>841</v>
       </c>
-      <c r="B554" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C554" s="4" t="s">
+      <c r="B554" t="s">
+        <v>8</v>
+      </c>
+      <c r="C554" t="s">
         <v>824</v>
       </c>
-      <c r="D554" s="4" t="s">
+      <c r="D554" t="s">
         <v>825</v>
       </c>
-      <c r="E554" s="4" t="s">
+      <c r="E554" t="s">
         <v>826</v>
       </c>
-      <c r="F554" s="4" t="s">
+      <c r="F554" t="s">
         <v>827</v>
       </c>
-      <c r="G554" s="4" t="s">
+      <c r="G554" t="s">
         <v>74</v>
       </c>
-      <c r="H554" s="4" t="s">
+      <c r="H554" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A555" s="5" t="s">
+      <c r="A555" t="s">
         <v>842</v>
       </c>
-      <c r="B555" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C555" s="4" t="s">
+      <c r="B555" t="s">
+        <v>8</v>
+      </c>
+      <c r="C555" t="s">
         <v>828</v>
       </c>
-      <c r="D555" s="4" t="s">
+      <c r="D555" t="s">
         <v>829</v>
       </c>
-      <c r="E555" s="4" t="s">
+      <c r="E555" t="s">
         <v>830</v>
       </c>
-      <c r="F555" s="4" t="s">
+      <c r="F555" t="s">
         <v>831</v>
       </c>
-      <c r="G555" s="4" t="s">
+      <c r="G555" t="s">
         <v>567</v>
       </c>
-      <c r="H555" s="4" t="s">
+      <c r="H555" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A556" s="5" t="s">
+      <c r="A556" t="s">
         <v>843</v>
       </c>
-      <c r="B556" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C556" s="4" t="s">
+      <c r="B556" t="s">
+        <v>8</v>
+      </c>
+      <c r="C556" t="s">
         <v>832</v>
       </c>
-      <c r="D556" s="4" t="s">
+      <c r="D556" t="s">
         <v>833</v>
       </c>
-      <c r="E556" s="4" t="s">
+      <c r="E556" t="s">
         <v>834</v>
       </c>
-      <c r="F556" s="4" t="s">
+      <c r="F556" t="s">
         <v>835</v>
       </c>
-      <c r="G556" s="4" t="s">
+      <c r="G556" t="s">
         <v>81</v>
       </c>
-      <c r="H556" s="4" t="s">
+      <c r="H556" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A557" s="5" t="s">
+      <c r="A557" t="s">
         <v>836</v>
       </c>
-      <c r="B557" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C557" s="4" t="s">
+      <c r="B557" t="s">
+        <v>8</v>
+      </c>
+      <c r="C557" t="s">
         <v>809</v>
       </c>
-      <c r="D557" s="4" t="s">
+      <c r="D557" t="s">
         <v>619</v>
       </c>
-      <c r="E557" s="4" t="s">
+      <c r="E557" t="s">
         <v>810</v>
       </c>
-      <c r="F557" s="4" t="s">
+      <c r="F557" t="s">
         <v>811</v>
       </c>
-      <c r="G557" s="4" t="s">
+      <c r="G557" t="s">
         <v>74</v>
       </c>
-      <c r="H557" s="4" t="s">
+      <c r="H557" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A558" s="5" t="s">
+      <c r="A558" t="s">
         <v>837</v>
       </c>
-      <c r="B558" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C558" s="4" t="s">
+      <c r="B558" t="s">
+        <v>8</v>
+      </c>
+      <c r="C558" t="s">
         <v>625</v>
       </c>
-      <c r="D558" s="4" t="s">
+      <c r="D558" t="s">
         <v>619</v>
       </c>
-      <c r="E558" s="4" t="s">
+      <c r="E558" t="s">
         <v>812</v>
       </c>
-      <c r="F558" s="4" t="s">
+      <c r="F558" t="s">
         <v>813</v>
       </c>
-      <c r="G558" s="4" t="s">
+      <c r="G558" t="s">
         <v>71</v>
       </c>
-      <c r="H558" s="4" t="s">
+      <c r="H558" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A559" s="5" t="s">
+      <c r="A559" t="s">
         <v>608</v>
       </c>
-      <c r="B559" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C559" s="4" t="s">
+      <c r="B559" t="s">
+        <v>8</v>
+      </c>
+      <c r="C559" t="s">
         <v>609</v>
       </c>
-      <c r="D559" s="4" t="s">
+      <c r="D559" t="s">
         <v>610</v>
       </c>
-      <c r="E559" s="4" t="s">
+      <c r="E559" t="s">
         <v>814</v>
       </c>
-      <c r="F559" s="4" t="s">
+      <c r="F559" t="s">
         <v>815</v>
       </c>
-      <c r="G559" s="4" t="s">
+      <c r="G559" t="s">
         <v>468</v>
       </c>
-      <c r="H559" s="4" t="s">
+      <c r="H559" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A560" s="5" t="s">
+      <c r="A560" t="s">
         <v>838</v>
       </c>
-      <c r="B560" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C560" s="4" t="s">
+      <c r="B560" t="s">
+        <v>8</v>
+      </c>
+      <c r="C560" t="s">
         <v>816</v>
       </c>
-      <c r="D560" s="4" t="s">
+      <c r="D560" t="s">
         <v>616</v>
       </c>
-      <c r="E560" s="4" t="s">
+      <c r="E560" t="s">
         <v>817</v>
       </c>
-      <c r="F560" s="4" t="s">
+      <c r="F560" t="s">
         <v>818</v>
       </c>
-      <c r="G560" s="4" t="s">
+      <c r="G560" t="s">
         <v>227</v>
       </c>
-      <c r="H560" s="4" t="s">
+      <c r="H560" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A561" s="5" t="s">
+      <c r="A561" t="s">
         <v>839</v>
       </c>
-      <c r="B561" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C561" s="4" t="s">
+      <c r="B561" t="s">
+        <v>8</v>
+      </c>
+      <c r="C561" t="s">
         <v>652</v>
       </c>
-      <c r="D561" s="4" t="s">
+      <c r="D561" t="s">
         <v>653</v>
       </c>
-      <c r="E561" s="4" t="s">
+      <c r="E561" t="s">
         <v>819</v>
       </c>
-      <c r="F561" s="4" t="s">
+      <c r="F561" t="s">
         <v>820</v>
       </c>
-      <c r="G561" s="4" t="s">
+      <c r="G561" t="s">
         <v>52</v>
       </c>
-      <c r="H561" s="4" t="s">
+      <c r="H561" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A562" s="5" t="s">
+      <c r="A562" t="s">
         <v>840</v>
       </c>
-      <c r="B562" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C562" s="4" t="s">
+      <c r="B562" t="s">
+        <v>8</v>
+      </c>
+      <c r="C562" t="s">
         <v>821</v>
       </c>
-      <c r="D562" s="4" t="s">
+      <c r="D562" t="s">
         <v>118</v>
       </c>
-      <c r="E562" s="4" t="s">
+      <c r="E562" t="s">
         <v>822</v>
       </c>
-      <c r="F562" s="4" t="s">
+      <c r="F562" t="s">
         <v>823</v>
       </c>
-      <c r="G562" s="4" t="s">
+      <c r="G562" t="s">
         <v>35</v>
       </c>
-      <c r="H562" s="4" t="s">
+      <c r="H562" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A563" s="5" t="s">
+      <c r="A563" t="s">
         <v>760</v>
       </c>
-      <c r="B563" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C563" s="4" t="s">
+      <c r="B563" t="s">
+        <v>8</v>
+      </c>
+      <c r="C563" t="s">
         <v>668</v>
       </c>
-      <c r="D563" s="4" t="s">
+      <c r="D563" t="s">
         <v>118</v>
       </c>
-      <c r="E563" s="4" t="s">
+      <c r="E563" t="s">
         <v>737</v>
       </c>
-      <c r="F563" s="4" t="s">
+      <c r="F563" t="s">
         <v>738</v>
       </c>
-      <c r="G563" s="4" t="s">
+      <c r="G563" t="s">
         <v>176</v>
       </c>
-      <c r="H563" s="4" t="s">
+      <c r="H563" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A564" s="5" t="s">
+      <c r="A564" t="s">
         <v>841</v>
       </c>
-      <c r="B564" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C564" s="4" t="s">
+      <c r="B564" t="s">
+        <v>8</v>
+      </c>
+      <c r="C564" t="s">
         <v>824</v>
       </c>
-      <c r="D564" s="4" t="s">
+      <c r="D564" t="s">
         <v>825</v>
       </c>
-      <c r="E564" s="4" t="s">
+      <c r="E564" t="s">
         <v>826</v>
       </c>
-      <c r="F564" s="4" t="s">
+      <c r="F564" t="s">
         <v>827</v>
       </c>
-      <c r="G564" s="4" t="s">
+      <c r="G564" t="s">
         <v>74</v>
       </c>
-      <c r="H564" s="4" t="s">
+      <c r="H564" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A565" s="5" t="s">
+      <c r="A565" t="s">
         <v>842</v>
       </c>
-      <c r="B565" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C565" s="4" t="s">
+      <c r="B565" t="s">
+        <v>8</v>
+      </c>
+      <c r="C565" t="s">
         <v>828</v>
       </c>
-      <c r="D565" s="4" t="s">
+      <c r="D565" t="s">
         <v>829</v>
       </c>
-      <c r="E565" s="4" t="s">
+      <c r="E565" t="s">
         <v>830</v>
       </c>
-      <c r="F565" s="4" t="s">
+      <c r="F565" t="s">
         <v>831</v>
       </c>
-      <c r="G565" s="4" t="s">
+      <c r="G565" t="s">
         <v>567</v>
       </c>
-      <c r="H565" s="4" t="s">
+      <c r="H565" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A566" s="5" t="s">
+      <c r="A566" t="s">
         <v>843</v>
       </c>
-      <c r="B566" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C566" s="4" t="s">
+      <c r="B566" t="s">
+        <v>8</v>
+      </c>
+      <c r="C566" t="s">
         <v>832</v>
       </c>
-      <c r="D566" s="4" t="s">
+      <c r="D566" t="s">
         <v>833</v>
       </c>
-      <c r="E566" s="4" t="s">
+      <c r="E566" t="s">
         <v>834</v>
       </c>
-      <c r="F566" s="4" t="s">
+      <c r="F566" t="s">
         <v>835</v>
       </c>
-      <c r="G566" s="4" t="s">
+      <c r="G566" t="s">
         <v>81</v>
       </c>
-      <c r="H566" s="4" t="s">
+      <c r="H566" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A567" s="5" t="s">
+      <c r="A567" t="s">
         <v>836</v>
       </c>
-      <c r="B567" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C567" s="4" t="s">
+      <c r="B567" t="s">
+        <v>8</v>
+      </c>
+      <c r="C567" t="s">
         <v>809</v>
       </c>
-      <c r="D567" s="4" t="s">
+      <c r="D567" t="s">
         <v>619</v>
       </c>
-      <c r="E567" s="4" t="s">
+      <c r="E567" t="s">
         <v>810</v>
       </c>
-      <c r="F567" s="4" t="s">
+      <c r="F567" t="s">
         <v>811</v>
       </c>
-      <c r="G567" s="4" t="s">
+      <c r="G567" t="s">
         <v>74</v>
       </c>
-      <c r="H567" s="4" t="s">
+      <c r="H567" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A568" s="5" t="s">
+      <c r="A568" t="s">
         <v>837</v>
       </c>
-      <c r="B568" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C568" s="4" t="s">
+      <c r="B568" t="s">
+        <v>8</v>
+      </c>
+      <c r="C568" t="s">
         <v>625</v>
       </c>
-      <c r="D568" s="4" t="s">
+      <c r="D568" t="s">
         <v>619</v>
       </c>
-      <c r="E568" s="4" t="s">
+      <c r="E568" t="s">
         <v>812</v>
       </c>
-      <c r="F568" s="4" t="s">
+      <c r="F568" t="s">
         <v>813</v>
       </c>
-      <c r="G568" s="4" t="s">
+      <c r="G568" t="s">
         <v>71</v>
       </c>
-      <c r="H568" s="4" t="s">
+      <c r="H568" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A569" s="5" t="s">
+      <c r="A569" t="s">
         <v>608</v>
       </c>
-      <c r="B569" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C569" s="4" t="s">
+      <c r="B569" t="s">
+        <v>8</v>
+      </c>
+      <c r="C569" t="s">
         <v>609</v>
       </c>
-      <c r="D569" s="4" t="s">
+      <c r="D569" t="s">
         <v>610</v>
       </c>
-      <c r="E569" s="4" t="s">
+      <c r="E569" t="s">
         <v>814</v>
       </c>
-      <c r="F569" s="4" t="s">
+      <c r="F569" t="s">
         <v>815</v>
       </c>
-      <c r="G569" s="4" t="s">
+      <c r="G569" t="s">
         <v>468</v>
       </c>
-      <c r="H569" s="4" t="s">
+      <c r="H569" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A570" s="5" t="s">
+      <c r="A570" t="s">
         <v>838</v>
       </c>
-      <c r="B570" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C570" s="4" t="s">
+      <c r="B570" t="s">
+        <v>8</v>
+      </c>
+      <c r="C570" t="s">
         <v>816</v>
       </c>
-      <c r="D570" s="4" t="s">
+      <c r="D570" t="s">
         <v>616</v>
       </c>
-      <c r="E570" s="4" t="s">
+      <c r="E570" t="s">
         <v>817</v>
       </c>
-      <c r="F570" s="4" t="s">
+      <c r="F570" t="s">
         <v>818</v>
       </c>
-      <c r="G570" s="4" t="s">
+      <c r="G570" t="s">
         <v>227</v>
       </c>
-      <c r="H570" s="4" t="s">
+      <c r="H570" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A571" s="5" t="s">
+      <c r="A571" t="s">
         <v>839</v>
       </c>
-      <c r="B571" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C571" s="4" t="s">
+      <c r="B571" t="s">
+        <v>8</v>
+      </c>
+      <c r="C571" t="s">
         <v>652</v>
       </c>
-      <c r="D571" s="4" t="s">
+      <c r="D571" t="s">
         <v>653</v>
       </c>
-      <c r="E571" s="4" t="s">
+      <c r="E571" t="s">
         <v>819</v>
       </c>
-      <c r="F571" s="4" t="s">
+      <c r="F571" t="s">
         <v>820</v>
       </c>
-      <c r="G571" s="4" t="s">
+      <c r="G571" t="s">
         <v>52</v>
       </c>
-      <c r="H571" s="4" t="s">
+      <c r="H571" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A572" s="5" t="s">
+      <c r="A572" t="s">
         <v>840</v>
       </c>
-      <c r="B572" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C572" s="4" t="s">
+      <c r="B572" t="s">
+        <v>8</v>
+      </c>
+      <c r="C572" t="s">
         <v>821</v>
       </c>
-      <c r="D572" s="4" t="s">
+      <c r="D572" t="s">
         <v>118</v>
       </c>
-      <c r="E572" s="4" t="s">
+      <c r="E572" t="s">
         <v>822</v>
       </c>
-      <c r="F572" s="4" t="s">
+      <c r="F572" t="s">
         <v>823</v>
       </c>
-      <c r="G572" s="4" t="s">
+      <c r="G572" t="s">
         <v>35</v>
       </c>
-      <c r="H572" s="4" t="s">
+      <c r="H572" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A573" s="5" t="s">
+      <c r="A573" t="s">
         <v>760</v>
       </c>
-      <c r="B573" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C573" s="4" t="s">
+      <c r="B573" t="s">
+        <v>8</v>
+      </c>
+      <c r="C573" t="s">
         <v>668</v>
       </c>
-      <c r="D573" s="4" t="s">
+      <c r="D573" t="s">
         <v>118</v>
       </c>
-      <c r="E573" s="4" t="s">
+      <c r="E573" t="s">
         <v>737</v>
       </c>
-      <c r="F573" s="4" t="s">
+      <c r="F573" t="s">
         <v>738</v>
       </c>
-      <c r="G573" s="4" t="s">
+      <c r="G573" t="s">
         <v>176</v>
       </c>
-      <c r="H573" s="4" t="s">
+      <c r="H573" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A574" s="5" t="s">
+      <c r="A574" t="s">
         <v>841</v>
       </c>
-      <c r="B574" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C574" s="4" t="s">
+      <c r="B574" t="s">
+        <v>8</v>
+      </c>
+      <c r="C574" t="s">
         <v>824</v>
       </c>
-      <c r="D574" s="4" t="s">
+      <c r="D574" t="s">
         <v>825</v>
       </c>
-      <c r="E574" s="4" t="s">
+      <c r="E574" t="s">
         <v>826</v>
       </c>
-      <c r="F574" s="4" t="s">
+      <c r="F574" t="s">
         <v>827</v>
       </c>
-      <c r="G574" s="4" t="s">
+      <c r="G574" t="s">
         <v>74</v>
       </c>
-      <c r="H574" s="4" t="s">
+      <c r="H574" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A575" s="5" t="s">
+      <c r="A575" t="s">
         <v>842</v>
       </c>
-      <c r="B575" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C575" s="4" t="s">
+      <c r="B575" t="s">
+        <v>8</v>
+      </c>
+      <c r="C575" t="s">
         <v>828</v>
       </c>
-      <c r="D575" s="4" t="s">
+      <c r="D575" t="s">
         <v>829</v>
       </c>
-      <c r="E575" s="4" t="s">
+      <c r="E575" t="s">
         <v>830</v>
       </c>
-      <c r="F575" s="4" t="s">
+      <c r="F575" t="s">
         <v>831</v>
       </c>
-      <c r="G575" s="4" t="s">
+      <c r="G575" t="s">
         <v>567</v>
       </c>
-      <c r="H575" s="4" t="s">
+      <c r="H575" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A576" s="5" t="s">
+      <c r="A576" t="s">
         <v>843</v>
       </c>
-      <c r="B576" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C576" s="4" t="s">
+      <c r="B576" t="s">
+        <v>8</v>
+      </c>
+      <c r="C576" t="s">
         <v>832</v>
       </c>
-      <c r="D576" s="4" t="s">
+      <c r="D576" t="s">
         <v>833</v>
       </c>
-      <c r="E576" s="4" t="s">
+      <c r="E576" t="s">
         <v>834</v>
       </c>
-      <c r="F576" s="4" t="s">
+      <c r="F576" t="s">
         <v>835</v>
       </c>
-      <c r="G576" s="4" t="s">
+      <c r="G576" t="s">
         <v>81</v>
       </c>
-      <c r="H576" s="4" t="s">
+      <c r="H576" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A577" s="5" t="s">
+      <c r="A577" t="s">
         <v>836</v>
       </c>
-      <c r="B577" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C577" s="4" t="s">
+      <c r="B577" t="s">
+        <v>8</v>
+      </c>
+      <c r="C577" t="s">
         <v>809</v>
       </c>
-      <c r="D577" s="4" t="s">
+      <c r="D577" t="s">
         <v>619</v>
       </c>
-      <c r="E577" s="4" t="s">
+      <c r="E577" t="s">
         <v>810</v>
       </c>
-      <c r="F577" s="4" t="s">
+      <c r="F577" t="s">
         <v>811</v>
       </c>
-      <c r="G577" s="4" t="s">
+      <c r="G577" t="s">
         <v>74</v>
       </c>
-      <c r="H577" s="4" t="s">
+      <c r="H577" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A578" s="5" t="s">
+      <c r="A578" t="s">
         <v>837</v>
       </c>
-      <c r="B578" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C578" s="4" t="s">
+      <c r="B578" t="s">
+        <v>8</v>
+      </c>
+      <c r="C578" t="s">
         <v>625</v>
       </c>
-      <c r="D578" s="4" t="s">
+      <c r="D578" t="s">
         <v>619</v>
       </c>
-      <c r="E578" s="4" t="s">
+      <c r="E578" t="s">
         <v>812</v>
       </c>
-      <c r="F578" s="4" t="s">
+      <c r="F578" t="s">
         <v>813</v>
       </c>
-      <c r="G578" s="4" t="s">
+      <c r="G578" t="s">
         <v>71</v>
       </c>
-      <c r="H578" s="4" t="s">
+      <c r="H578" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A579" s="5" t="s">
+      <c r="A579" t="s">
         <v>608</v>
       </c>
-      <c r="B579" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C579" s="4" t="s">
+      <c r="B579" t="s">
+        <v>8</v>
+      </c>
+      <c r="C579" t="s">
         <v>609</v>
       </c>
-      <c r="D579" s="4" t="s">
+      <c r="D579" t="s">
         <v>610</v>
       </c>
-      <c r="E579" s="4" t="s">
+      <c r="E579" t="s">
         <v>814</v>
       </c>
-      <c r="F579" s="4" t="s">
+      <c r="F579" t="s">
         <v>815</v>
       </c>
-      <c r="G579" s="4" t="s">
+      <c r="G579" t="s">
         <v>468</v>
       </c>
-      <c r="H579" s="4" t="s">
+      <c r="H579" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A580" s="5" t="s">
+      <c r="A580" t="s">
         <v>838</v>
       </c>
-      <c r="B580" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C580" s="4" t="s">
+      <c r="B580" t="s">
+        <v>8</v>
+      </c>
+      <c r="C580" t="s">
         <v>816</v>
       </c>
-      <c r="D580" s="4" t="s">
+      <c r="D580" t="s">
         <v>616</v>
       </c>
-      <c r="E580" s="4" t="s">
+      <c r="E580" t="s">
         <v>817</v>
       </c>
-      <c r="F580" s="4" t="s">
+      <c r="F580" t="s">
         <v>818</v>
       </c>
-      <c r="G580" s="4" t="s">
+      <c r="G580" t="s">
         <v>227</v>
       </c>
-      <c r="H580" s="4" t="s">
+      <c r="H580" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A581" s="5" t="s">
+      <c r="A581" t="s">
         <v>839</v>
       </c>
-      <c r="B581" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C581" s="4" t="s">
+      <c r="B581" t="s">
+        <v>8</v>
+      </c>
+      <c r="C581" t="s">
         <v>652</v>
       </c>
-      <c r="D581" s="4" t="s">
+      <c r="D581" t="s">
         <v>653</v>
       </c>
-      <c r="E581" s="4" t="s">
+      <c r="E581" t="s">
         <v>819</v>
       </c>
-      <c r="F581" s="4" t="s">
+      <c r="F581" t="s">
         <v>820</v>
       </c>
-      <c r="G581" s="4" t="s">
+      <c r="G581" t="s">
         <v>52</v>
       </c>
-      <c r="H581" s="4" t="s">
+      <c r="H581" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A582" s="5" t="s">
+      <c r="A582" t="s">
         <v>840</v>
       </c>
-      <c r="B582" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C582" s="4" t="s">
+      <c r="B582" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582" t="s">
         <v>821</v>
       </c>
-      <c r="D582" s="4" t="s">
+      <c r="D582" t="s">
         <v>118</v>
       </c>
-      <c r="E582" s="4" t="s">
+      <c r="E582" t="s">
         <v>822</v>
       </c>
-      <c r="F582" s="4" t="s">
+      <c r="F582" t="s">
         <v>823</v>
       </c>
-      <c r="G582" s="4" t="s">
+      <c r="G582" t="s">
         <v>35</v>
       </c>
-      <c r="H582" s="4" t="s">
+      <c r="H582" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A583" s="5" t="s">
+      <c r="A583" t="s">
         <v>760</v>
       </c>
-      <c r="B583" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C583" s="4" t="s">
+      <c r="B583" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" t="s">
         <v>668</v>
       </c>
-      <c r="D583" s="4" t="s">
+      <c r="D583" t="s">
         <v>118</v>
       </c>
-      <c r="E583" s="4" t="s">
+      <c r="E583" t="s">
         <v>737</v>
       </c>
-      <c r="F583" s="4" t="s">
+      <c r="F583" t="s">
         <v>738</v>
       </c>
-      <c r="G583" s="4" t="s">
+      <c r="G583" t="s">
         <v>176</v>
       </c>
-      <c r="H583" s="4" t="s">
+      <c r="H583" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A584" s="5" t="s">
+      <c r="A584" t="s">
         <v>841</v>
       </c>
-      <c r="B584" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C584" s="4" t="s">
+      <c r="B584" t="s">
+        <v>8</v>
+      </c>
+      <c r="C584" t="s">
         <v>824</v>
       </c>
-      <c r="D584" s="4" t="s">
+      <c r="D584" t="s">
         <v>825</v>
       </c>
-      <c r="E584" s="4" t="s">
+      <c r="E584" t="s">
         <v>826</v>
       </c>
-      <c r="F584" s="4" t="s">
+      <c r="F584" t="s">
         <v>827</v>
       </c>
-      <c r="G584" s="4" t="s">
+      <c r="G584" t="s">
         <v>74</v>
       </c>
-      <c r="H584" s="4" t="s">
+      <c r="H584" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A585" s="5" t="s">
+      <c r="A585" t="s">
         <v>842</v>
       </c>
-      <c r="B585" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C585" s="4" t="s">
+      <c r="B585" t="s">
+        <v>8</v>
+      </c>
+      <c r="C585" t="s">
         <v>828</v>
       </c>
-      <c r="D585" s="4" t="s">
+      <c r="D585" t="s">
         <v>829</v>
       </c>
-      <c r="E585" s="4" t="s">
+      <c r="E585" t="s">
         <v>830</v>
       </c>
-      <c r="F585" s="4" t="s">
+      <c r="F585" t="s">
         <v>831</v>
       </c>
-      <c r="G585" s="4" t="s">
+      <c r="G585" t="s">
         <v>567</v>
       </c>
-      <c r="H585" s="4" t="s">
+      <c r="H585" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A586" s="5" t="s">
+      <c r="A586" t="s">
         <v>843</v>
       </c>
-      <c r="B586" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C586" s="4" t="s">
+      <c r="B586" t="s">
+        <v>8</v>
+      </c>
+      <c r="C586" t="s">
         <v>832</v>
       </c>
-      <c r="D586" s="4" t="s">
+      <c r="D586" t="s">
         <v>833</v>
       </c>
-      <c r="E586" s="4" t="s">
+      <c r="E586" t="s">
         <v>834</v>
       </c>
-      <c r="F586" s="4" t="s">
+      <c r="F586" t="s">
         <v>835</v>
       </c>
-      <c r="G586" s="4" t="s">
+      <c r="G586" t="s">
         <v>81</v>
       </c>
-      <c r="H586" s="4" t="s">
+      <c r="H586" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D587" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E587" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="F587" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="G587" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H587" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C588" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E588" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F588" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G588" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H588" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A589" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C589" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D589" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E589" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F589" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G589" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H589" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D590" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E590" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F590" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G590" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H590" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A591" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C591" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D591" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E591" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F591" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="G591" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H591" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C592" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D592" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E592" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F592" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G592" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H592" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C593" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D593" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E593" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F593" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G593" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H593" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C594" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D594" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E594" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F594" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="G594" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H594" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C595" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D595" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E595" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="F595" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G595" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H595" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C596" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D596" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E596" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F596" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="G596" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H596" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D597" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E597" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F597" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G597" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H597" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C598" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E598" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F598" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G598" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H598" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C599" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E599" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F599" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G599" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H599" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C600" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D600" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="E600" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="F600" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G600" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H600" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C601" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E601" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="F601" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="G601" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H601" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C602" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D602" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E602" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F602" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G602" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H602" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C603" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D603" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E603" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F603" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G603" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H603" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C604" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D604" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E604" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F604" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G604" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H604" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C605" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D605" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E605" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F605" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="G605" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H605" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C606" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D606" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E606" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F606" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G606" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H606" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A607" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E607" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F607" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G607" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H607" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A608" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C608" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D608" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E608" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F608" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="G608" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H608" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A609" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E609" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="F609" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G609" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H609" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A610" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C610" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D610" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E610" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F610" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="G610" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H610" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C611" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D611" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E611" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F611" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G611" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H611" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C612" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D612" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E612" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F612" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G612" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H612" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C613" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D613" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E613" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F613" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G613" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H613" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C614" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D614" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="E614" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="F614" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G614" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H614" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E615" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="F615" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="G615" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H615" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C616" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D616" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E616" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F616" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G616" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H616" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E617" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F617" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G617" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H617" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D618" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E618" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F618" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G618" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H618" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C619" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D619" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E619" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F619" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="G619" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H619" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C620" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D620" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E620" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F620" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G620" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H620" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E621" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F621" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G621" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H621" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C622" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D622" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E622" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F622" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="G622" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H622" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C623" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D623" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E623" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="F623" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G623" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H623" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A624" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C624" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D624" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E624" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F624" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="G624" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H624" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C625" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E625" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F625" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G625" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H625" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C626" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D626" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E626" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F626" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G626" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H626" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E627" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F627" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G627" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H627" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C628" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D628" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="E628" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="F628" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G628" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H628" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E629" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="F629" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="G629" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H629" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C630" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D630" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E630" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F630" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G630" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H630" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C631" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E631" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F631" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G631" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H631" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C632" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D632" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E632" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F632" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G632" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H632" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E633" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F633" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="G633" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H633" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C634" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D634" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="E634" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="F634" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="G634" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H634" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C635" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E635" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F635" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G635" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H635" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E636" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F636" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="G636" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H636" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E637" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="F637" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G637" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H637" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F638" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="G638" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H638" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C639" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E639" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="F639" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G639" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H639" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C640" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D640" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E640" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F640" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G640" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H640" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C641" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F641" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G641" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H641" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C642" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="E642" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="F642" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G642" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H642" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C643" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="E643" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="F643" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="G643" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H643" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C644" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="E644" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F644" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G644" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H644" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C645" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E645" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F645" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G645" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H645" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C646" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E646" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F646" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G646" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H646" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7C196F-E7A0-482C-BA0C-A1A5765469C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B1DF4-BEC8-4648-85AD-C4E798D9F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4465" uniqueCount="906">
   <si>
     <t>Name</t>
   </si>
@@ -2748,6 +2748,12 @@
   </si>
   <si>
     <t>Mazza Oil Kingston</t>
+  </si>
+  <si>
+    <t>Verborg Group</t>
+  </si>
+  <si>
+    <t>Farmsum</t>
   </si>
 </sst>
 </file>
@@ -3237,15 +3243,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3622,11 +3626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H646"/>
+  <dimension ref="A1:H647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D648" sqref="D648"/>
+      <selection pane="bottomLeft" activeCell="I647" sqref="I647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18878,1563 +18882,1589 @@
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="5" t="s">
+      <c r="A587" t="s">
         <v>890</v>
       </c>
-      <c r="B587" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C587" s="4" t="s">
+      <c r="B587" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587" t="s">
         <v>844</v>
       </c>
-      <c r="D587" s="4" t="s">
+      <c r="D587" t="s">
         <v>845</v>
       </c>
-      <c r="E587" s="4" t="s">
+      <c r="E587" t="s">
         <v>846</v>
       </c>
-      <c r="F587" s="4" t="s">
+      <c r="F587" t="s">
         <v>847</v>
       </c>
-      <c r="G587" s="4" t="s">
+      <c r="G587" t="s">
         <v>227</v>
       </c>
-      <c r="H587" s="4" t="s">
+      <c r="H587" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A588" s="5" t="s">
+      <c r="A588" t="s">
         <v>891</v>
       </c>
-      <c r="B588" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C588" s="4" t="s">
+      <c r="B588" t="s">
+        <v>8</v>
+      </c>
+      <c r="C588" t="s">
         <v>848</v>
       </c>
-      <c r="D588" s="4" t="s">
+      <c r="D588" t="s">
         <v>849</v>
       </c>
-      <c r="E588" s="4" t="s">
+      <c r="E588" t="s">
         <v>850</v>
       </c>
-      <c r="F588" s="4" t="s">
+      <c r="F588" t="s">
         <v>851</v>
       </c>
-      <c r="G588" s="4" t="s">
+      <c r="G588" t="s">
         <v>468</v>
       </c>
-      <c r="H588" s="4" t="s">
+      <c r="H588" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A589" s="5" t="s">
+      <c r="A589" t="s">
         <v>892</v>
       </c>
-      <c r="B589" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C589" s="4" t="s">
+      <c r="B589" t="s">
+        <v>8</v>
+      </c>
+      <c r="C589" t="s">
         <v>824</v>
       </c>
-      <c r="D589" s="4" t="s">
+      <c r="D589" t="s">
         <v>825</v>
       </c>
-      <c r="E589" s="4" t="s">
+      <c r="E589" t="s">
         <v>826</v>
       </c>
-      <c r="F589" s="4" t="s">
+      <c r="F589" t="s">
         <v>827</v>
       </c>
-      <c r="G589" s="4" t="s">
+      <c r="G589" t="s">
         <v>52</v>
       </c>
-      <c r="H589" s="4" t="s">
+      <c r="H589" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A590" s="5" t="s">
+      <c r="A590" t="s">
         <v>893</v>
       </c>
-      <c r="B590" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C590" s="4" t="s">
+      <c r="B590" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590" t="s">
         <v>643</v>
       </c>
-      <c r="D590" s="4" t="s">
+      <c r="D590" t="s">
         <v>644</v>
       </c>
-      <c r="E590" s="4" t="s">
+      <c r="E590" t="s">
         <v>852</v>
       </c>
-      <c r="F590" s="4" t="s">
+      <c r="F590" t="s">
         <v>853</v>
       </c>
-      <c r="G590" s="4" t="s">
+      <c r="G590" t="s">
         <v>74</v>
       </c>
-      <c r="H590" s="4" t="s">
+      <c r="H590" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A591" s="5" t="s">
+      <c r="A591" t="s">
         <v>894</v>
       </c>
-      <c r="B591" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C591" s="4" t="s">
+      <c r="B591" t="s">
+        <v>8</v>
+      </c>
+      <c r="C591" t="s">
         <v>627</v>
       </c>
-      <c r="D591" s="4" t="s">
+      <c r="D591" t="s">
         <v>628</v>
       </c>
-      <c r="E591" s="4" t="s">
+      <c r="E591" t="s">
         <v>854</v>
       </c>
-      <c r="F591" s="4" t="s">
+      <c r="F591" t="s">
         <v>855</v>
       </c>
-      <c r="G591" s="4" t="s">
+      <c r="G591" t="s">
         <v>35</v>
       </c>
-      <c r="H591" s="4" t="s">
+      <c r="H591" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A592" s="5" t="s">
+      <c r="A592" t="s">
         <v>895</v>
       </c>
-      <c r="B592" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C592" s="4" t="s">
+      <c r="B592" t="s">
+        <v>8</v>
+      </c>
+      <c r="C592" t="s">
         <v>856</v>
       </c>
-      <c r="D592" s="4" t="s">
+      <c r="D592" t="s">
         <v>857</v>
       </c>
-      <c r="E592" s="4" t="s">
+      <c r="E592" t="s">
         <v>858</v>
       </c>
-      <c r="F592" s="4" t="s">
+      <c r="F592" t="s">
         <v>859</v>
       </c>
-      <c r="G592" s="4" t="s">
+      <c r="G592" t="s">
         <v>71</v>
       </c>
-      <c r="H592" s="4" t="s">
+      <c r="H592" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A593" s="5" t="s">
+      <c r="A593" t="s">
         <v>896</v>
       </c>
-      <c r="B593" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C593" s="4" t="s">
+      <c r="B593" t="s">
+        <v>8</v>
+      </c>
+      <c r="C593" t="s">
         <v>860</v>
       </c>
-      <c r="D593" s="4" t="s">
+      <c r="D593" t="s">
         <v>861</v>
       </c>
-      <c r="E593" s="4" t="s">
+      <c r="E593" t="s">
         <v>862</v>
       </c>
-      <c r="F593" s="4" t="s">
+      <c r="F593" t="s">
         <v>863</v>
       </c>
-      <c r="G593" s="4" t="s">
+      <c r="G593" t="s">
         <v>11</v>
       </c>
-      <c r="H593" s="4" t="s">
+      <c r="H593" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A594" s="5" t="s">
+      <c r="A594" t="s">
         <v>897</v>
       </c>
-      <c r="B594" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C594" s="4" t="s">
+      <c r="B594" t="s">
+        <v>8</v>
+      </c>
+      <c r="C594" t="s">
         <v>864</v>
       </c>
-      <c r="D594" s="4" t="s">
+      <c r="D594" t="s">
         <v>865</v>
       </c>
-      <c r="E594" s="4" t="s">
+      <c r="E594" t="s">
         <v>866</v>
       </c>
-      <c r="F594" s="4" t="s">
+      <c r="F594" t="s">
         <v>867</v>
       </c>
-      <c r="G594" s="4" t="s">
+      <c r="G594" t="s">
         <v>81</v>
       </c>
-      <c r="H594" s="4" t="s">
+      <c r="H594" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A595" s="5" t="s">
+      <c r="A595" t="s">
         <v>898</v>
       </c>
-      <c r="B595" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C595" s="4" t="s">
+      <c r="B595" t="s">
+        <v>8</v>
+      </c>
+      <c r="C595" t="s">
         <v>868</v>
       </c>
-      <c r="D595" s="4" t="s">
+      <c r="D595" t="s">
         <v>869</v>
       </c>
-      <c r="E595" s="4" t="s">
+      <c r="E595" t="s">
         <v>870</v>
       </c>
-      <c r="F595" s="4" t="s">
+      <c r="F595" t="s">
         <v>871</v>
       </c>
-      <c r="G595" s="4" t="s">
+      <c r="G595" t="s">
         <v>204</v>
       </c>
-      <c r="H595" s="4" t="s">
+      <c r="H595" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A596" s="5" t="s">
+      <c r="A596" t="s">
         <v>899</v>
       </c>
-      <c r="B596" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C596" s="4" t="s">
+      <c r="B596" t="s">
+        <v>8</v>
+      </c>
+      <c r="C596" t="s">
         <v>872</v>
       </c>
-      <c r="D596" s="4" t="s">
+      <c r="D596" t="s">
         <v>873</v>
       </c>
-      <c r="E596" s="4" t="s">
+      <c r="E596" t="s">
         <v>874</v>
       </c>
-      <c r="F596" s="4" t="s">
+      <c r="F596" t="s">
         <v>875</v>
       </c>
-      <c r="G596" s="4" t="s">
+      <c r="G596" t="s">
         <v>74</v>
       </c>
-      <c r="H596" s="4" t="s">
+      <c r="H596" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A597" s="5" t="s">
+      <c r="A597" t="s">
         <v>900</v>
       </c>
-      <c r="B597" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C597" s="4" t="s">
+      <c r="B597" t="s">
+        <v>8</v>
+      </c>
+      <c r="C597" t="s">
         <v>876</v>
       </c>
-      <c r="D597" s="4" t="s">
+      <c r="D597" t="s">
         <v>532</v>
       </c>
-      <c r="E597" s="4" t="s">
+      <c r="E597" t="s">
         <v>877</v>
       </c>
-      <c r="F597" s="4" t="s">
+      <c r="F597" t="s">
         <v>878</v>
       </c>
-      <c r="G597" s="4" t="s">
+      <c r="G597" t="s">
         <v>567</v>
       </c>
-      <c r="H597" s="4" t="s">
+      <c r="H597" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A598" s="5" t="s">
+      <c r="A598" t="s">
         <v>901</v>
       </c>
-      <c r="B598" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C598" s="4" t="s">
+      <c r="B598" t="s">
+        <v>8</v>
+      </c>
+      <c r="C598" t="s">
         <v>879</v>
       </c>
-      <c r="D598" s="4" t="s">
+      <c r="D598" t="s">
         <v>347</v>
       </c>
-      <c r="E598" s="4" t="s">
+      <c r="E598" t="s">
         <v>880</v>
       </c>
-      <c r="F598" s="4" t="s">
+      <c r="F598" t="s">
         <v>881</v>
       </c>
-      <c r="G598" s="4" t="s">
+      <c r="G598" t="s">
         <v>227</v>
       </c>
-      <c r="H598" s="4" t="s">
+      <c r="H598" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A599" s="5" t="s">
+      <c r="A599" t="s">
         <v>902</v>
       </c>
-      <c r="B599" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C599" s="4" t="s">
+      <c r="B599" t="s">
+        <v>8</v>
+      </c>
+      <c r="C599" t="s">
         <v>882</v>
       </c>
-      <c r="D599" s="4" t="s">
+      <c r="D599" t="s">
         <v>883</v>
       </c>
-      <c r="E599" s="4" t="s">
+      <c r="E599" t="s">
         <v>884</v>
       </c>
-      <c r="F599" s="4" t="s">
+      <c r="F599" t="s">
         <v>885</v>
       </c>
-      <c r="G599" s="4" t="s">
+      <c r="G599" t="s">
         <v>59</v>
       </c>
-      <c r="H599" s="4" t="s">
+      <c r="H599" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A600" s="5" t="s">
+      <c r="A600" t="s">
         <v>903</v>
       </c>
-      <c r="B600" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C600" s="4" t="s">
+      <c r="B600" t="s">
+        <v>8</v>
+      </c>
+      <c r="C600" t="s">
         <v>886</v>
       </c>
-      <c r="D600" s="4" t="s">
+      <c r="D600" t="s">
         <v>887</v>
       </c>
-      <c r="E600" s="4" t="s">
+      <c r="E600" t="s">
         <v>888</v>
       </c>
-      <c r="F600" s="4" t="s">
+      <c r="F600" t="s">
         <v>889</v>
       </c>
-      <c r="G600" s="4" t="s">
+      <c r="G600" t="s">
         <v>11</v>
       </c>
-      <c r="H600" s="4" t="s">
+      <c r="H600" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A601" s="5" t="s">
+      <c r="A601" t="s">
         <v>890</v>
       </c>
-      <c r="B601" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C601" s="4" t="s">
+      <c r="B601" t="s">
+        <v>8</v>
+      </c>
+      <c r="C601" t="s">
         <v>844</v>
       </c>
-      <c r="D601" s="4" t="s">
+      <c r="D601" t="s">
         <v>845</v>
       </c>
-      <c r="E601" s="4" t="s">
+      <c r="E601" t="s">
         <v>846</v>
       </c>
-      <c r="F601" s="4" t="s">
+      <c r="F601" t="s">
         <v>847</v>
       </c>
-      <c r="G601" s="4" t="s">
+      <c r="G601" t="s">
         <v>227</v>
       </c>
-      <c r="H601" s="4" t="s">
+      <c r="H601" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A602" s="5" t="s">
+      <c r="A602" t="s">
         <v>891</v>
       </c>
-      <c r="B602" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C602" s="4" t="s">
+      <c r="B602" t="s">
+        <v>8</v>
+      </c>
+      <c r="C602" t="s">
         <v>848</v>
       </c>
-      <c r="D602" s="4" t="s">
+      <c r="D602" t="s">
         <v>849</v>
       </c>
-      <c r="E602" s="4" t="s">
+      <c r="E602" t="s">
         <v>850</v>
       </c>
-      <c r="F602" s="4" t="s">
+      <c r="F602" t="s">
         <v>851</v>
       </c>
-      <c r="G602" s="4" t="s">
+      <c r="G602" t="s">
         <v>468</v>
       </c>
-      <c r="H602" s="4" t="s">
+      <c r="H602" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A603" s="5" t="s">
+      <c r="A603" t="s">
         <v>892</v>
       </c>
-      <c r="B603" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C603" s="4" t="s">
+      <c r="B603" t="s">
+        <v>8</v>
+      </c>
+      <c r="C603" t="s">
         <v>824</v>
       </c>
-      <c r="D603" s="4" t="s">
+      <c r="D603" t="s">
         <v>825</v>
       </c>
-      <c r="E603" s="4" t="s">
+      <c r="E603" t="s">
         <v>826</v>
       </c>
-      <c r="F603" s="4" t="s">
+      <c r="F603" t="s">
         <v>827</v>
       </c>
-      <c r="G603" s="4" t="s">
+      <c r="G603" t="s">
         <v>52</v>
       </c>
-      <c r="H603" s="4" t="s">
+      <c r="H603" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" s="5" t="s">
+      <c r="A604" t="s">
         <v>893</v>
       </c>
-      <c r="B604" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C604" s="4" t="s">
+      <c r="B604" t="s">
+        <v>8</v>
+      </c>
+      <c r="C604" t="s">
         <v>643</v>
       </c>
-      <c r="D604" s="4" t="s">
+      <c r="D604" t="s">
         <v>644</v>
       </c>
-      <c r="E604" s="4" t="s">
+      <c r="E604" t="s">
         <v>852</v>
       </c>
-      <c r="F604" s="4" t="s">
+      <c r="F604" t="s">
         <v>853</v>
       </c>
-      <c r="G604" s="4" t="s">
+      <c r="G604" t="s">
         <v>74</v>
       </c>
-      <c r="H604" s="4" t="s">
+      <c r="H604" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="5" t="s">
+      <c r="A605" t="s">
         <v>894</v>
       </c>
-      <c r="B605" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C605" s="4" t="s">
+      <c r="B605" t="s">
+        <v>8</v>
+      </c>
+      <c r="C605" t="s">
         <v>627</v>
       </c>
-      <c r="D605" s="4" t="s">
+      <c r="D605" t="s">
         <v>628</v>
       </c>
-      <c r="E605" s="4" t="s">
+      <c r="E605" t="s">
         <v>854</v>
       </c>
-      <c r="F605" s="4" t="s">
+      <c r="F605" t="s">
         <v>855</v>
       </c>
-      <c r="G605" s="4" t="s">
+      <c r="G605" t="s">
         <v>35</v>
       </c>
-      <c r="H605" s="4" t="s">
+      <c r="H605" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="5" t="s">
+      <c r="A606" t="s">
         <v>895</v>
       </c>
-      <c r="B606" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C606" s="4" t="s">
+      <c r="B606" t="s">
+        <v>8</v>
+      </c>
+      <c r="C606" t="s">
         <v>856</v>
       </c>
-      <c r="D606" s="4" t="s">
+      <c r="D606" t="s">
         <v>857</v>
       </c>
-      <c r="E606" s="4" t="s">
+      <c r="E606" t="s">
         <v>858</v>
       </c>
-      <c r="F606" s="4" t="s">
+      <c r="F606" t="s">
         <v>859</v>
       </c>
-      <c r="G606" s="4" t="s">
+      <c r="G606" t="s">
         <v>71</v>
       </c>
-      <c r="H606" s="4" t="s">
+      <c r="H606" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" s="5" t="s">
+      <c r="A607" t="s">
         <v>896</v>
       </c>
-      <c r="B607" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C607" s="4" t="s">
+      <c r="B607" t="s">
+        <v>8</v>
+      </c>
+      <c r="C607" t="s">
         <v>860</v>
       </c>
-      <c r="D607" s="4" t="s">
+      <c r="D607" t="s">
         <v>861</v>
       </c>
-      <c r="E607" s="4" t="s">
+      <c r="E607" t="s">
         <v>862</v>
       </c>
-      <c r="F607" s="4" t="s">
+      <c r="F607" t="s">
         <v>863</v>
       </c>
-      <c r="G607" s="4" t="s">
+      <c r="G607" t="s">
         <v>11</v>
       </c>
-      <c r="H607" s="4" t="s">
+      <c r="H607" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A608" s="5" t="s">
+      <c r="A608" t="s">
         <v>897</v>
       </c>
-      <c r="B608" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C608" s="4" t="s">
+      <c r="B608" t="s">
+        <v>8</v>
+      </c>
+      <c r="C608" t="s">
         <v>864</v>
       </c>
-      <c r="D608" s="4" t="s">
+      <c r="D608" t="s">
         <v>865</v>
       </c>
-      <c r="E608" s="4" t="s">
+      <c r="E608" t="s">
         <v>866</v>
       </c>
-      <c r="F608" s="4" t="s">
+      <c r="F608" t="s">
         <v>867</v>
       </c>
-      <c r="G608" s="4" t="s">
+      <c r="G608" t="s">
         <v>81</v>
       </c>
-      <c r="H608" s="4" t="s">
+      <c r="H608" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A609" s="5" t="s">
+      <c r="A609" t="s">
         <v>898</v>
       </c>
-      <c r="B609" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C609" s="4" t="s">
+      <c r="B609" t="s">
+        <v>8</v>
+      </c>
+      <c r="C609" t="s">
         <v>868</v>
       </c>
-      <c r="D609" s="4" t="s">
+      <c r="D609" t="s">
         <v>869</v>
       </c>
-      <c r="E609" s="4" t="s">
+      <c r="E609" t="s">
         <v>870</v>
       </c>
-      <c r="F609" s="4" t="s">
+      <c r="F609" t="s">
         <v>871</v>
       </c>
-      <c r="G609" s="4" t="s">
+      <c r="G609" t="s">
         <v>204</v>
       </c>
-      <c r="H609" s="4" t="s">
+      <c r="H609" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A610" s="5" t="s">
+      <c r="A610" t="s">
         <v>899</v>
       </c>
-      <c r="B610" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C610" s="4" t="s">
+      <c r="B610" t="s">
+        <v>8</v>
+      </c>
+      <c r="C610" t="s">
         <v>872</v>
       </c>
-      <c r="D610" s="4" t="s">
+      <c r="D610" t="s">
         <v>873</v>
       </c>
-      <c r="E610" s="4" t="s">
+      <c r="E610" t="s">
         <v>874</v>
       </c>
-      <c r="F610" s="4" t="s">
+      <c r="F610" t="s">
         <v>875</v>
       </c>
-      <c r="G610" s="4" t="s">
+      <c r="G610" t="s">
         <v>74</v>
       </c>
-      <c r="H610" s="4" t="s">
+      <c r="H610" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A611" s="5" t="s">
+      <c r="A611" t="s">
         <v>900</v>
       </c>
-      <c r="B611" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C611" s="4" t="s">
+      <c r="B611" t="s">
+        <v>8</v>
+      </c>
+      <c r="C611" t="s">
         <v>876</v>
       </c>
-      <c r="D611" s="4" t="s">
+      <c r="D611" t="s">
         <v>532</v>
       </c>
-      <c r="E611" s="4" t="s">
+      <c r="E611" t="s">
         <v>877</v>
       </c>
-      <c r="F611" s="4" t="s">
+      <c r="F611" t="s">
         <v>878</v>
       </c>
-      <c r="G611" s="4" t="s">
+      <c r="G611" t="s">
         <v>567</v>
       </c>
-      <c r="H611" s="4" t="s">
+      <c r="H611" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A612" s="5" t="s">
+      <c r="A612" t="s">
         <v>901</v>
       </c>
-      <c r="B612" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C612" s="4" t="s">
+      <c r="B612" t="s">
+        <v>8</v>
+      </c>
+      <c r="C612" t="s">
         <v>879</v>
       </c>
-      <c r="D612" s="4" t="s">
+      <c r="D612" t="s">
         <v>347</v>
       </c>
-      <c r="E612" s="4" t="s">
+      <c r="E612" t="s">
         <v>880</v>
       </c>
-      <c r="F612" s="4" t="s">
+      <c r="F612" t="s">
         <v>881</v>
       </c>
-      <c r="G612" s="4" t="s">
+      <c r="G612" t="s">
         <v>227</v>
       </c>
-      <c r="H612" s="4" t="s">
+      <c r="H612" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A613" s="5" t="s">
+      <c r="A613" t="s">
         <v>902</v>
       </c>
-      <c r="B613" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C613" s="4" t="s">
+      <c r="B613" t="s">
+        <v>8</v>
+      </c>
+      <c r="C613" t="s">
         <v>882</v>
       </c>
-      <c r="D613" s="4" t="s">
+      <c r="D613" t="s">
         <v>883</v>
       </c>
-      <c r="E613" s="4" t="s">
+      <c r="E613" t="s">
         <v>884</v>
       </c>
-      <c r="F613" s="4" t="s">
+      <c r="F613" t="s">
         <v>885</v>
       </c>
-      <c r="G613" s="4" t="s">
+      <c r="G613" t="s">
         <v>59</v>
       </c>
-      <c r="H613" s="4" t="s">
+      <c r="H613" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A614" s="5" t="s">
+      <c r="A614" t="s">
         <v>903</v>
       </c>
-      <c r="B614" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C614" s="4" t="s">
+      <c r="B614" t="s">
+        <v>8</v>
+      </c>
+      <c r="C614" t="s">
         <v>886</v>
       </c>
-      <c r="D614" s="4" t="s">
+      <c r="D614" t="s">
         <v>887</v>
       </c>
-      <c r="E614" s="4" t="s">
+      <c r="E614" t="s">
         <v>888</v>
       </c>
-      <c r="F614" s="4" t="s">
+      <c r="F614" t="s">
         <v>889</v>
       </c>
-      <c r="G614" s="4" t="s">
+      <c r="G614" t="s">
         <v>11</v>
       </c>
-      <c r="H614" s="4" t="s">
+      <c r="H614" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A615" s="5" t="s">
+      <c r="A615" t="s">
         <v>890</v>
       </c>
-      <c r="B615" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C615" s="4" t="s">
+      <c r="B615" t="s">
+        <v>8</v>
+      </c>
+      <c r="C615" t="s">
         <v>844</v>
       </c>
-      <c r="D615" s="4" t="s">
+      <c r="D615" t="s">
         <v>845</v>
       </c>
-      <c r="E615" s="4" t="s">
+      <c r="E615" t="s">
         <v>846</v>
       </c>
-      <c r="F615" s="4" t="s">
+      <c r="F615" t="s">
         <v>847</v>
       </c>
-      <c r="G615" s="4" t="s">
+      <c r="G615" t="s">
         <v>227</v>
       </c>
-      <c r="H615" s="4" t="s">
+      <c r="H615" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A616" s="5" t="s">
+      <c r="A616" t="s">
         <v>891</v>
       </c>
-      <c r="B616" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C616" s="4" t="s">
+      <c r="B616" t="s">
+        <v>8</v>
+      </c>
+      <c r="C616" t="s">
         <v>848</v>
       </c>
-      <c r="D616" s="4" t="s">
+      <c r="D616" t="s">
         <v>849</v>
       </c>
-      <c r="E616" s="4" t="s">
+      <c r="E616" t="s">
         <v>850</v>
       </c>
-      <c r="F616" s="4" t="s">
+      <c r="F616" t="s">
         <v>851</v>
       </c>
-      <c r="G616" s="4" t="s">
+      <c r="G616" t="s">
         <v>468</v>
       </c>
-      <c r="H616" s="4" t="s">
+      <c r="H616" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A617" s="5" t="s">
+      <c r="A617" t="s">
         <v>892</v>
       </c>
-      <c r="B617" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C617" s="4" t="s">
+      <c r="B617" t="s">
+        <v>8</v>
+      </c>
+      <c r="C617" t="s">
         <v>824</v>
       </c>
-      <c r="D617" s="4" t="s">
+      <c r="D617" t="s">
         <v>825</v>
       </c>
-      <c r="E617" s="4" t="s">
+      <c r="E617" t="s">
         <v>826</v>
       </c>
-      <c r="F617" s="4" t="s">
+      <c r="F617" t="s">
         <v>827</v>
       </c>
-      <c r="G617" s="4" t="s">
+      <c r="G617" t="s">
         <v>52</v>
       </c>
-      <c r="H617" s="4" t="s">
+      <c r="H617" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A618" s="5" t="s">
+      <c r="A618" t="s">
         <v>893</v>
       </c>
-      <c r="B618" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C618" s="4" t="s">
+      <c r="B618" t="s">
+        <v>8</v>
+      </c>
+      <c r="C618" t="s">
         <v>643</v>
       </c>
-      <c r="D618" s="4" t="s">
+      <c r="D618" t="s">
         <v>644</v>
       </c>
-      <c r="E618" s="4" t="s">
+      <c r="E618" t="s">
         <v>852</v>
       </c>
-      <c r="F618" s="4" t="s">
+      <c r="F618" t="s">
         <v>853</v>
       </c>
-      <c r="G618" s="4" t="s">
+      <c r="G618" t="s">
         <v>74</v>
       </c>
-      <c r="H618" s="4" t="s">
+      <c r="H618" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A619" s="5" t="s">
+      <c r="A619" t="s">
         <v>894</v>
       </c>
-      <c r="B619" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C619" s="4" t="s">
+      <c r="B619" t="s">
+        <v>8</v>
+      </c>
+      <c r="C619" t="s">
         <v>627</v>
       </c>
-      <c r="D619" s="4" t="s">
+      <c r="D619" t="s">
         <v>628</v>
       </c>
-      <c r="E619" s="4" t="s">
+      <c r="E619" t="s">
         <v>854</v>
       </c>
-      <c r="F619" s="4" t="s">
+      <c r="F619" t="s">
         <v>855</v>
       </c>
-      <c r="G619" s="4" t="s">
+      <c r="G619" t="s">
         <v>35</v>
       </c>
-      <c r="H619" s="4" t="s">
+      <c r="H619" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A620" s="5" t="s">
+      <c r="A620" t="s">
         <v>895</v>
       </c>
-      <c r="B620" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C620" s="4" t="s">
+      <c r="B620" t="s">
+        <v>8</v>
+      </c>
+      <c r="C620" t="s">
         <v>856</v>
       </c>
-      <c r="D620" s="4" t="s">
+      <c r="D620" t="s">
         <v>857</v>
       </c>
-      <c r="E620" s="4" t="s">
+      <c r="E620" t="s">
         <v>858</v>
       </c>
-      <c r="F620" s="4" t="s">
+      <c r="F620" t="s">
         <v>859</v>
       </c>
-      <c r="G620" s="4" t="s">
+      <c r="G620" t="s">
         <v>71</v>
       </c>
-      <c r="H620" s="4" t="s">
+      <c r="H620" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A621" s="5" t="s">
+      <c r="A621" t="s">
         <v>896</v>
       </c>
-      <c r="B621" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C621" s="4" t="s">
+      <c r="B621" t="s">
+        <v>8</v>
+      </c>
+      <c r="C621" t="s">
         <v>860</v>
       </c>
-      <c r="D621" s="4" t="s">
+      <c r="D621" t="s">
         <v>861</v>
       </c>
-      <c r="E621" s="4" t="s">
+      <c r="E621" t="s">
         <v>862</v>
       </c>
-      <c r="F621" s="4" t="s">
+      <c r="F621" t="s">
         <v>863</v>
       </c>
-      <c r="G621" s="4" t="s">
+      <c r="G621" t="s">
         <v>11</v>
       </c>
-      <c r="H621" s="4" t="s">
+      <c r="H621" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A622" s="5" t="s">
+      <c r="A622" t="s">
         <v>897</v>
       </c>
-      <c r="B622" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C622" s="4" t="s">
+      <c r="B622" t="s">
+        <v>8</v>
+      </c>
+      <c r="C622" t="s">
         <v>864</v>
       </c>
-      <c r="D622" s="4" t="s">
+      <c r="D622" t="s">
         <v>865</v>
       </c>
-      <c r="E622" s="4" t="s">
+      <c r="E622" t="s">
         <v>866</v>
       </c>
-      <c r="F622" s="4" t="s">
+      <c r="F622" t="s">
         <v>867</v>
       </c>
-      <c r="G622" s="4" t="s">
+      <c r="G622" t="s">
         <v>81</v>
       </c>
-      <c r="H622" s="4" t="s">
+      <c r="H622" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A623" s="5" t="s">
+      <c r="A623" t="s">
         <v>898</v>
       </c>
-      <c r="B623" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C623" s="4" t="s">
+      <c r="B623" t="s">
+        <v>8</v>
+      </c>
+      <c r="C623" t="s">
         <v>868</v>
       </c>
-      <c r="D623" s="4" t="s">
+      <c r="D623" t="s">
         <v>869</v>
       </c>
-      <c r="E623" s="4" t="s">
+      <c r="E623" t="s">
         <v>870</v>
       </c>
-      <c r="F623" s="4" t="s">
+      <c r="F623" t="s">
         <v>871</v>
       </c>
-      <c r="G623" s="4" t="s">
+      <c r="G623" t="s">
         <v>204</v>
       </c>
-      <c r="H623" s="4" t="s">
+      <c r="H623" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A624" s="5" t="s">
+      <c r="A624" t="s">
         <v>899</v>
       </c>
-      <c r="B624" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C624" s="4" t="s">
+      <c r="B624" t="s">
+        <v>8</v>
+      </c>
+      <c r="C624" t="s">
         <v>872</v>
       </c>
-      <c r="D624" s="4" t="s">
+      <c r="D624" t="s">
         <v>873</v>
       </c>
-      <c r="E624" s="4" t="s">
+      <c r="E624" t="s">
         <v>874</v>
       </c>
-      <c r="F624" s="4" t="s">
+      <c r="F624" t="s">
         <v>875</v>
       </c>
-      <c r="G624" s="4" t="s">
+      <c r="G624" t="s">
         <v>74</v>
       </c>
-      <c r="H624" s="4" t="s">
+      <c r="H624" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A625" s="5" t="s">
+      <c r="A625" t="s">
         <v>900</v>
       </c>
-      <c r="B625" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C625" s="4" t="s">
+      <c r="B625" t="s">
+        <v>8</v>
+      </c>
+      <c r="C625" t="s">
         <v>876</v>
       </c>
-      <c r="D625" s="4" t="s">
+      <c r="D625" t="s">
         <v>532</v>
       </c>
-      <c r="E625" s="4" t="s">
+      <c r="E625" t="s">
         <v>877</v>
       </c>
-      <c r="F625" s="4" t="s">
+      <c r="F625" t="s">
         <v>878</v>
       </c>
-      <c r="G625" s="4" t="s">
+      <c r="G625" t="s">
         <v>567</v>
       </c>
-      <c r="H625" s="4" t="s">
+      <c r="H625" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A626" s="5" t="s">
+      <c r="A626" t="s">
         <v>901</v>
       </c>
-      <c r="B626" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C626" s="4" t="s">
+      <c r="B626" t="s">
+        <v>8</v>
+      </c>
+      <c r="C626" t="s">
         <v>879</v>
       </c>
-      <c r="D626" s="4" t="s">
+      <c r="D626" t="s">
         <v>347</v>
       </c>
-      <c r="E626" s="4" t="s">
+      <c r="E626" t="s">
         <v>880</v>
       </c>
-      <c r="F626" s="4" t="s">
+      <c r="F626" t="s">
         <v>881</v>
       </c>
-      <c r="G626" s="4" t="s">
+      <c r="G626" t="s">
         <v>227</v>
       </c>
-      <c r="H626" s="4" t="s">
+      <c r="H626" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A627" s="5" t="s">
+      <c r="A627" t="s">
         <v>902</v>
       </c>
-      <c r="B627" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C627" s="4" t="s">
+      <c r="B627" t="s">
+        <v>8</v>
+      </c>
+      <c r="C627" t="s">
         <v>882</v>
       </c>
-      <c r="D627" s="4" t="s">
+      <c r="D627" t="s">
         <v>883</v>
       </c>
-      <c r="E627" s="4" t="s">
+      <c r="E627" t="s">
         <v>884</v>
       </c>
-      <c r="F627" s="4" t="s">
+      <c r="F627" t="s">
         <v>885</v>
       </c>
-      <c r="G627" s="4" t="s">
+      <c r="G627" t="s">
         <v>59</v>
       </c>
-      <c r="H627" s="4" t="s">
+      <c r="H627" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A628" s="5" t="s">
+      <c r="A628" t="s">
         <v>903</v>
       </c>
-      <c r="B628" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C628" s="4" t="s">
+      <c r="B628" t="s">
+        <v>8</v>
+      </c>
+      <c r="C628" t="s">
         <v>886</v>
       </c>
-      <c r="D628" s="4" t="s">
+      <c r="D628" t="s">
         <v>887</v>
       </c>
-      <c r="E628" s="4" t="s">
+      <c r="E628" t="s">
         <v>888</v>
       </c>
-      <c r="F628" s="4" t="s">
+      <c r="F628" t="s">
         <v>889</v>
       </c>
-      <c r="G628" s="4" t="s">
+      <c r="G628" t="s">
         <v>11</v>
       </c>
-      <c r="H628" s="4" t="s">
+      <c r="H628" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A629" s="5" t="s">
+      <c r="A629" t="s">
         <v>890</v>
       </c>
-      <c r="B629" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C629" s="4" t="s">
+      <c r="B629" t="s">
+        <v>8</v>
+      </c>
+      <c r="C629" t="s">
         <v>844</v>
       </c>
-      <c r="D629" s="4" t="s">
+      <c r="D629" t="s">
         <v>845</v>
       </c>
-      <c r="E629" s="4" t="s">
+      <c r="E629" t="s">
         <v>846</v>
       </c>
-      <c r="F629" s="4" t="s">
+      <c r="F629" t="s">
         <v>847</v>
       </c>
-      <c r="G629" s="4" t="s">
+      <c r="G629" t="s">
         <v>227</v>
       </c>
-      <c r="H629" s="4" t="s">
+      <c r="H629" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A630" s="5" t="s">
+      <c r="A630" t="s">
         <v>891</v>
       </c>
-      <c r="B630" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C630" s="4" t="s">
+      <c r="B630" t="s">
+        <v>8</v>
+      </c>
+      <c r="C630" t="s">
         <v>848</v>
       </c>
-      <c r="D630" s="4" t="s">
+      <c r="D630" t="s">
         <v>849</v>
       </c>
-      <c r="E630" s="4" t="s">
+      <c r="E630" t="s">
         <v>850</v>
       </c>
-      <c r="F630" s="4" t="s">
+      <c r="F630" t="s">
         <v>851</v>
       </c>
-      <c r="G630" s="4" t="s">
+      <c r="G630" t="s">
         <v>468</v>
       </c>
-      <c r="H630" s="4" t="s">
+      <c r="H630" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A631" s="5" t="s">
+      <c r="A631" t="s">
         <v>892</v>
       </c>
-      <c r="B631" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C631" s="4" t="s">
+      <c r="B631" t="s">
+        <v>8</v>
+      </c>
+      <c r="C631" t="s">
         <v>824</v>
       </c>
-      <c r="D631" s="4" t="s">
+      <c r="D631" t="s">
         <v>825</v>
       </c>
-      <c r="E631" s="4" t="s">
+      <c r="E631" t="s">
         <v>826</v>
       </c>
-      <c r="F631" s="4" t="s">
+      <c r="F631" t="s">
         <v>827</v>
       </c>
-      <c r="G631" s="4" t="s">
+      <c r="G631" t="s">
         <v>52</v>
       </c>
-      <c r="H631" s="4" t="s">
+      <c r="H631" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A632" s="5" t="s">
+      <c r="A632" t="s">
         <v>893</v>
       </c>
-      <c r="B632" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C632" s="4" t="s">
+      <c r="B632" t="s">
+        <v>8</v>
+      </c>
+      <c r="C632" t="s">
         <v>643</v>
       </c>
-      <c r="D632" s="4" t="s">
+      <c r="D632" t="s">
         <v>644</v>
       </c>
-      <c r="E632" s="4" t="s">
+      <c r="E632" t="s">
         <v>852</v>
       </c>
-      <c r="F632" s="4" t="s">
+      <c r="F632" t="s">
         <v>853</v>
       </c>
-      <c r="G632" s="4" t="s">
+      <c r="G632" t="s">
         <v>74</v>
       </c>
-      <c r="H632" s="4" t="s">
+      <c r="H632" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A633" s="5" t="s">
+      <c r="A633" t="s">
         <v>894</v>
       </c>
-      <c r="B633" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C633" s="4" t="s">
+      <c r="B633" t="s">
+        <v>8</v>
+      </c>
+      <c r="C633" t="s">
         <v>627</v>
       </c>
-      <c r="D633" s="4" t="s">
+      <c r="D633" t="s">
         <v>628</v>
       </c>
-      <c r="E633" s="4" t="s">
+      <c r="E633" t="s">
         <v>854</v>
       </c>
-      <c r="F633" s="4" t="s">
+      <c r="F633" t="s">
         <v>855</v>
       </c>
-      <c r="G633" s="4" t="s">
+      <c r="G633" t="s">
         <v>35</v>
       </c>
-      <c r="H633" s="4" t="s">
+      <c r="H633" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A634" s="5" t="s">
+      <c r="A634" t="s">
         <v>895</v>
       </c>
-      <c r="B634" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C634" s="4" t="s">
+      <c r="B634" t="s">
+        <v>8</v>
+      </c>
+      <c r="C634" t="s">
         <v>856</v>
       </c>
-      <c r="D634" s="4" t="s">
+      <c r="D634" t="s">
         <v>857</v>
       </c>
-      <c r="E634" s="4" t="s">
+      <c r="E634" t="s">
         <v>858</v>
       </c>
-      <c r="F634" s="4" t="s">
+      <c r="F634" t="s">
         <v>859</v>
       </c>
-      <c r="G634" s="4" t="s">
+      <c r="G634" t="s">
         <v>71</v>
       </c>
-      <c r="H634" s="4" t="s">
+      <c r="H634" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A635" s="5" t="s">
+      <c r="A635" t="s">
         <v>896</v>
       </c>
-      <c r="B635" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C635" s="4" t="s">
+      <c r="B635" t="s">
+        <v>8</v>
+      </c>
+      <c r="C635" t="s">
         <v>860</v>
       </c>
-      <c r="D635" s="4" t="s">
+      <c r="D635" t="s">
         <v>861</v>
       </c>
-      <c r="E635" s="4" t="s">
+      <c r="E635" t="s">
         <v>862</v>
       </c>
-      <c r="F635" s="4" t="s">
+      <c r="F635" t="s">
         <v>863</v>
       </c>
-      <c r="G635" s="4" t="s">
+      <c r="G635" t="s">
         <v>11</v>
       </c>
-      <c r="H635" s="4" t="s">
+      <c r="H635" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A636" s="5" t="s">
+      <c r="A636" t="s">
         <v>897</v>
       </c>
-      <c r="B636" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C636" s="4" t="s">
+      <c r="B636" t="s">
+        <v>8</v>
+      </c>
+      <c r="C636" t="s">
         <v>864</v>
       </c>
-      <c r="D636" s="4" t="s">
+      <c r="D636" t="s">
         <v>865</v>
       </c>
-      <c r="E636" s="4" t="s">
+      <c r="E636" t="s">
         <v>866</v>
       </c>
-      <c r="F636" s="4" t="s">
+      <c r="F636" t="s">
         <v>867</v>
       </c>
-      <c r="G636" s="4" t="s">
+      <c r="G636" t="s">
         <v>81</v>
       </c>
-      <c r="H636" s="4" t="s">
+      <c r="H636" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A637" s="5" t="s">
+      <c r="A637" t="s">
         <v>898</v>
       </c>
-      <c r="B637" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C637" s="4" t="s">
+      <c r="B637" t="s">
+        <v>8</v>
+      </c>
+      <c r="C637" t="s">
         <v>868</v>
       </c>
-      <c r="D637" s="4" t="s">
+      <c r="D637" t="s">
         <v>869</v>
       </c>
-      <c r="E637" s="4" t="s">
+      <c r="E637" t="s">
         <v>870</v>
       </c>
-      <c r="F637" s="4" t="s">
+      <c r="F637" t="s">
         <v>871</v>
       </c>
-      <c r="G637" s="4" t="s">
+      <c r="G637" t="s">
         <v>204</v>
       </c>
-      <c r="H637" s="4" t="s">
+      <c r="H637" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A638" s="5" t="s">
+      <c r="A638" t="s">
         <v>899</v>
       </c>
-      <c r="B638" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C638" s="4" t="s">
+      <c r="B638" t="s">
+        <v>8</v>
+      </c>
+      <c r="C638" t="s">
         <v>872</v>
       </c>
-      <c r="D638" s="4" t="s">
+      <c r="D638" t="s">
         <v>873</v>
       </c>
-      <c r="E638" s="4" t="s">
+      <c r="E638" t="s">
         <v>874</v>
       </c>
-      <c r="F638" s="4" t="s">
+      <c r="F638" t="s">
         <v>875</v>
       </c>
-      <c r="G638" s="4" t="s">
+      <c r="G638" t="s">
         <v>74</v>
       </c>
-      <c r="H638" s="4" t="s">
+      <c r="H638" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A639" s="5" t="s">
+      <c r="A639" t="s">
         <v>900</v>
       </c>
-      <c r="B639" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C639" s="4" t="s">
+      <c r="B639" t="s">
+        <v>8</v>
+      </c>
+      <c r="C639" t="s">
         <v>876</v>
       </c>
-      <c r="D639" s="4" t="s">
+      <c r="D639" t="s">
         <v>532</v>
       </c>
-      <c r="E639" s="4" t="s">
+      <c r="E639" t="s">
         <v>877</v>
       </c>
-      <c r="F639" s="4" t="s">
+      <c r="F639" t="s">
         <v>878</v>
       </c>
-      <c r="G639" s="4" t="s">
+      <c r="G639" t="s">
         <v>567</v>
       </c>
-      <c r="H639" s="4" t="s">
+      <c r="H639" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A640" s="5" t="s">
+      <c r="A640" t="s">
         <v>901</v>
       </c>
-      <c r="B640" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C640" s="4" t="s">
+      <c r="B640" t="s">
+        <v>8</v>
+      </c>
+      <c r="C640" t="s">
         <v>879</v>
       </c>
-      <c r="D640" s="4" t="s">
+      <c r="D640" t="s">
         <v>347</v>
       </c>
-      <c r="E640" s="4" t="s">
+      <c r="E640" t="s">
         <v>880</v>
       </c>
-      <c r="F640" s="4" t="s">
+      <c r="F640" t="s">
         <v>881</v>
       </c>
-      <c r="G640" s="4" t="s">
+      <c r="G640" t="s">
         <v>227</v>
       </c>
-      <c r="H640" s="4" t="s">
+      <c r="H640" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A641" s="5" t="s">
+      <c r="A641" t="s">
         <v>902</v>
       </c>
-      <c r="B641" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C641" s="4" t="s">
+      <c r="B641" t="s">
+        <v>8</v>
+      </c>
+      <c r="C641" t="s">
         <v>882</v>
       </c>
-      <c r="D641" s="4" t="s">
+      <c r="D641" t="s">
         <v>883</v>
       </c>
-      <c r="E641" s="4" t="s">
+      <c r="E641" t="s">
         <v>884</v>
       </c>
-      <c r="F641" s="4" t="s">
+      <c r="F641" t="s">
         <v>885</v>
       </c>
-      <c r="G641" s="4" t="s">
+      <c r="G641" t="s">
         <v>59</v>
       </c>
-      <c r="H641" s="4" t="s">
+      <c r="H641" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A642" s="5" t="s">
+      <c r="A642" t="s">
         <v>903</v>
       </c>
-      <c r="B642" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C642" s="4" t="s">
+      <c r="B642" t="s">
+        <v>8</v>
+      </c>
+      <c r="C642" t="s">
         <v>886</v>
       </c>
-      <c r="D642" s="4" t="s">
+      <c r="D642" t="s">
         <v>887</v>
       </c>
-      <c r="E642" s="4" t="s">
+      <c r="E642" t="s">
         <v>888</v>
       </c>
-      <c r="F642" s="4" t="s">
+      <c r="F642" t="s">
         <v>889</v>
       </c>
-      <c r="G642" s="4" t="s">
+      <c r="G642" t="s">
         <v>11</v>
       </c>
-      <c r="H642" s="4" t="s">
+      <c r="H642" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A643" s="5" t="s">
+      <c r="A643" t="s">
         <v>890</v>
       </c>
-      <c r="B643" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C643" s="4" t="s">
+      <c r="B643" t="s">
+        <v>8</v>
+      </c>
+      <c r="C643" t="s">
         <v>844</v>
       </c>
-      <c r="D643" s="4" t="s">
+      <c r="D643" t="s">
         <v>845</v>
       </c>
-      <c r="E643" s="4" t="s">
+      <c r="E643" t="s">
         <v>846</v>
       </c>
-      <c r="F643" s="4" t="s">
+      <c r="F643" t="s">
         <v>847</v>
       </c>
-      <c r="G643" s="4" t="s">
+      <c r="G643" t="s">
         <v>227</v>
       </c>
-      <c r="H643" s="4" t="s">
+      <c r="H643" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A644" s="5" t="s">
+      <c r="A644" t="s">
         <v>891</v>
       </c>
-      <c r="B644" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C644" s="4" t="s">
+      <c r="B644" t="s">
+        <v>8</v>
+      </c>
+      <c r="C644" t="s">
         <v>848</v>
       </c>
-      <c r="D644" s="4" t="s">
+      <c r="D644" t="s">
         <v>849</v>
       </c>
-      <c r="E644" s="4" t="s">
+      <c r="E644" t="s">
         <v>850</v>
       </c>
-      <c r="F644" s="4" t="s">
+      <c r="F644" t="s">
         <v>851</v>
       </c>
-      <c r="G644" s="4" t="s">
+      <c r="G644" t="s">
         <v>468</v>
       </c>
-      <c r="H644" s="4" t="s">
+      <c r="H644" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A645" s="5" t="s">
+      <c r="A645" t="s">
         <v>892</v>
       </c>
-      <c r="B645" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C645" s="4" t="s">
+      <c r="B645" t="s">
+        <v>8</v>
+      </c>
+      <c r="C645" t="s">
         <v>824</v>
       </c>
-      <c r="D645" s="4" t="s">
+      <c r="D645" t="s">
         <v>825</v>
       </c>
-      <c r="E645" s="4" t="s">
+      <c r="E645" t="s">
         <v>826</v>
       </c>
-      <c r="F645" s="4" t="s">
+      <c r="F645" t="s">
         <v>827</v>
       </c>
-      <c r="G645" s="4" t="s">
+      <c r="G645" t="s">
         <v>52</v>
       </c>
-      <c r="H645" s="4" t="s">
+      <c r="H645" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A646" s="5" t="s">
+      <c r="A646" t="s">
         <v>893</v>
       </c>
-      <c r="B646" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C646" s="4" t="s">
+      <c r="B646" t="s">
+        <v>8</v>
+      </c>
+      <c r="C646" t="s">
         <v>643</v>
       </c>
-      <c r="D646" s="4" t="s">
+      <c r="D646" t="s">
         <v>644</v>
       </c>
-      <c r="E646" s="4" t="s">
+      <c r="E646" t="s">
         <v>852</v>
       </c>
-      <c r="F646" s="4" t="s">
+      <c r="F646" t="s">
         <v>853</v>
       </c>
-      <c r="G646" s="4" t="s">
+      <c r="G646" t="s">
         <v>74</v>
       </c>
-      <c r="H646" s="4" t="s">
+      <c r="H646" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>904</v>
+      </c>
+      <c r="B647" t="s">
+        <v>8</v>
+      </c>
+      <c r="C647" t="s">
+        <v>905</v>
+      </c>
+      <c r="D647" t="s">
+        <v>14</v>
+      </c>
+      <c r="E647">
+        <v>53.323</v>
+      </c>
+      <c r="F647">
+        <v>6.94</v>
+      </c>
+      <c r="G647" t="s">
+        <v>172</v>
+      </c>
+      <c r="H647" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001B1DF4-BEC8-4648-85AD-C4E798D9F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00A400-50A3-45F6-8E08-89264EF0BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4465" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="907">
   <si>
     <t>Name</t>
   </si>
@@ -2754,6 +2754,9 @@
   </si>
   <si>
     <t>Farmsum</t>
+  </si>
+  <si>
+    <t>Elian Barcelona</t>
   </si>
 </sst>
 </file>
@@ -3626,11 +3629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H647"/>
+  <dimension ref="A1:H648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I647" sqref="I647"/>
+      <selection pane="bottomLeft" activeCell="G648" sqref="G648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20467,6 +20470,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>906</v>
+      </c>
+      <c r="B648" t="s">
+        <v>21</v>
+      </c>
+      <c r="C648" t="s">
+        <v>89</v>
+      </c>
+      <c r="D648" t="s">
+        <v>18</v>
+      </c>
+      <c r="E648">
+        <v>41.345999999999997</v>
+      </c>
+      <c r="F648">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="G648" t="s">
+        <v>176</v>
+      </c>
+      <c r="H648" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H355" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H355">

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00A400-50A3-45F6-8E08-89264EF0BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D1151-1077-4FEA-A66E-FBCFC9710B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -3632,8 +3632,8 @@
   <dimension ref="A1:H648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G648" sqref="G648"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G237" sqref="G237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9798,7 +9798,7 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>41.341999999999999</v>
+        <v>41.529000000000003</v>
       </c>
       <c r="F237">
         <v>2.1539999999999999</v>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7D1151-1077-4FEA-A66E-FBCFC9710B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171A056-7E65-4ABC-A29A-4A43A5513373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="942">
   <si>
     <t>Name</t>
   </si>
@@ -2757,6 +2757,111 @@
   </si>
   <si>
     <t>Elian Barcelona</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>-23,960</t>
+  </si>
+  <si>
+    <t>-46,328</t>
+  </si>
+  <si>
+    <t>-16,467</t>
+  </si>
+  <si>
+    <t>-54,638</t>
+  </si>
+  <si>
+    <t>Joaçaba</t>
+  </si>
+  <si>
+    <t>-27,178</t>
+  </si>
+  <si>
+    <t>-51,500</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>38,017</t>
+  </si>
+  <si>
+    <t>-122,133</t>
+  </si>
+  <si>
+    <t>Bakersfield</t>
+  </si>
+  <si>
+    <t>35,373</t>
+  </si>
+  <si>
+    <t>-119,018</t>
+  </si>
+  <si>
+    <t>Oahu</t>
+  </si>
+  <si>
+    <t>21,438</t>
+  </si>
+  <si>
+    <t>-158,000</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>32,875</t>
+  </si>
+  <si>
+    <t>13,187</t>
+  </si>
+  <si>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>18,078</t>
+  </si>
+  <si>
+    <t>-15,965</t>
+  </si>
+  <si>
+    <t>Bunge Brazil Santos</t>
+  </si>
+  <si>
+    <t>Cargill Rondonópolis</t>
+  </si>
+  <si>
+    <t>ADM Joaçaba</t>
+  </si>
+  <si>
+    <t>Neste Martinez</t>
+  </si>
+  <si>
+    <t>Crimson Renewable Energy Bakersfield</t>
+  </si>
+  <si>
+    <t>Pacific Biodiesel Oahu</t>
+  </si>
+  <si>
+    <t>Savola Morocco Casablanca</t>
+  </si>
+  <si>
+    <t>Libyan Edible Oils Tripoli</t>
+  </si>
+  <si>
+    <t>ONAP Mauritania Nouakchott</t>
   </si>
 </sst>
 </file>
@@ -3246,13 +3351,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3629,11 +3736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H648"/>
+  <dimension ref="A1:H688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G237" sqref="G237"/>
+      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A649" sqref="A649:A688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20474,7 +20581,7 @@
       <c r="A648" t="s">
         <v>906</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B648" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C648" t="s">
@@ -20494,6 +20601,1046 @@
       </c>
       <c r="H648" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C649" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E649" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="F649" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G649" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H649" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A650" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="F650" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="G650" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H650" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A651" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C651" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E651" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F651" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="G651" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H651" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C652" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E652" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="F652" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G652" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H652" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C653" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E653" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="F653" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="G653" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H653" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="F654" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G654" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H654" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A655" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C655" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E655" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F655" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G655" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H655" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A656" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C656" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E656" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F656" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G656" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H656" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C657" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E657" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F657" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="G657" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H657" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E658" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="F658" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G658" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H658" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C659" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E659" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="F659" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="G659" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H659" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C660" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E660" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F660" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="G660" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H660" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C661" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E661" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="F661" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G661" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H661" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A662" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E662" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="F662" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="G662" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H662" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A663" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C663" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E663" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="F663" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G663" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H663" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A664" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C664" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E664" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F664" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G664" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H664" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A665" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C665" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E665" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F665" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G665" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H665" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A666" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C666" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F666" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="G666" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H666" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A667" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C667" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="F667" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G667" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H667" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A668" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C668" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E668" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="F668" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="G668" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H668" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A669" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C669" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F669" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="G669" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H669" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A670" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C670" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="F670" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G670" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H670" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A671" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C671" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E671" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="F671" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="G671" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H671" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A672" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C672" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E672" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="F672" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G672" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H672" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A673" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C673" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E673" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F673" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G673" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H673" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A674" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C674" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E674" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F674" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G674" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H674" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A675" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C675" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E675" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F675" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="G675" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H675" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A676" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C676" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E676" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="F676" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G676" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H676" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A677" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C677" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="F677" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="G677" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H677" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A678" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C678" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F678" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="G678" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H678" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A679" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C679" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E679" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="F679" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G679" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H679" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C680" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E680" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="F680" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="G680" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H680" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A681" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C681" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E681" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="F681" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G681" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H681" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A682" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C682" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E682" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="F682" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G682" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H682" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A683" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C683" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="E683" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F683" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="G683" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H683" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A684" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C684" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="E684" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="F684" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="G684" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H684" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A685" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C685" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E685" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="F685" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G685" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H685" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A686" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C686" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E686" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="F686" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="G686" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H686" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C687" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E687" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F687" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="G687" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H687" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C688" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="E688" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="F688" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="G688" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H688" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A171A056-7E65-4ABC-A29A-4A43A5513373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8EE702-D976-4EF7-BDB5-1DB3F093AEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="1033">
   <si>
     <t>Name</t>
   </si>
@@ -2862,6 +2862,279 @@
   </si>
   <si>
     <t>ONAP Mauritania Nouakchott</t>
+  </si>
+  <si>
+    <t>Richardson International Yorkton</t>
+  </si>
+  <si>
+    <t>Yorkton</t>
+  </si>
+  <si>
+    <t>LDC Rondonópolis</t>
+  </si>
+  <si>
+    <t>Cargill Rosario</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>AGD General Deheza</t>
+  </si>
+  <si>
+    <t>1,800,000 MT</t>
+  </si>
+  <si>
+    <t>Oleoplan Passo Fundo</t>
+  </si>
+  <si>
+    <t>Passo Fundo</t>
+  </si>
+  <si>
+    <t>COFCO Timbues</t>
+  </si>
+  <si>
+    <t>CHS Fairmont</t>
+  </si>
+  <si>
+    <t>Fairmont</t>
+  </si>
+  <si>
+    <t>Los Grobo Chivilcoy</t>
+  </si>
+  <si>
+    <t>Chivilcoy</t>
+  </si>
+  <si>
+    <t>Agroindustrial LDC Timbues</t>
+  </si>
+  <si>
+    <t>ADM Montevideo</t>
+  </si>
+  <si>
+    <t>Olam Quito</t>
+  </si>
+  <si>
+    <t>Cargill Cartagena</t>
+  </si>
+  <si>
+    <t>Cargill Santiago</t>
+  </si>
+  <si>
+    <t>ETG Agri Abidjan</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Sundown Oils Johannesburg</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Olam Beira</t>
+  </si>
+  <si>
+    <t>ETG Lusaka</t>
+  </si>
+  <si>
+    <t>Lusaka</t>
+  </si>
+  <si>
+    <t>AgroPro Gaborone</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bidco Tanzania Dar es Salaam</t>
+  </si>
+  <si>
+    <t>Horizon Addis</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>220,000 MT</t>
+  </si>
+  <si>
+    <t>CEVITAL Béjaïa</t>
+  </si>
+  <si>
+    <t>Syria Agro Aleppo</t>
+  </si>
+  <si>
+    <t>Aleppo</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Abalıoğlu Feed Izmir</t>
+  </si>
+  <si>
+    <t>Liberty Oil Mills Karachi</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>24,860</t>
+  </si>
+  <si>
+    <t>67,010</t>
+  </si>
+  <si>
+    <t>TK Group Chattogram</t>
+  </si>
+  <si>
+    <t>Chattogram</t>
+  </si>
+  <si>
+    <t>22,356</t>
+  </si>
+  <si>
+    <t>91,783</t>
+  </si>
+  <si>
+    <t>Meghna Group Narayanganj</t>
+  </si>
+  <si>
+    <t>P.T. Oils Colombo</t>
+  </si>
+  <si>
+    <t>Wilmar Myanmar Yangon</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>16,866</t>
+  </si>
+  <si>
+    <t>96,195</t>
+  </si>
+  <si>
+    <t>Kernel Group Poltava</t>
+  </si>
+  <si>
+    <t>49,589</t>
+  </si>
+  <si>
+    <t>34,551</t>
+  </si>
+  <si>
+    <t>MHP Vinnytsia</t>
+  </si>
+  <si>
+    <t>49,234</t>
+  </si>
+  <si>
+    <t>28,468</t>
+  </si>
+  <si>
+    <t>Aston Group Volgograd</t>
+  </si>
+  <si>
+    <t>Volgograd</t>
+  </si>
+  <si>
+    <t>48,708</t>
+  </si>
+  <si>
+    <t>44,514</t>
+  </si>
+  <si>
+    <t>48,881</t>
+  </si>
+  <si>
+    <t>12,573</t>
+  </si>
+  <si>
+    <t>Avril Group Grand-Couronne</t>
+  </si>
+  <si>
+    <t>49,390</t>
+  </si>
+  <si>
+    <t>1,020</t>
+  </si>
+  <si>
+    <t>Bunge Poland Kruszwica</t>
+  </si>
+  <si>
+    <t>52,676</t>
+  </si>
+  <si>
+    <t>18,319</t>
+  </si>
+  <si>
+    <t>Cargill Hungary Martfű</t>
+  </si>
+  <si>
+    <t>47,000</t>
+  </si>
+  <si>
+    <t>20,283</t>
+  </si>
+  <si>
+    <t>Bunge Romania Lehliu</t>
+  </si>
+  <si>
+    <t>44,435</t>
+  </si>
+  <si>
+    <t>26,857</t>
+  </si>
+  <si>
+    <t>ADM Bulgaria Varna</t>
+  </si>
+  <si>
+    <t>Varna</t>
+  </si>
+  <si>
+    <t>43,204</t>
+  </si>
+  <si>
+    <t>27,910</t>
+  </si>
+  <si>
+    <t>Cargill Czech Prague</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>50,075</t>
+  </si>
+  <si>
+    <t>14,437</t>
+  </si>
+  <si>
+    <t>Victoria Group Šid</t>
+  </si>
+  <si>
+    <t>Šid</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>45,132</t>
+  </si>
+  <si>
+    <t>19,224</t>
   </si>
 </sst>
 </file>
@@ -3736,11 +4009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H688"/>
+  <dimension ref="A1:H986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A649" sqref="A649:A688"/>
+      <pane ySplit="1" topLeftCell="A959" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F938" sqref="F938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20581,7 +20854,7 @@
       <c r="A648" t="s">
         <v>906</v>
       </c>
-      <c r="B648" s="4" t="s">
+      <c r="B648" t="s">
         <v>21</v>
       </c>
       <c r="C648" t="s">
@@ -20604,1043 +20877,8791 @@
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A649" s="5" t="s">
+      <c r="A649" t="s">
         <v>933</v>
       </c>
-      <c r="B649" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C649" s="4" t="s">
+      <c r="B649" t="s">
+        <v>8</v>
+      </c>
+      <c r="C649" t="s">
         <v>907</v>
       </c>
-      <c r="D649" s="4" t="s">
+      <c r="D649" t="s">
         <v>135</v>
       </c>
-      <c r="E649" s="4" t="s">
+      <c r="E649" t="s">
         <v>908</v>
       </c>
-      <c r="F649" s="4" t="s">
+      <c r="F649" t="s">
         <v>909</v>
       </c>
-      <c r="G649" s="4" t="s">
+      <c r="G649" t="s">
         <v>247</v>
       </c>
-      <c r="H649" s="4" t="s">
+      <c r="H649" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A650" s="5" t="s">
+      <c r="A650" t="s">
         <v>934</v>
       </c>
-      <c r="B650" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C650" s="4" t="s">
+      <c r="B650" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" t="s">
         <v>149</v>
       </c>
-      <c r="D650" s="4" t="s">
+      <c r="D650" t="s">
         <v>135</v>
       </c>
-      <c r="E650" s="4" t="s">
+      <c r="E650" t="s">
         <v>910</v>
       </c>
-      <c r="F650" s="4" t="s">
+      <c r="F650" t="s">
         <v>911</v>
       </c>
-      <c r="G650" s="4" t="s">
+      <c r="G650" t="s">
         <v>176</v>
       </c>
-      <c r="H650" s="4" t="s">
+      <c r="H650" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A651" s="5" t="s">
+      <c r="A651" t="s">
         <v>935</v>
       </c>
-      <c r="B651" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C651" s="4" t="s">
+      <c r="B651" t="s">
+        <v>8</v>
+      </c>
+      <c r="C651" t="s">
         <v>912</v>
       </c>
-      <c r="D651" s="4" t="s">
+      <c r="D651" t="s">
         <v>135</v>
       </c>
-      <c r="E651" s="4" t="s">
+      <c r="E651" t="s">
         <v>913</v>
       </c>
-      <c r="F651" s="4" t="s">
+      <c r="F651" t="s">
         <v>914</v>
       </c>
-      <c r="G651" s="4" t="s">
+      <c r="G651" t="s">
         <v>35</v>
       </c>
-      <c r="H651" s="4" t="s">
+      <c r="H651" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A652" s="5" t="s">
+      <c r="A652" t="s">
         <v>936</v>
       </c>
-      <c r="B652" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C652" s="4" t="s">
+      <c r="B652" t="s">
+        <v>8</v>
+      </c>
+      <c r="C652" t="s">
         <v>915</v>
       </c>
-      <c r="D652" s="4" t="s">
+      <c r="D652" t="s">
         <v>916</v>
       </c>
-      <c r="E652" s="4" t="s">
+      <c r="E652" t="s">
         <v>917</v>
       </c>
-      <c r="F652" s="4" t="s">
+      <c r="F652" t="s">
         <v>918</v>
       </c>
-      <c r="G652" s="4" t="s">
+      <c r="G652" t="s">
         <v>666</v>
       </c>
-      <c r="H652" s="4" t="s">
+      <c r="H652" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A653" s="5" t="s">
+      <c r="A653" t="s">
         <v>937</v>
       </c>
-      <c r="B653" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C653" s="4" t="s">
+      <c r="B653" t="s">
+        <v>8</v>
+      </c>
+      <c r="C653" t="s">
         <v>919</v>
       </c>
-      <c r="D653" s="4" t="s">
+      <c r="D653" t="s">
         <v>916</v>
       </c>
-      <c r="E653" s="4" t="s">
+      <c r="E653" t="s">
         <v>920</v>
       </c>
-      <c r="F653" s="4" t="s">
+      <c r="F653" t="s">
         <v>921</v>
       </c>
-      <c r="G653" s="4" t="s">
+      <c r="G653" t="s">
         <v>71</v>
       </c>
-      <c r="H653" s="4" t="s">
+      <c r="H653" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A654" s="5" t="s">
+      <c r="A654" t="s">
         <v>938</v>
       </c>
-      <c r="B654" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C654" s="4" t="s">
+      <c r="B654" t="s">
+        <v>8</v>
+      </c>
+      <c r="C654" t="s">
         <v>922</v>
       </c>
-      <c r="D654" s="4" t="s">
+      <c r="D654" t="s">
         <v>916</v>
       </c>
-      <c r="E654" s="4" t="s">
+      <c r="E654" t="s">
         <v>923</v>
       </c>
-      <c r="F654" s="4" t="s">
+      <c r="F654" t="s">
         <v>924</v>
       </c>
-      <c r="G654" s="4" t="s">
+      <c r="G654" t="s">
         <v>59</v>
       </c>
-      <c r="H654" s="4" t="s">
+      <c r="H654" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A655" s="5" t="s">
+      <c r="A655" t="s">
         <v>939</v>
       </c>
-      <c r="B655" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C655" s="4" t="s">
+      <c r="B655" t="s">
+        <v>8</v>
+      </c>
+      <c r="C655" t="s">
         <v>609</v>
       </c>
-      <c r="D655" s="4" t="s">
+      <c r="D655" t="s">
         <v>610</v>
       </c>
-      <c r="E655" s="4" t="s">
+      <c r="E655" t="s">
         <v>814</v>
       </c>
-      <c r="F655" s="4" t="s">
+      <c r="F655" t="s">
         <v>815</v>
       </c>
-      <c r="G655" s="4" t="s">
+      <c r="G655" t="s">
         <v>227</v>
       </c>
-      <c r="H655" s="4" t="s">
+      <c r="H655" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A656" s="5" t="s">
+      <c r="A656" t="s">
         <v>940</v>
       </c>
-      <c r="B656" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C656" s="4" t="s">
+      <c r="B656" t="s">
+        <v>8</v>
+      </c>
+      <c r="C656" t="s">
         <v>925</v>
       </c>
-      <c r="D656" s="4" t="s">
+      <c r="D656" t="s">
         <v>926</v>
       </c>
-      <c r="E656" s="4" t="s">
+      <c r="E656" t="s">
         <v>927</v>
       </c>
-      <c r="F656" s="4" t="s">
+      <c r="F656" t="s">
         <v>928</v>
       </c>
-      <c r="G656" s="4" t="s">
+      <c r="G656" t="s">
         <v>52</v>
       </c>
-      <c r="H656" s="4" t="s">
+      <c r="H656" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A657" s="5" t="s">
+      <c r="A657" t="s">
         <v>941</v>
       </c>
-      <c r="B657" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C657" s="4" t="s">
+      <c r="B657" t="s">
+        <v>8</v>
+      </c>
+      <c r="C657" t="s">
         <v>929</v>
       </c>
-      <c r="D657" s="4" t="s">
+      <c r="D657" t="s">
         <v>930</v>
       </c>
-      <c r="E657" s="4" t="s">
+      <c r="E657" t="s">
         <v>931</v>
       </c>
-      <c r="F657" s="4" t="s">
+      <c r="F657" t="s">
         <v>932</v>
       </c>
-      <c r="G657" s="4" t="s">
+      <c r="G657" t="s">
         <v>81</v>
       </c>
-      <c r="H657" s="4" t="s">
+      <c r="H657" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A658" s="5" t="s">
+      <c r="A658" t="s">
         <v>933</v>
       </c>
-      <c r="B658" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C658" s="4" t="s">
+      <c r="B658" t="s">
+        <v>8</v>
+      </c>
+      <c r="C658" t="s">
         <v>907</v>
       </c>
-      <c r="D658" s="4" t="s">
+      <c r="D658" t="s">
         <v>135</v>
       </c>
-      <c r="E658" s="4" t="s">
+      <c r="E658" t="s">
         <v>908</v>
       </c>
-      <c r="F658" s="4" t="s">
+      <c r="F658" t="s">
         <v>909</v>
       </c>
-      <c r="G658" s="4" t="s">
+      <c r="G658" t="s">
         <v>247</v>
       </c>
-      <c r="H658" s="4" t="s">
+      <c r="H658" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A659" s="5" t="s">
+      <c r="A659" t="s">
         <v>934</v>
       </c>
-      <c r="B659" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C659" s="4" t="s">
+      <c r="B659" t="s">
+        <v>8</v>
+      </c>
+      <c r="C659" t="s">
         <v>149</v>
       </c>
-      <c r="D659" s="4" t="s">
+      <c r="D659" t="s">
         <v>135</v>
       </c>
-      <c r="E659" s="4" t="s">
+      <c r="E659" t="s">
         <v>910</v>
       </c>
-      <c r="F659" s="4" t="s">
+      <c r="F659" t="s">
         <v>911</v>
       </c>
-      <c r="G659" s="4" t="s">
+      <c r="G659" t="s">
         <v>176</v>
       </c>
-      <c r="H659" s="4" t="s">
+      <c r="H659" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A660" s="5" t="s">
+      <c r="A660" t="s">
         <v>935</v>
       </c>
-      <c r="B660" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C660" s="4" t="s">
+      <c r="B660" t="s">
+        <v>8</v>
+      </c>
+      <c r="C660" t="s">
         <v>912</v>
       </c>
-      <c r="D660" s="4" t="s">
+      <c r="D660" t="s">
         <v>135</v>
       </c>
-      <c r="E660" s="4" t="s">
+      <c r="E660" t="s">
         <v>913</v>
       </c>
-      <c r="F660" s="4" t="s">
+      <c r="F660" t="s">
         <v>914</v>
       </c>
-      <c r="G660" s="4" t="s">
+      <c r="G660" t="s">
         <v>35</v>
       </c>
-      <c r="H660" s="4" t="s">
+      <c r="H660" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A661" s="5" t="s">
+      <c r="A661" t="s">
         <v>936</v>
       </c>
-      <c r="B661" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C661" s="4" t="s">
+      <c r="B661" t="s">
+        <v>8</v>
+      </c>
+      <c r="C661" t="s">
         <v>915</v>
       </c>
-      <c r="D661" s="4" t="s">
+      <c r="D661" t="s">
         <v>916</v>
       </c>
-      <c r="E661" s="4" t="s">
+      <c r="E661" t="s">
         <v>917</v>
       </c>
-      <c r="F661" s="4" t="s">
+      <c r="F661" t="s">
         <v>918</v>
       </c>
-      <c r="G661" s="4" t="s">
+      <c r="G661" t="s">
         <v>666</v>
       </c>
-      <c r="H661" s="4" t="s">
+      <c r="H661" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A662" s="5" t="s">
+      <c r="A662" t="s">
         <v>937</v>
       </c>
-      <c r="B662" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C662" s="4" t="s">
+      <c r="B662" t="s">
+        <v>8</v>
+      </c>
+      <c r="C662" t="s">
         <v>919</v>
       </c>
-      <c r="D662" s="4" t="s">
+      <c r="D662" t="s">
         <v>916</v>
       </c>
-      <c r="E662" s="4" t="s">
+      <c r="E662" t="s">
         <v>920</v>
       </c>
-      <c r="F662" s="4" t="s">
+      <c r="F662" t="s">
         <v>921</v>
       </c>
-      <c r="G662" s="4" t="s">
+      <c r="G662" t="s">
         <v>71</v>
       </c>
-      <c r="H662" s="4" t="s">
+      <c r="H662" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A663" s="5" t="s">
+      <c r="A663" t="s">
         <v>938</v>
       </c>
-      <c r="B663" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C663" s="4" t="s">
+      <c r="B663" t="s">
+        <v>8</v>
+      </c>
+      <c r="C663" t="s">
         <v>922</v>
       </c>
-      <c r="D663" s="4" t="s">
+      <c r="D663" t="s">
         <v>916</v>
       </c>
-      <c r="E663" s="4" t="s">
+      <c r="E663" t="s">
         <v>923</v>
       </c>
-      <c r="F663" s="4" t="s">
+      <c r="F663" t="s">
         <v>924</v>
       </c>
-      <c r="G663" s="4" t="s">
+      <c r="G663" t="s">
         <v>59</v>
       </c>
-      <c r="H663" s="4" t="s">
+      <c r="H663" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A664" s="5" t="s">
+      <c r="A664" t="s">
         <v>939</v>
       </c>
-      <c r="B664" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C664" s="4" t="s">
+      <c r="B664" t="s">
+        <v>8</v>
+      </c>
+      <c r="C664" t="s">
         <v>609</v>
       </c>
-      <c r="D664" s="4" t="s">
+      <c r="D664" t="s">
         <v>610</v>
       </c>
-      <c r="E664" s="4" t="s">
+      <c r="E664" t="s">
         <v>814</v>
       </c>
-      <c r="F664" s="4" t="s">
+      <c r="F664" t="s">
         <v>815</v>
       </c>
-      <c r="G664" s="4" t="s">
+      <c r="G664" t="s">
         <v>227</v>
       </c>
-      <c r="H664" s="4" t="s">
+      <c r="H664" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A665" s="5" t="s">
+      <c r="A665" t="s">
         <v>940</v>
       </c>
-      <c r="B665" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C665" s="4" t="s">
+      <c r="B665" t="s">
+        <v>8</v>
+      </c>
+      <c r="C665" t="s">
         <v>925</v>
       </c>
-      <c r="D665" s="4" t="s">
+      <c r="D665" t="s">
         <v>926</v>
       </c>
-      <c r="E665" s="4" t="s">
+      <c r="E665" t="s">
         <v>927</v>
       </c>
-      <c r="F665" s="4" t="s">
+      <c r="F665" t="s">
         <v>928</v>
       </c>
-      <c r="G665" s="4" t="s">
+      <c r="G665" t="s">
         <v>52</v>
       </c>
-      <c r="H665" s="4" t="s">
+      <c r="H665" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A666" s="5" t="s">
+      <c r="A666" t="s">
         <v>941</v>
       </c>
-      <c r="B666" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C666" s="4" t="s">
+      <c r="B666" t="s">
+        <v>8</v>
+      </c>
+      <c r="C666" t="s">
         <v>929</v>
       </c>
-      <c r="D666" s="4" t="s">
+      <c r="D666" t="s">
         <v>930</v>
       </c>
-      <c r="E666" s="4" t="s">
+      <c r="E666" t="s">
         <v>931</v>
       </c>
-      <c r="F666" s="4" t="s">
+      <c r="F666" t="s">
         <v>932</v>
       </c>
-      <c r="G666" s="4" t="s">
+      <c r="G666" t="s">
         <v>81</v>
       </c>
-      <c r="H666" s="4" t="s">
+      <c r="H666" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A667" s="5" t="s">
+      <c r="A667" t="s">
         <v>933</v>
       </c>
-      <c r="B667" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C667" s="4" t="s">
+      <c r="B667" t="s">
+        <v>8</v>
+      </c>
+      <c r="C667" t="s">
         <v>907</v>
       </c>
-      <c r="D667" s="4" t="s">
+      <c r="D667" t="s">
         <v>135</v>
       </c>
-      <c r="E667" s="4" t="s">
+      <c r="E667" t="s">
         <v>908</v>
       </c>
-      <c r="F667" s="4" t="s">
+      <c r="F667" t="s">
         <v>909</v>
       </c>
-      <c r="G667" s="4" t="s">
+      <c r="G667" t="s">
         <v>247</v>
       </c>
-      <c r="H667" s="4" t="s">
+      <c r="H667" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A668" s="5" t="s">
+      <c r="A668" t="s">
         <v>934</v>
       </c>
-      <c r="B668" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C668" s="4" t="s">
+      <c r="B668" t="s">
+        <v>8</v>
+      </c>
+      <c r="C668" t="s">
         <v>149</v>
       </c>
-      <c r="D668" s="4" t="s">
+      <c r="D668" t="s">
         <v>135</v>
       </c>
-      <c r="E668" s="4" t="s">
+      <c r="E668" t="s">
         <v>910</v>
       </c>
-      <c r="F668" s="4" t="s">
+      <c r="F668" t="s">
         <v>911</v>
       </c>
-      <c r="G668" s="4" t="s">
+      <c r="G668" t="s">
         <v>176</v>
       </c>
-      <c r="H668" s="4" t="s">
+      <c r="H668" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A669" s="5" t="s">
+      <c r="A669" t="s">
         <v>935</v>
       </c>
-      <c r="B669" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C669" s="4" t="s">
+      <c r="B669" t="s">
+        <v>8</v>
+      </c>
+      <c r="C669" t="s">
         <v>912</v>
       </c>
-      <c r="D669" s="4" t="s">
+      <c r="D669" t="s">
         <v>135</v>
       </c>
-      <c r="E669" s="4" t="s">
+      <c r="E669" t="s">
         <v>913</v>
       </c>
-      <c r="F669" s="4" t="s">
+      <c r="F669" t="s">
         <v>914</v>
       </c>
-      <c r="G669" s="4" t="s">
+      <c r="G669" t="s">
         <v>35</v>
       </c>
-      <c r="H669" s="4" t="s">
+      <c r="H669" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A670" s="5" t="s">
+      <c r="A670" t="s">
         <v>936</v>
       </c>
-      <c r="B670" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C670" s="4" t="s">
+      <c r="B670" t="s">
+        <v>8</v>
+      </c>
+      <c r="C670" t="s">
         <v>915</v>
       </c>
-      <c r="D670" s="4" t="s">
+      <c r="D670" t="s">
         <v>916</v>
       </c>
-      <c r="E670" s="4" t="s">
+      <c r="E670" t="s">
         <v>917</v>
       </c>
-      <c r="F670" s="4" t="s">
+      <c r="F670" t="s">
         <v>918</v>
       </c>
-      <c r="G670" s="4" t="s">
+      <c r="G670" t="s">
         <v>666</v>
       </c>
-      <c r="H670" s="4" t="s">
+      <c r="H670" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A671" s="5" t="s">
+      <c r="A671" t="s">
         <v>937</v>
       </c>
-      <c r="B671" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C671" s="4" t="s">
+      <c r="B671" t="s">
+        <v>8</v>
+      </c>
+      <c r="C671" t="s">
         <v>919</v>
       </c>
-      <c r="D671" s="4" t="s">
+      <c r="D671" t="s">
         <v>916</v>
       </c>
-      <c r="E671" s="4" t="s">
+      <c r="E671" t="s">
         <v>920</v>
       </c>
-      <c r="F671" s="4" t="s">
+      <c r="F671" t="s">
         <v>921</v>
       </c>
-      <c r="G671" s="4" t="s">
+      <c r="G671" t="s">
         <v>71</v>
       </c>
-      <c r="H671" s="4" t="s">
+      <c r="H671" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A672" s="5" t="s">
+      <c r="A672" t="s">
         <v>938</v>
       </c>
-      <c r="B672" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C672" s="4" t="s">
+      <c r="B672" t="s">
+        <v>8</v>
+      </c>
+      <c r="C672" t="s">
         <v>922</v>
       </c>
-      <c r="D672" s="4" t="s">
+      <c r="D672" t="s">
         <v>916</v>
       </c>
-      <c r="E672" s="4" t="s">
+      <c r="E672" t="s">
         <v>923</v>
       </c>
-      <c r="F672" s="4" t="s">
+      <c r="F672" t="s">
         <v>924</v>
       </c>
-      <c r="G672" s="4" t="s">
+      <c r="G672" t="s">
         <v>59</v>
       </c>
-      <c r="H672" s="4" t="s">
+      <c r="H672" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A673" s="5" t="s">
+      <c r="A673" t="s">
         <v>939</v>
       </c>
-      <c r="B673" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C673" s="4" t="s">
+      <c r="B673" t="s">
+        <v>8</v>
+      </c>
+      <c r="C673" t="s">
         <v>609</v>
       </c>
-      <c r="D673" s="4" t="s">
+      <c r="D673" t="s">
         <v>610</v>
       </c>
-      <c r="E673" s="4" t="s">
+      <c r="E673" t="s">
         <v>814</v>
       </c>
-      <c r="F673" s="4" t="s">
+      <c r="F673" t="s">
         <v>815</v>
       </c>
-      <c r="G673" s="4" t="s">
+      <c r="G673" t="s">
         <v>227</v>
       </c>
-      <c r="H673" s="4" t="s">
+      <c r="H673" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A674" s="5" t="s">
+      <c r="A674" t="s">
         <v>940</v>
       </c>
-      <c r="B674" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C674" s="4" t="s">
+      <c r="B674" t="s">
+        <v>8</v>
+      </c>
+      <c r="C674" t="s">
         <v>925</v>
       </c>
-      <c r="D674" s="4" t="s">
+      <c r="D674" t="s">
         <v>926</v>
       </c>
-      <c r="E674" s="4" t="s">
+      <c r="E674" t="s">
         <v>927</v>
       </c>
-      <c r="F674" s="4" t="s">
+      <c r="F674" t="s">
         <v>928</v>
       </c>
-      <c r="G674" s="4" t="s">
+      <c r="G674" t="s">
         <v>52</v>
       </c>
-      <c r="H674" s="4" t="s">
+      <c r="H674" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A675" s="5" t="s">
+      <c r="A675" t="s">
         <v>941</v>
       </c>
-      <c r="B675" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C675" s="4" t="s">
+      <c r="B675" t="s">
+        <v>8</v>
+      </c>
+      <c r="C675" t="s">
         <v>929</v>
       </c>
-      <c r="D675" s="4" t="s">
+      <c r="D675" t="s">
         <v>930</v>
       </c>
-      <c r="E675" s="4" t="s">
+      <c r="E675" t="s">
         <v>931</v>
       </c>
-      <c r="F675" s="4" t="s">
+      <c r="F675" t="s">
         <v>932</v>
       </c>
-      <c r="G675" s="4" t="s">
+      <c r="G675" t="s">
         <v>81</v>
       </c>
-      <c r="H675" s="4" t="s">
+      <c r="H675" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" s="5" t="s">
+      <c r="A676" t="s">
         <v>933</v>
       </c>
-      <c r="B676" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C676" s="4" t="s">
+      <c r="B676" t="s">
+        <v>8</v>
+      </c>
+      <c r="C676" t="s">
         <v>907</v>
       </c>
-      <c r="D676" s="4" t="s">
+      <c r="D676" t="s">
         <v>135</v>
       </c>
-      <c r="E676" s="4" t="s">
+      <c r="E676" t="s">
         <v>908</v>
       </c>
-      <c r="F676" s="4" t="s">
+      <c r="F676" t="s">
         <v>909</v>
       </c>
-      <c r="G676" s="4" t="s">
+      <c r="G676" t="s">
         <v>247</v>
       </c>
-      <c r="H676" s="4" t="s">
+      <c r="H676" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A677" s="5" t="s">
+      <c r="A677" t="s">
         <v>934</v>
       </c>
-      <c r="B677" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C677" s="4" t="s">
+      <c r="B677" t="s">
+        <v>8</v>
+      </c>
+      <c r="C677" t="s">
         <v>149</v>
       </c>
-      <c r="D677" s="4" t="s">
+      <c r="D677" t="s">
         <v>135</v>
       </c>
-      <c r="E677" s="4" t="s">
+      <c r="E677" t="s">
         <v>910</v>
       </c>
-      <c r="F677" s="4" t="s">
+      <c r="F677" t="s">
         <v>911</v>
       </c>
-      <c r="G677" s="4" t="s">
+      <c r="G677" t="s">
         <v>176</v>
       </c>
-      <c r="H677" s="4" t="s">
+      <c r="H677" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A678" s="5" t="s">
+      <c r="A678" t="s">
         <v>935</v>
       </c>
-      <c r="B678" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C678" s="4" t="s">
+      <c r="B678" t="s">
+        <v>8</v>
+      </c>
+      <c r="C678" t="s">
         <v>912</v>
       </c>
-      <c r="D678" s="4" t="s">
+      <c r="D678" t="s">
         <v>135</v>
       </c>
-      <c r="E678" s="4" t="s">
+      <c r="E678" t="s">
         <v>913</v>
       </c>
-      <c r="F678" s="4" t="s">
+      <c r="F678" t="s">
         <v>914</v>
       </c>
-      <c r="G678" s="4" t="s">
+      <c r="G678" t="s">
         <v>35</v>
       </c>
-      <c r="H678" s="4" t="s">
+      <c r="H678" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A679" s="5" t="s">
+      <c r="A679" t="s">
         <v>936</v>
       </c>
-      <c r="B679" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C679" s="4" t="s">
+      <c r="B679" t="s">
+        <v>8</v>
+      </c>
+      <c r="C679" t="s">
         <v>915</v>
       </c>
-      <c r="D679" s="4" t="s">
+      <c r="D679" t="s">
         <v>916</v>
       </c>
-      <c r="E679" s="4" t="s">
+      <c r="E679" t="s">
         <v>917</v>
       </c>
-      <c r="F679" s="4" t="s">
+      <c r="F679" t="s">
         <v>918</v>
       </c>
-      <c r="G679" s="4" t="s">
+      <c r="G679" t="s">
         <v>666</v>
       </c>
-      <c r="H679" s="4" t="s">
+      <c r="H679" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A680" s="5" t="s">
+      <c r="A680" t="s">
         <v>937</v>
       </c>
-      <c r="B680" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C680" s="4" t="s">
+      <c r="B680" t="s">
+        <v>8</v>
+      </c>
+      <c r="C680" t="s">
         <v>919</v>
       </c>
-      <c r="D680" s="4" t="s">
+      <c r="D680" t="s">
         <v>916</v>
       </c>
-      <c r="E680" s="4" t="s">
+      <c r="E680" t="s">
         <v>920</v>
       </c>
-      <c r="F680" s="4" t="s">
+      <c r="F680" t="s">
         <v>921</v>
       </c>
-      <c r="G680" s="4" t="s">
+      <c r="G680" t="s">
         <v>71</v>
       </c>
-      <c r="H680" s="4" t="s">
+      <c r="H680" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A681" s="5" t="s">
+      <c r="A681" t="s">
         <v>938</v>
       </c>
-      <c r="B681" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C681" s="4" t="s">
+      <c r="B681" t="s">
+        <v>8</v>
+      </c>
+      <c r="C681" t="s">
         <v>922</v>
       </c>
-      <c r="D681" s="4" t="s">
+      <c r="D681" t="s">
         <v>916</v>
       </c>
-      <c r="E681" s="4" t="s">
+      <c r="E681" t="s">
         <v>923</v>
       </c>
-      <c r="F681" s="4" t="s">
+      <c r="F681" t="s">
         <v>924</v>
       </c>
-      <c r="G681" s="4" t="s">
+      <c r="G681" t="s">
         <v>59</v>
       </c>
-      <c r="H681" s="4" t="s">
+      <c r="H681" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A682" s="5" t="s">
+      <c r="A682" t="s">
         <v>939</v>
       </c>
-      <c r="B682" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C682" s="4" t="s">
+      <c r="B682" t="s">
+        <v>8</v>
+      </c>
+      <c r="C682" t="s">
         <v>609</v>
       </c>
-      <c r="D682" s="4" t="s">
+      <c r="D682" t="s">
         <v>610</v>
       </c>
-      <c r="E682" s="4" t="s">
+      <c r="E682" t="s">
         <v>814</v>
       </c>
-      <c r="F682" s="4" t="s">
+      <c r="F682" t="s">
         <v>815</v>
       </c>
-      <c r="G682" s="4" t="s">
+      <c r="G682" t="s">
         <v>227</v>
       </c>
-      <c r="H682" s="4" t="s">
+      <c r="H682" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A683" s="5" t="s">
+      <c r="A683" t="s">
         <v>940</v>
       </c>
-      <c r="B683" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C683" s="4" t="s">
+      <c r="B683" t="s">
+        <v>8</v>
+      </c>
+      <c r="C683" t="s">
         <v>925</v>
       </c>
-      <c r="D683" s="4" t="s">
+      <c r="D683" t="s">
         <v>926</v>
       </c>
-      <c r="E683" s="4" t="s">
+      <c r="E683" t="s">
         <v>927</v>
       </c>
-      <c r="F683" s="4" t="s">
+      <c r="F683" t="s">
         <v>928</v>
       </c>
-      <c r="G683" s="4" t="s">
+      <c r="G683" t="s">
         <v>52</v>
       </c>
-      <c r="H683" s="4" t="s">
+      <c r="H683" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A684" s="5" t="s">
+      <c r="A684" t="s">
         <v>941</v>
       </c>
-      <c r="B684" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C684" s="4" t="s">
+      <c r="B684" t="s">
+        <v>8</v>
+      </c>
+      <c r="C684" t="s">
         <v>929</v>
       </c>
-      <c r="D684" s="4" t="s">
+      <c r="D684" t="s">
         <v>930</v>
       </c>
-      <c r="E684" s="4" t="s">
+      <c r="E684" t="s">
         <v>931</v>
       </c>
-      <c r="F684" s="4" t="s">
+      <c r="F684" t="s">
         <v>932</v>
       </c>
-      <c r="G684" s="4" t="s">
+      <c r="G684" t="s">
         <v>81</v>
       </c>
-      <c r="H684" s="4" t="s">
+      <c r="H684" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A685" s="5" t="s">
+      <c r="A685" t="s">
         <v>933</v>
       </c>
-      <c r="B685" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C685" s="4" t="s">
+      <c r="B685" t="s">
+        <v>8</v>
+      </c>
+      <c r="C685" t="s">
         <v>907</v>
       </c>
-      <c r="D685" s="4" t="s">
+      <c r="D685" t="s">
         <v>135</v>
       </c>
-      <c r="E685" s="4" t="s">
+      <c r="E685" t="s">
         <v>908</v>
       </c>
-      <c r="F685" s="4" t="s">
+      <c r="F685" t="s">
         <v>909</v>
       </c>
-      <c r="G685" s="4" t="s">
+      <c r="G685" t="s">
         <v>247</v>
       </c>
-      <c r="H685" s="4" t="s">
+      <c r="H685" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A686" s="5" t="s">
+      <c r="A686" t="s">
         <v>934</v>
       </c>
-      <c r="B686" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C686" s="4" t="s">
+      <c r="B686" t="s">
+        <v>8</v>
+      </c>
+      <c r="C686" t="s">
         <v>149</v>
       </c>
-      <c r="D686" s="4" t="s">
+      <c r="D686" t="s">
         <v>135</v>
       </c>
-      <c r="E686" s="4" t="s">
+      <c r="E686" t="s">
         <v>910</v>
       </c>
-      <c r="F686" s="4" t="s">
+      <c r="F686" t="s">
         <v>911</v>
       </c>
-      <c r="G686" s="4" t="s">
+      <c r="G686" t="s">
         <v>176</v>
       </c>
-      <c r="H686" s="4" t="s">
+      <c r="H686" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A687" s="5" t="s">
+      <c r="A687" t="s">
         <v>935</v>
       </c>
-      <c r="B687" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C687" s="4" t="s">
+      <c r="B687" t="s">
+        <v>8</v>
+      </c>
+      <c r="C687" t="s">
         <v>912</v>
       </c>
-      <c r="D687" s="4" t="s">
+      <c r="D687" t="s">
         <v>135</v>
       </c>
-      <c r="E687" s="4" t="s">
+      <c r="E687" t="s">
         <v>913</v>
       </c>
-      <c r="F687" s="4" t="s">
+      <c r="F687" t="s">
         <v>914</v>
       </c>
-      <c r="G687" s="4" t="s">
+      <c r="G687" t="s">
         <v>35</v>
       </c>
-      <c r="H687" s="4" t="s">
+      <c r="H687" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A688" s="5" t="s">
+      <c r="A688" t="s">
         <v>936</v>
       </c>
-      <c r="B688" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C688" s="4" t="s">
+      <c r="B688" t="s">
+        <v>8</v>
+      </c>
+      <c r="C688" t="s">
         <v>915</v>
       </c>
-      <c r="D688" s="4" t="s">
+      <c r="D688" t="s">
         <v>916</v>
       </c>
-      <c r="E688" s="4" t="s">
+      <c r="E688" t="s">
         <v>917</v>
       </c>
-      <c r="F688" s="4" t="s">
+      <c r="F688" t="s">
         <v>918</v>
       </c>
-      <c r="G688" s="4" t="s">
+      <c r="G688" t="s">
         <v>666</v>
       </c>
-      <c r="H688" s="4" t="s">
+      <c r="H688" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>482</v>
+      </c>
+      <c r="B689" t="s">
+        <v>21</v>
+      </c>
+      <c r="C689" t="s">
+        <v>679</v>
+      </c>
+      <c r="D689" t="s">
+        <v>916</v>
+      </c>
+      <c r="E689">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="F689">
+        <v>-88.954999999999998</v>
+      </c>
+      <c r="G689" t="s">
+        <v>321</v>
+      </c>
+      <c r="H689" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>696</v>
+      </c>
+      <c r="B690" t="s">
+        <v>21</v>
+      </c>
+      <c r="C690" t="s">
+        <v>697</v>
+      </c>
+      <c r="D690" t="s">
+        <v>916</v>
+      </c>
+      <c r="E690">
+        <v>46.875</v>
+      </c>
+      <c r="F690">
+        <v>-96.9</v>
+      </c>
+      <c r="G690" t="s">
+        <v>38</v>
+      </c>
+      <c r="H690" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>266</v>
+      </c>
+      <c r="B691" t="s">
+        <v>21</v>
+      </c>
+      <c r="C691" t="s">
+        <v>698</v>
+      </c>
+      <c r="D691" t="s">
+        <v>66</v>
+      </c>
+      <c r="E691">
+        <v>43.25</v>
+      </c>
+      <c r="F691">
+        <v>-79.849999999999994</v>
+      </c>
+      <c r="G691" t="s">
+        <v>24</v>
+      </c>
+      <c r="H691" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>942</v>
+      </c>
+      <c r="B692" t="s">
+        <v>21</v>
+      </c>
+      <c r="C692" t="s">
+        <v>943</v>
+      </c>
+      <c r="D692" t="s">
+        <v>66</v>
+      </c>
+      <c r="E692">
+        <v>51.216999999999999</v>
+      </c>
+      <c r="F692">
+        <v>-102.467</v>
+      </c>
+      <c r="G692" t="s">
+        <v>466</v>
+      </c>
+      <c r="H692" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>228</v>
+      </c>
+      <c r="B693" t="s">
+        <v>21</v>
+      </c>
+      <c r="C693" t="s">
+        <v>682</v>
+      </c>
+      <c r="D693" t="s">
+        <v>916</v>
+      </c>
+      <c r="E693">
+        <v>46.965000000000003</v>
+      </c>
+      <c r="F693">
+        <v>-119.035</v>
+      </c>
+      <c r="G693" t="s">
+        <v>176</v>
+      </c>
+      <c r="H693" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>944</v>
+      </c>
+      <c r="B694" t="s">
+        <v>21</v>
+      </c>
+      <c r="C694" t="s">
+        <v>149</v>
+      </c>
+      <c r="D694" t="s">
+        <v>135</v>
+      </c>
+      <c r="E694">
+        <v>-16.466999999999999</v>
+      </c>
+      <c r="F694">
+        <v>-54.637999999999998</v>
+      </c>
+      <c r="G694" t="s">
+        <v>255</v>
+      </c>
+      <c r="H694" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>945</v>
+      </c>
+      <c r="B695" t="s">
+        <v>21</v>
+      </c>
+      <c r="C695" t="s">
+        <v>946</v>
+      </c>
+      <c r="D695" t="s">
+        <v>157</v>
+      </c>
+      <c r="E695">
+        <v>-32.957000000000001</v>
+      </c>
+      <c r="F695">
+        <v>-60.639000000000003</v>
+      </c>
+      <c r="G695" t="s">
+        <v>469</v>
+      </c>
+      <c r="H695" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>947</v>
+      </c>
+      <c r="B696" t="s">
+        <v>21</v>
+      </c>
+      <c r="C696" t="s">
+        <v>387</v>
+      </c>
+      <c r="D696" t="s">
+        <v>157</v>
+      </c>
+      <c r="E696">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="F696">
+        <v>-63.783000000000001</v>
+      </c>
+      <c r="G696" t="s">
+        <v>948</v>
+      </c>
+      <c r="H696" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>949</v>
+      </c>
+      <c r="B697" t="s">
+        <v>21</v>
+      </c>
+      <c r="C697" t="s">
+        <v>950</v>
+      </c>
+      <c r="D697" t="s">
+        <v>135</v>
+      </c>
+      <c r="E697">
+        <v>-28.257000000000001</v>
+      </c>
+      <c r="F697">
+        <v>-52.408999999999999</v>
+      </c>
+      <c r="G697" t="s">
+        <v>247</v>
+      </c>
+      <c r="H697" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>951</v>
+      </c>
+      <c r="B698" t="s">
+        <v>21</v>
+      </c>
+      <c r="C698" t="s">
+        <v>231</v>
+      </c>
+      <c r="D698" t="s">
+        <v>157</v>
+      </c>
+      <c r="E698">
+        <v>-32.485999999999997</v>
+      </c>
+      <c r="F698">
+        <v>-60.720999999999997</v>
+      </c>
+      <c r="G698" t="s">
+        <v>467</v>
+      </c>
+      <c r="H698" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>270</v>
+      </c>
+      <c r="B699" t="s">
+        <v>21</v>
+      </c>
+      <c r="C699" t="s">
+        <v>721</v>
+      </c>
+      <c r="D699" t="s">
+        <v>66</v>
+      </c>
+      <c r="E699">
+        <v>53.360999999999997</v>
+      </c>
+      <c r="F699">
+        <v>-104.017</v>
+      </c>
+      <c r="G699" t="s">
+        <v>35</v>
+      </c>
+      <c r="H699" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>952</v>
+      </c>
+      <c r="B700" t="s">
+        <v>21</v>
+      </c>
+      <c r="C700" t="s">
+        <v>953</v>
+      </c>
+      <c r="D700" t="s">
+        <v>916</v>
+      </c>
+      <c r="E700">
+        <v>43.634999999999998</v>
+      </c>
+      <c r="F700">
+        <v>-94.460999999999999</v>
+      </c>
+      <c r="G700" t="s">
+        <v>29</v>
+      </c>
+      <c r="H700" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>954</v>
+      </c>
+      <c r="B701" t="s">
+        <v>21</v>
+      </c>
+      <c r="C701" t="s">
+        <v>955</v>
+      </c>
+      <c r="D701" t="s">
+        <v>157</v>
+      </c>
+      <c r="E701">
+        <v>-34.895000000000003</v>
+      </c>
+      <c r="F701">
+        <v>-60.031999999999996</v>
+      </c>
+      <c r="G701" t="s">
+        <v>74</v>
+      </c>
+      <c r="H701" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>482</v>
+      </c>
+      <c r="B702" t="s">
+        <v>21</v>
+      </c>
+      <c r="C702" t="s">
+        <v>679</v>
+      </c>
+      <c r="D702" t="s">
+        <v>916</v>
+      </c>
+      <c r="E702">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="F702">
+        <v>-88.954999999999998</v>
+      </c>
+      <c r="G702" t="s">
+        <v>321</v>
+      </c>
+      <c r="H702" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>696</v>
+      </c>
+      <c r="B703" t="s">
+        <v>21</v>
+      </c>
+      <c r="C703" t="s">
+        <v>697</v>
+      </c>
+      <c r="D703" t="s">
+        <v>916</v>
+      </c>
+      <c r="E703">
+        <v>46.875</v>
+      </c>
+      <c r="F703">
+        <v>-96.9</v>
+      </c>
+      <c r="G703" t="s">
+        <v>38</v>
+      </c>
+      <c r="H703" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>266</v>
+      </c>
+      <c r="B704" t="s">
+        <v>21</v>
+      </c>
+      <c r="C704" t="s">
+        <v>698</v>
+      </c>
+      <c r="D704" t="s">
+        <v>66</v>
+      </c>
+      <c r="E704">
+        <v>43.25</v>
+      </c>
+      <c r="F704">
+        <v>-79.849999999999994</v>
+      </c>
+      <c r="G704" t="s">
+        <v>24</v>
+      </c>
+      <c r="H704" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>942</v>
+      </c>
+      <c r="B705" t="s">
+        <v>21</v>
+      </c>
+      <c r="C705" t="s">
+        <v>943</v>
+      </c>
+      <c r="D705" t="s">
+        <v>66</v>
+      </c>
+      <c r="E705">
+        <v>51.216999999999999</v>
+      </c>
+      <c r="F705">
+        <v>-102.467</v>
+      </c>
+      <c r="G705" t="s">
+        <v>466</v>
+      </c>
+      <c r="H705" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>228</v>
+      </c>
+      <c r="B706" t="s">
+        <v>21</v>
+      </c>
+      <c r="C706" t="s">
+        <v>682</v>
+      </c>
+      <c r="D706" t="s">
+        <v>916</v>
+      </c>
+      <c r="E706">
+        <v>46.965000000000003</v>
+      </c>
+      <c r="F706">
+        <v>-119.035</v>
+      </c>
+      <c r="G706" t="s">
+        <v>176</v>
+      </c>
+      <c r="H706" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>944</v>
+      </c>
+      <c r="B707" t="s">
+        <v>21</v>
+      </c>
+      <c r="C707" t="s">
+        <v>149</v>
+      </c>
+      <c r="D707" t="s">
+        <v>135</v>
+      </c>
+      <c r="E707">
+        <v>-16.466999999999999</v>
+      </c>
+      <c r="F707">
+        <v>-54.637999999999998</v>
+      </c>
+      <c r="G707" t="s">
+        <v>255</v>
+      </c>
+      <c r="H707" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>945</v>
+      </c>
+      <c r="B708" t="s">
+        <v>21</v>
+      </c>
+      <c r="C708" t="s">
+        <v>946</v>
+      </c>
+      <c r="D708" t="s">
+        <v>157</v>
+      </c>
+      <c r="E708">
+        <v>-32.957000000000001</v>
+      </c>
+      <c r="F708">
+        <v>-60.639000000000003</v>
+      </c>
+      <c r="G708" t="s">
+        <v>469</v>
+      </c>
+      <c r="H708" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>947</v>
+      </c>
+      <c r="B709" t="s">
+        <v>21</v>
+      </c>
+      <c r="C709" t="s">
+        <v>387</v>
+      </c>
+      <c r="D709" t="s">
+        <v>157</v>
+      </c>
+      <c r="E709">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="F709">
+        <v>-63.783000000000001</v>
+      </c>
+      <c r="G709" t="s">
+        <v>948</v>
+      </c>
+      <c r="H709" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>949</v>
+      </c>
+      <c r="B710" t="s">
+        <v>21</v>
+      </c>
+      <c r="C710" t="s">
+        <v>950</v>
+      </c>
+      <c r="D710" t="s">
+        <v>135</v>
+      </c>
+      <c r="E710">
+        <v>-28.257000000000001</v>
+      </c>
+      <c r="F710">
+        <v>-52.408999999999999</v>
+      </c>
+      <c r="G710" t="s">
+        <v>247</v>
+      </c>
+      <c r="H710" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>951</v>
+      </c>
+      <c r="B711" t="s">
+        <v>21</v>
+      </c>
+      <c r="C711" t="s">
+        <v>231</v>
+      </c>
+      <c r="D711" t="s">
+        <v>157</v>
+      </c>
+      <c r="E711">
+        <v>-32.485999999999997</v>
+      </c>
+      <c r="F711">
+        <v>-60.720999999999997</v>
+      </c>
+      <c r="G711" t="s">
+        <v>467</v>
+      </c>
+      <c r="H711" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>270</v>
+      </c>
+      <c r="B712" t="s">
+        <v>21</v>
+      </c>
+      <c r="C712" t="s">
+        <v>721</v>
+      </c>
+      <c r="D712" t="s">
+        <v>66</v>
+      </c>
+      <c r="E712">
+        <v>53.360999999999997</v>
+      </c>
+      <c r="F712">
+        <v>-104.017</v>
+      </c>
+      <c r="G712" t="s">
+        <v>35</v>
+      </c>
+      <c r="H712" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>952</v>
+      </c>
+      <c r="B713" t="s">
+        <v>21</v>
+      </c>
+      <c r="C713" t="s">
+        <v>953</v>
+      </c>
+      <c r="D713" t="s">
+        <v>916</v>
+      </c>
+      <c r="E713">
+        <v>43.634999999999998</v>
+      </c>
+      <c r="F713">
+        <v>-94.460999999999999</v>
+      </c>
+      <c r="G713" t="s">
+        <v>29</v>
+      </c>
+      <c r="H713" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>954</v>
+      </c>
+      <c r="B714" t="s">
+        <v>21</v>
+      </c>
+      <c r="C714" t="s">
+        <v>955</v>
+      </c>
+      <c r="D714" t="s">
+        <v>157</v>
+      </c>
+      <c r="E714">
+        <v>-34.895000000000003</v>
+      </c>
+      <c r="F714">
+        <v>-60.031999999999996</v>
+      </c>
+      <c r="G714" t="s">
+        <v>74</v>
+      </c>
+      <c r="H714" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>482</v>
+      </c>
+      <c r="B715" t="s">
+        <v>21</v>
+      </c>
+      <c r="C715" t="s">
+        <v>679</v>
+      </c>
+      <c r="D715" t="s">
+        <v>916</v>
+      </c>
+      <c r="E715">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="F715">
+        <v>-88.954999999999998</v>
+      </c>
+      <c r="G715" t="s">
+        <v>321</v>
+      </c>
+      <c r="H715" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>696</v>
+      </c>
+      <c r="B716" t="s">
+        <v>21</v>
+      </c>
+      <c r="C716" t="s">
+        <v>697</v>
+      </c>
+      <c r="D716" t="s">
+        <v>916</v>
+      </c>
+      <c r="E716">
+        <v>46.875</v>
+      </c>
+      <c r="F716">
+        <v>-96.9</v>
+      </c>
+      <c r="G716" t="s">
+        <v>38</v>
+      </c>
+      <c r="H716" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>266</v>
+      </c>
+      <c r="B717" t="s">
+        <v>21</v>
+      </c>
+      <c r="C717" t="s">
+        <v>698</v>
+      </c>
+      <c r="D717" t="s">
+        <v>66</v>
+      </c>
+      <c r="E717">
+        <v>43.25</v>
+      </c>
+      <c r="F717">
+        <v>-79.849999999999994</v>
+      </c>
+      <c r="G717" t="s">
+        <v>24</v>
+      </c>
+      <c r="H717" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>942</v>
+      </c>
+      <c r="B718" t="s">
+        <v>21</v>
+      </c>
+      <c r="C718" t="s">
+        <v>943</v>
+      </c>
+      <c r="D718" t="s">
+        <v>66</v>
+      </c>
+      <c r="E718">
+        <v>51.216999999999999</v>
+      </c>
+      <c r="F718">
+        <v>-102.467</v>
+      </c>
+      <c r="G718" t="s">
+        <v>466</v>
+      </c>
+      <c r="H718" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>228</v>
+      </c>
+      <c r="B719" t="s">
+        <v>21</v>
+      </c>
+      <c r="C719" t="s">
+        <v>682</v>
+      </c>
+      <c r="D719" t="s">
+        <v>916</v>
+      </c>
+      <c r="E719">
+        <v>46.965000000000003</v>
+      </c>
+      <c r="F719">
+        <v>-119.035</v>
+      </c>
+      <c r="G719" t="s">
+        <v>176</v>
+      </c>
+      <c r="H719" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>944</v>
+      </c>
+      <c r="B720" t="s">
+        <v>21</v>
+      </c>
+      <c r="C720" t="s">
+        <v>149</v>
+      </c>
+      <c r="D720" t="s">
+        <v>135</v>
+      </c>
+      <c r="E720">
+        <v>-16.466999999999999</v>
+      </c>
+      <c r="F720">
+        <v>-54.637999999999998</v>
+      </c>
+      <c r="G720" t="s">
+        <v>255</v>
+      </c>
+      <c r="H720" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>945</v>
+      </c>
+      <c r="B721" t="s">
+        <v>21</v>
+      </c>
+      <c r="C721" t="s">
+        <v>946</v>
+      </c>
+      <c r="D721" t="s">
+        <v>157</v>
+      </c>
+      <c r="E721">
+        <v>-32.957000000000001</v>
+      </c>
+      <c r="F721">
+        <v>-60.639000000000003</v>
+      </c>
+      <c r="G721" t="s">
+        <v>469</v>
+      </c>
+      <c r="H721" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>947</v>
+      </c>
+      <c r="B722" t="s">
+        <v>21</v>
+      </c>
+      <c r="C722" t="s">
+        <v>387</v>
+      </c>
+      <c r="D722" t="s">
+        <v>157</v>
+      </c>
+      <c r="E722">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="F722">
+        <v>-63.783000000000001</v>
+      </c>
+      <c r="G722" t="s">
+        <v>948</v>
+      </c>
+      <c r="H722" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>949</v>
+      </c>
+      <c r="B723" t="s">
+        <v>21</v>
+      </c>
+      <c r="C723" t="s">
+        <v>950</v>
+      </c>
+      <c r="D723" t="s">
+        <v>135</v>
+      </c>
+      <c r="E723">
+        <v>-28.257000000000001</v>
+      </c>
+      <c r="F723">
+        <v>-52.408999999999999</v>
+      </c>
+      <c r="G723" t="s">
+        <v>247</v>
+      </c>
+      <c r="H723" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>951</v>
+      </c>
+      <c r="B724" t="s">
+        <v>21</v>
+      </c>
+      <c r="C724" t="s">
+        <v>231</v>
+      </c>
+      <c r="D724" t="s">
+        <v>157</v>
+      </c>
+      <c r="E724">
+        <v>-32.485999999999997</v>
+      </c>
+      <c r="F724">
+        <v>-60.720999999999997</v>
+      </c>
+      <c r="G724" t="s">
+        <v>467</v>
+      </c>
+      <c r="H724" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>270</v>
+      </c>
+      <c r="B725" t="s">
+        <v>21</v>
+      </c>
+      <c r="C725" t="s">
+        <v>721</v>
+      </c>
+      <c r="D725" t="s">
+        <v>66</v>
+      </c>
+      <c r="E725">
+        <v>53.360999999999997</v>
+      </c>
+      <c r="F725">
+        <v>-104.017</v>
+      </c>
+      <c r="G725" t="s">
+        <v>35</v>
+      </c>
+      <c r="H725" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>952</v>
+      </c>
+      <c r="B726" t="s">
+        <v>21</v>
+      </c>
+      <c r="C726" t="s">
+        <v>953</v>
+      </c>
+      <c r="D726" t="s">
+        <v>916</v>
+      </c>
+      <c r="E726">
+        <v>43.634999999999998</v>
+      </c>
+      <c r="F726">
+        <v>-94.460999999999999</v>
+      </c>
+      <c r="G726" t="s">
+        <v>29</v>
+      </c>
+      <c r="H726" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>954</v>
+      </c>
+      <c r="B727" t="s">
+        <v>21</v>
+      </c>
+      <c r="C727" t="s">
+        <v>955</v>
+      </c>
+      <c r="D727" t="s">
+        <v>157</v>
+      </c>
+      <c r="E727">
+        <v>-34.895000000000003</v>
+      </c>
+      <c r="F727">
+        <v>-60.031999999999996</v>
+      </c>
+      <c r="G727" t="s">
+        <v>74</v>
+      </c>
+      <c r="H727" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>482</v>
+      </c>
+      <c r="B728" t="s">
+        <v>21</v>
+      </c>
+      <c r="C728" t="s">
+        <v>679</v>
+      </c>
+      <c r="D728" t="s">
+        <v>916</v>
+      </c>
+      <c r="E728">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="F728">
+        <v>-88.954999999999998</v>
+      </c>
+      <c r="G728" t="s">
+        <v>321</v>
+      </c>
+      <c r="H728" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>696</v>
+      </c>
+      <c r="B729" t="s">
+        <v>21</v>
+      </c>
+      <c r="C729" t="s">
+        <v>697</v>
+      </c>
+      <c r="D729" t="s">
+        <v>916</v>
+      </c>
+      <c r="E729">
+        <v>46.875</v>
+      </c>
+      <c r="F729">
+        <v>-96.9</v>
+      </c>
+      <c r="G729" t="s">
+        <v>38</v>
+      </c>
+      <c r="H729" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>266</v>
+      </c>
+      <c r="B730" t="s">
+        <v>21</v>
+      </c>
+      <c r="C730" t="s">
+        <v>698</v>
+      </c>
+      <c r="D730" t="s">
+        <v>66</v>
+      </c>
+      <c r="E730">
+        <v>43.25</v>
+      </c>
+      <c r="F730">
+        <v>-79.849999999999994</v>
+      </c>
+      <c r="G730" t="s">
+        <v>24</v>
+      </c>
+      <c r="H730" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>942</v>
+      </c>
+      <c r="B731" t="s">
+        <v>21</v>
+      </c>
+      <c r="C731" t="s">
+        <v>943</v>
+      </c>
+      <c r="D731" t="s">
+        <v>66</v>
+      </c>
+      <c r="E731">
+        <v>51.216999999999999</v>
+      </c>
+      <c r="F731">
+        <v>-102.467</v>
+      </c>
+      <c r="G731" t="s">
+        <v>466</v>
+      </c>
+      <c r="H731" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>228</v>
+      </c>
+      <c r="B732" t="s">
+        <v>21</v>
+      </c>
+      <c r="C732" t="s">
+        <v>682</v>
+      </c>
+      <c r="D732" t="s">
+        <v>916</v>
+      </c>
+      <c r="E732">
+        <v>46.965000000000003</v>
+      </c>
+      <c r="F732">
+        <v>-119.035</v>
+      </c>
+      <c r="G732" t="s">
+        <v>176</v>
+      </c>
+      <c r="H732" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>944</v>
+      </c>
+      <c r="B733" t="s">
+        <v>21</v>
+      </c>
+      <c r="C733" t="s">
+        <v>149</v>
+      </c>
+      <c r="D733" t="s">
+        <v>135</v>
+      </c>
+      <c r="E733">
+        <v>-16.466999999999999</v>
+      </c>
+      <c r="F733">
+        <v>-54.637999999999998</v>
+      </c>
+      <c r="G733" t="s">
+        <v>255</v>
+      </c>
+      <c r="H733" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>945</v>
+      </c>
+      <c r="B734" t="s">
+        <v>21</v>
+      </c>
+      <c r="C734" t="s">
+        <v>946</v>
+      </c>
+      <c r="D734" t="s">
+        <v>157</v>
+      </c>
+      <c r="E734">
+        <v>-32.957000000000001</v>
+      </c>
+      <c r="F734">
+        <v>-60.639000000000003</v>
+      </c>
+      <c r="G734" t="s">
+        <v>469</v>
+      </c>
+      <c r="H734" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>947</v>
+      </c>
+      <c r="B735" t="s">
+        <v>21</v>
+      </c>
+      <c r="C735" t="s">
+        <v>387</v>
+      </c>
+      <c r="D735" t="s">
+        <v>157</v>
+      </c>
+      <c r="E735">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="F735">
+        <v>-63.783000000000001</v>
+      </c>
+      <c r="G735" t="s">
+        <v>948</v>
+      </c>
+      <c r="H735" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>949</v>
+      </c>
+      <c r="B736" t="s">
+        <v>21</v>
+      </c>
+      <c r="C736" t="s">
+        <v>950</v>
+      </c>
+      <c r="D736" t="s">
+        <v>135</v>
+      </c>
+      <c r="E736">
+        <v>-28.257000000000001</v>
+      </c>
+      <c r="F736">
+        <v>-52.408999999999999</v>
+      </c>
+      <c r="G736" t="s">
+        <v>247</v>
+      </c>
+      <c r="H736" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>951</v>
+      </c>
+      <c r="B737" t="s">
+        <v>21</v>
+      </c>
+      <c r="C737" t="s">
+        <v>231</v>
+      </c>
+      <c r="D737" t="s">
+        <v>157</v>
+      </c>
+      <c r="E737">
+        <v>-32.485999999999997</v>
+      </c>
+      <c r="F737">
+        <v>-60.720999999999997</v>
+      </c>
+      <c r="G737" t="s">
+        <v>467</v>
+      </c>
+      <c r="H737" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>270</v>
+      </c>
+      <c r="B738" t="s">
+        <v>21</v>
+      </c>
+      <c r="C738" t="s">
+        <v>721</v>
+      </c>
+      <c r="D738" t="s">
+        <v>66</v>
+      </c>
+      <c r="E738">
+        <v>53.360999999999997</v>
+      </c>
+      <c r="F738">
+        <v>-104.017</v>
+      </c>
+      <c r="G738" t="s">
+        <v>35</v>
+      </c>
+      <c r="H738" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>952</v>
+      </c>
+      <c r="B739" t="s">
+        <v>21</v>
+      </c>
+      <c r="C739" t="s">
+        <v>953</v>
+      </c>
+      <c r="D739" t="s">
+        <v>916</v>
+      </c>
+      <c r="E739">
+        <v>43.634999999999998</v>
+      </c>
+      <c r="F739">
+        <v>-94.460999999999999</v>
+      </c>
+      <c r="G739" t="s">
+        <v>29</v>
+      </c>
+      <c r="H739" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>954</v>
+      </c>
+      <c r="B740" t="s">
+        <v>21</v>
+      </c>
+      <c r="C740" t="s">
+        <v>955</v>
+      </c>
+      <c r="D740" t="s">
+        <v>157</v>
+      </c>
+      <c r="E740">
+        <v>-34.895000000000003</v>
+      </c>
+      <c r="F740">
+        <v>-60.031999999999996</v>
+      </c>
+      <c r="G740" t="s">
+        <v>74</v>
+      </c>
+      <c r="H740" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>482</v>
+      </c>
+      <c r="B741" t="s">
+        <v>21</v>
+      </c>
+      <c r="C741" t="s">
+        <v>679</v>
+      </c>
+      <c r="D741" t="s">
+        <v>916</v>
+      </c>
+      <c r="E741">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="F741">
+        <v>-88.954999999999998</v>
+      </c>
+      <c r="G741" t="s">
+        <v>321</v>
+      </c>
+      <c r="H741" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>696</v>
+      </c>
+      <c r="B742" t="s">
+        <v>21</v>
+      </c>
+      <c r="C742" t="s">
+        <v>697</v>
+      </c>
+      <c r="D742" t="s">
+        <v>916</v>
+      </c>
+      <c r="E742">
+        <v>46.875</v>
+      </c>
+      <c r="F742">
+        <v>-96.9</v>
+      </c>
+      <c r="G742" t="s">
+        <v>38</v>
+      </c>
+      <c r="H742" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>266</v>
+      </c>
+      <c r="B743" t="s">
+        <v>21</v>
+      </c>
+      <c r="C743" t="s">
+        <v>698</v>
+      </c>
+      <c r="D743" t="s">
+        <v>66</v>
+      </c>
+      <c r="E743">
+        <v>43.25</v>
+      </c>
+      <c r="F743">
+        <v>-79.849999999999994</v>
+      </c>
+      <c r="G743" t="s">
+        <v>24</v>
+      </c>
+      <c r="H743" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>942</v>
+      </c>
+      <c r="B744" t="s">
+        <v>21</v>
+      </c>
+      <c r="C744" t="s">
+        <v>943</v>
+      </c>
+      <c r="D744" t="s">
+        <v>66</v>
+      </c>
+      <c r="E744">
+        <v>51.216999999999999</v>
+      </c>
+      <c r="F744">
+        <v>-102.467</v>
+      </c>
+      <c r="G744" t="s">
+        <v>466</v>
+      </c>
+      <c r="H744" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>228</v>
+      </c>
+      <c r="B745" t="s">
+        <v>21</v>
+      </c>
+      <c r="C745" t="s">
+        <v>682</v>
+      </c>
+      <c r="D745" t="s">
+        <v>916</v>
+      </c>
+      <c r="E745">
+        <v>46.965000000000003</v>
+      </c>
+      <c r="F745">
+        <v>-119.035</v>
+      </c>
+      <c r="G745" t="s">
+        <v>176</v>
+      </c>
+      <c r="H745" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>944</v>
+      </c>
+      <c r="B746" t="s">
+        <v>21</v>
+      </c>
+      <c r="C746" t="s">
+        <v>149</v>
+      </c>
+      <c r="D746" t="s">
+        <v>135</v>
+      </c>
+      <c r="E746">
+        <v>-16.466999999999999</v>
+      </c>
+      <c r="F746">
+        <v>-54.637999999999998</v>
+      </c>
+      <c r="G746" t="s">
+        <v>255</v>
+      </c>
+      <c r="H746" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>945</v>
+      </c>
+      <c r="B747" t="s">
+        <v>21</v>
+      </c>
+      <c r="C747" t="s">
+        <v>946</v>
+      </c>
+      <c r="D747" t="s">
+        <v>157</v>
+      </c>
+      <c r="E747">
+        <v>-32.957000000000001</v>
+      </c>
+      <c r="F747">
+        <v>-60.639000000000003</v>
+      </c>
+      <c r="G747" t="s">
+        <v>469</v>
+      </c>
+      <c r="H747" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>947</v>
+      </c>
+      <c r="B748" t="s">
+        <v>21</v>
+      </c>
+      <c r="C748" t="s">
+        <v>387</v>
+      </c>
+      <c r="D748" t="s">
+        <v>157</v>
+      </c>
+      <c r="E748">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="F748">
+        <v>-63.783000000000001</v>
+      </c>
+      <c r="G748" t="s">
+        <v>948</v>
+      </c>
+      <c r="H748" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>956</v>
+      </c>
+      <c r="B749" t="s">
+        <v>21</v>
+      </c>
+      <c r="C749" t="s">
+        <v>231</v>
+      </c>
+      <c r="D749" t="s">
+        <v>154</v>
+      </c>
+      <c r="E749">
+        <v>-27.2</v>
+      </c>
+      <c r="F749">
+        <v>-58.3</v>
+      </c>
+      <c r="G749" t="s">
+        <v>247</v>
+      </c>
+      <c r="H749" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>957</v>
+      </c>
+      <c r="B750" t="s">
+        <v>21</v>
+      </c>
+      <c r="C750" t="s">
+        <v>560</v>
+      </c>
+      <c r="D750" t="s">
+        <v>561</v>
+      </c>
+      <c r="E750">
+        <v>-34.901000000000003</v>
+      </c>
+      <c r="F750">
+        <v>-56.164000000000001</v>
+      </c>
+      <c r="G750" t="s">
+        <v>35</v>
+      </c>
+      <c r="H750" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>900</v>
+      </c>
+      <c r="B751" t="s">
+        <v>21</v>
+      </c>
+      <c r="C751" t="s">
+        <v>876</v>
+      </c>
+      <c r="D751" t="s">
+        <v>532</v>
+      </c>
+      <c r="E751">
+        <v>-12.045999999999999</v>
+      </c>
+      <c r="F751">
+        <v>-77.042000000000002</v>
+      </c>
+      <c r="G751" t="s">
+        <v>172</v>
+      </c>
+      <c r="H751" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>958</v>
+      </c>
+      <c r="B752" t="s">
+        <v>21</v>
+      </c>
+      <c r="C752" t="s">
+        <v>732</v>
+      </c>
+      <c r="D752" t="s">
+        <v>348</v>
+      </c>
+      <c r="E752">
+        <v>-0.18</v>
+      </c>
+      <c r="F752">
+        <v>-78.466999999999999</v>
+      </c>
+      <c r="G752" t="s">
+        <v>74</v>
+      </c>
+      <c r="H752" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>959</v>
+      </c>
+      <c r="B753" t="s">
+        <v>21</v>
+      </c>
+      <c r="C753" t="s">
+        <v>88</v>
+      </c>
+      <c r="D753" t="s">
+        <v>345</v>
+      </c>
+      <c r="E753">
+        <v>10.4</v>
+      </c>
+      <c r="F753">
+        <v>-75.5</v>
+      </c>
+      <c r="G753" t="s">
+        <v>35</v>
+      </c>
+      <c r="H753" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>960</v>
+      </c>
+      <c r="B754" t="s">
+        <v>21</v>
+      </c>
+      <c r="C754" t="s">
+        <v>872</v>
+      </c>
+      <c r="D754" t="s">
+        <v>873</v>
+      </c>
+      <c r="E754">
+        <v>-33.448</v>
+      </c>
+      <c r="F754">
+        <v>-70.668999999999997</v>
+      </c>
+      <c r="G754" t="s">
+        <v>176</v>
+      </c>
+      <c r="H754" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>961</v>
+      </c>
+      <c r="B755" t="s">
+        <v>21</v>
+      </c>
+      <c r="C755" t="s">
+        <v>565</v>
+      </c>
+      <c r="D755" t="s">
+        <v>962</v>
+      </c>
+      <c r="E755">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="F755">
+        <v>-4.0270000000000001</v>
+      </c>
+      <c r="G755" t="s">
+        <v>468</v>
+      </c>
+      <c r="H755" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>562</v>
+      </c>
+      <c r="B756" t="s">
+        <v>21</v>
+      </c>
+      <c r="C756" t="s">
+        <v>237</v>
+      </c>
+      <c r="D756" t="s">
+        <v>238</v>
+      </c>
+      <c r="E756">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="F756">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G756" t="s">
+        <v>35</v>
+      </c>
+      <c r="H756" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>761</v>
+      </c>
+      <c r="B757" t="s">
+        <v>21</v>
+      </c>
+      <c r="C757" t="s">
+        <v>572</v>
+      </c>
+      <c r="D757" t="s">
+        <v>573</v>
+      </c>
+      <c r="E757">
+        <v>-1.0329999999999999</v>
+      </c>
+      <c r="F757">
+        <v>37.067</v>
+      </c>
+      <c r="G757" t="s">
+        <v>74</v>
+      </c>
+      <c r="H757" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>963</v>
+      </c>
+      <c r="B758" t="s">
+        <v>21</v>
+      </c>
+      <c r="C758" t="s">
+        <v>964</v>
+      </c>
+      <c r="D758" t="s">
+        <v>169</v>
+      </c>
+      <c r="E758">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F758">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G758" t="s">
+        <v>247</v>
+      </c>
+      <c r="H758" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>956</v>
+      </c>
+      <c r="B759" t="s">
+        <v>21</v>
+      </c>
+      <c r="C759" t="s">
+        <v>231</v>
+      </c>
+      <c r="D759" t="s">
+        <v>154</v>
+      </c>
+      <c r="E759">
+        <v>-27.2</v>
+      </c>
+      <c r="F759">
+        <v>-58.3</v>
+      </c>
+      <c r="G759" t="s">
+        <v>247</v>
+      </c>
+      <c r="H759" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>957</v>
+      </c>
+      <c r="B760" t="s">
+        <v>21</v>
+      </c>
+      <c r="C760" t="s">
+        <v>560</v>
+      </c>
+      <c r="D760" t="s">
+        <v>561</v>
+      </c>
+      <c r="E760">
+        <v>-34.901000000000003</v>
+      </c>
+      <c r="F760">
+        <v>-56.164000000000001</v>
+      </c>
+      <c r="G760" t="s">
+        <v>35</v>
+      </c>
+      <c r="H760" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>900</v>
+      </c>
+      <c r="B761" t="s">
+        <v>21</v>
+      </c>
+      <c r="C761" t="s">
+        <v>876</v>
+      </c>
+      <c r="D761" t="s">
+        <v>532</v>
+      </c>
+      <c r="E761">
+        <v>-12.045999999999999</v>
+      </c>
+      <c r="F761">
+        <v>-77.042000000000002</v>
+      </c>
+      <c r="G761" t="s">
+        <v>172</v>
+      </c>
+      <c r="H761" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>958</v>
+      </c>
+      <c r="B762" t="s">
+        <v>21</v>
+      </c>
+      <c r="C762" t="s">
+        <v>732</v>
+      </c>
+      <c r="D762" t="s">
+        <v>348</v>
+      </c>
+      <c r="E762">
+        <v>-0.18</v>
+      </c>
+      <c r="F762">
+        <v>-78.466999999999999</v>
+      </c>
+      <c r="G762" t="s">
+        <v>74</v>
+      </c>
+      <c r="H762" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>959</v>
+      </c>
+      <c r="B763" t="s">
+        <v>21</v>
+      </c>
+      <c r="C763" t="s">
+        <v>88</v>
+      </c>
+      <c r="D763" t="s">
+        <v>345</v>
+      </c>
+      <c r="E763">
+        <v>10.4</v>
+      </c>
+      <c r="F763">
+        <v>-75.5</v>
+      </c>
+      <c r="G763" t="s">
+        <v>35</v>
+      </c>
+      <c r="H763" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>960</v>
+      </c>
+      <c r="B764" t="s">
+        <v>21</v>
+      </c>
+      <c r="C764" t="s">
+        <v>872</v>
+      </c>
+      <c r="D764" t="s">
+        <v>873</v>
+      </c>
+      <c r="E764">
+        <v>-33.448</v>
+      </c>
+      <c r="F764">
+        <v>-70.668999999999997</v>
+      </c>
+      <c r="G764" t="s">
+        <v>176</v>
+      </c>
+      <c r="H764" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>961</v>
+      </c>
+      <c r="B765" t="s">
+        <v>21</v>
+      </c>
+      <c r="C765" t="s">
+        <v>565</v>
+      </c>
+      <c r="D765" t="s">
+        <v>962</v>
+      </c>
+      <c r="E765">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="F765">
+        <v>-4.0270000000000001</v>
+      </c>
+      <c r="G765" t="s">
+        <v>468</v>
+      </c>
+      <c r="H765" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>562</v>
+      </c>
+      <c r="B766" t="s">
+        <v>21</v>
+      </c>
+      <c r="C766" t="s">
+        <v>237</v>
+      </c>
+      <c r="D766" t="s">
+        <v>238</v>
+      </c>
+      <c r="E766">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="F766">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G766" t="s">
+        <v>35</v>
+      </c>
+      <c r="H766" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>761</v>
+      </c>
+      <c r="B767" t="s">
+        <v>21</v>
+      </c>
+      <c r="C767" t="s">
+        <v>572</v>
+      </c>
+      <c r="D767" t="s">
+        <v>573</v>
+      </c>
+      <c r="E767">
+        <v>-1.0329999999999999</v>
+      </c>
+      <c r="F767">
+        <v>37.067</v>
+      </c>
+      <c r="G767" t="s">
+        <v>74</v>
+      </c>
+      <c r="H767" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>963</v>
+      </c>
+      <c r="B768" t="s">
+        <v>21</v>
+      </c>
+      <c r="C768" t="s">
+        <v>964</v>
+      </c>
+      <c r="D768" t="s">
+        <v>169</v>
+      </c>
+      <c r="E768">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F768">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G768" t="s">
+        <v>247</v>
+      </c>
+      <c r="H768" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>956</v>
+      </c>
+      <c r="B769" t="s">
+        <v>21</v>
+      </c>
+      <c r="C769" t="s">
+        <v>231</v>
+      </c>
+      <c r="D769" t="s">
+        <v>154</v>
+      </c>
+      <c r="E769">
+        <v>-27.2</v>
+      </c>
+      <c r="F769">
+        <v>-58.3</v>
+      </c>
+      <c r="G769" t="s">
+        <v>247</v>
+      </c>
+      <c r="H769" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>957</v>
+      </c>
+      <c r="B770" t="s">
+        <v>21</v>
+      </c>
+      <c r="C770" t="s">
+        <v>560</v>
+      </c>
+      <c r="D770" t="s">
+        <v>561</v>
+      </c>
+      <c r="E770">
+        <v>-34.901000000000003</v>
+      </c>
+      <c r="F770">
+        <v>-56.164000000000001</v>
+      </c>
+      <c r="G770" t="s">
+        <v>35</v>
+      </c>
+      <c r="H770" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>900</v>
+      </c>
+      <c r="B771" t="s">
+        <v>21</v>
+      </c>
+      <c r="C771" t="s">
+        <v>876</v>
+      </c>
+      <c r="D771" t="s">
+        <v>532</v>
+      </c>
+      <c r="E771">
+        <v>-12.045999999999999</v>
+      </c>
+      <c r="F771">
+        <v>-77.042000000000002</v>
+      </c>
+      <c r="G771" t="s">
+        <v>172</v>
+      </c>
+      <c r="H771" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>958</v>
+      </c>
+      <c r="B772" t="s">
+        <v>21</v>
+      </c>
+      <c r="C772" t="s">
+        <v>732</v>
+      </c>
+      <c r="D772" t="s">
+        <v>348</v>
+      </c>
+      <c r="E772">
+        <v>-0.18</v>
+      </c>
+      <c r="F772">
+        <v>-78.466999999999999</v>
+      </c>
+      <c r="G772" t="s">
+        <v>74</v>
+      </c>
+      <c r="H772" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>959</v>
+      </c>
+      <c r="B773" t="s">
+        <v>21</v>
+      </c>
+      <c r="C773" t="s">
+        <v>88</v>
+      </c>
+      <c r="D773" t="s">
+        <v>345</v>
+      </c>
+      <c r="E773">
+        <v>10.4</v>
+      </c>
+      <c r="F773">
+        <v>-75.5</v>
+      </c>
+      <c r="G773" t="s">
+        <v>35</v>
+      </c>
+      <c r="H773" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>960</v>
+      </c>
+      <c r="B774" t="s">
+        <v>21</v>
+      </c>
+      <c r="C774" t="s">
+        <v>872</v>
+      </c>
+      <c r="D774" t="s">
+        <v>873</v>
+      </c>
+      <c r="E774">
+        <v>-33.448</v>
+      </c>
+      <c r="F774">
+        <v>-70.668999999999997</v>
+      </c>
+      <c r="G774" t="s">
+        <v>176</v>
+      </c>
+      <c r="H774" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>961</v>
+      </c>
+      <c r="B775" t="s">
+        <v>21</v>
+      </c>
+      <c r="C775" t="s">
+        <v>565</v>
+      </c>
+      <c r="D775" t="s">
+        <v>962</v>
+      </c>
+      <c r="E775">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="F775">
+        <v>-4.0270000000000001</v>
+      </c>
+      <c r="G775" t="s">
+        <v>468</v>
+      </c>
+      <c r="H775" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>562</v>
+      </c>
+      <c r="B776" t="s">
+        <v>21</v>
+      </c>
+      <c r="C776" t="s">
+        <v>237</v>
+      </c>
+      <c r="D776" t="s">
+        <v>238</v>
+      </c>
+      <c r="E776">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="F776">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G776" t="s">
+        <v>35</v>
+      </c>
+      <c r="H776" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>761</v>
+      </c>
+      <c r="B777" t="s">
+        <v>21</v>
+      </c>
+      <c r="C777" t="s">
+        <v>572</v>
+      </c>
+      <c r="D777" t="s">
+        <v>573</v>
+      </c>
+      <c r="E777">
+        <v>-1.0329999999999999</v>
+      </c>
+      <c r="F777">
+        <v>37.067</v>
+      </c>
+      <c r="G777" t="s">
+        <v>74</v>
+      </c>
+      <c r="H777" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>963</v>
+      </c>
+      <c r="B778" t="s">
+        <v>21</v>
+      </c>
+      <c r="C778" t="s">
+        <v>964</v>
+      </c>
+      <c r="D778" t="s">
+        <v>169</v>
+      </c>
+      <c r="E778">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F778">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G778" t="s">
+        <v>247</v>
+      </c>
+      <c r="H778" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>956</v>
+      </c>
+      <c r="B779" t="s">
+        <v>21</v>
+      </c>
+      <c r="C779" t="s">
+        <v>231</v>
+      </c>
+      <c r="D779" t="s">
+        <v>154</v>
+      </c>
+      <c r="E779">
+        <v>-27.2</v>
+      </c>
+      <c r="F779">
+        <v>-58.3</v>
+      </c>
+      <c r="G779" t="s">
+        <v>247</v>
+      </c>
+      <c r="H779" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>957</v>
+      </c>
+      <c r="B780" t="s">
+        <v>21</v>
+      </c>
+      <c r="C780" t="s">
+        <v>560</v>
+      </c>
+      <c r="D780" t="s">
+        <v>561</v>
+      </c>
+      <c r="E780">
+        <v>-34.901000000000003</v>
+      </c>
+      <c r="F780">
+        <v>-56.164000000000001</v>
+      </c>
+      <c r="G780" t="s">
+        <v>35</v>
+      </c>
+      <c r="H780" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>900</v>
+      </c>
+      <c r="B781" t="s">
+        <v>21</v>
+      </c>
+      <c r="C781" t="s">
+        <v>876</v>
+      </c>
+      <c r="D781" t="s">
+        <v>532</v>
+      </c>
+      <c r="E781">
+        <v>-12.045999999999999</v>
+      </c>
+      <c r="F781">
+        <v>-77.042000000000002</v>
+      </c>
+      <c r="G781" t="s">
+        <v>172</v>
+      </c>
+      <c r="H781" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>958</v>
+      </c>
+      <c r="B782" t="s">
+        <v>21</v>
+      </c>
+      <c r="C782" t="s">
+        <v>732</v>
+      </c>
+      <c r="D782" t="s">
+        <v>348</v>
+      </c>
+      <c r="E782">
+        <v>-0.18</v>
+      </c>
+      <c r="F782">
+        <v>-78.466999999999999</v>
+      </c>
+      <c r="G782" t="s">
+        <v>74</v>
+      </c>
+      <c r="H782" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>959</v>
+      </c>
+      <c r="B783" t="s">
+        <v>21</v>
+      </c>
+      <c r="C783" t="s">
+        <v>88</v>
+      </c>
+      <c r="D783" t="s">
+        <v>345</v>
+      </c>
+      <c r="E783">
+        <v>10.4</v>
+      </c>
+      <c r="F783">
+        <v>-75.5</v>
+      </c>
+      <c r="G783" t="s">
+        <v>35</v>
+      </c>
+      <c r="H783" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>960</v>
+      </c>
+      <c r="B784" t="s">
+        <v>21</v>
+      </c>
+      <c r="C784" t="s">
+        <v>872</v>
+      </c>
+      <c r="D784" t="s">
+        <v>873</v>
+      </c>
+      <c r="E784">
+        <v>-33.448</v>
+      </c>
+      <c r="F784">
+        <v>-70.668999999999997</v>
+      </c>
+      <c r="G784" t="s">
+        <v>176</v>
+      </c>
+      <c r="H784" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>961</v>
+      </c>
+      <c r="B785" t="s">
+        <v>21</v>
+      </c>
+      <c r="C785" t="s">
+        <v>565</v>
+      </c>
+      <c r="D785" t="s">
+        <v>962</v>
+      </c>
+      <c r="E785">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="F785">
+        <v>-4.0270000000000001</v>
+      </c>
+      <c r="G785" t="s">
+        <v>468</v>
+      </c>
+      <c r="H785" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>562</v>
+      </c>
+      <c r="B786" t="s">
+        <v>21</v>
+      </c>
+      <c r="C786" t="s">
+        <v>237</v>
+      </c>
+      <c r="D786" t="s">
+        <v>238</v>
+      </c>
+      <c r="E786">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="F786">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G786" t="s">
+        <v>35</v>
+      </c>
+      <c r="H786" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>761</v>
+      </c>
+      <c r="B787" t="s">
+        <v>21</v>
+      </c>
+      <c r="C787" t="s">
+        <v>572</v>
+      </c>
+      <c r="D787" t="s">
+        <v>573</v>
+      </c>
+      <c r="E787">
+        <v>-1.0329999999999999</v>
+      </c>
+      <c r="F787">
+        <v>37.067</v>
+      </c>
+      <c r="G787" t="s">
+        <v>74</v>
+      </c>
+      <c r="H787" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>963</v>
+      </c>
+      <c r="B788" t="s">
+        <v>21</v>
+      </c>
+      <c r="C788" t="s">
+        <v>964</v>
+      </c>
+      <c r="D788" t="s">
+        <v>169</v>
+      </c>
+      <c r="E788">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F788">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G788" t="s">
+        <v>247</v>
+      </c>
+      <c r="H788" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>956</v>
+      </c>
+      <c r="B789" t="s">
+        <v>21</v>
+      </c>
+      <c r="C789" t="s">
+        <v>231</v>
+      </c>
+      <c r="D789" t="s">
+        <v>154</v>
+      </c>
+      <c r="E789">
+        <v>-27.2</v>
+      </c>
+      <c r="F789">
+        <v>-58.3</v>
+      </c>
+      <c r="G789" t="s">
+        <v>247</v>
+      </c>
+      <c r="H789" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>957</v>
+      </c>
+      <c r="B790" t="s">
+        <v>21</v>
+      </c>
+      <c r="C790" t="s">
+        <v>560</v>
+      </c>
+      <c r="D790" t="s">
+        <v>561</v>
+      </c>
+      <c r="E790">
+        <v>-34.901000000000003</v>
+      </c>
+      <c r="F790">
+        <v>-56.164000000000001</v>
+      </c>
+      <c r="G790" t="s">
+        <v>35</v>
+      </c>
+      <c r="H790" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>900</v>
+      </c>
+      <c r="B791" t="s">
+        <v>21</v>
+      </c>
+      <c r="C791" t="s">
+        <v>876</v>
+      </c>
+      <c r="D791" t="s">
+        <v>532</v>
+      </c>
+      <c r="E791">
+        <v>-12.045999999999999</v>
+      </c>
+      <c r="F791">
+        <v>-77.042000000000002</v>
+      </c>
+      <c r="G791" t="s">
+        <v>172</v>
+      </c>
+      <c r="H791" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>958</v>
+      </c>
+      <c r="B792" t="s">
+        <v>21</v>
+      </c>
+      <c r="C792" t="s">
+        <v>732</v>
+      </c>
+      <c r="D792" t="s">
+        <v>348</v>
+      </c>
+      <c r="E792">
+        <v>-0.18</v>
+      </c>
+      <c r="F792">
+        <v>-78.466999999999999</v>
+      </c>
+      <c r="G792" t="s">
+        <v>74</v>
+      </c>
+      <c r="H792" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>959</v>
+      </c>
+      <c r="B793" t="s">
+        <v>21</v>
+      </c>
+      <c r="C793" t="s">
+        <v>88</v>
+      </c>
+      <c r="D793" t="s">
+        <v>345</v>
+      </c>
+      <c r="E793">
+        <v>10.4</v>
+      </c>
+      <c r="F793">
+        <v>-75.5</v>
+      </c>
+      <c r="G793" t="s">
+        <v>35</v>
+      </c>
+      <c r="H793" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>960</v>
+      </c>
+      <c r="B794" t="s">
+        <v>21</v>
+      </c>
+      <c r="C794" t="s">
+        <v>872</v>
+      </c>
+      <c r="D794" t="s">
+        <v>873</v>
+      </c>
+      <c r="E794">
+        <v>-33.448</v>
+      </c>
+      <c r="F794">
+        <v>-70.668999999999997</v>
+      </c>
+      <c r="G794" t="s">
+        <v>176</v>
+      </c>
+      <c r="H794" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>961</v>
+      </c>
+      <c r="B795" t="s">
+        <v>21</v>
+      </c>
+      <c r="C795" t="s">
+        <v>565</v>
+      </c>
+      <c r="D795" t="s">
+        <v>962</v>
+      </c>
+      <c r="E795">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="F795">
+        <v>-4.0270000000000001</v>
+      </c>
+      <c r="G795" t="s">
+        <v>468</v>
+      </c>
+      <c r="H795" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>562</v>
+      </c>
+      <c r="B796" t="s">
+        <v>21</v>
+      </c>
+      <c r="C796" t="s">
+        <v>237</v>
+      </c>
+      <c r="D796" t="s">
+        <v>238</v>
+      </c>
+      <c r="E796">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="F796">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G796" t="s">
+        <v>35</v>
+      </c>
+      <c r="H796" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>761</v>
+      </c>
+      <c r="B797" t="s">
+        <v>21</v>
+      </c>
+      <c r="C797" t="s">
+        <v>572</v>
+      </c>
+      <c r="D797" t="s">
+        <v>573</v>
+      </c>
+      <c r="E797">
+        <v>-1.0329999999999999</v>
+      </c>
+      <c r="F797">
+        <v>37.067</v>
+      </c>
+      <c r="G797" t="s">
+        <v>74</v>
+      </c>
+      <c r="H797" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>963</v>
+      </c>
+      <c r="B798" t="s">
+        <v>21</v>
+      </c>
+      <c r="C798" t="s">
+        <v>964</v>
+      </c>
+      <c r="D798" t="s">
+        <v>169</v>
+      </c>
+      <c r="E798">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F798">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G798" t="s">
+        <v>247</v>
+      </c>
+      <c r="H798" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>956</v>
+      </c>
+      <c r="B799" t="s">
+        <v>21</v>
+      </c>
+      <c r="C799" t="s">
+        <v>231</v>
+      </c>
+      <c r="D799" t="s">
+        <v>154</v>
+      </c>
+      <c r="E799">
+        <v>-27.2</v>
+      </c>
+      <c r="F799">
+        <v>-58.3</v>
+      </c>
+      <c r="G799" t="s">
+        <v>247</v>
+      </c>
+      <c r="H799" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>957</v>
+      </c>
+      <c r="B800" t="s">
+        <v>21</v>
+      </c>
+      <c r="C800" t="s">
+        <v>560</v>
+      </c>
+      <c r="D800" t="s">
+        <v>561</v>
+      </c>
+      <c r="E800">
+        <v>-34.901000000000003</v>
+      </c>
+      <c r="F800">
+        <v>-56.164000000000001</v>
+      </c>
+      <c r="G800" t="s">
+        <v>35</v>
+      </c>
+      <c r="H800" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>900</v>
+      </c>
+      <c r="B801" t="s">
+        <v>21</v>
+      </c>
+      <c r="C801" t="s">
+        <v>876</v>
+      </c>
+      <c r="D801" t="s">
+        <v>532</v>
+      </c>
+      <c r="E801">
+        <v>-12.045999999999999</v>
+      </c>
+      <c r="F801">
+        <v>-77.042000000000002</v>
+      </c>
+      <c r="G801" t="s">
+        <v>172</v>
+      </c>
+      <c r="H801" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>958</v>
+      </c>
+      <c r="B802" t="s">
+        <v>21</v>
+      </c>
+      <c r="C802" t="s">
+        <v>732</v>
+      </c>
+      <c r="D802" t="s">
+        <v>348</v>
+      </c>
+      <c r="E802">
+        <v>-0.18</v>
+      </c>
+      <c r="F802">
+        <v>-78.466999999999999</v>
+      </c>
+      <c r="G802" t="s">
+        <v>74</v>
+      </c>
+      <c r="H802" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>959</v>
+      </c>
+      <c r="B803" t="s">
+        <v>21</v>
+      </c>
+      <c r="C803" t="s">
+        <v>88</v>
+      </c>
+      <c r="D803" t="s">
+        <v>345</v>
+      </c>
+      <c r="E803">
+        <v>10.4</v>
+      </c>
+      <c r="F803">
+        <v>-75.5</v>
+      </c>
+      <c r="G803" t="s">
+        <v>35</v>
+      </c>
+      <c r="H803" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>960</v>
+      </c>
+      <c r="B804" t="s">
+        <v>21</v>
+      </c>
+      <c r="C804" t="s">
+        <v>872</v>
+      </c>
+      <c r="D804" t="s">
+        <v>873</v>
+      </c>
+      <c r="E804">
+        <v>-33.448</v>
+      </c>
+      <c r="F804">
+        <v>-70.668999999999997</v>
+      </c>
+      <c r="G804" t="s">
+        <v>176</v>
+      </c>
+      <c r="H804" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>961</v>
+      </c>
+      <c r="B805" t="s">
+        <v>21</v>
+      </c>
+      <c r="C805" t="s">
+        <v>565</v>
+      </c>
+      <c r="D805" t="s">
+        <v>962</v>
+      </c>
+      <c r="E805">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="F805">
+        <v>-4.0270000000000001</v>
+      </c>
+      <c r="G805" t="s">
+        <v>468</v>
+      </c>
+      <c r="H805" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>562</v>
+      </c>
+      <c r="B806" t="s">
+        <v>21</v>
+      </c>
+      <c r="C806" t="s">
+        <v>237</v>
+      </c>
+      <c r="D806" t="s">
+        <v>238</v>
+      </c>
+      <c r="E806">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="F806">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="G806" t="s">
+        <v>35</v>
+      </c>
+      <c r="H806" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>761</v>
+      </c>
+      <c r="B807" t="s">
+        <v>21</v>
+      </c>
+      <c r="C807" t="s">
+        <v>572</v>
+      </c>
+      <c r="D807" t="s">
+        <v>573</v>
+      </c>
+      <c r="E807">
+        <v>-1.0329999999999999</v>
+      </c>
+      <c r="F807">
+        <v>37.067</v>
+      </c>
+      <c r="G807" t="s">
+        <v>74</v>
+      </c>
+      <c r="H807" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>897</v>
+      </c>
+      <c r="B808" t="s">
+        <v>21</v>
+      </c>
+      <c r="C808" t="s">
+        <v>864</v>
+      </c>
+      <c r="D808" t="s">
+        <v>865</v>
+      </c>
+      <c r="E808">
+        <v>-15.717000000000001</v>
+      </c>
+      <c r="F808">
+        <v>46.317</v>
+      </c>
+      <c r="G808" t="s">
+        <v>52</v>
+      </c>
+      <c r="H808" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>965</v>
+      </c>
+      <c r="B809" t="s">
+        <v>21</v>
+      </c>
+      <c r="C809" t="s">
+        <v>868</v>
+      </c>
+      <c r="D809" t="s">
+        <v>869</v>
+      </c>
+      <c r="E809">
+        <v>-19.821999999999999</v>
+      </c>
+      <c r="F809">
+        <v>34.838000000000001</v>
+      </c>
+      <c r="G809" t="s">
+        <v>204</v>
+      </c>
+      <c r="H809" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>966</v>
+      </c>
+      <c r="B810" t="s">
+        <v>21</v>
+      </c>
+      <c r="C810" t="s">
+        <v>967</v>
+      </c>
+      <c r="D810" t="s">
+        <v>604</v>
+      </c>
+      <c r="E810">
+        <v>-15.387</v>
+      </c>
+      <c r="F810">
+        <v>28.321999999999999</v>
+      </c>
+      <c r="G810" t="s">
+        <v>74</v>
+      </c>
+      <c r="H810" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>968</v>
+      </c>
+      <c r="B811" t="s">
+        <v>21</v>
+      </c>
+      <c r="C811" t="s">
+        <v>969</v>
+      </c>
+      <c r="D811" t="s">
+        <v>970</v>
+      </c>
+      <c r="E811">
+        <v>-24.658000000000001</v>
+      </c>
+      <c r="F811">
+        <v>25.908000000000001</v>
+      </c>
+      <c r="G811" t="s">
+        <v>59</v>
+      </c>
+      <c r="H811" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>971</v>
+      </c>
+      <c r="B812" t="s">
+        <v>21</v>
+      </c>
+      <c r="C812" t="s">
+        <v>582</v>
+      </c>
+      <c r="D812" t="s">
+        <v>583</v>
+      </c>
+      <c r="E812">
+        <v>-6.7919999999999998</v>
+      </c>
+      <c r="F812">
+        <v>39.207999999999998</v>
+      </c>
+      <c r="G812" t="s">
+        <v>71</v>
+      </c>
+      <c r="H812" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>972</v>
+      </c>
+      <c r="B813" t="s">
+        <v>21</v>
+      </c>
+      <c r="C813" t="s">
+        <v>973</v>
+      </c>
+      <c r="D813" t="s">
+        <v>974</v>
+      </c>
+      <c r="E813">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F813">
+        <v>38.74</v>
+      </c>
+      <c r="G813" t="s">
+        <v>975</v>
+      </c>
+      <c r="H813" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>896</v>
+      </c>
+      <c r="B814" t="s">
+        <v>21</v>
+      </c>
+      <c r="C814" t="s">
+        <v>860</v>
+      </c>
+      <c r="D814" t="s">
+        <v>861</v>
+      </c>
+      <c r="E814">
+        <v>2.04</v>
+      </c>
+      <c r="F814">
+        <v>45.343000000000004</v>
+      </c>
+      <c r="G814" t="s">
+        <v>11</v>
+      </c>
+      <c r="H814" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>836</v>
+      </c>
+      <c r="B815" t="s">
+        <v>21</v>
+      </c>
+      <c r="C815" t="s">
+        <v>809</v>
+      </c>
+      <c r="D815" t="s">
+        <v>619</v>
+      </c>
+      <c r="E815">
+        <v>30.033000000000001</v>
+      </c>
+      <c r="F815">
+        <v>31.233000000000001</v>
+      </c>
+      <c r="G815" t="s">
+        <v>35</v>
+      </c>
+      <c r="H815" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>940</v>
+      </c>
+      <c r="B816" t="s">
+        <v>21</v>
+      </c>
+      <c r="C816" t="s">
+        <v>925</v>
+      </c>
+      <c r="D816" t="s">
+        <v>926</v>
+      </c>
+      <c r="E816">
+        <v>32.875</v>
+      </c>
+      <c r="F816">
+        <v>13.186999999999999</v>
+      </c>
+      <c r="G816" t="s">
+        <v>52</v>
+      </c>
+      <c r="H816" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>838</v>
+      </c>
+      <c r="B817" t="s">
+        <v>21</v>
+      </c>
+      <c r="C817" t="s">
+        <v>816</v>
+      </c>
+      <c r="D817" t="s">
+        <v>616</v>
+      </c>
+      <c r="E817">
+        <v>36.805999999999997</v>
+      </c>
+      <c r="F817">
+        <v>10.180999999999999</v>
+      </c>
+      <c r="G817" t="s">
+        <v>227</v>
+      </c>
+      <c r="H817" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>608</v>
+      </c>
+      <c r="B818" t="s">
+        <v>21</v>
+      </c>
+      <c r="C818" t="s">
+        <v>609</v>
+      </c>
+      <c r="D818" t="s">
+        <v>610</v>
+      </c>
+      <c r="E818">
+        <v>33.573</v>
+      </c>
+      <c r="F818">
+        <v>-7.5890000000000004</v>
+      </c>
+      <c r="G818" t="s">
+        <v>468</v>
+      </c>
+      <c r="H818" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>976</v>
+      </c>
+      <c r="B819" t="s">
+        <v>21</v>
+      </c>
+      <c r="C819" t="s">
+        <v>612</v>
+      </c>
+      <c r="D819" t="s">
+        <v>613</v>
+      </c>
+      <c r="E819">
+        <v>36.755000000000003</v>
+      </c>
+      <c r="F819">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="G819" t="s">
+        <v>172</v>
+      </c>
+      <c r="H819" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>977</v>
+      </c>
+      <c r="B820" t="s">
+        <v>21</v>
+      </c>
+      <c r="C820" t="s">
+        <v>978</v>
+      </c>
+      <c r="D820" t="s">
+        <v>979</v>
+      </c>
+      <c r="E820">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F820">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="G820" t="s">
+        <v>204</v>
+      </c>
+      <c r="H820" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>894</v>
+      </c>
+      <c r="B821" t="s">
+        <v>21</v>
+      </c>
+      <c r="C821" t="s">
+        <v>627</v>
+      </c>
+      <c r="D821" t="s">
+        <v>628</v>
+      </c>
+      <c r="E821">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="F821">
+        <v>39.192</v>
+      </c>
+      <c r="G821" t="s">
+        <v>35</v>
+      </c>
+      <c r="H821" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>980</v>
+      </c>
+      <c r="B822" t="s">
+        <v>21</v>
+      </c>
+      <c r="C822" t="s">
+        <v>278</v>
+      </c>
+      <c r="D822" t="s">
+        <v>279</v>
+      </c>
+      <c r="E822">
+        <v>38.418999999999997</v>
+      </c>
+      <c r="F822">
+        <v>27.128</v>
+      </c>
+      <c r="G822" t="s">
+        <v>247</v>
+      </c>
+      <c r="H822" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>963</v>
+      </c>
+      <c r="B823" t="s">
+        <v>21</v>
+      </c>
+      <c r="C823" t="s">
+        <v>964</v>
+      </c>
+      <c r="D823" t="s">
+        <v>169</v>
+      </c>
+      <c r="E823">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F823">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G823" t="s">
+        <v>247</v>
+      </c>
+      <c r="H823" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>897</v>
+      </c>
+      <c r="B824" t="s">
+        <v>21</v>
+      </c>
+      <c r="C824" t="s">
+        <v>864</v>
+      </c>
+      <c r="D824" t="s">
+        <v>865</v>
+      </c>
+      <c r="E824">
+        <v>-15.717000000000001</v>
+      </c>
+      <c r="F824">
+        <v>46.317</v>
+      </c>
+      <c r="G824" t="s">
+        <v>52</v>
+      </c>
+      <c r="H824" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>965</v>
+      </c>
+      <c r="B825" t="s">
+        <v>21</v>
+      </c>
+      <c r="C825" t="s">
+        <v>868</v>
+      </c>
+      <c r="D825" t="s">
+        <v>869</v>
+      </c>
+      <c r="E825">
+        <v>-19.821999999999999</v>
+      </c>
+      <c r="F825">
+        <v>34.838000000000001</v>
+      </c>
+      <c r="G825" t="s">
+        <v>204</v>
+      </c>
+      <c r="H825" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>966</v>
+      </c>
+      <c r="B826" t="s">
+        <v>21</v>
+      </c>
+      <c r="C826" t="s">
+        <v>967</v>
+      </c>
+      <c r="D826" t="s">
+        <v>604</v>
+      </c>
+      <c r="E826">
+        <v>-15.387</v>
+      </c>
+      <c r="F826">
+        <v>28.321999999999999</v>
+      </c>
+      <c r="G826" t="s">
+        <v>74</v>
+      </c>
+      <c r="H826" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>968</v>
+      </c>
+      <c r="B827" t="s">
+        <v>21</v>
+      </c>
+      <c r="C827" t="s">
+        <v>969</v>
+      </c>
+      <c r="D827" t="s">
+        <v>970</v>
+      </c>
+      <c r="E827">
+        <v>-24.658000000000001</v>
+      </c>
+      <c r="F827">
+        <v>25.908000000000001</v>
+      </c>
+      <c r="G827" t="s">
+        <v>59</v>
+      </c>
+      <c r="H827" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>971</v>
+      </c>
+      <c r="B828" t="s">
+        <v>21</v>
+      </c>
+      <c r="C828" t="s">
+        <v>582</v>
+      </c>
+      <c r="D828" t="s">
+        <v>583</v>
+      </c>
+      <c r="E828">
+        <v>-6.7919999999999998</v>
+      </c>
+      <c r="F828">
+        <v>39.207999999999998</v>
+      </c>
+      <c r="G828" t="s">
+        <v>71</v>
+      </c>
+      <c r="H828" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>972</v>
+      </c>
+      <c r="B829" t="s">
+        <v>21</v>
+      </c>
+      <c r="C829" t="s">
+        <v>973</v>
+      </c>
+      <c r="D829" t="s">
+        <v>974</v>
+      </c>
+      <c r="E829">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F829">
+        <v>38.74</v>
+      </c>
+      <c r="G829" t="s">
+        <v>975</v>
+      </c>
+      <c r="H829" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>896</v>
+      </c>
+      <c r="B830" t="s">
+        <v>21</v>
+      </c>
+      <c r="C830" t="s">
+        <v>860</v>
+      </c>
+      <c r="D830" t="s">
+        <v>861</v>
+      </c>
+      <c r="E830">
+        <v>2.04</v>
+      </c>
+      <c r="F830">
+        <v>45.343000000000004</v>
+      </c>
+      <c r="G830" t="s">
+        <v>11</v>
+      </c>
+      <c r="H830" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>836</v>
+      </c>
+      <c r="B831" t="s">
+        <v>21</v>
+      </c>
+      <c r="C831" t="s">
+        <v>809</v>
+      </c>
+      <c r="D831" t="s">
+        <v>619</v>
+      </c>
+      <c r="E831">
+        <v>30.033000000000001</v>
+      </c>
+      <c r="F831">
+        <v>31.233000000000001</v>
+      </c>
+      <c r="G831" t="s">
+        <v>35</v>
+      </c>
+      <c r="H831" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>940</v>
+      </c>
+      <c r="B832" t="s">
+        <v>21</v>
+      </c>
+      <c r="C832" t="s">
+        <v>925</v>
+      </c>
+      <c r="D832" t="s">
+        <v>926</v>
+      </c>
+      <c r="E832">
+        <v>32.875</v>
+      </c>
+      <c r="F832">
+        <v>13.186999999999999</v>
+      </c>
+      <c r="G832" t="s">
+        <v>52</v>
+      </c>
+      <c r="H832" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>838</v>
+      </c>
+      <c r="B833" t="s">
+        <v>21</v>
+      </c>
+      <c r="C833" t="s">
+        <v>816</v>
+      </c>
+      <c r="D833" t="s">
+        <v>616</v>
+      </c>
+      <c r="E833">
+        <v>36.805999999999997</v>
+      </c>
+      <c r="F833">
+        <v>10.180999999999999</v>
+      </c>
+      <c r="G833" t="s">
+        <v>227</v>
+      </c>
+      <c r="H833" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>608</v>
+      </c>
+      <c r="B834" t="s">
+        <v>21</v>
+      </c>
+      <c r="C834" t="s">
+        <v>609</v>
+      </c>
+      <c r="D834" t="s">
+        <v>610</v>
+      </c>
+      <c r="E834">
+        <v>33.573</v>
+      </c>
+      <c r="F834">
+        <v>-7.5890000000000004</v>
+      </c>
+      <c r="G834" t="s">
+        <v>468</v>
+      </c>
+      <c r="H834" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>976</v>
+      </c>
+      <c r="B835" t="s">
+        <v>21</v>
+      </c>
+      <c r="C835" t="s">
+        <v>612</v>
+      </c>
+      <c r="D835" t="s">
+        <v>613</v>
+      </c>
+      <c r="E835">
+        <v>36.755000000000003</v>
+      </c>
+      <c r="F835">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="G835" t="s">
+        <v>172</v>
+      </c>
+      <c r="H835" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>977</v>
+      </c>
+      <c r="B836" t="s">
+        <v>21</v>
+      </c>
+      <c r="C836" t="s">
+        <v>978</v>
+      </c>
+      <c r="D836" t="s">
+        <v>979</v>
+      </c>
+      <c r="E836">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F836">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="G836" t="s">
+        <v>204</v>
+      </c>
+      <c r="H836" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>894</v>
+      </c>
+      <c r="B837" t="s">
+        <v>21</v>
+      </c>
+      <c r="C837" t="s">
+        <v>627</v>
+      </c>
+      <c r="D837" t="s">
+        <v>628</v>
+      </c>
+      <c r="E837">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="F837">
+        <v>39.192</v>
+      </c>
+      <c r="G837" t="s">
+        <v>35</v>
+      </c>
+      <c r="H837" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>980</v>
+      </c>
+      <c r="B838" t="s">
+        <v>21</v>
+      </c>
+      <c r="C838" t="s">
+        <v>278</v>
+      </c>
+      <c r="D838" t="s">
+        <v>279</v>
+      </c>
+      <c r="E838">
+        <v>38.418999999999997</v>
+      </c>
+      <c r="F838">
+        <v>27.128</v>
+      </c>
+      <c r="G838" t="s">
+        <v>247</v>
+      </c>
+      <c r="H838" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>963</v>
+      </c>
+      <c r="B839" t="s">
+        <v>21</v>
+      </c>
+      <c r="C839" t="s">
+        <v>964</v>
+      </c>
+      <c r="D839" t="s">
+        <v>169</v>
+      </c>
+      <c r="E839">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F839">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G839" t="s">
+        <v>247</v>
+      </c>
+      <c r="H839" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>897</v>
+      </c>
+      <c r="B840" t="s">
+        <v>21</v>
+      </c>
+      <c r="C840" t="s">
+        <v>864</v>
+      </c>
+      <c r="D840" t="s">
+        <v>865</v>
+      </c>
+      <c r="E840">
+        <v>-15.717000000000001</v>
+      </c>
+      <c r="F840">
+        <v>46.317</v>
+      </c>
+      <c r="G840" t="s">
+        <v>52</v>
+      </c>
+      <c r="H840" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>965</v>
+      </c>
+      <c r="B841" t="s">
+        <v>21</v>
+      </c>
+      <c r="C841" t="s">
+        <v>868</v>
+      </c>
+      <c r="D841" t="s">
+        <v>869</v>
+      </c>
+      <c r="E841">
+        <v>-19.821999999999999</v>
+      </c>
+      <c r="F841">
+        <v>34.838000000000001</v>
+      </c>
+      <c r="G841" t="s">
+        <v>204</v>
+      </c>
+      <c r="H841" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>966</v>
+      </c>
+      <c r="B842" t="s">
+        <v>21</v>
+      </c>
+      <c r="C842" t="s">
+        <v>967</v>
+      </c>
+      <c r="D842" t="s">
+        <v>604</v>
+      </c>
+      <c r="E842">
+        <v>-15.387</v>
+      </c>
+      <c r="F842">
+        <v>28.321999999999999</v>
+      </c>
+      <c r="G842" t="s">
+        <v>74</v>
+      </c>
+      <c r="H842" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>968</v>
+      </c>
+      <c r="B843" t="s">
+        <v>21</v>
+      </c>
+      <c r="C843" t="s">
+        <v>969</v>
+      </c>
+      <c r="D843" t="s">
+        <v>970</v>
+      </c>
+      <c r="E843">
+        <v>-24.658000000000001</v>
+      </c>
+      <c r="F843">
+        <v>25.908000000000001</v>
+      </c>
+      <c r="G843" t="s">
+        <v>59</v>
+      </c>
+      <c r="H843" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>971</v>
+      </c>
+      <c r="B844" t="s">
+        <v>21</v>
+      </c>
+      <c r="C844" t="s">
+        <v>582</v>
+      </c>
+      <c r="D844" t="s">
+        <v>583</v>
+      </c>
+      <c r="E844">
+        <v>-6.7919999999999998</v>
+      </c>
+      <c r="F844">
+        <v>39.207999999999998</v>
+      </c>
+      <c r="G844" t="s">
+        <v>71</v>
+      </c>
+      <c r="H844" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>972</v>
+      </c>
+      <c r="B845" t="s">
+        <v>21</v>
+      </c>
+      <c r="C845" t="s">
+        <v>973</v>
+      </c>
+      <c r="D845" t="s">
+        <v>974</v>
+      </c>
+      <c r="E845">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F845">
+        <v>38.74</v>
+      </c>
+      <c r="G845" t="s">
+        <v>975</v>
+      </c>
+      <c r="H845" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>896</v>
+      </c>
+      <c r="B846" t="s">
+        <v>21</v>
+      </c>
+      <c r="C846" t="s">
+        <v>860</v>
+      </c>
+      <c r="D846" t="s">
+        <v>861</v>
+      </c>
+      <c r="E846">
+        <v>2.04</v>
+      </c>
+      <c r="F846">
+        <v>45.343000000000004</v>
+      </c>
+      <c r="G846" t="s">
+        <v>11</v>
+      </c>
+      <c r="H846" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>836</v>
+      </c>
+      <c r="B847" t="s">
+        <v>21</v>
+      </c>
+      <c r="C847" t="s">
+        <v>809</v>
+      </c>
+      <c r="D847" t="s">
+        <v>619</v>
+      </c>
+      <c r="E847">
+        <v>30.033000000000001</v>
+      </c>
+      <c r="F847">
+        <v>31.233000000000001</v>
+      </c>
+      <c r="G847" t="s">
+        <v>35</v>
+      </c>
+      <c r="H847" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>940</v>
+      </c>
+      <c r="B848" t="s">
+        <v>21</v>
+      </c>
+      <c r="C848" t="s">
+        <v>925</v>
+      </c>
+      <c r="D848" t="s">
+        <v>926</v>
+      </c>
+      <c r="E848">
+        <v>32.875</v>
+      </c>
+      <c r="F848">
+        <v>13.186999999999999</v>
+      </c>
+      <c r="G848" t="s">
+        <v>52</v>
+      </c>
+      <c r="H848" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>838</v>
+      </c>
+      <c r="B849" t="s">
+        <v>21</v>
+      </c>
+      <c r="C849" t="s">
+        <v>816</v>
+      </c>
+      <c r="D849" t="s">
+        <v>616</v>
+      </c>
+      <c r="E849">
+        <v>36.805999999999997</v>
+      </c>
+      <c r="F849">
+        <v>10.180999999999999</v>
+      </c>
+      <c r="G849" t="s">
+        <v>227</v>
+      </c>
+      <c r="H849" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>608</v>
+      </c>
+      <c r="B850" t="s">
+        <v>21</v>
+      </c>
+      <c r="C850" t="s">
+        <v>609</v>
+      </c>
+      <c r="D850" t="s">
+        <v>610</v>
+      </c>
+      <c r="E850">
+        <v>33.573</v>
+      </c>
+      <c r="F850">
+        <v>-7.5890000000000004</v>
+      </c>
+      <c r="G850" t="s">
+        <v>468</v>
+      </c>
+      <c r="H850" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>976</v>
+      </c>
+      <c r="B851" t="s">
+        <v>21</v>
+      </c>
+      <c r="C851" t="s">
+        <v>612</v>
+      </c>
+      <c r="D851" t="s">
+        <v>613</v>
+      </c>
+      <c r="E851">
+        <v>36.755000000000003</v>
+      </c>
+      <c r="F851">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="G851" t="s">
+        <v>172</v>
+      </c>
+      <c r="H851" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>977</v>
+      </c>
+      <c r="B852" t="s">
+        <v>21</v>
+      </c>
+      <c r="C852" t="s">
+        <v>978</v>
+      </c>
+      <c r="D852" t="s">
+        <v>979</v>
+      </c>
+      <c r="E852">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F852">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="G852" t="s">
+        <v>204</v>
+      </c>
+      <c r="H852" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>894</v>
+      </c>
+      <c r="B853" t="s">
+        <v>21</v>
+      </c>
+      <c r="C853" t="s">
+        <v>627</v>
+      </c>
+      <c r="D853" t="s">
+        <v>628</v>
+      </c>
+      <c r="E853">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="F853">
+        <v>39.192</v>
+      </c>
+      <c r="G853" t="s">
+        <v>35</v>
+      </c>
+      <c r="H853" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>980</v>
+      </c>
+      <c r="B854" t="s">
+        <v>21</v>
+      </c>
+      <c r="C854" t="s">
+        <v>278</v>
+      </c>
+      <c r="D854" t="s">
+        <v>279</v>
+      </c>
+      <c r="E854">
+        <v>38.418999999999997</v>
+      </c>
+      <c r="F854">
+        <v>27.128</v>
+      </c>
+      <c r="G854" t="s">
+        <v>247</v>
+      </c>
+      <c r="H854" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>963</v>
+      </c>
+      <c r="B855" t="s">
+        <v>21</v>
+      </c>
+      <c r="C855" t="s">
+        <v>964</v>
+      </c>
+      <c r="D855" t="s">
+        <v>169</v>
+      </c>
+      <c r="E855">
+        <v>-26.204000000000001</v>
+      </c>
+      <c r="F855">
+        <v>28.047000000000001</v>
+      </c>
+      <c r="G855" t="s">
+        <v>247</v>
+      </c>
+      <c r="H855" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>897</v>
+      </c>
+      <c r="B856" t="s">
+        <v>21</v>
+      </c>
+      <c r="C856" t="s">
+        <v>864</v>
+      </c>
+      <c r="D856" t="s">
+        <v>865</v>
+      </c>
+      <c r="E856">
+        <v>-15.717000000000001</v>
+      </c>
+      <c r="F856">
+        <v>46.317</v>
+      </c>
+      <c r="G856" t="s">
+        <v>52</v>
+      </c>
+      <c r="H856" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>965</v>
+      </c>
+      <c r="B857" t="s">
+        <v>21</v>
+      </c>
+      <c r="C857" t="s">
+        <v>868</v>
+      </c>
+      <c r="D857" t="s">
+        <v>869</v>
+      </c>
+      <c r="E857">
+        <v>-19.821999999999999</v>
+      </c>
+      <c r="F857">
+        <v>34.838000000000001</v>
+      </c>
+      <c r="G857" t="s">
+        <v>204</v>
+      </c>
+      <c r="H857" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>966</v>
+      </c>
+      <c r="B858" t="s">
+        <v>21</v>
+      </c>
+      <c r="C858" t="s">
+        <v>967</v>
+      </c>
+      <c r="D858" t="s">
+        <v>604</v>
+      </c>
+      <c r="E858">
+        <v>-15.387</v>
+      </c>
+      <c r="F858">
+        <v>28.321999999999999</v>
+      </c>
+      <c r="G858" t="s">
+        <v>74</v>
+      </c>
+      <c r="H858" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>968</v>
+      </c>
+      <c r="B859" t="s">
+        <v>21</v>
+      </c>
+      <c r="C859" t="s">
+        <v>969</v>
+      </c>
+      <c r="D859" t="s">
+        <v>970</v>
+      </c>
+      <c r="E859">
+        <v>-24.658000000000001</v>
+      </c>
+      <c r="F859">
+        <v>25.908000000000001</v>
+      </c>
+      <c r="G859" t="s">
+        <v>59</v>
+      </c>
+      <c r="H859" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>971</v>
+      </c>
+      <c r="B860" t="s">
+        <v>21</v>
+      </c>
+      <c r="C860" t="s">
+        <v>582</v>
+      </c>
+      <c r="D860" t="s">
+        <v>583</v>
+      </c>
+      <c r="E860">
+        <v>-6.7919999999999998</v>
+      </c>
+      <c r="F860">
+        <v>39.207999999999998</v>
+      </c>
+      <c r="G860" t="s">
+        <v>71</v>
+      </c>
+      <c r="H860" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>972</v>
+      </c>
+      <c r="B861" t="s">
+        <v>21</v>
+      </c>
+      <c r="C861" t="s">
+        <v>973</v>
+      </c>
+      <c r="D861" t="s">
+        <v>974</v>
+      </c>
+      <c r="E861">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F861">
+        <v>38.74</v>
+      </c>
+      <c r="G861" t="s">
+        <v>975</v>
+      </c>
+      <c r="H861" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>896</v>
+      </c>
+      <c r="B862" t="s">
+        <v>21</v>
+      </c>
+      <c r="C862" t="s">
+        <v>860</v>
+      </c>
+      <c r="D862" t="s">
+        <v>861</v>
+      </c>
+      <c r="E862">
+        <v>2.04</v>
+      </c>
+      <c r="F862">
+        <v>45.343000000000004</v>
+      </c>
+      <c r="G862" t="s">
+        <v>11</v>
+      </c>
+      <c r="H862" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>836</v>
+      </c>
+      <c r="B863" t="s">
+        <v>21</v>
+      </c>
+      <c r="C863" t="s">
+        <v>809</v>
+      </c>
+      <c r="D863" t="s">
+        <v>619</v>
+      </c>
+      <c r="E863">
+        <v>30.033000000000001</v>
+      </c>
+      <c r="F863">
+        <v>31.233000000000001</v>
+      </c>
+      <c r="G863" t="s">
+        <v>35</v>
+      </c>
+      <c r="H863" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>940</v>
+      </c>
+      <c r="B864" t="s">
+        <v>21</v>
+      </c>
+      <c r="C864" t="s">
+        <v>925</v>
+      </c>
+      <c r="D864" t="s">
+        <v>926</v>
+      </c>
+      <c r="E864">
+        <v>32.875</v>
+      </c>
+      <c r="F864">
+        <v>13.186999999999999</v>
+      </c>
+      <c r="G864" t="s">
+        <v>52</v>
+      </c>
+      <c r="H864" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>838</v>
+      </c>
+      <c r="B865" t="s">
+        <v>21</v>
+      </c>
+      <c r="C865" t="s">
+        <v>816</v>
+      </c>
+      <c r="D865" t="s">
+        <v>616</v>
+      </c>
+      <c r="E865">
+        <v>36.805999999999997</v>
+      </c>
+      <c r="F865">
+        <v>10.180999999999999</v>
+      </c>
+      <c r="G865" t="s">
+        <v>227</v>
+      </c>
+      <c r="H865" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>608</v>
+      </c>
+      <c r="B866" t="s">
+        <v>21</v>
+      </c>
+      <c r="C866" t="s">
+        <v>609</v>
+      </c>
+      <c r="D866" t="s">
+        <v>610</v>
+      </c>
+      <c r="E866">
+        <v>33.573</v>
+      </c>
+      <c r="F866">
+        <v>-7.5890000000000004</v>
+      </c>
+      <c r="G866" t="s">
+        <v>468</v>
+      </c>
+      <c r="H866" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A867" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B867" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C867" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D867" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E867" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F867" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G867" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H867" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A868" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C868" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D868" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E868" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F868" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G868" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H868" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A869" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C869" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D869" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E869" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F869" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G869" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H869" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A870" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C870" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D870" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E870" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F870" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G870" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H870" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A871" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B871" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C871" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D871" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E871" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F871" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G871" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H871" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A872" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C872" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D872" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E872" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F872" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G872" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H872" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A873" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C873" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D873" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E873" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F873" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G873" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H873" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A874" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C874" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D874" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E874" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F874" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="G874" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H874" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A875" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C875" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D875" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E875" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F875" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G875" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H875" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A876" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C876" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D876" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E876" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F876" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G876" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H876" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A877" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C877" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D877" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E877" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="F877" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G877" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H877" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A878" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B878" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C878" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D878" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E878" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F878" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G878" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H878" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A879" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C879" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D879" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E879" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F879" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G879" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H879" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A880" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C880" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D880" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E880" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F880" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G880" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H880" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A881" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C881" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D881" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E881" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F881" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G881" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H881" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A882" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C882" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D882" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E882" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F882" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G882" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H882" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A883" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C883" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D883" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E883" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F883" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G883" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H883" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A884" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C884" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D884" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E884" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F884" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G884" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H884" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A885" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B885" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C885" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D885" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E885" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F885" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="G885" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H885" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A886" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B886" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C886" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D886" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E886" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F886" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G886" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H886" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A887" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C887" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D887" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E887" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F887" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G887" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H887" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A888" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C888" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D888" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E888" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="F888" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G888" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H888" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A889" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C889" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D889" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E889" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F889" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G889" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H889" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A890" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C890" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E890" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F890" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G890" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H890" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A891" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B891" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C891" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D891" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E891" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F891" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G891" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H891" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A892" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C892" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D892" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E892" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F892" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G892" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H892" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A893" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C893" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D893" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E893" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F893" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G893" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H893" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A894" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C894" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D894" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E894" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F894" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G894" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H894" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A895" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B895" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C895" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E895" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F895" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G895" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H895" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A896" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C896" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D896" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E896" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F896" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="G896" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H896" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A897" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B897" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C897" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D897" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E897" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F897" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G897" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H897" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A898" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C898" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D898" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E898" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F898" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G898" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H898" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A899" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B899" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C899" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D899" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E899" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="F899" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G899" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H899" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A900" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C900" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D900" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E900" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F900" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G900" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H900" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A901" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C901" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D901" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E901" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F901" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G901" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H901" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A902" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C902" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E902" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F902" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G902" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H902" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A903" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C903" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D903" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E903" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F903" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G903" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H903" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A904" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C904" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D904" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E904" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F904" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G904" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H904" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A905" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C905" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D905" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E905" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F905" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G905" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H905" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A906" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C906" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D906" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E906" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F906" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G906" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H906" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A907" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C907" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E907" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F907" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="G907" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H907" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A908" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C908" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D908" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E908" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F908" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G908" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H908" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A909" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C909" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D909" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E909" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F909" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G909" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H909" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A910" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C910" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E910" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="F910" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G910" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H910" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A911" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C911" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E911" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F911" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G911" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H911" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A912" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C912" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D912" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E912" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F912" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G912" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H912" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A913" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C913" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D913" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E913" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F913" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G913" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H913" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A914" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D914" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E914" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F914" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G914" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H914" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A915" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C915" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D915" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E915" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F915" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G915" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H915" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A916" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C916" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E916" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F916" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G916" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H916" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A917" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C917" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D917" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E917" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F917" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="G917" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H917" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A918" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C918" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="D918" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E918" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F918" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="G918" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H918" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A919" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C919" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="D919" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E919" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="F919" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="G919" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H919" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A920" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C920" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="E920" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F920" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G920" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H920" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A921" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C921" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D921" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E921" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="F921" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G921" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H921" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A922" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C922" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D922" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E922" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F922" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G922" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H922" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A923" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C923" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D923" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E923" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F923" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G923" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H923" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A924" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C924" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D924" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E924" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="F924" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="G924" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H924" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A925" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C925" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D925" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E925" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F925" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G925" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H925" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A926" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C926" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D926" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E926" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F926" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="G926" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H926" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A927" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B927" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C927" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D927" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E927" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F927" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G927" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H927" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A928" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B928" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C928" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D928" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E928" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F928" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G928" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H928" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A929" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B929" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C929" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D929" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E929" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F929" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G929" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H929" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A930" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B930" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C930" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D930" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E930" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F930" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G930" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H930" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A931" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B931" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C931" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D931" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E931" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F931" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G931" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H931" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A932" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B932" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C932" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D932" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E932" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F932" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G932" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H932" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A933" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B933" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C933" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D933" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E933" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F933" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G933" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H933" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A934" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B934" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C934" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D934" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E934" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F934" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G934" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H934" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A935" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B935" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C935" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D935" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E935" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F935" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G935" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H935" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A936" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B936" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C936" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D936" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E936" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F936" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G936" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H936" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A937" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B937" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C937" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D937" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E937" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F937" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G937" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H937" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A938" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B938" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C938" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D938" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E938" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F938" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G938" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H938" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A939" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B939" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C939" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D939" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E939" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F939" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G939" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H939" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A940" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B940" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C940" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D940" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E940" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F940" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G940" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H940" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A941" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B941" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C941" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D941" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E941" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F941" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G941" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H941" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A942" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B942" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C942" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D942" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E942" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F942" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G942" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H942" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A943" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B943" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C943" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D943" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E943" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F943" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G943" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H943" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A944" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B944" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C944" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D944" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E944" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F944" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G944" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H944" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A945" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B945" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C945" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D945" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E945" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F945" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G945" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H945" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A946" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B946" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C946" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D946" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E946" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F946" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G946" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H946" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A947" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B947" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C947" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D947" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E947" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F947" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G947" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H947" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A948" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B948" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C948" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D948" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E948" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F948" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G948" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H948" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A949" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B949" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C949" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D949" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E949" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F949" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G949" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H949" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A950" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B950" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C950" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D950" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E950" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F950" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G950" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H950" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A951" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B951" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C951" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D951" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E951" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F951" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G951" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H951" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A952" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B952" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C952" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D952" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E952" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F952" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G952" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H952" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A953" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B953" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C953" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D953" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E953" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F953" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G953" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H953" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A954" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B954" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C954" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D954" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E954" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F954" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G954" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H954" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A955" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B955" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C955" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D955" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E955" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F955" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G955" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H955" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A956" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B956" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C956" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D956" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E956" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F956" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G956" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H956" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A957" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B957" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C957" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D957" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E957" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F957" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G957" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H957" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A958" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B958" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C958" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D958" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E958" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F958" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G958" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H958" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A959" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B959" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C959" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D959" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E959" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F959" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G959" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H959" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A960" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B960" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C960" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D960" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E960" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F960" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G960" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H960" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A961" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B961" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C961" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D961" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E961" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F961" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G961" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H961" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A962" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B962" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C962" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D962" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E962" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F962" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G962" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H962" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A963" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B963" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C963" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D963" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E963" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F963" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G963" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H963" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A964" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B964" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C964" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D964" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E964" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F964" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G964" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H964" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A965" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B965" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C965" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D965" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E965" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F965" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G965" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H965" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A966" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B966" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C966" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D966" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E966" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F966" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G966" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H966" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A967" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B967" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D967" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E967" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F967" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G967" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H967" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A968" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B968" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C968" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D968" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E968" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F968" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G968" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H968" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A969" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B969" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C969" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D969" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E969" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F969" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G969" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H969" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A970" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B970" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C970" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D970" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E970" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F970" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G970" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H970" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A971" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B971" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D971" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E971" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F971" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G971" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H971" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A972" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B972" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C972" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D972" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E972" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F972" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G972" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H972" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A973" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B973" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C973" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D973" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E973" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F973" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G973" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H973" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A974" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B974" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C974" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D974" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E974" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F974" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G974" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H974" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A975" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B975" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C975" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D975" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E975" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F975" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G975" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H975" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A976" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B976" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C976" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D976" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E976" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F976" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G976" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H976" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A977" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B977" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C977" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D977" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E977" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F977" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G977" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H977" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A978" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B978" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C978" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D978" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E978" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F978" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G978" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H978" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A979" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B979" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C979" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D979" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E979" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F979" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G979" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H979" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A980" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B980" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C980" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D980" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E980" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F980" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G980" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H980" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A981" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B981" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C981" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D981" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E981" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F981" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G981" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H981" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A982" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B982" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C982" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D982" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E982" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F982" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G982" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H982" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A983" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B983" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C983" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D983" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E983" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F983" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G983" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H983" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A984" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B984" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C984" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D984" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E984" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F984" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G984" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H984" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A985" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B985" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C985" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D985" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E985" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F985" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G985" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H985" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A986" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B986" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D986" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E986" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F986" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G986" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H986" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8EE702-D976-4EF7-BDB5-1DB3F093AEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA06A7-3F15-455E-A63B-EC33D01B1D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="32160" yWindow="2505" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6825" uniqueCount="1035">
   <si>
     <t>Name</t>
   </si>
@@ -3135,6 +3135,12 @@
   </si>
   <si>
     <t>19,224</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>M. Dias Branco</t>
   </si>
 </sst>
 </file>
@@ -3624,15 +3630,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4009,11 +4013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H986"/>
+  <dimension ref="A1:H987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A959" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F938" sqref="F938"/>
+      <pane ySplit="1" topLeftCell="A986" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G987" sqref="G987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26545,3123 +26549,3149 @@
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A867" s="4" t="s">
+      <c r="A867" t="s">
         <v>800</v>
       </c>
-      <c r="B867" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C867" s="4" t="s">
+      <c r="B867" t="s">
+        <v>21</v>
+      </c>
+      <c r="C867" t="s">
         <v>681</v>
       </c>
-      <c r="D867" s="4" t="s">
+      <c r="D867" t="s">
         <v>34</v>
       </c>
-      <c r="E867" s="4" t="s">
+      <c r="E867" t="s">
         <v>783</v>
       </c>
-      <c r="F867" s="4" t="s">
+      <c r="F867" t="s">
         <v>784</v>
       </c>
-      <c r="G867" s="4" t="s">
+      <c r="G867" t="s">
         <v>24</v>
       </c>
-      <c r="H867" s="4" t="s">
+      <c r="H867" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A868" s="4" t="s">
+      <c r="A868" t="s">
         <v>672</v>
       </c>
-      <c r="B868" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C868" s="4" t="s">
+      <c r="B868" t="s">
+        <v>21</v>
+      </c>
+      <c r="C868" t="s">
         <v>128</v>
       </c>
-      <c r="D868" s="4" t="s">
+      <c r="D868" t="s">
         <v>34</v>
       </c>
-      <c r="E868" s="4" t="s">
+      <c r="E868" t="s">
         <v>785</v>
       </c>
-      <c r="F868" s="4" t="s">
+      <c r="F868" t="s">
         <v>786</v>
       </c>
-      <c r="G868" s="4" t="s">
+      <c r="G868" t="s">
         <v>176</v>
       </c>
-      <c r="H868" s="4" t="s">
+      <c r="H868" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="869" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A869" s="4" t="s">
+      <c r="A869" t="s">
         <v>801</v>
       </c>
-      <c r="B869" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C869" s="4" t="s">
+      <c r="B869" t="s">
+        <v>21</v>
+      </c>
+      <c r="C869" t="s">
         <v>787</v>
       </c>
-      <c r="D869" s="4" t="s">
+      <c r="D869" t="s">
         <v>34</v>
       </c>
-      <c r="E869" s="4" t="s">
+      <c r="E869" t="s">
         <v>788</v>
       </c>
-      <c r="F869" s="4" t="s">
+      <c r="F869" t="s">
         <v>789</v>
       </c>
-      <c r="G869" s="4" t="s">
+      <c r="G869" t="s">
         <v>35</v>
       </c>
-      <c r="H869" s="4" t="s">
+      <c r="H869" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A870" s="4" t="s">
+      <c r="A870" t="s">
         <v>760</v>
       </c>
-      <c r="B870" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C870" s="4" t="s">
+      <c r="B870" t="s">
+        <v>21</v>
+      </c>
+      <c r="C870" t="s">
         <v>668</v>
       </c>
-      <c r="D870" s="4" t="s">
+      <c r="D870" t="s">
         <v>118</v>
       </c>
-      <c r="E870" s="4" t="s">
+      <c r="E870" t="s">
         <v>737</v>
       </c>
-      <c r="F870" s="4" t="s">
+      <c r="F870" t="s">
         <v>738</v>
       </c>
-      <c r="G870" s="4" t="s">
+      <c r="G870" t="s">
         <v>671</v>
       </c>
-      <c r="H870" s="4" t="s">
+      <c r="H870" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A871" s="4" t="s">
+      <c r="A871" t="s">
         <v>840</v>
       </c>
-      <c r="B871" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C871" s="4" t="s">
+      <c r="B871" t="s">
+        <v>21</v>
+      </c>
+      <c r="C871" t="s">
         <v>821</v>
       </c>
-      <c r="D871" s="4" t="s">
+      <c r="D871" t="s">
         <v>118</v>
       </c>
-      <c r="E871" s="4" t="s">
+      <c r="E871" t="s">
         <v>822</v>
       </c>
-      <c r="F871" s="4" t="s">
+      <c r="F871" t="s">
         <v>823</v>
       </c>
-      <c r="G871" s="4" t="s">
+      <c r="G871" t="s">
         <v>35</v>
       </c>
-      <c r="H871" s="4" t="s">
+      <c r="H871" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A872" s="4" t="s">
+      <c r="A872" t="s">
         <v>981</v>
       </c>
-      <c r="B872" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C872" s="4" t="s">
+      <c r="B872" t="s">
+        <v>21</v>
+      </c>
+      <c r="C872" t="s">
         <v>982</v>
       </c>
-      <c r="D872" s="4" t="s">
+      <c r="D872" t="s">
         <v>825</v>
       </c>
-      <c r="E872" s="4" t="s">
+      <c r="E872" t="s">
         <v>983</v>
       </c>
-      <c r="F872" s="4" t="s">
+      <c r="F872" t="s">
         <v>984</v>
       </c>
-      <c r="G872" s="4" t="s">
+      <c r="G872" t="s">
         <v>468</v>
       </c>
-      <c r="H872" s="4" t="s">
+      <c r="H872" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A873" s="4" t="s">
+      <c r="A873" t="s">
         <v>841</v>
       </c>
-      <c r="B873" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C873" s="4" t="s">
+      <c r="B873" t="s">
+        <v>21</v>
+      </c>
+      <c r="C873" t="s">
         <v>824</v>
       </c>
-      <c r="D873" s="4" t="s">
+      <c r="D873" t="s">
         <v>825</v>
       </c>
-      <c r="E873" s="4" t="s">
+      <c r="E873" t="s">
         <v>826</v>
       </c>
-      <c r="F873" s="4" t="s">
+      <c r="F873" t="s">
         <v>827</v>
       </c>
-      <c r="G873" s="4" t="s">
+      <c r="G873" t="s">
         <v>74</v>
       </c>
-      <c r="H873" s="4" t="s">
+      <c r="H873" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A874" s="4" t="s">
+      <c r="A874" t="s">
         <v>985</v>
       </c>
-      <c r="B874" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C874" s="4" t="s">
+      <c r="B874" t="s">
+        <v>21</v>
+      </c>
+      <c r="C874" t="s">
         <v>986</v>
       </c>
-      <c r="D874" s="4" t="s">
+      <c r="D874" t="s">
         <v>829</v>
       </c>
-      <c r="E874" s="4" t="s">
+      <c r="E874" t="s">
         <v>987</v>
       </c>
-      <c r="F874" s="4" t="s">
+      <c r="F874" t="s">
         <v>988</v>
       </c>
-      <c r="G874" s="4" t="s">
+      <c r="G874" t="s">
         <v>227</v>
       </c>
-      <c r="H874" s="4" t="s">
+      <c r="H874" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A875" s="4" t="s">
+      <c r="A875" t="s">
         <v>989</v>
       </c>
-      <c r="B875" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C875" s="4" t="s">
+      <c r="B875" t="s">
+        <v>21</v>
+      </c>
+      <c r="C875" t="s">
         <v>828</v>
       </c>
-      <c r="D875" s="4" t="s">
+      <c r="D875" t="s">
         <v>829</v>
       </c>
-      <c r="E875" s="4" t="s">
+      <c r="E875" t="s">
         <v>830</v>
       </c>
-      <c r="F875" s="4" t="s">
+      <c r="F875" t="s">
         <v>831</v>
       </c>
-      <c r="G875" s="4" t="s">
+      <c r="G875" t="s">
         <v>74</v>
       </c>
-      <c r="H875" s="4" t="s">
+      <c r="H875" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A876" s="4" t="s">
+      <c r="A876" t="s">
         <v>990</v>
       </c>
-      <c r="B876" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C876" s="4" t="s">
+      <c r="B876" t="s">
+        <v>21</v>
+      </c>
+      <c r="C876" t="s">
         <v>832</v>
       </c>
-      <c r="D876" s="4" t="s">
+      <c r="D876" t="s">
         <v>833</v>
       </c>
-      <c r="E876" s="4" t="s">
+      <c r="E876" t="s">
         <v>834</v>
       </c>
-      <c r="F876" s="4" t="s">
+      <c r="F876" t="s">
         <v>835</v>
       </c>
-      <c r="G876" s="4" t="s">
+      <c r="G876" t="s">
         <v>81</v>
       </c>
-      <c r="H876" s="4" t="s">
+      <c r="H876" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A877" s="4" t="s">
+      <c r="A877" t="s">
         <v>991</v>
       </c>
-      <c r="B877" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C877" s="4" t="s">
+      <c r="B877" t="s">
+        <v>21</v>
+      </c>
+      <c r="C877" t="s">
         <v>992</v>
       </c>
-      <c r="D877" s="4" t="s">
+      <c r="D877" t="s">
         <v>993</v>
       </c>
-      <c r="E877" s="4" t="s">
+      <c r="E877" t="s">
         <v>994</v>
       </c>
-      <c r="F877" s="4" t="s">
+      <c r="F877" t="s">
         <v>995</v>
       </c>
-      <c r="G877" s="4" t="s">
+      <c r="G877" t="s">
         <v>71</v>
       </c>
-      <c r="H877" s="4" t="s">
+      <c r="H877" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A878" s="4" t="s">
+      <c r="A878" t="s">
         <v>800</v>
       </c>
-      <c r="B878" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C878" s="4" t="s">
+      <c r="B878" t="s">
+        <v>21</v>
+      </c>
+      <c r="C878" t="s">
         <v>681</v>
       </c>
-      <c r="D878" s="4" t="s">
+      <c r="D878" t="s">
         <v>34</v>
       </c>
-      <c r="E878" s="4" t="s">
+      <c r="E878" t="s">
         <v>783</v>
       </c>
-      <c r="F878" s="4" t="s">
+      <c r="F878" t="s">
         <v>784</v>
       </c>
-      <c r="G878" s="4" t="s">
+      <c r="G878" t="s">
         <v>24</v>
       </c>
-      <c r="H878" s="4" t="s">
+      <c r="H878" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A879" s="4" t="s">
+      <c r="A879" t="s">
         <v>672</v>
       </c>
-      <c r="B879" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C879" s="4" t="s">
+      <c r="B879" t="s">
+        <v>21</v>
+      </c>
+      <c r="C879" t="s">
         <v>128</v>
       </c>
-      <c r="D879" s="4" t="s">
+      <c r="D879" t="s">
         <v>34</v>
       </c>
-      <c r="E879" s="4" t="s">
+      <c r="E879" t="s">
         <v>785</v>
       </c>
-      <c r="F879" s="4" t="s">
+      <c r="F879" t="s">
         <v>786</v>
       </c>
-      <c r="G879" s="4" t="s">
+      <c r="G879" t="s">
         <v>176</v>
       </c>
-      <c r="H879" s="4" t="s">
+      <c r="H879" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A880" s="4" t="s">
+      <c r="A880" t="s">
         <v>801</v>
       </c>
-      <c r="B880" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C880" s="4" t="s">
+      <c r="B880" t="s">
+        <v>21</v>
+      </c>
+      <c r="C880" t="s">
         <v>787</v>
       </c>
-      <c r="D880" s="4" t="s">
+      <c r="D880" t="s">
         <v>34</v>
       </c>
-      <c r="E880" s="4" t="s">
+      <c r="E880" t="s">
         <v>788</v>
       </c>
-      <c r="F880" s="4" t="s">
+      <c r="F880" t="s">
         <v>789</v>
       </c>
-      <c r="G880" s="4" t="s">
+      <c r="G880" t="s">
         <v>35</v>
       </c>
-      <c r="H880" s="4" t="s">
+      <c r="H880" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A881" s="4" t="s">
+      <c r="A881" t="s">
         <v>760</v>
       </c>
-      <c r="B881" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C881" s="4" t="s">
+      <c r="B881" t="s">
+        <v>21</v>
+      </c>
+      <c r="C881" t="s">
         <v>668</v>
       </c>
-      <c r="D881" s="4" t="s">
+      <c r="D881" t="s">
         <v>118</v>
       </c>
-      <c r="E881" s="4" t="s">
+      <c r="E881" t="s">
         <v>737</v>
       </c>
-      <c r="F881" s="4" t="s">
+      <c r="F881" t="s">
         <v>738</v>
       </c>
-      <c r="G881" s="4" t="s">
+      <c r="G881" t="s">
         <v>671</v>
       </c>
-      <c r="H881" s="4" t="s">
+      <c r="H881" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A882" s="4" t="s">
+      <c r="A882" t="s">
         <v>840</v>
       </c>
-      <c r="B882" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C882" s="4" t="s">
+      <c r="B882" t="s">
+        <v>21</v>
+      </c>
+      <c r="C882" t="s">
         <v>821</v>
       </c>
-      <c r="D882" s="4" t="s">
+      <c r="D882" t="s">
         <v>118</v>
       </c>
-      <c r="E882" s="4" t="s">
+      <c r="E882" t="s">
         <v>822</v>
       </c>
-      <c r="F882" s="4" t="s">
+      <c r="F882" t="s">
         <v>823</v>
       </c>
-      <c r="G882" s="4" t="s">
+      <c r="G882" t="s">
         <v>35</v>
       </c>
-      <c r="H882" s="4" t="s">
+      <c r="H882" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A883" s="4" t="s">
+      <c r="A883" t="s">
         <v>981</v>
       </c>
-      <c r="B883" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C883" s="4" t="s">
+      <c r="B883" t="s">
+        <v>21</v>
+      </c>
+      <c r="C883" t="s">
         <v>982</v>
       </c>
-      <c r="D883" s="4" t="s">
+      <c r="D883" t="s">
         <v>825</v>
       </c>
-      <c r="E883" s="4" t="s">
+      <c r="E883" t="s">
         <v>983</v>
       </c>
-      <c r="F883" s="4" t="s">
+      <c r="F883" t="s">
         <v>984</v>
       </c>
-      <c r="G883" s="4" t="s">
+      <c r="G883" t="s">
         <v>468</v>
       </c>
-      <c r="H883" s="4" t="s">
+      <c r="H883" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A884" s="4" t="s">
+      <c r="A884" t="s">
         <v>841</v>
       </c>
-      <c r="B884" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C884" s="4" t="s">
+      <c r="B884" t="s">
+        <v>21</v>
+      </c>
+      <c r="C884" t="s">
         <v>824</v>
       </c>
-      <c r="D884" s="4" t="s">
+      <c r="D884" t="s">
         <v>825</v>
       </c>
-      <c r="E884" s="4" t="s">
+      <c r="E884" t="s">
         <v>826</v>
       </c>
-      <c r="F884" s="4" t="s">
+      <c r="F884" t="s">
         <v>827</v>
       </c>
-      <c r="G884" s="4" t="s">
+      <c r="G884" t="s">
         <v>74</v>
       </c>
-      <c r="H884" s="4" t="s">
+      <c r="H884" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A885" s="4" t="s">
+      <c r="A885" t="s">
         <v>985</v>
       </c>
-      <c r="B885" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C885" s="4" t="s">
+      <c r="B885" t="s">
+        <v>21</v>
+      </c>
+      <c r="C885" t="s">
         <v>986</v>
       </c>
-      <c r="D885" s="4" t="s">
+      <c r="D885" t="s">
         <v>829</v>
       </c>
-      <c r="E885" s="4" t="s">
+      <c r="E885" t="s">
         <v>987</v>
       </c>
-      <c r="F885" s="4" t="s">
+      <c r="F885" t="s">
         <v>988</v>
       </c>
-      <c r="G885" s="4" t="s">
+      <c r="G885" t="s">
         <v>227</v>
       </c>
-      <c r="H885" s="4" t="s">
+      <c r="H885" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A886" s="4" t="s">
+      <c r="A886" t="s">
         <v>989</v>
       </c>
-      <c r="B886" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C886" s="4" t="s">
+      <c r="B886" t="s">
+        <v>21</v>
+      </c>
+      <c r="C886" t="s">
         <v>828</v>
       </c>
-      <c r="D886" s="4" t="s">
+      <c r="D886" t="s">
         <v>829</v>
       </c>
-      <c r="E886" s="4" t="s">
+      <c r="E886" t="s">
         <v>830</v>
       </c>
-      <c r="F886" s="4" t="s">
+      <c r="F886" t="s">
         <v>831</v>
       </c>
-      <c r="G886" s="4" t="s">
+      <c r="G886" t="s">
         <v>74</v>
       </c>
-      <c r="H886" s="4" t="s">
+      <c r="H886" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A887" s="4" t="s">
+      <c r="A887" t="s">
         <v>990</v>
       </c>
-      <c r="B887" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C887" s="4" t="s">
+      <c r="B887" t="s">
+        <v>21</v>
+      </c>
+      <c r="C887" t="s">
         <v>832</v>
       </c>
-      <c r="D887" s="4" t="s">
+      <c r="D887" t="s">
         <v>833</v>
       </c>
-      <c r="E887" s="4" t="s">
+      <c r="E887" t="s">
         <v>834</v>
       </c>
-      <c r="F887" s="4" t="s">
+      <c r="F887" t="s">
         <v>835</v>
       </c>
-      <c r="G887" s="4" t="s">
+      <c r="G887" t="s">
         <v>81</v>
       </c>
-      <c r="H887" s="4" t="s">
+      <c r="H887" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A888" s="4" t="s">
+      <c r="A888" t="s">
         <v>991</v>
       </c>
-      <c r="B888" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C888" s="4" t="s">
+      <c r="B888" t="s">
+        <v>21</v>
+      </c>
+      <c r="C888" t="s">
         <v>992</v>
       </c>
-      <c r="D888" s="4" t="s">
+      <c r="D888" t="s">
         <v>993</v>
       </c>
-      <c r="E888" s="4" t="s">
+      <c r="E888" t="s">
         <v>994</v>
       </c>
-      <c r="F888" s="4" t="s">
+      <c r="F888" t="s">
         <v>995</v>
       </c>
-      <c r="G888" s="4" t="s">
+      <c r="G888" t="s">
         <v>71</v>
       </c>
-      <c r="H888" s="4" t="s">
+      <c r="H888" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A889" s="4" t="s">
+      <c r="A889" t="s">
         <v>800</v>
       </c>
-      <c r="B889" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C889" s="4" t="s">
+      <c r="B889" t="s">
+        <v>21</v>
+      </c>
+      <c r="C889" t="s">
         <v>681</v>
       </c>
-      <c r="D889" s="4" t="s">
+      <c r="D889" t="s">
         <v>34</v>
       </c>
-      <c r="E889" s="4" t="s">
+      <c r="E889" t="s">
         <v>783</v>
       </c>
-      <c r="F889" s="4" t="s">
+      <c r="F889" t="s">
         <v>784</v>
       </c>
-      <c r="G889" s="4" t="s">
+      <c r="G889" t="s">
         <v>24</v>
       </c>
-      <c r="H889" s="4" t="s">
+      <c r="H889" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A890" s="4" t="s">
+      <c r="A890" t="s">
         <v>672</v>
       </c>
-      <c r="B890" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C890" s="4" t="s">
+      <c r="B890" t="s">
+        <v>21</v>
+      </c>
+      <c r="C890" t="s">
         <v>128</v>
       </c>
-      <c r="D890" s="4" t="s">
+      <c r="D890" t="s">
         <v>34</v>
       </c>
-      <c r="E890" s="4" t="s">
+      <c r="E890" t="s">
         <v>785</v>
       </c>
-      <c r="F890" s="4" t="s">
+      <c r="F890" t="s">
         <v>786</v>
       </c>
-      <c r="G890" s="4" t="s">
+      <c r="G890" t="s">
         <v>176</v>
       </c>
-      <c r="H890" s="4" t="s">
+      <c r="H890" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A891" s="4" t="s">
+      <c r="A891" t="s">
         <v>801</v>
       </c>
-      <c r="B891" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C891" s="4" t="s">
+      <c r="B891" t="s">
+        <v>21</v>
+      </c>
+      <c r="C891" t="s">
         <v>787</v>
       </c>
-      <c r="D891" s="4" t="s">
+      <c r="D891" t="s">
         <v>34</v>
       </c>
-      <c r="E891" s="4" t="s">
+      <c r="E891" t="s">
         <v>788</v>
       </c>
-      <c r="F891" s="4" t="s">
+      <c r="F891" t="s">
         <v>789</v>
       </c>
-      <c r="G891" s="4" t="s">
+      <c r="G891" t="s">
         <v>35</v>
       </c>
-      <c r="H891" s="4" t="s">
+      <c r="H891" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A892" s="4" t="s">
+      <c r="A892" t="s">
         <v>760</v>
       </c>
-      <c r="B892" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C892" s="4" t="s">
+      <c r="B892" t="s">
+        <v>21</v>
+      </c>
+      <c r="C892" t="s">
         <v>668</v>
       </c>
-      <c r="D892" s="4" t="s">
+      <c r="D892" t="s">
         <v>118</v>
       </c>
-      <c r="E892" s="4" t="s">
+      <c r="E892" t="s">
         <v>737</v>
       </c>
-      <c r="F892" s="4" t="s">
+      <c r="F892" t="s">
         <v>738</v>
       </c>
-      <c r="G892" s="4" t="s">
+      <c r="G892" t="s">
         <v>671</v>
       </c>
-      <c r="H892" s="4" t="s">
+      <c r="H892" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A893" s="4" t="s">
+      <c r="A893" t="s">
         <v>840</v>
       </c>
-      <c r="B893" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C893" s="4" t="s">
+      <c r="B893" t="s">
+        <v>21</v>
+      </c>
+      <c r="C893" t="s">
         <v>821</v>
       </c>
-      <c r="D893" s="4" t="s">
+      <c r="D893" t="s">
         <v>118</v>
       </c>
-      <c r="E893" s="4" t="s">
+      <c r="E893" t="s">
         <v>822</v>
       </c>
-      <c r="F893" s="4" t="s">
+      <c r="F893" t="s">
         <v>823</v>
       </c>
-      <c r="G893" s="4" t="s">
+      <c r="G893" t="s">
         <v>35</v>
       </c>
-      <c r="H893" s="4" t="s">
+      <c r="H893" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A894" s="4" t="s">
+      <c r="A894" t="s">
         <v>981</v>
       </c>
-      <c r="B894" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C894" s="4" t="s">
+      <c r="B894" t="s">
+        <v>21</v>
+      </c>
+      <c r="C894" t="s">
         <v>982</v>
       </c>
-      <c r="D894" s="4" t="s">
+      <c r="D894" t="s">
         <v>825</v>
       </c>
-      <c r="E894" s="4" t="s">
+      <c r="E894" t="s">
         <v>983</v>
       </c>
-      <c r="F894" s="4" t="s">
+      <c r="F894" t="s">
         <v>984</v>
       </c>
-      <c r="G894" s="4" t="s">
+      <c r="G894" t="s">
         <v>468</v>
       </c>
-      <c r="H894" s="4" t="s">
+      <c r="H894" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A895" s="4" t="s">
+      <c r="A895" t="s">
         <v>841</v>
       </c>
-      <c r="B895" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C895" s="4" t="s">
+      <c r="B895" t="s">
+        <v>21</v>
+      </c>
+      <c r="C895" t="s">
         <v>824</v>
       </c>
-      <c r="D895" s="4" t="s">
+      <c r="D895" t="s">
         <v>825</v>
       </c>
-      <c r="E895" s="4" t="s">
+      <c r="E895" t="s">
         <v>826</v>
       </c>
-      <c r="F895" s="4" t="s">
+      <c r="F895" t="s">
         <v>827</v>
       </c>
-      <c r="G895" s="4" t="s">
+      <c r="G895" t="s">
         <v>74</v>
       </c>
-      <c r="H895" s="4" t="s">
+      <c r="H895" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A896" s="4" t="s">
+      <c r="A896" t="s">
         <v>985</v>
       </c>
-      <c r="B896" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C896" s="4" t="s">
+      <c r="B896" t="s">
+        <v>21</v>
+      </c>
+      <c r="C896" t="s">
         <v>986</v>
       </c>
-      <c r="D896" s="4" t="s">
+      <c r="D896" t="s">
         <v>829</v>
       </c>
-      <c r="E896" s="4" t="s">
+      <c r="E896" t="s">
         <v>987</v>
       </c>
-      <c r="F896" s="4" t="s">
+      <c r="F896" t="s">
         <v>988</v>
       </c>
-      <c r="G896" s="4" t="s">
+      <c r="G896" t="s">
         <v>227</v>
       </c>
-      <c r="H896" s="4" t="s">
+      <c r="H896" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A897" s="4" t="s">
+      <c r="A897" t="s">
         <v>989</v>
       </c>
-      <c r="B897" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C897" s="4" t="s">
+      <c r="B897" t="s">
+        <v>21</v>
+      </c>
+      <c r="C897" t="s">
         <v>828</v>
       </c>
-      <c r="D897" s="4" t="s">
+      <c r="D897" t="s">
         <v>829</v>
       </c>
-      <c r="E897" s="4" t="s">
+      <c r="E897" t="s">
         <v>830</v>
       </c>
-      <c r="F897" s="4" t="s">
+      <c r="F897" t="s">
         <v>831</v>
       </c>
-      <c r="G897" s="4" t="s">
+      <c r="G897" t="s">
         <v>74</v>
       </c>
-      <c r="H897" s="4" t="s">
+      <c r="H897" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A898" s="4" t="s">
+      <c r="A898" t="s">
         <v>990</v>
       </c>
-      <c r="B898" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C898" s="4" t="s">
+      <c r="B898" t="s">
+        <v>21</v>
+      </c>
+      <c r="C898" t="s">
         <v>832</v>
       </c>
-      <c r="D898" s="4" t="s">
+      <c r="D898" t="s">
         <v>833</v>
       </c>
-      <c r="E898" s="4" t="s">
+      <c r="E898" t="s">
         <v>834</v>
       </c>
-      <c r="F898" s="4" t="s">
+      <c r="F898" t="s">
         <v>835</v>
       </c>
-      <c r="G898" s="4" t="s">
+      <c r="G898" t="s">
         <v>81</v>
       </c>
-      <c r="H898" s="4" t="s">
+      <c r="H898" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A899" s="4" t="s">
+      <c r="A899" t="s">
         <v>991</v>
       </c>
-      <c r="B899" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C899" s="4" t="s">
+      <c r="B899" t="s">
+        <v>21</v>
+      </c>
+      <c r="C899" t="s">
         <v>992</v>
       </c>
-      <c r="D899" s="4" t="s">
+      <c r="D899" t="s">
         <v>993</v>
       </c>
-      <c r="E899" s="4" t="s">
+      <c r="E899" t="s">
         <v>994</v>
       </c>
-      <c r="F899" s="4" t="s">
+      <c r="F899" t="s">
         <v>995</v>
       </c>
-      <c r="G899" s="4" t="s">
+      <c r="G899" t="s">
         <v>71</v>
       </c>
-      <c r="H899" s="4" t="s">
+      <c r="H899" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A900" s="4" t="s">
+      <c r="A900" t="s">
         <v>800</v>
       </c>
-      <c r="B900" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C900" s="4" t="s">
+      <c r="B900" t="s">
+        <v>21</v>
+      </c>
+      <c r="C900" t="s">
         <v>681</v>
       </c>
-      <c r="D900" s="4" t="s">
+      <c r="D900" t="s">
         <v>34</v>
       </c>
-      <c r="E900" s="4" t="s">
+      <c r="E900" t="s">
         <v>783</v>
       </c>
-      <c r="F900" s="4" t="s">
+      <c r="F900" t="s">
         <v>784</v>
       </c>
-      <c r="G900" s="4" t="s">
+      <c r="G900" t="s">
         <v>24</v>
       </c>
-      <c r="H900" s="4" t="s">
+      <c r="H900" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A901" s="4" t="s">
+      <c r="A901" t="s">
         <v>672</v>
       </c>
-      <c r="B901" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C901" s="4" t="s">
+      <c r="B901" t="s">
+        <v>21</v>
+      </c>
+      <c r="C901" t="s">
         <v>128</v>
       </c>
-      <c r="D901" s="4" t="s">
+      <c r="D901" t="s">
         <v>34</v>
       </c>
-      <c r="E901" s="4" t="s">
+      <c r="E901" t="s">
         <v>785</v>
       </c>
-      <c r="F901" s="4" t="s">
+      <c r="F901" t="s">
         <v>786</v>
       </c>
-      <c r="G901" s="4" t="s">
+      <c r="G901" t="s">
         <v>176</v>
       </c>
-      <c r="H901" s="4" t="s">
+      <c r="H901" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A902" s="4" t="s">
+      <c r="A902" t="s">
         <v>801</v>
       </c>
-      <c r="B902" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C902" s="4" t="s">
+      <c r="B902" t="s">
+        <v>21</v>
+      </c>
+      <c r="C902" t="s">
         <v>787</v>
       </c>
-      <c r="D902" s="4" t="s">
+      <c r="D902" t="s">
         <v>34</v>
       </c>
-      <c r="E902" s="4" t="s">
+      <c r="E902" t="s">
         <v>788</v>
       </c>
-      <c r="F902" s="4" t="s">
+      <c r="F902" t="s">
         <v>789</v>
       </c>
-      <c r="G902" s="4" t="s">
+      <c r="G902" t="s">
         <v>35</v>
       </c>
-      <c r="H902" s="4" t="s">
+      <c r="H902" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A903" s="4" t="s">
+      <c r="A903" t="s">
         <v>760</v>
       </c>
-      <c r="B903" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C903" s="4" t="s">
+      <c r="B903" t="s">
+        <v>21</v>
+      </c>
+      <c r="C903" t="s">
         <v>668</v>
       </c>
-      <c r="D903" s="4" t="s">
+      <c r="D903" t="s">
         <v>118</v>
       </c>
-      <c r="E903" s="4" t="s">
+      <c r="E903" t="s">
         <v>737</v>
       </c>
-      <c r="F903" s="4" t="s">
+      <c r="F903" t="s">
         <v>738</v>
       </c>
-      <c r="G903" s="4" t="s">
+      <c r="G903" t="s">
         <v>671</v>
       </c>
-      <c r="H903" s="4" t="s">
+      <c r="H903" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A904" s="4" t="s">
+      <c r="A904" t="s">
         <v>840</v>
       </c>
-      <c r="B904" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C904" s="4" t="s">
+      <c r="B904" t="s">
+        <v>21</v>
+      </c>
+      <c r="C904" t="s">
         <v>821</v>
       </c>
-      <c r="D904" s="4" t="s">
+      <c r="D904" t="s">
         <v>118</v>
       </c>
-      <c r="E904" s="4" t="s">
+      <c r="E904" t="s">
         <v>822</v>
       </c>
-      <c r="F904" s="4" t="s">
+      <c r="F904" t="s">
         <v>823</v>
       </c>
-      <c r="G904" s="4" t="s">
+      <c r="G904" t="s">
         <v>35</v>
       </c>
-      <c r="H904" s="4" t="s">
+      <c r="H904" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A905" s="4" t="s">
+      <c r="A905" t="s">
         <v>981</v>
       </c>
-      <c r="B905" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C905" s="4" t="s">
+      <c r="B905" t="s">
+        <v>21</v>
+      </c>
+      <c r="C905" t="s">
         <v>982</v>
       </c>
-      <c r="D905" s="4" t="s">
+      <c r="D905" t="s">
         <v>825</v>
       </c>
-      <c r="E905" s="4" t="s">
+      <c r="E905" t="s">
         <v>983</v>
       </c>
-      <c r="F905" s="4" t="s">
+      <c r="F905" t="s">
         <v>984</v>
       </c>
-      <c r="G905" s="4" t="s">
+      <c r="G905" t="s">
         <v>468</v>
       </c>
-      <c r="H905" s="4" t="s">
+      <c r="H905" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A906" s="4" t="s">
+      <c r="A906" t="s">
         <v>841</v>
       </c>
-      <c r="B906" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C906" s="4" t="s">
+      <c r="B906" t="s">
+        <v>21</v>
+      </c>
+      <c r="C906" t="s">
         <v>824</v>
       </c>
-      <c r="D906" s="4" t="s">
+      <c r="D906" t="s">
         <v>825</v>
       </c>
-      <c r="E906" s="4" t="s">
+      <c r="E906" t="s">
         <v>826</v>
       </c>
-      <c r="F906" s="4" t="s">
+      <c r="F906" t="s">
         <v>827</v>
       </c>
-      <c r="G906" s="4" t="s">
+      <c r="G906" t="s">
         <v>74</v>
       </c>
-      <c r="H906" s="4" t="s">
+      <c r="H906" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A907" s="4" t="s">
+      <c r="A907" t="s">
         <v>985</v>
       </c>
-      <c r="B907" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C907" s="4" t="s">
+      <c r="B907" t="s">
+        <v>21</v>
+      </c>
+      <c r="C907" t="s">
         <v>986</v>
       </c>
-      <c r="D907" s="4" t="s">
+      <c r="D907" t="s">
         <v>829</v>
       </c>
-      <c r="E907" s="4" t="s">
+      <c r="E907" t="s">
         <v>987</v>
       </c>
-      <c r="F907" s="4" t="s">
+      <c r="F907" t="s">
         <v>988</v>
       </c>
-      <c r="G907" s="4" t="s">
+      <c r="G907" t="s">
         <v>227</v>
       </c>
-      <c r="H907" s="4" t="s">
+      <c r="H907" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A908" s="4" t="s">
+      <c r="A908" t="s">
         <v>989</v>
       </c>
-      <c r="B908" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C908" s="4" t="s">
+      <c r="B908" t="s">
+        <v>21</v>
+      </c>
+      <c r="C908" t="s">
         <v>828</v>
       </c>
-      <c r="D908" s="4" t="s">
+      <c r="D908" t="s">
         <v>829</v>
       </c>
-      <c r="E908" s="4" t="s">
+      <c r="E908" t="s">
         <v>830</v>
       </c>
-      <c r="F908" s="4" t="s">
+      <c r="F908" t="s">
         <v>831</v>
       </c>
-      <c r="G908" s="4" t="s">
+      <c r="G908" t="s">
         <v>74</v>
       </c>
-      <c r="H908" s="4" t="s">
+      <c r="H908" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A909" s="4" t="s">
+      <c r="A909" t="s">
         <v>990</v>
       </c>
-      <c r="B909" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C909" s="4" t="s">
+      <c r="B909" t="s">
+        <v>21</v>
+      </c>
+      <c r="C909" t="s">
         <v>832</v>
       </c>
-      <c r="D909" s="4" t="s">
+      <c r="D909" t="s">
         <v>833</v>
       </c>
-      <c r="E909" s="4" t="s">
+      <c r="E909" t="s">
         <v>834</v>
       </c>
-      <c r="F909" s="4" t="s">
+      <c r="F909" t="s">
         <v>835</v>
       </c>
-      <c r="G909" s="4" t="s">
+      <c r="G909" t="s">
         <v>81</v>
       </c>
-      <c r="H909" s="4" t="s">
+      <c r="H909" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A910" s="4" t="s">
+      <c r="A910" t="s">
         <v>991</v>
       </c>
-      <c r="B910" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C910" s="4" t="s">
+      <c r="B910" t="s">
+        <v>21</v>
+      </c>
+      <c r="C910" t="s">
         <v>992</v>
       </c>
-      <c r="D910" s="4" t="s">
+      <c r="D910" t="s">
         <v>993</v>
       </c>
-      <c r="E910" s="4" t="s">
+      <c r="E910" t="s">
         <v>994</v>
       </c>
-      <c r="F910" s="4" t="s">
+      <c r="F910" t="s">
         <v>995</v>
       </c>
-      <c r="G910" s="4" t="s">
+      <c r="G910" t="s">
         <v>71</v>
       </c>
-      <c r="H910" s="4" t="s">
+      <c r="H910" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A911" s="4" t="s">
+      <c r="A911" t="s">
         <v>800</v>
       </c>
-      <c r="B911" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C911" s="4" t="s">
+      <c r="B911" t="s">
+        <v>21</v>
+      </c>
+      <c r="C911" t="s">
         <v>681</v>
       </c>
-      <c r="D911" s="4" t="s">
+      <c r="D911" t="s">
         <v>34</v>
       </c>
-      <c r="E911" s="4" t="s">
+      <c r="E911" t="s">
         <v>783</v>
       </c>
-      <c r="F911" s="4" t="s">
+      <c r="F911" t="s">
         <v>784</v>
       </c>
-      <c r="G911" s="4" t="s">
+      <c r="G911" t="s">
         <v>24</v>
       </c>
-      <c r="H911" s="4" t="s">
+      <c r="H911" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A912" s="4" t="s">
+      <c r="A912" t="s">
         <v>672</v>
       </c>
-      <c r="B912" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C912" s="4" t="s">
+      <c r="B912" t="s">
+        <v>21</v>
+      </c>
+      <c r="C912" t="s">
         <v>128</v>
       </c>
-      <c r="D912" s="4" t="s">
+      <c r="D912" t="s">
         <v>34</v>
       </c>
-      <c r="E912" s="4" t="s">
+      <c r="E912" t="s">
         <v>785</v>
       </c>
-      <c r="F912" s="4" t="s">
+      <c r="F912" t="s">
         <v>786</v>
       </c>
-      <c r="G912" s="4" t="s">
+      <c r="G912" t="s">
         <v>176</v>
       </c>
-      <c r="H912" s="4" t="s">
+      <c r="H912" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A913" s="4" t="s">
+      <c r="A913" t="s">
         <v>801</v>
       </c>
-      <c r="B913" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C913" s="4" t="s">
+      <c r="B913" t="s">
+        <v>21</v>
+      </c>
+      <c r="C913" t="s">
         <v>787</v>
       </c>
-      <c r="D913" s="4" t="s">
+      <c r="D913" t="s">
         <v>34</v>
       </c>
-      <c r="E913" s="4" t="s">
+      <c r="E913" t="s">
         <v>788</v>
       </c>
-      <c r="F913" s="4" t="s">
+      <c r="F913" t="s">
         <v>789</v>
       </c>
-      <c r="G913" s="4" t="s">
+      <c r="G913" t="s">
         <v>35</v>
       </c>
-      <c r="H913" s="4" t="s">
+      <c r="H913" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A914" s="4" t="s">
+      <c r="A914" t="s">
         <v>760</v>
       </c>
-      <c r="B914" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C914" s="4" t="s">
+      <c r="B914" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" t="s">
         <v>668</v>
       </c>
-      <c r="D914" s="4" t="s">
+      <c r="D914" t="s">
         <v>118</v>
       </c>
-      <c r="E914" s="4" t="s">
+      <c r="E914" t="s">
         <v>737</v>
       </c>
-      <c r="F914" s="4" t="s">
+      <c r="F914" t="s">
         <v>738</v>
       </c>
-      <c r="G914" s="4" t="s">
+      <c r="G914" t="s">
         <v>671</v>
       </c>
-      <c r="H914" s="4" t="s">
+      <c r="H914" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A915" s="4" t="s">
+      <c r="A915" t="s">
         <v>840</v>
       </c>
-      <c r="B915" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C915" s="4" t="s">
+      <c r="B915" t="s">
+        <v>21</v>
+      </c>
+      <c r="C915" t="s">
         <v>821</v>
       </c>
-      <c r="D915" s="4" t="s">
+      <c r="D915" t="s">
         <v>118</v>
       </c>
-      <c r="E915" s="4" t="s">
+      <c r="E915" t="s">
         <v>822</v>
       </c>
-      <c r="F915" s="4" t="s">
+      <c r="F915" t="s">
         <v>823</v>
       </c>
-      <c r="G915" s="4" t="s">
+      <c r="G915" t="s">
         <v>35</v>
       </c>
-      <c r="H915" s="4" t="s">
+      <c r="H915" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A916" s="4" t="s">
+      <c r="A916" t="s">
         <v>981</v>
       </c>
-      <c r="B916" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C916" s="4" t="s">
+      <c r="B916" t="s">
+        <v>21</v>
+      </c>
+      <c r="C916" t="s">
         <v>982</v>
       </c>
-      <c r="D916" s="4" t="s">
+      <c r="D916" t="s">
         <v>825</v>
       </c>
-      <c r="E916" s="4" t="s">
+      <c r="E916" t="s">
         <v>983</v>
       </c>
-      <c r="F916" s="4" t="s">
+      <c r="F916" t="s">
         <v>984</v>
       </c>
-      <c r="G916" s="4" t="s">
+      <c r="G916" t="s">
         <v>468</v>
       </c>
-      <c r="H916" s="4" t="s">
+      <c r="H916" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A917" s="4" t="s">
+      <c r="A917" t="s">
         <v>841</v>
       </c>
-      <c r="B917" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C917" s="4" t="s">
+      <c r="B917" t="s">
+        <v>21</v>
+      </c>
+      <c r="C917" t="s">
         <v>824</v>
       </c>
-      <c r="D917" s="4" t="s">
+      <c r="D917" t="s">
         <v>825</v>
       </c>
-      <c r="E917" s="4" t="s">
+      <c r="E917" t="s">
         <v>826</v>
       </c>
-      <c r="F917" s="4" t="s">
+      <c r="F917" t="s">
         <v>827</v>
       </c>
-      <c r="G917" s="4" t="s">
+      <c r="G917" t="s">
         <v>74</v>
       </c>
-      <c r="H917" s="4" t="s">
+      <c r="H917" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A918" s="4" t="s">
+      <c r="A918" t="s">
         <v>985</v>
       </c>
-      <c r="B918" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C918" s="4" t="s">
+      <c r="B918" t="s">
+        <v>21</v>
+      </c>
+      <c r="C918" t="s">
         <v>986</v>
       </c>
-      <c r="D918" s="4" t="s">
+      <c r="D918" t="s">
         <v>829</v>
       </c>
-      <c r="E918" s="4" t="s">
+      <c r="E918" t="s">
         <v>987</v>
       </c>
-      <c r="F918" s="4" t="s">
+      <c r="F918" t="s">
         <v>988</v>
       </c>
-      <c r="G918" s="4" t="s">
+      <c r="G918" t="s">
         <v>227</v>
       </c>
-      <c r="H918" s="4" t="s">
+      <c r="H918" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A919" s="4" t="s">
+      <c r="A919" t="s">
         <v>989</v>
       </c>
-      <c r="B919" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C919" s="4" t="s">
+      <c r="B919" t="s">
+        <v>21</v>
+      </c>
+      <c r="C919" t="s">
         <v>828</v>
       </c>
-      <c r="D919" s="4" t="s">
+      <c r="D919" t="s">
         <v>829</v>
       </c>
-      <c r="E919" s="4" t="s">
+      <c r="E919" t="s">
         <v>830</v>
       </c>
-      <c r="F919" s="4" t="s">
+      <c r="F919" t="s">
         <v>831</v>
       </c>
-      <c r="G919" s="4" t="s">
+      <c r="G919" t="s">
         <v>74</v>
       </c>
-      <c r="H919" s="4" t="s">
+      <c r="H919" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A920" s="4" t="s">
+      <c r="A920" t="s">
         <v>990</v>
       </c>
-      <c r="B920" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C920" s="4" t="s">
+      <c r="B920" t="s">
+        <v>21</v>
+      </c>
+      <c r="C920" t="s">
         <v>832</v>
       </c>
-      <c r="D920" s="4" t="s">
+      <c r="D920" t="s">
         <v>833</v>
       </c>
-      <c r="E920" s="4" t="s">
+      <c r="E920" t="s">
         <v>834</v>
       </c>
-      <c r="F920" s="4" t="s">
+      <c r="F920" t="s">
         <v>835</v>
       </c>
-      <c r="G920" s="4" t="s">
+      <c r="G920" t="s">
         <v>81</v>
       </c>
-      <c r="H920" s="4" t="s">
+      <c r="H920" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A921" s="4" t="s">
+      <c r="A921" t="s">
         <v>991</v>
       </c>
-      <c r="B921" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C921" s="4" t="s">
+      <c r="B921" t="s">
+        <v>21</v>
+      </c>
+      <c r="C921" t="s">
         <v>992</v>
       </c>
-      <c r="D921" s="4" t="s">
+      <c r="D921" t="s">
         <v>993</v>
       </c>
-      <c r="E921" s="4" t="s">
+      <c r="E921" t="s">
         <v>994</v>
       </c>
-      <c r="F921" s="4" t="s">
+      <c r="F921" t="s">
         <v>995</v>
       </c>
-      <c r="G921" s="4" t="s">
+      <c r="G921" t="s">
         <v>71</v>
       </c>
-      <c r="H921" s="4" t="s">
+      <c r="H921" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A922" s="4" t="s">
+      <c r="A922" t="s">
         <v>800</v>
       </c>
-      <c r="B922" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C922" s="4" t="s">
+      <c r="B922" t="s">
+        <v>21</v>
+      </c>
+      <c r="C922" t="s">
         <v>681</v>
       </c>
-      <c r="D922" s="4" t="s">
+      <c r="D922" t="s">
         <v>34</v>
       </c>
-      <c r="E922" s="4" t="s">
+      <c r="E922" t="s">
         <v>783</v>
       </c>
-      <c r="F922" s="4" t="s">
+      <c r="F922" t="s">
         <v>784</v>
       </c>
-      <c r="G922" s="4" t="s">
+      <c r="G922" t="s">
         <v>24</v>
       </c>
-      <c r="H922" s="4" t="s">
+      <c r="H922" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A923" s="4" t="s">
+      <c r="A923" t="s">
         <v>672</v>
       </c>
-      <c r="B923" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C923" s="4" t="s">
+      <c r="B923" t="s">
+        <v>21</v>
+      </c>
+      <c r="C923" t="s">
         <v>128</v>
       </c>
-      <c r="D923" s="4" t="s">
+      <c r="D923" t="s">
         <v>34</v>
       </c>
-      <c r="E923" s="4" t="s">
+      <c r="E923" t="s">
         <v>785</v>
       </c>
-      <c r="F923" s="4" t="s">
+      <c r="F923" t="s">
         <v>786</v>
       </c>
-      <c r="G923" s="4" t="s">
+      <c r="G923" t="s">
         <v>176</v>
       </c>
-      <c r="H923" s="4" t="s">
+      <c r="H923" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A924" s="4" t="s">
+      <c r="A924" t="s">
         <v>801</v>
       </c>
-      <c r="B924" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C924" s="4" t="s">
+      <c r="B924" t="s">
+        <v>21</v>
+      </c>
+      <c r="C924" t="s">
         <v>787</v>
       </c>
-      <c r="D924" s="4" t="s">
+      <c r="D924" t="s">
         <v>34</v>
       </c>
-      <c r="E924" s="4" t="s">
+      <c r="E924" t="s">
         <v>788</v>
       </c>
-      <c r="F924" s="4" t="s">
+      <c r="F924" t="s">
         <v>789</v>
       </c>
-      <c r="G924" s="4" t="s">
+      <c r="G924" t="s">
         <v>35</v>
       </c>
-      <c r="H924" s="4" t="s">
+      <c r="H924" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A925" s="4" t="s">
+      <c r="A925" t="s">
         <v>760</v>
       </c>
-      <c r="B925" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C925" s="4" t="s">
+      <c r="B925" t="s">
+        <v>21</v>
+      </c>
+      <c r="C925" t="s">
         <v>668</v>
       </c>
-      <c r="D925" s="4" t="s">
+      <c r="D925" t="s">
         <v>118</v>
       </c>
-      <c r="E925" s="4" t="s">
+      <c r="E925" t="s">
         <v>737</v>
       </c>
-      <c r="F925" s="4" t="s">
+      <c r="F925" t="s">
         <v>738</v>
       </c>
-      <c r="G925" s="4" t="s">
+      <c r="G925" t="s">
         <v>671</v>
       </c>
-      <c r="H925" s="4" t="s">
+      <c r="H925" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A926" s="4" t="s">
+      <c r="A926" t="s">
         <v>840</v>
       </c>
-      <c r="B926" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C926" s="4" t="s">
+      <c r="B926" t="s">
+        <v>21</v>
+      </c>
+      <c r="C926" t="s">
         <v>821</v>
       </c>
-      <c r="D926" s="4" t="s">
+      <c r="D926" t="s">
         <v>118</v>
       </c>
-      <c r="E926" s="4" t="s">
+      <c r="E926" t="s">
         <v>822</v>
       </c>
-      <c r="F926" s="4" t="s">
+      <c r="F926" t="s">
         <v>823</v>
       </c>
-      <c r="G926" s="4" t="s">
+      <c r="G926" t="s">
         <v>35</v>
       </c>
-      <c r="H926" s="4" t="s">
+      <c r="H926" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A927" s="5" t="s">
+      <c r="A927" t="s">
         <v>996</v>
       </c>
-      <c r="B927" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C927" s="5" t="s">
+      <c r="B927" t="s">
+        <v>21</v>
+      </c>
+      <c r="C927" t="s">
         <v>434</v>
       </c>
-      <c r="D927" s="5" t="s">
+      <c r="D927" t="s">
         <v>23</v>
       </c>
-      <c r="E927" s="5" t="s">
+      <c r="E927" t="s">
         <v>997</v>
       </c>
-      <c r="F927" s="5" t="s">
+      <c r="F927" t="s">
         <v>998</v>
       </c>
-      <c r="G927" s="5" t="s">
+      <c r="G927" t="s">
         <v>24</v>
       </c>
-      <c r="H927" s="5" t="s">
+      <c r="H927" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A928" s="5" t="s">
+      <c r="A928" t="s">
         <v>999</v>
       </c>
-      <c r="B928" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C928" s="5" t="s">
+      <c r="B928" t="s">
+        <v>21</v>
+      </c>
+      <c r="C928" t="s">
         <v>444</v>
       </c>
-      <c r="D928" s="5" t="s">
+      <c r="D928" t="s">
         <v>23</v>
       </c>
-      <c r="E928" s="5" t="s">
+      <c r="E928" t="s">
         <v>1000</v>
       </c>
-      <c r="F928" s="5" t="s">
+      <c r="F928" t="s">
         <v>1001</v>
       </c>
-      <c r="G928" s="5" t="s">
+      <c r="G928" t="s">
         <v>247</v>
       </c>
-      <c r="H928" s="5" t="s">
+      <c r="H928" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A929" s="5" t="s">
+      <c r="A929" t="s">
         <v>803</v>
       </c>
-      <c r="B929" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C929" s="5" t="s">
+      <c r="B929" t="s">
+        <v>21</v>
+      </c>
+      <c r="C929" t="s">
         <v>793</v>
       </c>
-      <c r="D929" s="5" t="s">
+      <c r="D929" t="s">
         <v>107</v>
       </c>
-      <c r="E929" s="5" t="s">
+      <c r="E929" t="s">
         <v>794</v>
       </c>
-      <c r="F929" s="5" t="s">
+      <c r="F929" t="s">
         <v>795</v>
       </c>
-      <c r="G929" s="5" t="s">
+      <c r="G929" t="s">
         <v>172</v>
       </c>
-      <c r="H929" s="5" t="s">
+      <c r="H929" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A930" s="5" t="s">
+      <c r="A930" t="s">
         <v>1002</v>
       </c>
-      <c r="B930" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C930" s="5" t="s">
+      <c r="B930" t="s">
+        <v>21</v>
+      </c>
+      <c r="C930" t="s">
         <v>1003</v>
       </c>
-      <c r="D930" s="5" t="s">
+      <c r="D930" t="s">
         <v>107</v>
       </c>
-      <c r="E930" s="5" t="s">
+      <c r="E930" t="s">
         <v>1004</v>
       </c>
-      <c r="F930" s="5" t="s">
+      <c r="F930" t="s">
         <v>1005</v>
       </c>
-      <c r="G930" s="5" t="s">
+      <c r="G930" t="s">
         <v>35</v>
       </c>
-      <c r="H930" s="5" t="s">
+      <c r="H930" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A931" s="5" t="s">
+      <c r="A931" t="s">
         <v>407</v>
       </c>
-      <c r="B931" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C931" s="5" t="s">
+      <c r="B931" t="s">
+        <v>21</v>
+      </c>
+      <c r="C931" t="s">
         <v>408</v>
       </c>
-      <c r="D931" s="5" t="s">
+      <c r="D931" t="s">
         <v>43</v>
       </c>
-      <c r="E931" s="5" t="s">
+      <c r="E931" t="s">
         <v>1006</v>
       </c>
-      <c r="F931" s="5" t="s">
+      <c r="F931" t="s">
         <v>1007</v>
       </c>
-      <c r="G931" s="5" t="s">
+      <c r="G931" t="s">
         <v>468</v>
       </c>
-      <c r="H931" s="5" t="s">
+      <c r="H931" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A932" s="5" t="s">
+      <c r="A932" t="s">
         <v>1008</v>
       </c>
-      <c r="B932" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C932" s="5" t="s">
+      <c r="B932" t="s">
+        <v>21</v>
+      </c>
+      <c r="C932" t="s">
         <v>298</v>
       </c>
-      <c r="D932" s="5" t="s">
+      <c r="D932" t="s">
         <v>40</v>
       </c>
-      <c r="E932" s="5" t="s">
+      <c r="E932" t="s">
         <v>1009</v>
       </c>
-      <c r="F932" s="5" t="s">
+      <c r="F932" t="s">
         <v>1010</v>
       </c>
-      <c r="G932" s="5" t="s">
+      <c r="G932" t="s">
         <v>247</v>
       </c>
-      <c r="H932" s="5" t="s">
+      <c r="H932" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A933" s="5" t="s">
+      <c r="A933" t="s">
         <v>1011</v>
       </c>
-      <c r="B933" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C933" s="5" t="s">
+      <c r="B933" t="s">
+        <v>21</v>
+      </c>
+      <c r="C933" t="s">
         <v>274</v>
       </c>
-      <c r="D933" s="5" t="s">
+      <c r="D933" t="s">
         <v>98</v>
       </c>
-      <c r="E933" s="5" t="s">
+      <c r="E933" t="s">
         <v>1012</v>
       </c>
-      <c r="F933" s="5" t="s">
+      <c r="F933" t="s">
         <v>1013</v>
       </c>
-      <c r="G933" s="5" t="s">
+      <c r="G933" t="s">
         <v>176</v>
       </c>
-      <c r="H933" s="5" t="s">
+      <c r="H933" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A934" s="5" t="s">
+      <c r="A934" t="s">
         <v>1014</v>
       </c>
-      <c r="B934" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C934" s="5" t="s">
+      <c r="B934" t="s">
+        <v>21</v>
+      </c>
+      <c r="C934" t="s">
         <v>424</v>
       </c>
-      <c r="D934" s="5" t="s">
+      <c r="D934" t="s">
         <v>104</v>
       </c>
-      <c r="E934" s="5" t="s">
+      <c r="E934" t="s">
         <v>1015</v>
       </c>
-      <c r="F934" s="5" t="s">
+      <c r="F934" t="s">
         <v>1016</v>
       </c>
-      <c r="G934" s="5" t="s">
+      <c r="G934" t="s">
         <v>35</v>
       </c>
-      <c r="H934" s="5" t="s">
+      <c r="H934" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A935" s="5" t="s">
+      <c r="A935" t="s">
         <v>1017</v>
       </c>
-      <c r="B935" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C935" s="5" t="s">
+      <c r="B935" t="s">
+        <v>21</v>
+      </c>
+      <c r="C935" t="s">
         <v>112</v>
       </c>
-      <c r="D935" s="5" t="s">
+      <c r="D935" t="s">
         <v>110</v>
       </c>
-      <c r="E935" s="5" t="s">
+      <c r="E935" t="s">
         <v>1018</v>
       </c>
-      <c r="F935" s="5" t="s">
+      <c r="F935" t="s">
         <v>1019</v>
       </c>
-      <c r="G935" s="5" t="s">
+      <c r="G935" t="s">
         <v>172</v>
       </c>
-      <c r="H935" s="5" t="s">
+      <c r="H935" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A936" s="5" t="s">
+      <c r="A936" t="s">
         <v>1020</v>
       </c>
-      <c r="B936" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C936" s="5" t="s">
+      <c r="B936" t="s">
+        <v>21</v>
+      </c>
+      <c r="C936" t="s">
         <v>1021</v>
       </c>
-      <c r="D936" s="5" t="s">
+      <c r="D936" t="s">
         <v>115</v>
       </c>
-      <c r="E936" s="5" t="s">
+      <c r="E936" t="s">
         <v>1022</v>
       </c>
-      <c r="F936" s="5" t="s">
+      <c r="F936" t="s">
         <v>1023</v>
       </c>
-      <c r="G936" s="5" t="s">
+      <c r="G936" t="s">
         <v>74</v>
       </c>
-      <c r="H936" s="5" t="s">
+      <c r="H936" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A937" s="5" t="s">
+      <c r="A937" t="s">
         <v>1024</v>
       </c>
-      <c r="B937" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C937" s="5" t="s">
+      <c r="B937" t="s">
+        <v>21</v>
+      </c>
+      <c r="C937" t="s">
         <v>1025</v>
       </c>
-      <c r="D937" s="5" t="s">
+      <c r="D937" t="s">
         <v>219</v>
       </c>
-      <c r="E937" s="5" t="s">
+      <c r="E937" t="s">
         <v>1026</v>
       </c>
-      <c r="F937" s="5" t="s">
+      <c r="F937" t="s">
         <v>1027</v>
       </c>
-      <c r="G937" s="5" t="s">
+      <c r="G937" t="s">
         <v>71</v>
       </c>
-      <c r="H937" s="5" t="s">
+      <c r="H937" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A938" s="5" t="s">
+      <c r="A938" t="s">
         <v>1028</v>
       </c>
-      <c r="B938" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C938" s="5" t="s">
+      <c r="B938" t="s">
+        <v>21</v>
+      </c>
+      <c r="C938" t="s">
         <v>1029</v>
       </c>
-      <c r="D938" s="5" t="s">
+      <c r="D938" t="s">
         <v>1030</v>
       </c>
-      <c r="E938" s="5" t="s">
+      <c r="E938" t="s">
         <v>1031</v>
       </c>
-      <c r="F938" s="5" t="s">
+      <c r="F938" t="s">
         <v>1032</v>
       </c>
-      <c r="G938" s="5" t="s">
+      <c r="G938" t="s">
         <v>468</v>
       </c>
-      <c r="H938" s="5" t="s">
+      <c r="H938" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A939" s="5" t="s">
+      <c r="A939" t="s">
         <v>996</v>
       </c>
-      <c r="B939" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C939" s="5" t="s">
+      <c r="B939" t="s">
+        <v>21</v>
+      </c>
+      <c r="C939" t="s">
         <v>434</v>
       </c>
-      <c r="D939" s="5" t="s">
+      <c r="D939" t="s">
         <v>23</v>
       </c>
-      <c r="E939" s="5" t="s">
+      <c r="E939" t="s">
         <v>997</v>
       </c>
-      <c r="F939" s="5" t="s">
+      <c r="F939" t="s">
         <v>998</v>
       </c>
-      <c r="G939" s="5" t="s">
+      <c r="G939" t="s">
         <v>24</v>
       </c>
-      <c r="H939" s="5" t="s">
+      <c r="H939" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A940" s="5" t="s">
+      <c r="A940" t="s">
         <v>999</v>
       </c>
-      <c r="B940" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C940" s="5" t="s">
+      <c r="B940" t="s">
+        <v>21</v>
+      </c>
+      <c r="C940" t="s">
         <v>444</v>
       </c>
-      <c r="D940" s="5" t="s">
+      <c r="D940" t="s">
         <v>23</v>
       </c>
-      <c r="E940" s="5" t="s">
+      <c r="E940" t="s">
         <v>1000</v>
       </c>
-      <c r="F940" s="5" t="s">
+      <c r="F940" t="s">
         <v>1001</v>
       </c>
-      <c r="G940" s="5" t="s">
+      <c r="G940" t="s">
         <v>247</v>
       </c>
-      <c r="H940" s="5" t="s">
+      <c r="H940" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A941" s="5" t="s">
+      <c r="A941" t="s">
         <v>803</v>
       </c>
-      <c r="B941" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C941" s="5" t="s">
+      <c r="B941" t="s">
+        <v>21</v>
+      </c>
+      <c r="C941" t="s">
         <v>793</v>
       </c>
-      <c r="D941" s="5" t="s">
+      <c r="D941" t="s">
         <v>107</v>
       </c>
-      <c r="E941" s="5" t="s">
+      <c r="E941" t="s">
         <v>794</v>
       </c>
-      <c r="F941" s="5" t="s">
+      <c r="F941" t="s">
         <v>795</v>
       </c>
-      <c r="G941" s="5" t="s">
+      <c r="G941" t="s">
         <v>172</v>
       </c>
-      <c r="H941" s="5" t="s">
+      <c r="H941" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A942" s="5" t="s">
+      <c r="A942" t="s">
         <v>1002</v>
       </c>
-      <c r="B942" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C942" s="5" t="s">
+      <c r="B942" t="s">
+        <v>21</v>
+      </c>
+      <c r="C942" t="s">
         <v>1003</v>
       </c>
-      <c r="D942" s="5" t="s">
+      <c r="D942" t="s">
         <v>107</v>
       </c>
-      <c r="E942" s="5" t="s">
+      <c r="E942" t="s">
         <v>1004</v>
       </c>
-      <c r="F942" s="5" t="s">
+      <c r="F942" t="s">
         <v>1005</v>
       </c>
-      <c r="G942" s="5" t="s">
+      <c r="G942" t="s">
         <v>35</v>
       </c>
-      <c r="H942" s="5" t="s">
+      <c r="H942" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A943" s="5" t="s">
+      <c r="A943" t="s">
         <v>407</v>
       </c>
-      <c r="B943" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C943" s="5" t="s">
+      <c r="B943" t="s">
+        <v>21</v>
+      </c>
+      <c r="C943" t="s">
         <v>408</v>
       </c>
-      <c r="D943" s="5" t="s">
+      <c r="D943" t="s">
         <v>43</v>
       </c>
-      <c r="E943" s="5" t="s">
+      <c r="E943" t="s">
         <v>1006</v>
       </c>
-      <c r="F943" s="5" t="s">
+      <c r="F943" t="s">
         <v>1007</v>
       </c>
-      <c r="G943" s="5" t="s">
+      <c r="G943" t="s">
         <v>468</v>
       </c>
-      <c r="H943" s="5" t="s">
+      <c r="H943" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A944" s="5" t="s">
+      <c r="A944" t="s">
         <v>1008</v>
       </c>
-      <c r="B944" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C944" s="5" t="s">
+      <c r="B944" t="s">
+        <v>21</v>
+      </c>
+      <c r="C944" t="s">
         <v>298</v>
       </c>
-      <c r="D944" s="5" t="s">
+      <c r="D944" t="s">
         <v>40</v>
       </c>
-      <c r="E944" s="5" t="s">
+      <c r="E944" t="s">
         <v>1009</v>
       </c>
-      <c r="F944" s="5" t="s">
+      <c r="F944" t="s">
         <v>1010</v>
       </c>
-      <c r="G944" s="5" t="s">
+      <c r="G944" t="s">
         <v>247</v>
       </c>
-      <c r="H944" s="5" t="s">
+      <c r="H944" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A945" s="5" t="s">
+      <c r="A945" t="s">
         <v>1011</v>
       </c>
-      <c r="B945" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C945" s="5" t="s">
+      <c r="B945" t="s">
+        <v>21</v>
+      </c>
+      <c r="C945" t="s">
         <v>274</v>
       </c>
-      <c r="D945" s="5" t="s">
+      <c r="D945" t="s">
         <v>98</v>
       </c>
-      <c r="E945" s="5" t="s">
+      <c r="E945" t="s">
         <v>1012</v>
       </c>
-      <c r="F945" s="5" t="s">
+      <c r="F945" t="s">
         <v>1013</v>
       </c>
-      <c r="G945" s="5" t="s">
+      <c r="G945" t="s">
         <v>176</v>
       </c>
-      <c r="H945" s="5" t="s">
+      <c r="H945" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A946" s="5" t="s">
+      <c r="A946" t="s">
         <v>1014</v>
       </c>
-      <c r="B946" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C946" s="5" t="s">
+      <c r="B946" t="s">
+        <v>21</v>
+      </c>
+      <c r="C946" t="s">
         <v>424</v>
       </c>
-      <c r="D946" s="5" t="s">
+      <c r="D946" t="s">
         <v>104</v>
       </c>
-      <c r="E946" s="5" t="s">
+      <c r="E946" t="s">
         <v>1015</v>
       </c>
-      <c r="F946" s="5" t="s">
+      <c r="F946" t="s">
         <v>1016</v>
       </c>
-      <c r="G946" s="5" t="s">
+      <c r="G946" t="s">
         <v>35</v>
       </c>
-      <c r="H946" s="5" t="s">
+      <c r="H946" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A947" s="5" t="s">
+      <c r="A947" t="s">
         <v>1017</v>
       </c>
-      <c r="B947" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C947" s="5" t="s">
+      <c r="B947" t="s">
+        <v>21</v>
+      </c>
+      <c r="C947" t="s">
         <v>112</v>
       </c>
-      <c r="D947" s="5" t="s">
+      <c r="D947" t="s">
         <v>110</v>
       </c>
-      <c r="E947" s="5" t="s">
+      <c r="E947" t="s">
         <v>1018</v>
       </c>
-      <c r="F947" s="5" t="s">
+      <c r="F947" t="s">
         <v>1019</v>
       </c>
-      <c r="G947" s="5" t="s">
+      <c r="G947" t="s">
         <v>172</v>
       </c>
-      <c r="H947" s="5" t="s">
+      <c r="H947" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A948" s="5" t="s">
+      <c r="A948" t="s">
         <v>1020</v>
       </c>
-      <c r="B948" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C948" s="5" t="s">
+      <c r="B948" t="s">
+        <v>21</v>
+      </c>
+      <c r="C948" t="s">
         <v>1021</v>
       </c>
-      <c r="D948" s="5" t="s">
+      <c r="D948" t="s">
         <v>115</v>
       </c>
-      <c r="E948" s="5" t="s">
+      <c r="E948" t="s">
         <v>1022</v>
       </c>
-      <c r="F948" s="5" t="s">
+      <c r="F948" t="s">
         <v>1023</v>
       </c>
-      <c r="G948" s="5" t="s">
+      <c r="G948" t="s">
         <v>74</v>
       </c>
-      <c r="H948" s="5" t="s">
+      <c r="H948" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A949" s="5" t="s">
+      <c r="A949" t="s">
         <v>1024</v>
       </c>
-      <c r="B949" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C949" s="5" t="s">
+      <c r="B949" t="s">
+        <v>21</v>
+      </c>
+      <c r="C949" t="s">
         <v>1025</v>
       </c>
-      <c r="D949" s="5" t="s">
+      <c r="D949" t="s">
         <v>219</v>
       </c>
-      <c r="E949" s="5" t="s">
+      <c r="E949" t="s">
         <v>1026</v>
       </c>
-      <c r="F949" s="5" t="s">
+      <c r="F949" t="s">
         <v>1027</v>
       </c>
-      <c r="G949" s="5" t="s">
+      <c r="G949" t="s">
         <v>71</v>
       </c>
-      <c r="H949" s="5" t="s">
+      <c r="H949" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A950" s="5" t="s">
+      <c r="A950" t="s">
         <v>1028</v>
       </c>
-      <c r="B950" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C950" s="5" t="s">
+      <c r="B950" t="s">
+        <v>21</v>
+      </c>
+      <c r="C950" t="s">
         <v>1029</v>
       </c>
-      <c r="D950" s="5" t="s">
+      <c r="D950" t="s">
         <v>1030</v>
       </c>
-      <c r="E950" s="5" t="s">
+      <c r="E950" t="s">
         <v>1031</v>
       </c>
-      <c r="F950" s="5" t="s">
+      <c r="F950" t="s">
         <v>1032</v>
       </c>
-      <c r="G950" s="5" t="s">
+      <c r="G950" t="s">
         <v>468</v>
       </c>
-      <c r="H950" s="5" t="s">
+      <c r="H950" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A951" s="5" t="s">
+      <c r="A951" t="s">
         <v>996</v>
       </c>
-      <c r="B951" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C951" s="5" t="s">
+      <c r="B951" t="s">
+        <v>21</v>
+      </c>
+      <c r="C951" t="s">
         <v>434</v>
       </c>
-      <c r="D951" s="5" t="s">
+      <c r="D951" t="s">
         <v>23</v>
       </c>
-      <c r="E951" s="5" t="s">
+      <c r="E951" t="s">
         <v>997</v>
       </c>
-      <c r="F951" s="5" t="s">
+      <c r="F951" t="s">
         <v>998</v>
       </c>
-      <c r="G951" s="5" t="s">
+      <c r="G951" t="s">
         <v>24</v>
       </c>
-      <c r="H951" s="5" t="s">
+      <c r="H951" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A952" s="5" t="s">
+      <c r="A952" t="s">
         <v>999</v>
       </c>
-      <c r="B952" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C952" s="5" t="s">
+      <c r="B952" t="s">
+        <v>21</v>
+      </c>
+      <c r="C952" t="s">
         <v>444</v>
       </c>
-      <c r="D952" s="5" t="s">
+      <c r="D952" t="s">
         <v>23</v>
       </c>
-      <c r="E952" s="5" t="s">
+      <c r="E952" t="s">
         <v>1000</v>
       </c>
-      <c r="F952" s="5" t="s">
+      <c r="F952" t="s">
         <v>1001</v>
       </c>
-      <c r="G952" s="5" t="s">
+      <c r="G952" t="s">
         <v>247</v>
       </c>
-      <c r="H952" s="5" t="s">
+      <c r="H952" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A953" s="5" t="s">
+      <c r="A953" t="s">
         <v>803</v>
       </c>
-      <c r="B953" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C953" s="5" t="s">
+      <c r="B953" t="s">
+        <v>21</v>
+      </c>
+      <c r="C953" t="s">
         <v>793</v>
       </c>
-      <c r="D953" s="5" t="s">
+      <c r="D953" t="s">
         <v>107</v>
       </c>
-      <c r="E953" s="5" t="s">
+      <c r="E953" t="s">
         <v>794</v>
       </c>
-      <c r="F953" s="5" t="s">
+      <c r="F953" t="s">
         <v>795</v>
       </c>
-      <c r="G953" s="5" t="s">
+      <c r="G953" t="s">
         <v>172</v>
       </c>
-      <c r="H953" s="5" t="s">
+      <c r="H953" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A954" s="5" t="s">
+      <c r="A954" t="s">
         <v>1002</v>
       </c>
-      <c r="B954" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C954" s="5" t="s">
+      <c r="B954" t="s">
+        <v>21</v>
+      </c>
+      <c r="C954" t="s">
         <v>1003</v>
       </c>
-      <c r="D954" s="5" t="s">
+      <c r="D954" t="s">
         <v>107</v>
       </c>
-      <c r="E954" s="5" t="s">
+      <c r="E954" t="s">
         <v>1004</v>
       </c>
-      <c r="F954" s="5" t="s">
+      <c r="F954" t="s">
         <v>1005</v>
       </c>
-      <c r="G954" s="5" t="s">
+      <c r="G954" t="s">
         <v>35</v>
       </c>
-      <c r="H954" s="5" t="s">
+      <c r="H954" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A955" s="5" t="s">
+      <c r="A955" t="s">
         <v>407</v>
       </c>
-      <c r="B955" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C955" s="5" t="s">
+      <c r="B955" t="s">
+        <v>21</v>
+      </c>
+      <c r="C955" t="s">
         <v>408</v>
       </c>
-      <c r="D955" s="5" t="s">
+      <c r="D955" t="s">
         <v>43</v>
       </c>
-      <c r="E955" s="5" t="s">
+      <c r="E955" t="s">
         <v>1006</v>
       </c>
-      <c r="F955" s="5" t="s">
+      <c r="F955" t="s">
         <v>1007</v>
       </c>
-      <c r="G955" s="5" t="s">
+      <c r="G955" t="s">
         <v>468</v>
       </c>
-      <c r="H955" s="5" t="s">
+      <c r="H955" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A956" s="5" t="s">
+      <c r="A956" t="s">
         <v>1008</v>
       </c>
-      <c r="B956" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C956" s="5" t="s">
+      <c r="B956" t="s">
+        <v>21</v>
+      </c>
+      <c r="C956" t="s">
         <v>298</v>
       </c>
-      <c r="D956" s="5" t="s">
+      <c r="D956" t="s">
         <v>40</v>
       </c>
-      <c r="E956" s="5" t="s">
+      <c r="E956" t="s">
         <v>1009</v>
       </c>
-      <c r="F956" s="5" t="s">
+      <c r="F956" t="s">
         <v>1010</v>
       </c>
-      <c r="G956" s="5" t="s">
+      <c r="G956" t="s">
         <v>247</v>
       </c>
-      <c r="H956" s="5" t="s">
+      <c r="H956" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A957" s="5" t="s">
+      <c r="A957" t="s">
         <v>1011</v>
       </c>
-      <c r="B957" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C957" s="5" t="s">
+      <c r="B957" t="s">
+        <v>21</v>
+      </c>
+      <c r="C957" t="s">
         <v>274</v>
       </c>
-      <c r="D957" s="5" t="s">
+      <c r="D957" t="s">
         <v>98</v>
       </c>
-      <c r="E957" s="5" t="s">
+      <c r="E957" t="s">
         <v>1012</v>
       </c>
-      <c r="F957" s="5" t="s">
+      <c r="F957" t="s">
         <v>1013</v>
       </c>
-      <c r="G957" s="5" t="s">
+      <c r="G957" t="s">
         <v>176</v>
       </c>
-      <c r="H957" s="5" t="s">
+      <c r="H957" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A958" s="5" t="s">
+      <c r="A958" t="s">
         <v>1014</v>
       </c>
-      <c r="B958" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C958" s="5" t="s">
+      <c r="B958" t="s">
+        <v>21</v>
+      </c>
+      <c r="C958" t="s">
         <v>424</v>
       </c>
-      <c r="D958" s="5" t="s">
+      <c r="D958" t="s">
         <v>104</v>
       </c>
-      <c r="E958" s="5" t="s">
+      <c r="E958" t="s">
         <v>1015</v>
       </c>
-      <c r="F958" s="5" t="s">
+      <c r="F958" t="s">
         <v>1016</v>
       </c>
-      <c r="G958" s="5" t="s">
+      <c r="G958" t="s">
         <v>35</v>
       </c>
-      <c r="H958" s="5" t="s">
+      <c r="H958" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A959" s="5" t="s">
+      <c r="A959" t="s">
         <v>1017</v>
       </c>
-      <c r="B959" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C959" s="5" t="s">
+      <c r="B959" t="s">
+        <v>21</v>
+      </c>
+      <c r="C959" t="s">
         <v>112</v>
       </c>
-      <c r="D959" s="5" t="s">
+      <c r="D959" t="s">
         <v>110</v>
       </c>
-      <c r="E959" s="5" t="s">
+      <c r="E959" t="s">
         <v>1018</v>
       </c>
-      <c r="F959" s="5" t="s">
+      <c r="F959" t="s">
         <v>1019</v>
       </c>
-      <c r="G959" s="5" t="s">
+      <c r="G959" t="s">
         <v>172</v>
       </c>
-      <c r="H959" s="5" t="s">
+      <c r="H959" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A960" s="5" t="s">
+      <c r="A960" t="s">
         <v>1020</v>
       </c>
-      <c r="B960" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C960" s="5" t="s">
+      <c r="B960" t="s">
+        <v>21</v>
+      </c>
+      <c r="C960" t="s">
         <v>1021</v>
       </c>
-      <c r="D960" s="5" t="s">
+      <c r="D960" t="s">
         <v>115</v>
       </c>
-      <c r="E960" s="5" t="s">
+      <c r="E960" t="s">
         <v>1022</v>
       </c>
-      <c r="F960" s="5" t="s">
+      <c r="F960" t="s">
         <v>1023</v>
       </c>
-      <c r="G960" s="5" t="s">
+      <c r="G960" t="s">
         <v>74</v>
       </c>
-      <c r="H960" s="5" t="s">
+      <c r="H960" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A961" s="5" t="s">
+      <c r="A961" t="s">
         <v>1024</v>
       </c>
-      <c r="B961" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C961" s="5" t="s">
+      <c r="B961" t="s">
+        <v>21</v>
+      </c>
+      <c r="C961" t="s">
         <v>1025</v>
       </c>
-      <c r="D961" s="5" t="s">
+      <c r="D961" t="s">
         <v>219</v>
       </c>
-      <c r="E961" s="5" t="s">
+      <c r="E961" t="s">
         <v>1026</v>
       </c>
-      <c r="F961" s="5" t="s">
+      <c r="F961" t="s">
         <v>1027</v>
       </c>
-      <c r="G961" s="5" t="s">
+      <c r="G961" t="s">
         <v>71</v>
       </c>
-      <c r="H961" s="5" t="s">
+      <c r="H961" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A962" s="5" t="s">
+      <c r="A962" t="s">
         <v>1028</v>
       </c>
-      <c r="B962" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C962" s="5" t="s">
+      <c r="B962" t="s">
+        <v>21</v>
+      </c>
+      <c r="C962" t="s">
         <v>1029</v>
       </c>
-      <c r="D962" s="5" t="s">
+      <c r="D962" t="s">
         <v>1030</v>
       </c>
-      <c r="E962" s="5" t="s">
+      <c r="E962" t="s">
         <v>1031</v>
       </c>
-      <c r="F962" s="5" t="s">
+      <c r="F962" t="s">
         <v>1032</v>
       </c>
-      <c r="G962" s="5" t="s">
+      <c r="G962" t="s">
         <v>468</v>
       </c>
-      <c r="H962" s="5" t="s">
+      <c r="H962" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A963" s="5" t="s">
+      <c r="A963" t="s">
         <v>996</v>
       </c>
-      <c r="B963" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C963" s="5" t="s">
+      <c r="B963" t="s">
+        <v>21</v>
+      </c>
+      <c r="C963" t="s">
         <v>434</v>
       </c>
-      <c r="D963" s="5" t="s">
+      <c r="D963" t="s">
         <v>23</v>
       </c>
-      <c r="E963" s="5" t="s">
+      <c r="E963" t="s">
         <v>997</v>
       </c>
-      <c r="F963" s="5" t="s">
+      <c r="F963" t="s">
         <v>998</v>
       </c>
-      <c r="G963" s="5" t="s">
+      <c r="G963" t="s">
         <v>24</v>
       </c>
-      <c r="H963" s="5" t="s">
+      <c r="H963" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A964" s="5" t="s">
+      <c r="A964" t="s">
         <v>999</v>
       </c>
-      <c r="B964" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C964" s="5" t="s">
+      <c r="B964" t="s">
+        <v>21</v>
+      </c>
+      <c r="C964" t="s">
         <v>444</v>
       </c>
-      <c r="D964" s="5" t="s">
+      <c r="D964" t="s">
         <v>23</v>
       </c>
-      <c r="E964" s="5" t="s">
+      <c r="E964" t="s">
         <v>1000</v>
       </c>
-      <c r="F964" s="5" t="s">
+      <c r="F964" t="s">
         <v>1001</v>
       </c>
-      <c r="G964" s="5" t="s">
+      <c r="G964" t="s">
         <v>247</v>
       </c>
-      <c r="H964" s="5" t="s">
+      <c r="H964" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A965" s="5" t="s">
+      <c r="A965" t="s">
         <v>803</v>
       </c>
-      <c r="B965" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C965" s="5" t="s">
+      <c r="B965" t="s">
+        <v>21</v>
+      </c>
+      <c r="C965" t="s">
         <v>793</v>
       </c>
-      <c r="D965" s="5" t="s">
+      <c r="D965" t="s">
         <v>107</v>
       </c>
-      <c r="E965" s="5" t="s">
+      <c r="E965" t="s">
         <v>794</v>
       </c>
-      <c r="F965" s="5" t="s">
+      <c r="F965" t="s">
         <v>795</v>
       </c>
-      <c r="G965" s="5" t="s">
+      <c r="G965" t="s">
         <v>172</v>
       </c>
-      <c r="H965" s="5" t="s">
+      <c r="H965" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="966" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A966" s="5" t="s">
+      <c r="A966" t="s">
         <v>1002</v>
       </c>
-      <c r="B966" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C966" s="5" t="s">
+      <c r="B966" t="s">
+        <v>21</v>
+      </c>
+      <c r="C966" t="s">
         <v>1003</v>
       </c>
-      <c r="D966" s="5" t="s">
+      <c r="D966" t="s">
         <v>107</v>
       </c>
-      <c r="E966" s="5" t="s">
+      <c r="E966" t="s">
         <v>1004</v>
       </c>
-      <c r="F966" s="5" t="s">
+      <c r="F966" t="s">
         <v>1005</v>
       </c>
-      <c r="G966" s="5" t="s">
+      <c r="G966" t="s">
         <v>35</v>
       </c>
-      <c r="H966" s="5" t="s">
+      <c r="H966" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A967" s="5" t="s">
+      <c r="A967" t="s">
         <v>407</v>
       </c>
-      <c r="B967" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C967" s="5" t="s">
+      <c r="B967" t="s">
+        <v>21</v>
+      </c>
+      <c r="C967" t="s">
         <v>408</v>
       </c>
-      <c r="D967" s="5" t="s">
+      <c r="D967" t="s">
         <v>43</v>
       </c>
-      <c r="E967" s="5" t="s">
+      <c r="E967" t="s">
         <v>1006</v>
       </c>
-      <c r="F967" s="5" t="s">
+      <c r="F967" t="s">
         <v>1007</v>
       </c>
-      <c r="G967" s="5" t="s">
+      <c r="G967" t="s">
         <v>468</v>
       </c>
-      <c r="H967" s="5" t="s">
+      <c r="H967" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A968" s="5" t="s">
+      <c r="A968" t="s">
         <v>1008</v>
       </c>
-      <c r="B968" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C968" s="5" t="s">
+      <c r="B968" t="s">
+        <v>21</v>
+      </c>
+      <c r="C968" t="s">
         <v>298</v>
       </c>
-      <c r="D968" s="5" t="s">
+      <c r="D968" t="s">
         <v>40</v>
       </c>
-      <c r="E968" s="5" t="s">
+      <c r="E968" t="s">
         <v>1009</v>
       </c>
-      <c r="F968" s="5" t="s">
+      <c r="F968" t="s">
         <v>1010</v>
       </c>
-      <c r="G968" s="5" t="s">
+      <c r="G968" t="s">
         <v>247</v>
       </c>
-      <c r="H968" s="5" t="s">
+      <c r="H968" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A969" s="5" t="s">
+      <c r="A969" t="s">
         <v>1011</v>
       </c>
-      <c r="B969" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C969" s="5" t="s">
+      <c r="B969" t="s">
+        <v>21</v>
+      </c>
+      <c r="C969" t="s">
         <v>274</v>
       </c>
-      <c r="D969" s="5" t="s">
+      <c r="D969" t="s">
         <v>98</v>
       </c>
-      <c r="E969" s="5" t="s">
+      <c r="E969" t="s">
         <v>1012</v>
       </c>
-      <c r="F969" s="5" t="s">
+      <c r="F969" t="s">
         <v>1013</v>
       </c>
-      <c r="G969" s="5" t="s">
+      <c r="G969" t="s">
         <v>176</v>
       </c>
-      <c r="H969" s="5" t="s">
+      <c r="H969" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A970" s="5" t="s">
+      <c r="A970" t="s">
         <v>1014</v>
       </c>
-      <c r="B970" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C970" s="5" t="s">
+      <c r="B970" t="s">
+        <v>21</v>
+      </c>
+      <c r="C970" t="s">
         <v>424</v>
       </c>
-      <c r="D970" s="5" t="s">
+      <c r="D970" t="s">
         <v>104</v>
       </c>
-      <c r="E970" s="5" t="s">
+      <c r="E970" t="s">
         <v>1015</v>
       </c>
-      <c r="F970" s="5" t="s">
+      <c r="F970" t="s">
         <v>1016</v>
       </c>
-      <c r="G970" s="5" t="s">
+      <c r="G970" t="s">
         <v>35</v>
       </c>
-      <c r="H970" s="5" t="s">
+      <c r="H970" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A971" s="5" t="s">
+      <c r="A971" t="s">
         <v>1017</v>
       </c>
-      <c r="B971" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C971" s="5" t="s">
+      <c r="B971" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" t="s">
         <v>112</v>
       </c>
-      <c r="D971" s="5" t="s">
+      <c r="D971" t="s">
         <v>110</v>
       </c>
-      <c r="E971" s="5" t="s">
+      <c r="E971" t="s">
         <v>1018</v>
       </c>
-      <c r="F971" s="5" t="s">
+      <c r="F971" t="s">
         <v>1019</v>
       </c>
-      <c r="G971" s="5" t="s">
+      <c r="G971" t="s">
         <v>172</v>
       </c>
-      <c r="H971" s="5" t="s">
+      <c r="H971" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A972" s="5" t="s">
+      <c r="A972" t="s">
         <v>1020</v>
       </c>
-      <c r="B972" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C972" s="5" t="s">
+      <c r="B972" t="s">
+        <v>21</v>
+      </c>
+      <c r="C972" t="s">
         <v>1021</v>
       </c>
-      <c r="D972" s="5" t="s">
+      <c r="D972" t="s">
         <v>115</v>
       </c>
-      <c r="E972" s="5" t="s">
+      <c r="E972" t="s">
         <v>1022</v>
       </c>
-      <c r="F972" s="5" t="s">
+      <c r="F972" t="s">
         <v>1023</v>
       </c>
-      <c r="G972" s="5" t="s">
+      <c r="G972" t="s">
         <v>74</v>
       </c>
-      <c r="H972" s="5" t="s">
+      <c r="H972" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="973" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A973" s="5" t="s">
+      <c r="A973" t="s">
         <v>1024</v>
       </c>
-      <c r="B973" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C973" s="5" t="s">
+      <c r="B973" t="s">
+        <v>21</v>
+      </c>
+      <c r="C973" t="s">
         <v>1025</v>
       </c>
-      <c r="D973" s="5" t="s">
+      <c r="D973" t="s">
         <v>219</v>
       </c>
-      <c r="E973" s="5" t="s">
+      <c r="E973" t="s">
         <v>1026</v>
       </c>
-      <c r="F973" s="5" t="s">
+      <c r="F973" t="s">
         <v>1027</v>
       </c>
-      <c r="G973" s="5" t="s">
+      <c r="G973" t="s">
         <v>71</v>
       </c>
-      <c r="H973" s="5" t="s">
+      <c r="H973" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A974" s="5" t="s">
+      <c r="A974" t="s">
         <v>1028</v>
       </c>
-      <c r="B974" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C974" s="5" t="s">
+      <c r="B974" t="s">
+        <v>21</v>
+      </c>
+      <c r="C974" t="s">
         <v>1029</v>
       </c>
-      <c r="D974" s="5" t="s">
+      <c r="D974" t="s">
         <v>1030</v>
       </c>
-      <c r="E974" s="5" t="s">
+      <c r="E974" t="s">
         <v>1031</v>
       </c>
-      <c r="F974" s="5" t="s">
+      <c r="F974" t="s">
         <v>1032</v>
       </c>
-      <c r="G974" s="5" t="s">
+      <c r="G974" t="s">
         <v>468</v>
       </c>
-      <c r="H974" s="5" t="s">
+      <c r="H974" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="975" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A975" s="5" t="s">
+      <c r="A975" t="s">
         <v>996</v>
       </c>
-      <c r="B975" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C975" s="5" t="s">
+      <c r="B975" t="s">
+        <v>21</v>
+      </c>
+      <c r="C975" t="s">
         <v>434</v>
       </c>
-      <c r="D975" s="5" t="s">
+      <c r="D975" t="s">
         <v>23</v>
       </c>
-      <c r="E975" s="5" t="s">
+      <c r="E975" t="s">
         <v>997</v>
       </c>
-      <c r="F975" s="5" t="s">
+      <c r="F975" t="s">
         <v>998</v>
       </c>
-      <c r="G975" s="5" t="s">
+      <c r="G975" t="s">
         <v>24</v>
       </c>
-      <c r="H975" s="5" t="s">
+      <c r="H975" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="976" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A976" s="5" t="s">
+      <c r="A976" t="s">
         <v>999</v>
       </c>
-      <c r="B976" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C976" s="5" t="s">
+      <c r="B976" t="s">
+        <v>21</v>
+      </c>
+      <c r="C976" t="s">
         <v>444</v>
       </c>
-      <c r="D976" s="5" t="s">
+      <c r="D976" t="s">
         <v>23</v>
       </c>
-      <c r="E976" s="5" t="s">
+      <c r="E976" t="s">
         <v>1000</v>
       </c>
-      <c r="F976" s="5" t="s">
+      <c r="F976" t="s">
         <v>1001</v>
       </c>
-      <c r="G976" s="5" t="s">
+      <c r="G976" t="s">
         <v>247</v>
       </c>
-      <c r="H976" s="5" t="s">
+      <c r="H976" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A977" s="5" t="s">
+      <c r="A977" t="s">
         <v>803</v>
       </c>
-      <c r="B977" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C977" s="5" t="s">
+      <c r="B977" t="s">
+        <v>21</v>
+      </c>
+      <c r="C977" t="s">
         <v>793</v>
       </c>
-      <c r="D977" s="5" t="s">
+      <c r="D977" t="s">
         <v>107</v>
       </c>
-      <c r="E977" s="5" t="s">
+      <c r="E977" t="s">
         <v>794</v>
       </c>
-      <c r="F977" s="5" t="s">
+      <c r="F977" t="s">
         <v>795</v>
       </c>
-      <c r="G977" s="5" t="s">
+      <c r="G977" t="s">
         <v>172</v>
       </c>
-      <c r="H977" s="5" t="s">
+      <c r="H977" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A978" s="5" t="s">
+      <c r="A978" t="s">
         <v>1002</v>
       </c>
-      <c r="B978" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C978" s="5" t="s">
+      <c r="B978" t="s">
+        <v>21</v>
+      </c>
+      <c r="C978" t="s">
         <v>1003</v>
       </c>
-      <c r="D978" s="5" t="s">
+      <c r="D978" t="s">
         <v>107</v>
       </c>
-      <c r="E978" s="5" t="s">
+      <c r="E978" t="s">
         <v>1004</v>
       </c>
-      <c r="F978" s="5" t="s">
+      <c r="F978" t="s">
         <v>1005</v>
       </c>
-      <c r="G978" s="5" t="s">
+      <c r="G978" t="s">
         <v>35</v>
       </c>
-      <c r="H978" s="5" t="s">
+      <c r="H978" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A979" s="5" t="s">
+      <c r="A979" t="s">
         <v>407</v>
       </c>
-      <c r="B979" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C979" s="5" t="s">
+      <c r="B979" t="s">
+        <v>21</v>
+      </c>
+      <c r="C979" t="s">
         <v>408</v>
       </c>
-      <c r="D979" s="5" t="s">
+      <c r="D979" t="s">
         <v>43</v>
       </c>
-      <c r="E979" s="5" t="s">
+      <c r="E979" t="s">
         <v>1006</v>
       </c>
-      <c r="F979" s="5" t="s">
+      <c r="F979" t="s">
         <v>1007</v>
       </c>
-      <c r="G979" s="5" t="s">
+      <c r="G979" t="s">
         <v>468</v>
       </c>
-      <c r="H979" s="5" t="s">
+      <c r="H979" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A980" s="5" t="s">
+      <c r="A980" t="s">
         <v>1008</v>
       </c>
-      <c r="B980" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C980" s="5" t="s">
+      <c r="B980" t="s">
+        <v>21</v>
+      </c>
+      <c r="C980" t="s">
         <v>298</v>
       </c>
-      <c r="D980" s="5" t="s">
+      <c r="D980" t="s">
         <v>40</v>
       </c>
-      <c r="E980" s="5" t="s">
+      <c r="E980" t="s">
         <v>1009</v>
       </c>
-      <c r="F980" s="5" t="s">
+      <c r="F980" t="s">
         <v>1010</v>
       </c>
-      <c r="G980" s="5" t="s">
+      <c r="G980" t="s">
         <v>247</v>
       </c>
-      <c r="H980" s="5" t="s">
+      <c r="H980" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A981" s="5" t="s">
+      <c r="A981" t="s">
         <v>1011</v>
       </c>
-      <c r="B981" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C981" s="5" t="s">
+      <c r="B981" t="s">
+        <v>21</v>
+      </c>
+      <c r="C981" t="s">
         <v>274</v>
       </c>
-      <c r="D981" s="5" t="s">
+      <c r="D981" t="s">
         <v>98</v>
       </c>
-      <c r="E981" s="5" t="s">
+      <c r="E981" t="s">
         <v>1012</v>
       </c>
-      <c r="F981" s="5" t="s">
+      <c r="F981" t="s">
         <v>1013</v>
       </c>
-      <c r="G981" s="5" t="s">
+      <c r="G981" t="s">
         <v>176</v>
       </c>
-      <c r="H981" s="5" t="s">
+      <c r="H981" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A982" s="5" t="s">
+      <c r="A982" t="s">
         <v>1014</v>
       </c>
-      <c r="B982" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C982" s="5" t="s">
+      <c r="B982" t="s">
+        <v>21</v>
+      </c>
+      <c r="C982" t="s">
         <v>424</v>
       </c>
-      <c r="D982" s="5" t="s">
+      <c r="D982" t="s">
         <v>104</v>
       </c>
-      <c r="E982" s="5" t="s">
+      <c r="E982" t="s">
         <v>1015</v>
       </c>
-      <c r="F982" s="5" t="s">
+      <c r="F982" t="s">
         <v>1016</v>
       </c>
-      <c r="G982" s="5" t="s">
+      <c r="G982" t="s">
         <v>35</v>
       </c>
-      <c r="H982" s="5" t="s">
+      <c r="H982" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A983" s="5" t="s">
+      <c r="A983" t="s">
         <v>1017</v>
       </c>
-      <c r="B983" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C983" s="5" t="s">
+      <c r="B983" t="s">
+        <v>21</v>
+      </c>
+      <c r="C983" t="s">
         <v>112</v>
       </c>
-      <c r="D983" s="5" t="s">
+      <c r="D983" t="s">
         <v>110</v>
       </c>
-      <c r="E983" s="5" t="s">
+      <c r="E983" t="s">
         <v>1018</v>
       </c>
-      <c r="F983" s="5" t="s">
+      <c r="F983" t="s">
         <v>1019</v>
       </c>
-      <c r="G983" s="5" t="s">
+      <c r="G983" t="s">
         <v>172</v>
       </c>
-      <c r="H983" s="5" t="s">
+      <c r="H983" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A984" s="5" t="s">
+      <c r="A984" t="s">
         <v>1020</v>
       </c>
-      <c r="B984" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C984" s="5" t="s">
+      <c r="B984" t="s">
+        <v>21</v>
+      </c>
+      <c r="C984" t="s">
         <v>1021</v>
       </c>
-      <c r="D984" s="5" t="s">
+      <c r="D984" t="s">
         <v>115</v>
       </c>
-      <c r="E984" s="5" t="s">
+      <c r="E984" t="s">
         <v>1022</v>
       </c>
-      <c r="F984" s="5" t="s">
+      <c r="F984" t="s">
         <v>1023</v>
       </c>
-      <c r="G984" s="5" t="s">
+      <c r="G984" t="s">
         <v>74</v>
       </c>
-      <c r="H984" s="5" t="s">
+      <c r="H984" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A985" s="5" t="s">
+      <c r="A985" t="s">
         <v>1024</v>
       </c>
-      <c r="B985" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C985" s="5" t="s">
+      <c r="B985" t="s">
+        <v>21</v>
+      </c>
+      <c r="C985" t="s">
         <v>1025</v>
       </c>
-      <c r="D985" s="5" t="s">
+      <c r="D985" t="s">
         <v>219</v>
       </c>
-      <c r="E985" s="5" t="s">
+      <c r="E985" t="s">
         <v>1026</v>
       </c>
-      <c r="F985" s="5" t="s">
+      <c r="F985" t="s">
         <v>1027</v>
       </c>
-      <c r="G985" s="5" t="s">
+      <c r="G985" t="s">
         <v>71</v>
       </c>
-      <c r="H985" s="5" t="s">
+      <c r="H985" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A986" s="5" t="s">
+      <c r="A986" t="s">
         <v>1028</v>
       </c>
-      <c r="B986" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C986" s="5" t="s">
+      <c r="B986" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" t="s">
         <v>1029</v>
       </c>
-      <c r="D986" s="5" t="s">
+      <c r="D986" t="s">
         <v>1030</v>
       </c>
-      <c r="E986" s="5" t="s">
+      <c r="E986" t="s">
         <v>1031</v>
       </c>
-      <c r="F986" s="5" t="s">
+      <c r="F986" t="s">
         <v>1032</v>
       </c>
-      <c r="G986" s="5" t="s">
+      <c r="G986" t="s">
         <v>468</v>
       </c>
-      <c r="H986" s="5" t="s">
+      <c r="H986" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B987" t="s">
+        <v>8</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D987" t="s">
+        <v>135</v>
+      </c>
+      <c r="E987">
+        <v>-3.71</v>
+      </c>
+      <c r="F987">
+        <v>-38.470999999999997</v>
+      </c>
+      <c r="G987" t="s">
+        <v>35</v>
+      </c>
+      <c r="H987" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/facilities.xlsx
+++ b/facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccast\oilseed-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA06A7-3F15-455E-A63B-EC33D01B1D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFA3B27-62DB-414D-A127-44AAF65D80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="2505" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
+    <workbookView xWindow="33975" yWindow="2070" windowWidth="21585" windowHeight="11295" xr2:uid="{1A3563DE-003F-4EC8-BCC5-AF5B23088479}"/>
   </bookViews>
   <sheets>
     <sheet name="facilities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6825" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="1038">
   <si>
     <t>Name</t>
   </si>
@@ -3141,6 +3141,15 @@
   </si>
   <si>
     <t>M. Dias Branco</t>
+  </si>
+  <si>
+    <t>OLEOQUÍMICA INDÚSTRIA E COMÉRCIO DE PRODUTOS QUÍMICOS LTD</t>
+  </si>
+  <si>
+    <t>Aratu</t>
+  </si>
+  <si>
+    <t>CPKO</t>
   </si>
 </sst>
 </file>
@@ -4013,11 +4022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
-  <dimension ref="A1:H987"/>
+  <dimension ref="A1:H988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A986" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G987" sqref="G987"/>
+      <selection pane="bottomLeft" activeCell="G988" sqref="G988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29694,6 +29703,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B988" t="s">
+        <v>8</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D988" t="s">
+        <v>135</v>
+      </c>
+      <c r="E988">
+        <v>-12.651</v>
+      </c>
+      <c r="F988">
+        <v>-38.33</v>
+      </c>
+      <c r="G988" t="s">
+        <v>71</v>
+      </c>
+      <c r="H988" t="s">
+        <v>1037</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H355" xr:uid="{E413F4BB-35A9-4374-A233-1C5C8BEABABF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H355">
